--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16363A10-A6D9-4779-9815-664956725163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60323E7-A1F5-46D2-BBD4-78F1CDCBD2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27045" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Variables" sheetId="7" r:id="rId1"/>
+    <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
     <sheet name="sectors_plotting" sheetId="6" r:id="rId2"/>
     <sheet name="fuels_plotting" sheetId="5" r:id="rId3"/>
     <sheet name="transformation_sector_mappings" sheetId="4" r:id="rId4"/>
@@ -3080,8 +3080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A000B41E-5923-4013-B542-E4247E89557C}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7191,8 +7191,8 @@
   </sheetPr>
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\9th_edition_visualisation\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60323E7-A1F5-46D2-BBD4-78F1CDCBD2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8612EEE1-723F-4FBB-8891-8FA4E6557CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="494">
   <si>
     <t>chart_type</t>
   </si>
@@ -1672,13 +1672,19 @@
   </si>
   <si>
     <t>['2000', '2010', '2018', '2020', '2030', '2040', '2050', '2060', '2070']</t>
+  </si>
+  <si>
+    <t>Gas?</t>
+  </si>
+  <si>
+    <t>16_others_dummy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1735,8 +1741,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1783,6 +1796,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1847,10 +1865,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1879,8 +1898,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3080,29 +3101,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A000B41E-5923-4013-B542-E4247E89557C}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>215</v>
       </c>
@@ -3131,7 +3152,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>219</v>
       </c>
@@ -3160,7 +3181,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>225</v>
       </c>
@@ -3189,7 +3210,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>231</v>
       </c>
@@ -3215,7 +3236,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>235</v>
       </c>
@@ -3241,7 +3262,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>240</v>
       </c>
@@ -3267,7 +3288,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>245</v>
       </c>
@@ -3293,7 +3314,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>251</v>
       </c>
@@ -3319,7 +3340,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>255</v>
       </c>
@@ -3345,7 +3366,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>259</v>
       </c>
@@ -3371,7 +3392,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>263</v>
       </c>
@@ -3397,7 +3418,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>267</v>
       </c>
@@ -3423,7 +3444,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>271</v>
       </c>
@@ -3449,7 +3470,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>275</v>
       </c>
@@ -3475,7 +3496,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>279</v>
       </c>
@@ -3501,7 +3522,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>283</v>
       </c>
@@ -3527,11 +3548,11 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>287</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D19" t="s">
@@ -3553,7 +3574,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>292</v>
       </c>
@@ -3579,7 +3600,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>297</v>
       </c>
@@ -3605,7 +3626,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>303</v>
       </c>
@@ -3631,7 +3652,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>307</v>
       </c>
@@ -3654,7 +3675,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>312</v>
       </c>
@@ -3677,7 +3698,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>317</v>
       </c>
@@ -3697,7 +3718,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>322</v>
       </c>
@@ -3717,7 +3738,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>327</v>
       </c>
@@ -3737,7 +3758,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>332</v>
       </c>
@@ -3757,7 +3778,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>337</v>
       </c>
@@ -3777,7 +3798,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>342</v>
       </c>
@@ -3797,7 +3818,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>347</v>
       </c>
@@ -3817,7 +3838,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>114</v>
       </c>
@@ -3834,7 +3855,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>115</v>
       </c>
@@ -3851,7 +3872,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>116</v>
       </c>
@@ -3868,7 +3889,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>117</v>
       </c>
@@ -3885,7 +3906,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>118</v>
       </c>
@@ -3902,7 +3923,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>119</v>
       </c>
@@ -3919,7 +3940,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>120</v>
       </c>
@@ -3936,7 +3957,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>101</v>
       </c>
@@ -3953,7 +3974,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>125</v>
       </c>
@@ -3970,7 +3991,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>126</v>
       </c>
@@ -3987,7 +4008,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>389</v>
       </c>
@@ -4004,7 +4025,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>393</v>
       </c>
@@ -4015,7 +4036,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
         <v>396</v>
       </c>
@@ -4026,7 +4047,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
         <v>399</v>
       </c>
@@ -4037,7 +4058,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
         <v>402</v>
       </c>
@@ -4048,7 +4069,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
         <v>405</v>
       </c>
@@ -4059,7 +4080,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
         <v>408</v>
       </c>
@@ -4070,7 +4091,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
         <v>411</v>
       </c>
@@ -4081,7 +4102,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
         <v>414</v>
       </c>
@@ -4092,7 +4113,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
         <v>417</v>
       </c>
@@ -4103,7 +4124,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="52" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
         <v>419</v>
       </c>
@@ -4111,252 +4132,252 @@
         <v>389</v>
       </c>
     </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="54" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="55" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="56" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G57" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G59" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G60" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="61" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G63" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G67" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G71" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G74" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G75" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G76" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G78" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G80" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G81" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G82" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G83" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G84" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G85" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G86" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G89" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G90" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G91" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G92" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G94" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G95" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G96" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G97" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G98" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G99" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G100" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G102" t="s">
         <v>389</v>
       </c>
@@ -4375,20 +4396,20 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.1796875" customWidth="1"/>
-    <col min="2" max="2" width="64.81640625" customWidth="1"/>
-    <col min="3" max="3" width="43.81640625" customWidth="1"/>
-    <col min="12" max="12" width="19.81640625" customWidth="1"/>
-    <col min="13" max="13" width="27.1796875" customWidth="1"/>
+    <col min="1" max="1" width="62.140625" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="27.140625" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -4402,7 +4423,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -4410,7 +4431,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4418,7 +4439,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4426,7 +4447,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -4434,7 +4455,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -4442,7 +4463,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -4450,7 +4471,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -4458,7 +4479,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -4466,7 +4487,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -4474,7 +4495,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -4482,7 +4503,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>159</v>
       </c>
@@ -4490,7 +4511,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -4498,7 +4519,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>163</v>
       </c>
@@ -4506,7 +4527,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4514,7 +4535,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -4522,23 +4543,23 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
-        <v>100</v>
+      <c r="B17" s="16" t="s">
+        <v>493</v>
       </c>
       <c r="C17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
-        <v>100</v>
+      <c r="B18" s="16" t="s">
+        <v>493</v>
       </c>
       <c r="C18" t="s">
         <v>168</v>
@@ -4547,12 +4568,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
-        <v>100</v>
+      <c r="B19" s="16" t="s">
+        <v>493</v>
       </c>
       <c r="C19" t="s">
         <v>168</v>
@@ -4561,29 +4582,29 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
-        <v>100</v>
+      <c r="B20" s="16" t="s">
+        <v>493</v>
       </c>
       <c r="C20" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
-        <v>100</v>
+      <c r="B21" s="16" t="s">
+        <v>493</v>
       </c>
       <c r="C21" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
@@ -4591,7 +4612,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -4599,7 +4620,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>175</v>
       </c>
@@ -4607,7 +4628,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>176</v>
       </c>
@@ -4621,7 +4642,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>179</v>
       </c>
@@ -4635,7 +4656,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>181</v>
       </c>
@@ -4649,7 +4670,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -4660,7 +4681,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>185</v>
       </c>
@@ -4674,7 +4695,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>187</v>
       </c>
@@ -4688,7 +4709,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>189</v>
       </c>
@@ -4702,7 +4723,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>189</v>
       </c>
@@ -4716,7 +4737,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>189</v>
       </c>
@@ -4730,7 +4751,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>189</v>
       </c>
@@ -4744,7 +4765,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>189</v>
       </c>
@@ -4758,7 +4779,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>189</v>
       </c>
@@ -4772,7 +4793,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>195</v>
       </c>
@@ -4786,7 +4807,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>197</v>
       </c>
@@ -4797,7 +4818,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -4808,7 +4829,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -4819,7 +4840,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -4830,7 +4851,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -4841,7 +4862,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>203</v>
       </c>
@@ -4855,7 +4876,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>206</v>
       </c>
@@ -4869,7 +4890,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -4880,7 +4901,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>488</v>
       </c>
@@ -4888,7 +4909,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -4896,7 +4917,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -4904,7 +4925,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -4915,7 +4936,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>210</v>
       </c>
@@ -4923,7 +4944,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>212</v>
       </c>
@@ -4947,17 +4968,17 @@
   <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.81640625" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" customWidth="1"/>
-    <col min="3" max="3" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="57.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -4968,7 +4989,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4976,7 +4997,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4984,7 +5005,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4992,7 +5013,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -5000,7 +5021,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5008,7 +5029,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5016,7 +5037,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5024,7 +5045,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -5032,7 +5053,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -5040,7 +5061,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -5048,7 +5069,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -5056,7 +5077,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -5064,7 +5085,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -5072,7 +5093,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -5080,7 +5101,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -5088,7 +5109,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -5099,7 +5120,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -5107,7 +5128,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -5115,7 +5136,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>487</v>
       </c>
@@ -5123,7 +5144,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>106</v>
       </c>
@@ -5131,7 +5152,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>108</v>
       </c>
@@ -5139,7 +5160,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -5147,7 +5168,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -5155,7 +5176,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>111</v>
       </c>
@@ -5163,7 +5184,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>112</v>
       </c>
@@ -5171,7 +5192,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>112</v>
       </c>
@@ -5182,7 +5203,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>112</v>
       </c>
@@ -5193,7 +5214,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>112</v>
       </c>
@@ -5204,7 +5225,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>112</v>
       </c>
@@ -5215,7 +5236,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>112</v>
       </c>
@@ -5226,7 +5247,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>112</v>
       </c>
@@ -5237,7 +5258,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>112</v>
       </c>
@@ -5248,7 +5269,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>112</v>
       </c>
@@ -5259,7 +5280,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>112</v>
       </c>
@@ -5270,7 +5291,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -5281,7 +5302,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -5292,7 +5313,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -5303,7 +5324,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -5311,7 +5332,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -5319,7 +5340,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -5330,7 +5351,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -5341,7 +5362,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -5352,7 +5373,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -5363,7 +5384,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -5374,7 +5395,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -5385,7 +5406,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -5396,7 +5417,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -5407,7 +5428,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -5418,7 +5439,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -5429,7 +5450,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -5440,7 +5461,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>127</v>
       </c>
@@ -5451,7 +5472,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>129</v>
       </c>
@@ -5462,7 +5483,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>131</v>
       </c>
@@ -5473,9 +5494,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>4</v>
+        <v>492</v>
       </c>
       <c r="B55" t="s">
         <v>85</v>
@@ -5484,7 +5505,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>134</v>
       </c>
@@ -5495,7 +5516,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -5506,7 +5527,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>37</v>
       </c>
@@ -5517,7 +5538,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>30</v>
       </c>
@@ -5528,7 +5549,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>43</v>
       </c>
@@ -5539,7 +5560,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>43</v>
       </c>
@@ -5550,7 +5571,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -5561,7 +5582,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>43</v>
       </c>
@@ -5572,7 +5593,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -5583,7 +5604,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>43</v>
       </c>
@@ -5594,7 +5615,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>43</v>
       </c>
@@ -5605,7 +5626,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>43</v>
       </c>
@@ -5616,7 +5637,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>43</v>
       </c>
@@ -5627,7 +5648,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>43</v>
       </c>
@@ -5638,7 +5659,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>43</v>
       </c>
@@ -5649,7 +5670,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>143</v>
       </c>
@@ -5660,7 +5681,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>144</v>
       </c>
@@ -5671,7 +5692,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -5679,7 +5700,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>145</v>
       </c>
@@ -5690,7 +5711,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>145</v>
       </c>
@@ -5701,7 +5722,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>145</v>
       </c>
@@ -5712,7 +5733,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>145</v>
       </c>
@@ -5723,7 +5744,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>145</v>
       </c>
@@ -5734,7 +5755,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>145</v>
       </c>
@@ -5745,13 +5766,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
     </row>
   </sheetData>
@@ -5773,15 +5794,15 @@
       <selection activeCell="B13" activeCellId="1" sqref="B26 B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.453125" customWidth="1"/>
-    <col min="2" max="2" width="47.1796875" customWidth="1"/>
-    <col min="3" max="3" width="50.1796875" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" customWidth="1"/>
     <col min="4" max="4" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -5795,7 +5816,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -5809,7 +5830,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -5823,7 +5844,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>1</v>
       </c>
@@ -5837,7 +5858,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>1</v>
       </c>
@@ -5851,7 +5872,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -5865,7 +5886,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>1</v>
       </c>
@@ -5879,7 +5900,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="b">
         <v>1</v>
       </c>
@@ -5893,7 +5914,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="b">
         <v>1</v>
       </c>
@@ -5907,7 +5928,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="b">
         <v>1</v>
       </c>
@@ -5921,7 +5942,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="b">
         <v>1</v>
       </c>
@@ -5935,7 +5956,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="b">
         <v>1</v>
       </c>
@@ -5949,7 +5970,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="b">
         <v>1</v>
       </c>
@@ -5963,7 +5984,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="b">
         <v>1</v>
       </c>
@@ -5977,7 +5998,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="b">
         <v>0</v>
       </c>
@@ -5991,7 +6012,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="b">
         <v>0</v>
       </c>
@@ -6005,7 +6026,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="b">
         <v>0</v>
       </c>
@@ -6019,7 +6040,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="b">
         <v>0</v>
       </c>
@@ -6033,7 +6054,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="b">
         <v>0</v>
       </c>
@@ -6047,7 +6068,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="b">
         <v>0</v>
       </c>
@@ -6061,7 +6082,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="b">
         <v>0</v>
       </c>
@@ -6075,7 +6096,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="b">
         <v>0</v>
       </c>
@@ -6089,7 +6110,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="b">
         <v>0</v>
       </c>
@@ -6103,7 +6124,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="b">
         <v>0</v>
       </c>
@@ -6117,7 +6138,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="b">
         <v>0</v>
       </c>
@@ -6131,7 +6152,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="b">
         <v>0</v>
       </c>
@@ -6145,7 +6166,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="b">
         <v>0</v>
       </c>
@@ -6171,15 +6192,15 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>474</v>
       </c>
@@ -6187,7 +6208,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>481</v>
       </c>
@@ -6195,7 +6216,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>481</v>
       </c>
@@ -6203,7 +6224,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>481</v>
       </c>
@@ -6211,7 +6232,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>481</v>
       </c>
@@ -6219,7 +6240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>482</v>
       </c>
@@ -6227,7 +6248,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>482</v>
       </c>
@@ -6235,7 +6256,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>482</v>
       </c>
@@ -6243,7 +6264,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>482</v>
       </c>
@@ -6251,7 +6272,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>482</v>
       </c>
@@ -6259,7 +6280,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>482</v>
       </c>
@@ -6267,7 +6288,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>482</v>
       </c>
@@ -6275,7 +6296,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>483</v>
       </c>
@@ -6283,7 +6304,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>486</v>
       </c>
@@ -6291,7 +6312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>478</v>
       </c>
@@ -6299,7 +6320,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>478</v>
       </c>
@@ -6307,7 +6328,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>478</v>
       </c>
@@ -6315,7 +6336,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>478</v>
       </c>
@@ -6323,7 +6344,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>479</v>
       </c>
@@ -6331,7 +6352,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>479</v>
       </c>
@@ -6339,7 +6360,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>479</v>
       </c>
@@ -6347,7 +6368,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>479</v>
       </c>
@@ -6355,7 +6376,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>479</v>
       </c>
@@ -6363,7 +6384,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>479</v>
       </c>
@@ -6371,7 +6392,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>479</v>
       </c>
@@ -6379,7 +6400,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>480</v>
       </c>
@@ -6387,7 +6408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>478</v>
       </c>
@@ -6395,7 +6416,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>487</v>
       </c>
@@ -6403,7 +6424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>488</v>
       </c>
@@ -6429,9 +6450,9 @@
       <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>474</v>
       </c>
@@ -6439,7 +6460,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -6447,7 +6468,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6455,7 +6476,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -6463,7 +6484,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -6471,7 +6492,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -6479,7 +6500,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -6487,7 +6508,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -6495,7 +6516,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -6503,7 +6524,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -6511,7 +6532,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -6519,7 +6540,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -6527,7 +6548,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -6535,7 +6556,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -6543,7 +6564,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -6551,7 +6572,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -6559,7 +6580,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6567,7 +6588,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -6575,7 +6596,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>181</v>
       </c>
@@ -6583,7 +6604,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>179</v>
       </c>
@@ -6591,7 +6612,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>176</v>
       </c>
@@ -6599,7 +6620,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>185</v>
       </c>
@@ -6607,7 +6628,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -6615,7 +6636,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>187</v>
       </c>
@@ -6623,7 +6644,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>134</v>
       </c>
@@ -6631,7 +6652,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -6639,7 +6660,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>129</v>
       </c>
@@ -6647,7 +6668,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -6655,7 +6676,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -6663,7 +6684,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -6671,7 +6692,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -6679,7 +6700,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -6687,7 +6708,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -6695,7 +6716,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -6703,7 +6724,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -6711,7 +6732,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>89</v>
       </c>
@@ -6719,7 +6740,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -6727,7 +6748,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -6735,7 +6756,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -6743,7 +6764,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -6751,7 +6772,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -6759,7 +6780,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -6767,7 +6788,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -6775,7 +6796,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -6783,7 +6804,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -6791,7 +6812,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -6799,7 +6820,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -6807,7 +6828,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -6815,7 +6836,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -6823,7 +6844,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -6831,7 +6852,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>108</v>
       </c>
@@ -6839,7 +6860,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>110</v>
       </c>
@@ -6847,7 +6868,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -6855,7 +6876,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>144</v>
       </c>
@@ -6863,7 +6884,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -6871,7 +6892,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -6879,7 +6900,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -6887,7 +6908,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -6895,7 +6916,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -6903,7 +6924,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -6911,7 +6932,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>111</v>
       </c>
@@ -6919,7 +6940,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>145</v>
       </c>
@@ -6927,7 +6948,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -6935,7 +6956,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>95</v>
       </c>
@@ -6943,7 +6964,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>197</v>
       </c>
@@ -6951,7 +6972,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>173</v>
       </c>
@@ -6959,7 +6980,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>203</v>
       </c>
@@ -6967,7 +6988,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>175</v>
       </c>
@@ -6975,7 +6996,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>195</v>
       </c>
@@ -6983,7 +7004,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>208</v>
       </c>
@@ -6991,7 +7012,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>189</v>
       </c>
@@ -6999,7 +7020,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>206</v>
       </c>
@@ -7007,7 +7028,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>159</v>
       </c>
@@ -7015,7 +7036,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>161</v>
       </c>
@@ -7023,7 +7044,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>163</v>
       </c>
@@ -7031,7 +7052,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -7039,7 +7060,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>155</v>
       </c>
@@ -7047,7 +7068,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>157</v>
       </c>
@@ -7055,7 +7076,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>481</v>
       </c>
@@ -7063,7 +7084,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>482</v>
       </c>
@@ -7071,7 +7092,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>478</v>
       </c>
@@ -7079,7 +7100,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>479</v>
       </c>
@@ -7087,7 +7108,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>483</v>
       </c>
@@ -7095,7 +7116,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>480</v>
       </c>
@@ -7103,7 +7124,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>487</v>
       </c>
@@ -7111,7 +7132,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>488</v>
       </c>
@@ -7133,12 +7154,12 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>473</v>
       </c>
@@ -7146,7 +7167,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -7154,7 +7175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -7162,7 +7183,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -7170,7 +7191,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -7191,26 +7212,26 @@
   </sheetPr>
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" customWidth="1"/>
-    <col min="7" max="7" width="25.1796875" customWidth="1"/>
-    <col min="8" max="8" width="28.1796875" customWidth="1"/>
-    <col min="9" max="9" width="34.1796875" customWidth="1"/>
-    <col min="10" max="10" width="20.81640625" customWidth="1"/>
-    <col min="11" max="11" width="20.1796875" customWidth="1"/>
-    <col min="12" max="12" width="22.81640625" customWidth="1"/>
-    <col min="13" max="13" width="21.81640625" customWidth="1"/>
-    <col min="14" max="14" width="24.81640625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" s="13" t="s">
@@ -7229,7 +7250,7 @@
       <c r="M1" s="14"/>
       <c r="N1" s="15"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>485</v>
       </c>
@@ -7273,7 +7294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7299,7 +7320,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -7325,7 +7346,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -7351,7 +7372,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -7386,7 +7407,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -7409,7 +7430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -7432,7 +7453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -7452,7 +7473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -7472,7 +7493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -7501,7 +7522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7530,7 +7551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -7559,7 +7580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -7588,7 +7609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -7623,7 +7644,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -7664,7 +7685,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -7699,7 +7720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -7734,7 +7755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -7757,7 +7778,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -7780,7 +7801,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -7803,7 +7824,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -7841,7 +7862,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -7858,7 +7879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -7887,7 +7908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -7919,7 +7940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -7936,7 +7957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -7965,7 +7986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -7997,7 +8018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -8029,7 +8050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -8061,7 +8082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -8093,7 +8114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -8125,7 +8146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -8157,7 +8178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -8189,7 +8210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -8221,7 +8242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -8247,7 +8268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -8273,7 +8294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -8305,7 +8326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -8337,7 +8358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -8372,7 +8393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -8407,7 +8428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -8445,7 +8466,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -8483,7 +8504,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -8509,7 +8530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -8535,7 +8556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -8567,7 +8588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -8599,7 +8620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -8634,7 +8655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -8669,7 +8690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -8707,7 +8728,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -8745,7 +8766,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -8777,7 +8798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -8809,7 +8830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -8829,7 +8850,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -8864,7 +8885,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>28</v>
       </c>

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8612EEE1-723F-4FBB-8891-8FA4E6557CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37C6F56-FE28-46A6-96BC-50993CBADAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14235" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="494">
   <si>
     <t>chart_type</t>
   </si>
@@ -1684,7 +1684,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1748,8 +1748,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1801,6 +1808,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1865,11 +1877,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1889,6 +1902,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1898,10 +1912,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4395,8 +4410,8 @@
   </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4547,7 +4562,7 @@
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>493</v>
       </c>
       <c r="C17" t="s">
@@ -4558,7 +4573,7 @@
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="13" t="s">
         <v>493</v>
       </c>
       <c r="C18" t="s">
@@ -4572,7 +4587,7 @@
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>493</v>
       </c>
       <c r="C19" t="s">
@@ -4586,7 +4601,7 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>493</v>
       </c>
       <c r="C20" t="s">
@@ -4597,7 +4612,7 @@
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="13" t="s">
         <v>493</v>
       </c>
       <c r="C21" t="s">
@@ -7212,8 +7227,8 @@
   </sheetPr>
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7234,21 +7249,21 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8863,25 +8878,22 @@
       <c r="D55" t="s">
         <v>28</v>
       </c>
-      <c r="F55" t="s">
-        <v>47</v>
-      </c>
-      <c r="G55" t="s">
-        <v>48</v>
-      </c>
-      <c r="H55" t="s">
-        <v>26</v>
-      </c>
-      <c r="I55" t="s">
-        <v>49</v>
-      </c>
-      <c r="J55" t="s">
-        <v>50</v>
-      </c>
-      <c r="K55" t="s">
-        <v>51</v>
-      </c>
-      <c r="L55" t="s">
+      <c r="F55" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="17" t="s">
         <v>163</v>
       </c>
     </row>
@@ -8898,25 +8910,22 @@
       <c r="D56" t="s">
         <v>28</v>
       </c>
-      <c r="F56" t="s">
-        <v>47</v>
-      </c>
-      <c r="G56" t="s">
-        <v>48</v>
-      </c>
-      <c r="H56" t="s">
-        <v>26</v>
-      </c>
-      <c r="I56" t="s">
-        <v>49</v>
-      </c>
-      <c r="J56" t="s">
-        <v>50</v>
-      </c>
-      <c r="K56" t="s">
-        <v>51</v>
-      </c>
-      <c r="L56" t="s">
+      <c r="F56" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J56" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" s="17" t="s">
         <v>163</v>
       </c>
     </row>

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8612EEE1-723F-4FBB-8891-8FA4E6557CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9491FA88-72D6-43DF-BF02-90E76F15DB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -1671,13 +1671,13 @@
     <t>Other_fuels</t>
   </si>
   <si>
-    <t>['2000', '2010', '2018', '2020', '2030', '2040', '2050', '2060', '2070']</t>
-  </si>
-  <si>
     <t>Gas?</t>
   </si>
   <si>
     <t>16_others_dummy</t>
+  </si>
+  <si>
+    <t>['2000', '2010', '2020', '2030', '2040', '2050', '2060', '2070']</t>
   </si>
 </sst>
 </file>
@@ -1889,6 +1889,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1898,7 +1899,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -4547,8 +4547,8 @@
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>493</v>
+      <c r="B17" s="13" t="s">
+        <v>492</v>
       </c>
       <c r="C17" t="s">
         <v>167</v>
@@ -4558,8 +4558,8 @@
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>493</v>
+      <c r="B18" s="13" t="s">
+        <v>492</v>
       </c>
       <c r="C18" t="s">
         <v>168</v>
@@ -4572,8 +4572,8 @@
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>493</v>
+      <c r="B19" s="13" t="s">
+        <v>492</v>
       </c>
       <c r="C19" t="s">
         <v>168</v>
@@ -4586,8 +4586,8 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>493</v>
+      <c r="B20" s="13" t="s">
+        <v>492</v>
       </c>
       <c r="C20" t="s">
         <v>168</v>
@@ -4597,8 +4597,8 @@
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>493</v>
+      <c r="B21" s="13" t="s">
+        <v>492</v>
       </c>
       <c r="C21" t="s">
         <v>171</v>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B55" t="s">
         <v>85</v>
@@ -7150,8 +7150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD61665-6B06-460E-828D-1570B45BB2AE}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7180,7 +7180,7 @@
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7212,7 +7212,7 @@
   </sheetPr>
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -7234,21 +7234,21 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9491FA88-72D6-43DF-BF02-90E76F15DB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C4CE7E-5EF3-415B-B0FF-2608D7789EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -4395,8 +4395,8 @@
   </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7150,7 +7150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD61665-6B06-460E-828D-1570B45BB2AE}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -7212,8 +7212,8 @@
   </sheetPr>
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C29" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8864,22 +8864,22 @@
         <v>28</v>
       </c>
       <c r="F55" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="K55" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="L55" t="s">
         <v>163</v>
@@ -8899,22 +8899,22 @@
         <v>28</v>
       </c>
       <c r="F56" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="H56" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="K56" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="L56" t="s">
         <v>163</v>

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37C6F56-FE28-46A6-96BC-50993CBADAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94194DB3-31BD-432C-AC60-49A8F9907E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14235" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="494">
   <si>
     <t>chart_type</t>
   </si>
@@ -1903,6 +1903,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1912,7 +1913,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -3116,29 +3116,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A000B41E-5923-4013-B542-E4247E89557C}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>215</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>219</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>225</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>231</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>235</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>240</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>245</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>251</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>255</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>259</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>263</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>267</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>271</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>275</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>279</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>283</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>287</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>292</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>297</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>303</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>307</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>312</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>317</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>322</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>327</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>332</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>337</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>342</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>347</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
         <v>114</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>115</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>116</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>117</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
         <v>118</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
         <v>119</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
         <v>120</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
         <v>101</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
         <v>125</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D41" t="s">
         <v>126</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D42" t="s">
         <v>389</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G43" t="s">
         <v>393</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G44" t="s">
         <v>396</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G45" t="s">
         <v>399</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G46" t="s">
         <v>402</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G47" t="s">
         <v>405</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G48" t="s">
         <v>408</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G49" t="s">
         <v>411</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G50" t="s">
         <v>414</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G51" t="s">
         <v>417</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G52" t="s">
         <v>419</v>
       </c>
@@ -4147,252 +4147,252 @@
         <v>389</v>
       </c>
     </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G53" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G54" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="55" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G55" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="56" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G56" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G57" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G58" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G59" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G60" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="61" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G61" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G62" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G63" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G64" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G65" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G66" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G67" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G68" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G69" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G70" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G71" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G72" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G73" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G74" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G75" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G76" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G77" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G78" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G79" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G80" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G81" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G82" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G83" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G84" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G85" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G86" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G87" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G88" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G89" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G90" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G91" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G92" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G93" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G94" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G95" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G96" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G97" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G98" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G99" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G100" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G101" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G102" t="s">
         <v>389</v>
       </c>
@@ -4410,21 +4410,21 @@
   </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="62.140625" customWidth="1"/>
-    <col min="2" max="2" width="64.85546875" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="62.1796875" customWidth="1"/>
+    <col min="2" max="2" width="64.81640625" customWidth="1"/>
+    <col min="3" max="3" width="43.81640625" customWidth="1"/>
+    <col min="12" max="12" width="19.81640625" customWidth="1"/>
+    <col min="13" max="13" width="27.1796875" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>159</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>163</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>175</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>176</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>179</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>181</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>185</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>187</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>189</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>189</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>189</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>189</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>189</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>189</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>195</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>197</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>203</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>206</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>488</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>210</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>212</v>
       </c>
@@ -4986,14 +4986,14 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="57.81640625" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" customWidth="1"/>
+    <col min="3" max="3" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>487</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>106</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>108</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>111</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>112</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>112</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>112</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>112</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>112</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>112</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>112</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>112</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>112</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>112</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>127</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>129</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>131</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>492</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>134</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>37</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
         <v>30</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>43</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>43</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>43</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>43</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>43</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>43</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>43</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>43</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>43</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>143</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>144</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>145</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>145</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>145</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>145</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>145</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>145</v>
       </c>
@@ -5781,13 +5781,61 @@
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B89" s="6"/>
     </row>
   </sheetData>
@@ -5809,15 +5857,15 @@
       <selection activeCell="B13" activeCellId="1" sqref="B26 B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" customWidth="1"/>
-    <col min="3" max="3" width="50.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.453125" customWidth="1"/>
+    <col min="2" max="2" width="47.1796875" customWidth="1"/>
+    <col min="3" max="3" width="50.1796875" customWidth="1"/>
     <col min="4" max="4" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -5831,7 +5879,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -5845,7 +5893,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -5859,7 +5907,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="b">
         <v>1</v>
       </c>
@@ -5873,7 +5921,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="b">
         <v>1</v>
       </c>
@@ -5887,7 +5935,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -5901,7 +5949,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="b">
         <v>1</v>
       </c>
@@ -5915,7 +5963,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="b">
         <v>1</v>
       </c>
@@ -5929,7 +5977,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="b">
         <v>1</v>
       </c>
@@ -5943,7 +5991,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="b">
         <v>1</v>
       </c>
@@ -5957,7 +6005,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="b">
         <v>1</v>
       </c>
@@ -5971,7 +6019,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="b">
         <v>1</v>
       </c>
@@ -5985,7 +6033,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="b">
         <v>1</v>
       </c>
@@ -5999,7 +6047,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="b">
         <v>1</v>
       </c>
@@ -6013,7 +6061,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="b">
         <v>0</v>
       </c>
@@ -6027,7 +6075,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="b">
         <v>0</v>
       </c>
@@ -6041,7 +6089,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="b">
         <v>0</v>
       </c>
@@ -6055,7 +6103,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="b">
         <v>0</v>
       </c>
@@ -6069,7 +6117,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="b">
         <v>0</v>
       </c>
@@ -6083,7 +6131,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="b">
         <v>0</v>
       </c>
@@ -6097,7 +6145,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="b">
         <v>0</v>
       </c>
@@ -6111,7 +6159,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="b">
         <v>0</v>
       </c>
@@ -6125,7 +6173,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="b">
         <v>0</v>
       </c>
@@ -6139,7 +6187,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="b">
         <v>0</v>
       </c>
@@ -6153,7 +6201,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="b">
         <v>0</v>
       </c>
@@ -6167,7 +6215,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="b">
         <v>0</v>
       </c>
@@ -6181,7 +6229,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="b">
         <v>0</v>
       </c>
@@ -6210,12 +6258,12 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>474</v>
       </c>
@@ -6223,7 +6271,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>481</v>
       </c>
@@ -6231,7 +6279,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>481</v>
       </c>
@@ -6239,7 +6287,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>481</v>
       </c>
@@ -6247,7 +6295,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>481</v>
       </c>
@@ -6255,7 +6303,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>482</v>
       </c>
@@ -6263,7 +6311,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>482</v>
       </c>
@@ -6271,7 +6319,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>482</v>
       </c>
@@ -6279,7 +6327,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>482</v>
       </c>
@@ -6287,7 +6335,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>482</v>
       </c>
@@ -6295,7 +6343,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>482</v>
       </c>
@@ -6303,7 +6351,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>482</v>
       </c>
@@ -6311,7 +6359,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>483</v>
       </c>
@@ -6319,7 +6367,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>486</v>
       </c>
@@ -6327,7 +6375,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>478</v>
       </c>
@@ -6335,7 +6383,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>478</v>
       </c>
@@ -6343,7 +6391,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>478</v>
       </c>
@@ -6351,7 +6399,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>478</v>
       </c>
@@ -6359,7 +6407,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>479</v>
       </c>
@@ -6367,7 +6415,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>479</v>
       </c>
@@ -6375,7 +6423,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>479</v>
       </c>
@@ -6383,7 +6431,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>479</v>
       </c>
@@ -6391,7 +6439,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>479</v>
       </c>
@@ -6399,7 +6447,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>479</v>
       </c>
@@ -6407,7 +6455,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>479</v>
       </c>
@@ -6415,7 +6463,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>480</v>
       </c>
@@ -6423,7 +6471,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>478</v>
       </c>
@@ -6431,7 +6479,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>487</v>
       </c>
@@ -6439,7 +6487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>488</v>
       </c>
@@ -6465,9 +6513,9 @@
       <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>474</v>
       </c>
@@ -6475,7 +6523,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -6483,7 +6531,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6491,7 +6539,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -6499,7 +6547,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -6507,7 +6555,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -6515,7 +6563,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -6523,7 +6571,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -6531,7 +6579,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -6539,7 +6587,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -6547,7 +6595,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -6555,7 +6603,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -6563,7 +6611,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -6571,7 +6619,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -6579,7 +6627,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -6587,7 +6635,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -6595,7 +6643,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6603,7 +6651,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -6611,7 +6659,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>181</v>
       </c>
@@ -6619,7 +6667,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>179</v>
       </c>
@@ -6627,7 +6675,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>176</v>
       </c>
@@ -6635,7 +6683,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>185</v>
       </c>
@@ -6643,7 +6691,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -6651,7 +6699,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>187</v>
       </c>
@@ -6659,7 +6707,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>134</v>
       </c>
@@ -6667,7 +6715,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -6675,7 +6723,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>129</v>
       </c>
@@ -6683,7 +6731,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -6691,7 +6739,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -6699,7 +6747,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -6707,7 +6755,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -6715,7 +6763,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -6723,7 +6771,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -6731,7 +6779,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -6739,7 +6787,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -6747,7 +6795,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>89</v>
       </c>
@@ -6755,7 +6803,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -6763,7 +6811,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -6771,7 +6819,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -6779,7 +6827,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -6787,7 +6835,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -6795,7 +6843,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -6803,7 +6851,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -6811,7 +6859,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -6819,7 +6867,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -6827,7 +6875,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -6835,7 +6883,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -6843,7 +6891,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -6851,7 +6899,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -6859,7 +6907,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -6867,7 +6915,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>108</v>
       </c>
@@ -6875,7 +6923,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>110</v>
       </c>
@@ -6883,7 +6931,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -6891,7 +6939,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>144</v>
       </c>
@@ -6899,7 +6947,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -6907,7 +6955,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -6915,7 +6963,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -6923,7 +6971,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -6931,7 +6979,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -6939,7 +6987,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -6947,7 +6995,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>111</v>
       </c>
@@ -6955,7 +7003,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>145</v>
       </c>
@@ -6963,7 +7011,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -6971,7 +7019,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>95</v>
       </c>
@@ -6979,7 +7027,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>197</v>
       </c>
@@ -6987,7 +7035,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>173</v>
       </c>
@@ -6995,7 +7043,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>203</v>
       </c>
@@ -7003,7 +7051,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>175</v>
       </c>
@@ -7011,7 +7059,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>195</v>
       </c>
@@ -7019,7 +7067,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>208</v>
       </c>
@@ -7027,7 +7075,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>189</v>
       </c>
@@ -7035,7 +7083,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>206</v>
       </c>
@@ -7043,7 +7091,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>159</v>
       </c>
@@ -7051,7 +7099,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>161</v>
       </c>
@@ -7059,7 +7107,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>163</v>
       </c>
@@ -7067,7 +7115,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -7075,7 +7123,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>155</v>
       </c>
@@ -7083,7 +7131,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>157</v>
       </c>
@@ -7091,7 +7139,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>481</v>
       </c>
@@ -7099,7 +7147,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>482</v>
       </c>
@@ -7107,7 +7155,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>478</v>
       </c>
@@ -7115,7 +7163,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>479</v>
       </c>
@@ -7123,7 +7171,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>483</v>
       </c>
@@ -7131,7 +7179,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>480</v>
       </c>
@@ -7139,7 +7187,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>487</v>
       </c>
@@ -7147,7 +7195,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>488</v>
       </c>
@@ -7169,12 +7217,12 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>473</v>
       </c>
@@ -7182,7 +7230,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -7190,7 +7238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -7198,7 +7246,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -7206,7 +7254,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -7225,47 +7273,47 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
     <col min="2" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" customWidth="1"/>
-    <col min="9" max="9" width="34.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" customWidth="1"/>
-    <col min="14" max="14" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" customWidth="1"/>
+    <col min="8" max="8" width="28.1796875" customWidth="1"/>
+    <col min="9" max="9" width="34.1796875" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" customWidth="1"/>
+    <col min="11" max="11" width="20.1796875" customWidth="1"/>
+    <col min="12" max="12" width="22.81640625" customWidth="1"/>
+    <col min="13" max="13" width="21.81640625" customWidth="1"/>
+    <col min="14" max="14" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>485</v>
       </c>
@@ -7309,7 +7357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7335,7 +7383,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -7361,7 +7409,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -7387,7 +7435,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -7422,7 +7470,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -7432,7 +7480,7 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
@@ -7445,7 +7493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -7455,7 +7503,7 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
@@ -7468,7 +7516,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -7478,7 +7526,7 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
@@ -7488,7 +7536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -7498,7 +7546,7 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
@@ -7508,7 +7556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -7537,7 +7585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7566,7 +7614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -7595,7 +7643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -7624,7 +7672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -7659,7 +7707,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -7700,7 +7748,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -7735,7 +7783,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -7770,7 +7818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -7793,7 +7841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -7816,7 +7864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -7839,7 +7887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -7877,7 +7925,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -7894,7 +7942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -7923,7 +7971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -7955,7 +8003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -7972,7 +8020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -8001,7 +8049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -8033,7 +8081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -8065,7 +8113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -8097,7 +8145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -8129,7 +8177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -8161,7 +8209,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -8193,7 +8241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -8225,7 +8273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -8257,7 +8305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -8283,7 +8331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -8309,7 +8357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -8319,7 +8367,7 @@
       <c r="C38" t="s">
         <v>2</v>
       </c>
-      <c r="E38" t="s">
+      <c r="D38" t="s">
         <v>23</v>
       </c>
       <c r="F38" t="s">
@@ -8341,7 +8389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -8351,7 +8399,7 @@
       <c r="C39" t="s">
         <v>7</v>
       </c>
-      <c r="E39" t="s">
+      <c r="D39" t="s">
         <v>23</v>
       </c>
       <c r="F39" t="s">
@@ -8373,7 +8421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -8383,7 +8431,7 @@
       <c r="C40" t="s">
         <v>2</v>
       </c>
-      <c r="E40" t="s">
+      <c r="D40" t="s">
         <v>23</v>
       </c>
       <c r="F40" t="s">
@@ -8408,7 +8456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -8418,7 +8466,7 @@
       <c r="C41" t="s">
         <v>7</v>
       </c>
-      <c r="E41" t="s">
+      <c r="D41" t="s">
         <v>23</v>
       </c>
       <c r="F41" t="s">
@@ -8443,7 +8491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -8453,7 +8501,7 @@
       <c r="C42" t="s">
         <v>2</v>
       </c>
-      <c r="E42" t="s">
+      <c r="D42" t="s">
         <v>23</v>
       </c>
       <c r="F42" t="s">
@@ -8481,7 +8529,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -8491,7 +8539,7 @@
       <c r="C43" t="s">
         <v>7</v>
       </c>
-      <c r="E43" t="s">
+      <c r="D43" t="s">
         <v>23</v>
       </c>
       <c r="F43" t="s">
@@ -8519,7 +8567,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -8545,7 +8593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -8571,7 +8619,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -8581,7 +8629,7 @@
       <c r="C46" t="s">
         <v>2</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D46" t="s">
         <v>23</v>
       </c>
       <c r="F46" t="s">
@@ -8603,7 +8651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -8613,7 +8661,7 @@
       <c r="C47" t="s">
         <v>7</v>
       </c>
-      <c r="E47" t="s">
+      <c r="D47" t="s">
         <v>23</v>
       </c>
       <c r="F47" t="s">
@@ -8635,7 +8683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -8645,7 +8693,7 @@
       <c r="C48" t="s">
         <v>2</v>
       </c>
-      <c r="E48" t="s">
+      <c r="D48" t="s">
         <v>23</v>
       </c>
       <c r="F48" t="s">
@@ -8670,7 +8718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -8680,7 +8728,7 @@
       <c r="C49" t="s">
         <v>7</v>
       </c>
-      <c r="E49" t="s">
+      <c r="D49" t="s">
         <v>23</v>
       </c>
       <c r="F49" t="s">
@@ -8705,7 +8753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -8715,7 +8763,7 @@
       <c r="C50" t="s">
         <v>2</v>
       </c>
-      <c r="E50" t="s">
+      <c r="D50" t="s">
         <v>23</v>
       </c>
       <c r="F50" t="s">
@@ -8743,7 +8791,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -8753,7 +8801,7 @@
       <c r="C51" t="s">
         <v>7</v>
       </c>
-      <c r="E51" t="s">
+      <c r="D51" t="s">
         <v>23</v>
       </c>
       <c r="F51" t="s">
@@ -8781,7 +8829,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -8791,7 +8839,7 @@
       <c r="C52" t="s">
         <v>2</v>
       </c>
-      <c r="E52" t="s">
+      <c r="D52" t="s">
         <v>23</v>
       </c>
       <c r="F52" t="s">
@@ -8813,7 +8861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -8823,7 +8871,7 @@
       <c r="C53" t="s">
         <v>7</v>
       </c>
-      <c r="E53" t="s">
+      <c r="D53" t="s">
         <v>23</v>
       </c>
       <c r="F53" t="s">
@@ -8845,7 +8893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -8865,7 +8913,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -8875,29 +8923,29 @@
       <c r="C55" t="s">
         <v>2</v>
       </c>
-      <c r="D55" t="s">
-        <v>28</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H55" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I55" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J55" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" s="17" t="s">
+      <c r="E55" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>49</v>
+      </c>
+      <c r="J55" t="s">
+        <v>48</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -8907,25 +8955,89 @@
       <c r="C56" t="s">
         <v>8</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
+        <v>163</v>
+      </c>
+      <c r="F56" t="s">
+        <v>51</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>49</v>
+      </c>
+      <c r="J56" t="s">
+        <v>48</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H56" s="17" t="s">
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" t="s">
+        <v>51</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>49</v>
+      </c>
+      <c r="J57" t="s">
+        <v>48</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58">
         <v>4</v>
       </c>
-      <c r="I56" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J56" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="K56" s="17" t="s">
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>49</v>
+      </c>
+      <c r="J58" t="s">
+        <v>48</v>
+      </c>
+      <c r="K58" s="14" t="s">
         <v>163</v>
       </c>
     </row>

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94194DB3-31BD-432C-AC60-49A8F9907E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B300A1D-132B-43C4-8128-830E5EA83327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27045" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="494">
   <si>
     <t>chart_type</t>
   </si>
@@ -243,9 +243,6 @@
     <t>Services</t>
   </si>
   <si>
-    <t>Coal by type</t>
-  </si>
-  <si>
     <t>Lignite</t>
   </si>
   <si>
@@ -1671,13 +1668,16 @@
     <t>Other_fuels</t>
   </si>
   <si>
-    <t>['2000', '2010', '2018', '2020', '2030', '2040', '2050', '2060', '2070']</t>
-  </si>
-  <si>
     <t>Gas?</t>
   </si>
   <si>
     <t>16_others_dummy</t>
+  </si>
+  <si>
+    <t>['2000', '2010', '2020', '2030', '2040', '2050', '2060', '2070']</t>
+  </si>
+  <si>
+    <t>TPES Coal by type</t>
   </si>
 </sst>
 </file>
@@ -1903,7 +1903,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1913,6 +1912,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -3116,8 +3116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A000B41E-5923-4013-B542-E4247E89557C}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3135,1266 +3135,1266 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" t="s">
         <v>219</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
         <v>220</v>
       </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>221</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>222</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>223</v>
-      </c>
-      <c r="I4" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" t="s">
         <v>225</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" t="s">
         <v>226</v>
       </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>227</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>228</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>229</v>
-      </c>
-      <c r="I5" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
         <v>231</v>
       </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>232</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>233</v>
-      </c>
-      <c r="I6" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
         <v>235</v>
       </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
         <v>236</v>
       </c>
-      <c r="E7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>237</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>238</v>
-      </c>
-      <c r="I7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
         <v>240</v>
       </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
         <v>241</v>
       </c>
-      <c r="E8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>242</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>243</v>
-      </c>
-      <c r="I8" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
         <v>245</v>
       </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" t="s">
         <v>246</v>
       </c>
-      <c r="E9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>247</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>248</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>249</v>
-      </c>
-      <c r="I9" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
         <v>251</v>
       </c>
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>252</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>253</v>
-      </c>
-      <c r="I10" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
         <v>255</v>
       </c>
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>256</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>257</v>
-      </c>
-      <c r="I11" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
         <v>259</v>
       </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>260</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>261</v>
-      </c>
-      <c r="I12" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
         <v>263</v>
       </c>
-      <c r="C13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>264</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>265</v>
-      </c>
-      <c r="I13" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
         <v>267</v>
       </c>
-      <c r="C14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>268</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>269</v>
-      </c>
-      <c r="I14" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" t="s">
         <v>271</v>
       </c>
-      <c r="C15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>272</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>273</v>
-      </c>
-      <c r="I15" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
         <v>275</v>
       </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>276</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>277</v>
-      </c>
-      <c r="I16" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
         <v>279</v>
       </c>
-      <c r="C17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>280</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>281</v>
-      </c>
-      <c r="I17" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" t="s">
         <v>283</v>
       </c>
-      <c r="C18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" t="s">
-        <v>166</v>
-      </c>
-      <c r="F18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>284</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>285</v>
-      </c>
-      <c r="I18" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" t="s">
         <v>287</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s">
         <v>288</v>
       </c>
-      <c r="F19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>289</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>290</v>
-      </c>
-      <c r="I19" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" t="s">
         <v>292</v>
       </c>
-      <c r="C20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" t="s">
-        <v>172</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>293</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>294</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>295</v>
-      </c>
-      <c r="I20" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" t="s">
         <v>297</v>
       </c>
-      <c r="C21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" t="s">
         <v>298</v>
       </c>
-      <c r="E21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>299</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>300</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>301</v>
-      </c>
-      <c r="I21" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" t="s">
         <v>303</v>
       </c>
-      <c r="C22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F22" t="s">
-        <v>184</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>304</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>305</v>
-      </c>
-      <c r="I22" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" t="s">
         <v>307</v>
       </c>
-      <c r="C23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" t="s">
         <v>308</v>
       </c>
-      <c r="F23" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>309</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>310</v>
-      </c>
-      <c r="I23" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
+        <v>311</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" t="s">
         <v>312</v>
       </c>
-      <c r="C24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" t="s">
         <v>313</v>
       </c>
-      <c r="F24" t="s">
-        <v>177</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>314</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>315</v>
-      </c>
-      <c r="I24" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
+        <v>316</v>
+      </c>
+      <c r="D25" t="s">
         <v>317</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" t="s">
         <v>318</v>
       </c>
-      <c r="F25" t="s">
-        <v>200</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>319</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>320</v>
-      </c>
-      <c r="I25" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
+        <v>321</v>
+      </c>
+      <c r="D26" t="s">
         <v>322</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" t="s">
         <v>323</v>
       </c>
-      <c r="F26" t="s">
-        <v>204</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>324</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>325</v>
-      </c>
-      <c r="I26" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
+        <v>326</v>
+      </c>
+      <c r="D27" t="s">
         <v>327</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" t="s">
         <v>328</v>
       </c>
-      <c r="F27" t="s">
-        <v>202</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>329</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>330</v>
-      </c>
-      <c r="I27" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
+        <v>331</v>
+      </c>
+      <c r="D28" t="s">
         <v>332</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" t="s">
         <v>333</v>
       </c>
-      <c r="F28" t="s">
-        <v>199</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>334</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>335</v>
-      </c>
-      <c r="I28" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
+        <v>336</v>
+      </c>
+      <c r="D29" t="s">
         <v>337</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" t="s">
         <v>338</v>
       </c>
-      <c r="F29" t="s">
-        <v>201</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>339</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>340</v>
-      </c>
-      <c r="I29" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
+        <v>341</v>
+      </c>
+      <c r="D30" t="s">
         <v>342</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" t="s">
         <v>343</v>
       </c>
-      <c r="F30" t="s">
-        <v>209</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>344</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>345</v>
-      </c>
-      <c r="I30" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
+        <v>346</v>
+      </c>
+      <c r="D31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" t="s">
         <v>347</v>
       </c>
-      <c r="D31" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" t="s">
-        <v>168</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>348</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>349</v>
-      </c>
-      <c r="I31" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G32" t="s">
+        <v>350</v>
+      </c>
+      <c r="H32" t="s">
         <v>351</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>352</v>
-      </c>
-      <c r="I32" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G33" t="s">
+        <v>353</v>
+      </c>
+      <c r="H33" t="s">
         <v>354</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>355</v>
-      </c>
-      <c r="I33" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F34" t="s">
+        <v>356</v>
+      </c>
+      <c r="G34" t="s">
         <v>357</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>358</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>359</v>
-      </c>
-      <c r="I34" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F35" t="s">
+        <v>360</v>
+      </c>
+      <c r="G35" t="s">
         <v>361</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>362</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>363</v>
-      </c>
-      <c r="I35" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F36" t="s">
+        <v>364</v>
+      </c>
+      <c r="G36" t="s">
         <v>365</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>366</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>367</v>
-      </c>
-      <c r="I36" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F37" t="s">
+        <v>368</v>
+      </c>
+      <c r="G37" t="s">
         <v>369</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>370</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>371</v>
-      </c>
-      <c r="I37" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F38" t="s">
+        <v>372</v>
+      </c>
+      <c r="G38" t="s">
         <v>373</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>374</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>375</v>
-      </c>
-      <c r="I38" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F39" t="s">
+        <v>376</v>
+      </c>
+      <c r="G39" t="s">
         <v>377</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>378</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>379</v>
-      </c>
-      <c r="I39" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F40" t="s">
+        <v>380</v>
+      </c>
+      <c r="G40" t="s">
         <v>381</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>382</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>383</v>
-      </c>
-      <c r="I40" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F41" t="s">
+        <v>384</v>
+      </c>
+      <c r="G41" t="s">
         <v>385</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>386</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>387</v>
-      </c>
-      <c r="I41" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D42" t="s">
+        <v>388</v>
+      </c>
+      <c r="F42" t="s">
+        <v>388</v>
+      </c>
+      <c r="G42" t="s">
         <v>389</v>
       </c>
-      <c r="F42" t="s">
-        <v>389</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>390</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>391</v>
-      </c>
-      <c r="I42" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G43" t="s">
+        <v>392</v>
+      </c>
+      <c r="H43" t="s">
         <v>393</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>394</v>
-      </c>
-      <c r="I43" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G44" t="s">
+        <v>395</v>
+      </c>
+      <c r="H44" t="s">
         <v>396</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>397</v>
-      </c>
-      <c r="I44" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G45" t="s">
+        <v>398</v>
+      </c>
+      <c r="H45" t="s">
         <v>399</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>400</v>
-      </c>
-      <c r="I45" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G46" t="s">
+        <v>401</v>
+      </c>
+      <c r="H46" t="s">
         <v>402</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>403</v>
-      </c>
-      <c r="I46" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G47" t="s">
+        <v>404</v>
+      </c>
+      <c r="H47" t="s">
         <v>405</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>406</v>
-      </c>
-      <c r="I47" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G48" t="s">
+        <v>407</v>
+      </c>
+      <c r="H48" t="s">
         <v>408</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>409</v>
-      </c>
-      <c r="I48" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="49" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G49" t="s">
+        <v>410</v>
+      </c>
+      <c r="H49" t="s">
         <v>411</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>412</v>
-      </c>
-      <c r="I49" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G50" t="s">
+        <v>413</v>
+      </c>
+      <c r="H50" t="s">
         <v>414</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>415</v>
-      </c>
-      <c r="I50" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G51" t="s">
+        <v>416</v>
+      </c>
+      <c r="H51" t="s">
+        <v>388</v>
+      </c>
+      <c r="I51" t="s">
         <v>417</v>
-      </c>
-      <c r="H51" t="s">
-        <v>389</v>
-      </c>
-      <c r="I51" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G52" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I52" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="53" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G53" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G61" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G66" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G67" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G68" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G70" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G71" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="72" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G72" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G73" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G76" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G77" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="78" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G78" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G79" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="80" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G80" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="81" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G81" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="82" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G82" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="83" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G83" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G84" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G85" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="86" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G86" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="87" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G87" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G88" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G89" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="90" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G90" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G91" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="92" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G92" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="93" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G93" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G94" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="95" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G95" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="96" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G96" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="97" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G97" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="98" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G98" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G99" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="100" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G100" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="101" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G101" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G102" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -4408,10 +4408,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4426,136 +4426,136 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
       <c r="D1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" t="s">
         <v>155</v>
-      </c>
-      <c r="B9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s">
         <v>159</v>
-      </c>
-      <c r="B12" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" t="s">
         <v>161</v>
-      </c>
-      <c r="B13" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s">
         <v>163</v>
-      </c>
-      <c r="B14" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -4563,10 +4563,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -4574,13 +4574,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" t="s">
         <v>168</v>
-      </c>
-      <c r="D18" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -4588,13 +4588,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -4602,369 +4602,377 @@
         <v>9</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" t="s">
         <v>173</v>
-      </c>
-      <c r="B23" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" t="s">
         <v>176</v>
       </c>
-      <c r="B25" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>177</v>
-      </c>
-      <c r="D25" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" t="s">
         <v>179</v>
-      </c>
-      <c r="B26" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" t="s">
         <v>181</v>
-      </c>
-      <c r="B27" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" t="s">
         <v>183</v>
-      </c>
-      <c r="B28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" t="s">
         <v>185</v>
-      </c>
-      <c r="B29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" t="s">
         <v>187</v>
-      </c>
-      <c r="B30" t="s">
-        <v>165</v>
-      </c>
-      <c r="C30" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" t="s">
         <v>189</v>
-      </c>
-      <c r="B31" t="s">
-        <v>165</v>
-      </c>
-      <c r="C31" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" t="s">
         <v>195</v>
-      </c>
-      <c r="B37" t="s">
-        <v>165</v>
-      </c>
-      <c r="C37" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" t="s">
         <v>197</v>
-      </c>
-      <c r="B38" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" t="s">
         <v>203</v>
       </c>
-      <c r="B43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>204</v>
-      </c>
-      <c r="D43" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" t="s">
         <v>206</v>
-      </c>
-      <c r="B44" t="s">
-        <v>166</v>
-      </c>
-      <c r="C44" t="s">
-        <v>204</v>
-      </c>
-      <c r="D44" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>207</v>
+      </c>
+      <c r="B45" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" t="s">
         <v>208</v>
-      </c>
-      <c r="B45" t="s">
-        <v>166</v>
-      </c>
-      <c r="C45" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" t="s">
         <v>210</v>
-      </c>
-      <c r="B50" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B51" t="s">
         <v>212</v>
       </c>
-      <c r="B51" t="s">
-        <v>213</v>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4982,8 +4990,8 @@
   </sheetPr>
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4995,13 +5003,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>77</v>
-      </c>
-      <c r="C1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -5009,7 +5017,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -5017,7 +5025,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -5025,7 +5033,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -5033,7 +5041,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -5041,7 +5049,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -5049,7 +5057,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -5057,7 +5065,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -5065,55 +5073,55 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
         <v>87</v>
-      </c>
-      <c r="B10" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
         <v>89</v>
-      </c>
-      <c r="B11" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
         <v>91</v>
-      </c>
-      <c r="B12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
         <v>93</v>
-      </c>
-      <c r="B13" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
         <v>95</v>
-      </c>
-      <c r="B14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
         <v>97</v>
-      </c>
-      <c r="B15" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -5121,18 +5129,18 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
         <v>100</v>
-      </c>
-      <c r="C17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -5140,219 +5148,219 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
         <v>103</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
         <v>106</v>
-      </c>
-      <c r="B21" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" t="s">
         <v>108</v>
-      </c>
-      <c r="B22" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="s">
         <v>112</v>
-      </c>
-      <c r="B27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
         <v>100</v>
-      </c>
-      <c r="C35" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -5360,10 +5368,10 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -5371,10 +5379,10 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -5382,10 +5390,10 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -5393,10 +5401,10 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -5404,10 +5412,10 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5415,10 +5423,10 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -5426,10 +5434,10 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -5437,10 +5445,10 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -5448,345 +5456,345 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
         <v>100</v>
-      </c>
-      <c r="C49" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" t="s">
         <v>127</v>
-      </c>
-      <c r="B52" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
         <v>129</v>
-      </c>
-      <c r="B53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" t="s">
         <v>131</v>
-      </c>
-      <c r="B54" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" t="s">
         <v>134</v>
-      </c>
-      <c r="B56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -5794,15 +5802,15 @@
         <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -5810,23 +5818,23 @@
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -5867,16 +5875,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -5884,13 +5892,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -5898,13 +5906,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -5912,13 +5920,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -5926,13 +5934,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -5940,13 +5948,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -5954,13 +5962,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -5968,13 +5976,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -5982,13 +5990,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -5996,13 +6004,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -6010,13 +6018,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -6024,13 +6032,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -6038,13 +6046,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -6052,13 +6060,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -6066,13 +6074,13 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -6080,13 +6088,13 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -6094,13 +6102,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -6108,13 +6116,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -6122,13 +6130,13 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -6136,13 +6144,13 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -6150,13 +6158,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -6164,13 +6172,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -6178,13 +6186,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -6192,13 +6200,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -6206,13 +6214,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -6220,13 +6228,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -6234,13 +6242,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -6265,223 +6273,223 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -6489,7 +6497,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -6517,10 +6525,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1" t="s">
         <v>474</v>
-      </c>
-      <c r="B1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -6528,7 +6536,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -6536,7 +6544,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -6544,7 +6552,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -6552,7 +6560,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -6560,15 +6568,15 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -6576,39 +6584,39 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -6616,7 +6624,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -6624,23 +6632,23 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -6648,7 +6656,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -6656,295 +6664,295 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B43" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B54" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -6952,255 +6960,255 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B62" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B65" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B66" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B67" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B68" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B69" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B70" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B71" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B72" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B73" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B74" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B75" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B77" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B79" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B81" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B82" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B83" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B84" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B85" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B86" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -7214,7 +7222,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7224,15 +7232,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>18</v>
@@ -7240,15 +7248,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>500</v>
@@ -7256,7 +7264,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <v>300</v>
@@ -7273,10 +7281,12 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7297,37 +7307,37 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="D1" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17"/>
+      <c r="D1" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -7380,7 +7390,7 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -7406,7 +7416,7 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -7432,7 +7442,7 @@
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -7467,7 +7477,7 @@
         <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -7480,7 +7490,7 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
@@ -7495,7 +7505,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>493</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -7507,18 +7517,18 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>493</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -7530,15 +7540,15 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
         <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>493</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -7550,10 +7560,10 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
         <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -7570,19 +7580,19 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
         <v>19</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>20</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>21</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>22</v>
-      </c>
-      <c r="J11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -7599,24 +7609,24 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
         <v>19</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>20</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>21</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>22</v>
-      </c>
-      <c r="J12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -7625,27 +7635,27 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
         <v>19</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>20</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>21</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>22</v>
-      </c>
-      <c r="J13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -7654,22 +7664,22 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
         <v>19</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>20</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>21</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>22</v>
-      </c>
-      <c r="J14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -7692,24 +7702,24 @@
         <v>9</v>
       </c>
       <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
         <v>25</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>26</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>27</v>
       </c>
-      <c r="K15" t="s">
-        <v>28</v>
-      </c>
       <c r="L15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -7718,7 +7728,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -7733,7 +7743,7 @@
         <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K16" t="s">
         <v>5</v>
@@ -7742,15 +7752,15 @@
         <v>12</v>
       </c>
       <c r="M16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -7759,7 +7769,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F17" t="s">
         <v>1</v>
@@ -7768,24 +7778,24 @@
         <v>9</v>
       </c>
       <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
         <v>25</v>
       </c>
-      <c r="I17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" t="s">
-        <v>26</v>
-      </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -7794,7 +7804,7 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F18" t="s">
         <v>1</v>
@@ -7803,24 +7813,24 @@
         <v>9</v>
       </c>
       <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
         <v>25</v>
       </c>
-      <c r="I18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" t="s">
-        <v>26</v>
-      </c>
       <c r="K18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -7829,21 +7839,21 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -7852,21 +7862,21 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -7875,21 +7885,21 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -7898,7 +7908,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -7913,21 +7923,21 @@
         <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K22" t="s">
         <v>5</v>
       </c>
       <c r="L22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -7936,15 +7946,15 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -7953,27 +7963,27 @@
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
         <v>19</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>20</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>21</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>22</v>
-      </c>
-      <c r="J24" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -7982,30 +7992,30 @@
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
         <v>19</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>20</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>21</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>22</v>
-      </c>
-      <c r="K25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -8014,15 +8024,15 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -8031,27 +8041,27 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
         <v>19</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>20</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>21</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>22</v>
-      </c>
-      <c r="J27" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -8060,30 +8070,30 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s">
         <v>19</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>20</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>21</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>22</v>
-      </c>
-      <c r="K28" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -8092,7 +8102,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -8104,18 +8114,18 @@
         <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -8124,7 +8134,7 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -8136,18 +8146,18 @@
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -8156,7 +8166,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -8168,18 +8178,18 @@
         <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -8188,30 +8198,30 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" t="s">
         <v>19</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>20</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>21</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>22</v>
-      </c>
-      <c r="K32" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -8220,30 +8230,30 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" t="s">
         <v>19</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>20</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>21</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>22</v>
-      </c>
-      <c r="K33" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -8252,30 +8262,30 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" t="s">
         <v>19</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>20</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>21</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>22</v>
-      </c>
-      <c r="K34" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -8284,30 +8294,30 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" t="s">
         <v>19</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>20</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>21</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>22</v>
-      </c>
-      <c r="K35" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -8316,24 +8326,24 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
         <v>21</v>
-      </c>
-      <c r="I36" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -8342,24 +8352,24 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
         <v>21</v>
-      </c>
-      <c r="I37" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -8368,30 +8378,30 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -8400,30 +8410,30 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
       </c>
       <c r="I39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -8432,13 +8442,13 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s">
         <v>3</v>
@@ -8447,18 +8457,18 @@
         <v>4</v>
       </c>
       <c r="J40" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -8467,13 +8477,13 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41" t="s">
         <v>3</v>
@@ -8482,18 +8492,18 @@
         <v>4</v>
       </c>
       <c r="J41" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -8502,36 +8512,36 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
       </c>
       <c r="G42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" t="s">
         <v>42</v>
-      </c>
-      <c r="H42" t="s">
-        <v>43</v>
       </c>
       <c r="I42" t="s">
         <v>4</v>
       </c>
       <c r="J42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K42" t="s">
         <v>3</v>
       </c>
       <c r="L42" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -8540,36 +8550,36 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
       </c>
       <c r="G43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" t="s">
         <v>42</v>
-      </c>
-      <c r="H43" t="s">
-        <v>43</v>
       </c>
       <c r="I43" t="s">
         <v>4</v>
       </c>
       <c r="J43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K43" t="s">
         <v>3</v>
       </c>
       <c r="L43" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -8577,25 +8587,25 @@
       <c r="C44" t="s">
         <v>2</v>
       </c>
-      <c r="D44" t="s">
-        <v>23</v>
+      <c r="E44" t="s">
+        <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" t="s">
         <v>21</v>
-      </c>
-      <c r="I44" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -8603,25 +8613,25 @@
       <c r="C45" t="s">
         <v>8</v>
       </c>
-      <c r="D45" t="s">
-        <v>23</v>
+      <c r="E45" t="s">
+        <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" t="s">
         <v>21</v>
-      </c>
-      <c r="I45" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -8630,30 +8640,30 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -8662,30 +8672,30 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -8694,13 +8704,13 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F48" t="s">
         <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H48" t="s">
         <v>3</v>
@@ -8709,18 +8719,18 @@
         <v>4</v>
       </c>
       <c r="J48" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -8729,13 +8739,13 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F49" t="s">
         <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H49" t="s">
         <v>3</v>
@@ -8744,18 +8754,18 @@
         <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -8764,36 +8774,36 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
       </c>
       <c r="G50" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" t="s">
         <v>42</v>
-      </c>
-      <c r="H50" t="s">
-        <v>43</v>
       </c>
       <c r="I50" t="s">
         <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K50" t="s">
         <v>3</v>
       </c>
       <c r="L50" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -8802,36 +8812,36 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F51" t="s">
         <v>11</v>
       </c>
       <c r="G51" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" t="s">
         <v>42</v>
-      </c>
-      <c r="H51" t="s">
-        <v>43</v>
       </c>
       <c r="I51" t="s">
         <v>4</v>
       </c>
       <c r="J51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K51" t="s">
         <v>3</v>
       </c>
       <c r="L51" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -8840,7 +8850,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
@@ -8852,18 +8862,18 @@
         <v>5</v>
       </c>
       <c r="I52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -8872,7 +8882,7 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
@@ -8884,18 +8894,18 @@
         <v>5</v>
       </c>
       <c r="I53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -8904,18 +8914,18 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F54" t="s">
         <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -8924,30 +8934,30 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="F55" t="s">
-        <v>51</v>
-      </c>
-      <c r="G55" s="14" t="s">
         <v>50</v>
       </c>
+      <c r="G55" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>48</v>
+      </c>
+      <c r="J55" t="s">
         <v>47</v>
       </c>
-      <c r="I55" t="s">
-        <v>49</v>
-      </c>
-      <c r="J55" t="s">
-        <v>48</v>
-      </c>
-      <c r="K55" s="14" t="s">
-        <v>163</v>
+      <c r="K55" s="17" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -8956,89 +8966,25 @@
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>51</v>
-      </c>
-      <c r="G56" s="14" t="s">
         <v>50</v>
       </c>
+      <c r="G56" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>48</v>
+      </c>
+      <c r="J56" t="s">
         <v>47</v>
       </c>
-      <c r="I56" t="s">
-        <v>49</v>
-      </c>
-      <c r="J56" t="s">
-        <v>48</v>
-      </c>
-      <c r="K56" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s">
-        <v>28</v>
-      </c>
-      <c r="F57" t="s">
-        <v>51</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H57" t="s">
-        <v>47</v>
-      </c>
-      <c r="I57" t="s">
-        <v>49</v>
-      </c>
-      <c r="J57" t="s">
-        <v>48</v>
-      </c>
-      <c r="K57" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58">
-        <v>4</v>
-      </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" t="s">
-        <v>28</v>
-      </c>
-      <c r="F58" t="s">
-        <v>51</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H58" t="s">
-        <v>47</v>
-      </c>
-      <c r="I58" t="s">
-        <v>49</v>
-      </c>
-      <c r="J58" t="s">
-        <v>48</v>
-      </c>
-      <c r="K58" s="14" t="s">
-        <v>163</v>
+      <c r="K56" s="17" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B300A1D-132B-43C4-8128-830E5EA83327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A65DEB6-F59B-4C28-91B9-2EDC9C976785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27045" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="494">
   <si>
     <t>chart_type</t>
   </si>
@@ -1903,6 +1903,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1912,7 +1913,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -4410,8 +4410,8 @@
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4990,8 +4990,8 @@
   </sheetPr>
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7281,12 +7281,12 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69:D70"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7307,21 +7307,21 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -8939,7 +8939,7 @@
       <c r="F55" t="s">
         <v>50</v>
       </c>
-      <c r="G55" s="17" t="s">
+      <c r="G55" s="14" t="s">
         <v>49</v>
       </c>
       <c r="H55" t="s">
@@ -8951,7 +8951,7 @@
       <c r="J55" t="s">
         <v>47</v>
       </c>
-      <c r="K55" s="17" t="s">
+      <c r="K55" s="14" t="s">
         <v>162</v>
       </c>
     </row>
@@ -8971,7 +8971,7 @@
       <c r="F56" t="s">
         <v>50</v>
       </c>
-      <c r="G56" s="17" t="s">
+      <c r="G56" s="14" t="s">
         <v>49</v>
       </c>
       <c r="H56" t="s">
@@ -8983,8 +8983,78 @@
       <c r="J56" t="s">
         <v>47</v>
       </c>
-      <c r="K56" s="17" t="s">
+      <c r="K56" s="14" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" t="s">
+        <v>175</v>
+      </c>
+      <c r="G57" t="s">
+        <v>178</v>
+      </c>
+      <c r="H57" t="s">
+        <v>180</v>
+      </c>
+      <c r="I57" t="s">
+        <v>182</v>
+      </c>
+      <c r="J57" t="s">
+        <v>184</v>
+      </c>
+      <c r="K57" t="s">
+        <v>186</v>
+      </c>
+      <c r="L57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" t="s">
+        <v>175</v>
+      </c>
+      <c r="G58" t="s">
+        <v>178</v>
+      </c>
+      <c r="H58" t="s">
+        <v>180</v>
+      </c>
+      <c r="I58" t="s">
+        <v>182</v>
+      </c>
+      <c r="J58" t="s">
+        <v>184</v>
+      </c>
+      <c r="K58" t="s">
+        <v>186</v>
+      </c>
+      <c r="L58" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A65DEB6-F59B-4C28-91B9-2EDC9C976785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F859DE-F6CA-46C9-B391-35FA0630D098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27045" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27045" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="494">
   <si>
     <t>chart_type</t>
   </si>
@@ -1684,7 +1684,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1704,13 +1704,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1879,10 +1872,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1895,15 +1888,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3117,7 +3109,7 @@
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="C4" sqref="C4:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3134,36 +3126,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4410,8 +4402,8 @@
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4562,7 +4554,7 @@
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>491</v>
       </c>
       <c r="C17" t="s">
@@ -4573,7 +4565,7 @@
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>491</v>
       </c>
       <c r="C18" t="s">
@@ -4587,7 +4579,7 @@
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>491</v>
       </c>
       <c r="C19" t="s">
@@ -4601,7 +4593,7 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>491</v>
       </c>
       <c r="C20" t="s">
@@ -4612,7 +4604,7 @@
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>491</v>
       </c>
       <c r="C21" t="s">
@@ -4809,7 +4801,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>194</v>
       </c>
       <c r="B37" t="s">
@@ -4988,10 +4980,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5562,13 +5554,13 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="11" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5794,57 +5786,870 @@
         <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>24</v>
+      </c>
+      <c r="B117" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>24</v>
+      </c>
+      <c r="B118" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B119" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>24</v>
+      </c>
+      <c r="B120" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>24</v>
+      </c>
+      <c r="B121" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>24</v>
+      </c>
+      <c r="B122" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>24</v>
+      </c>
+      <c r="B123" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>24</v>
+      </c>
+      <c r="B125" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>24</v>
+      </c>
+      <c r="B126" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>24</v>
+      </c>
+      <c r="B127" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>24</v>
+      </c>
+      <c r="B129" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>24</v>
+      </c>
+      <c r="B130" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>24</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>24</v>
+      </c>
+      <c r="B132" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>24</v>
+      </c>
+      <c r="B133" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>22</v>
+      </c>
+      <c r="B152" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>22</v>
+      </c>
+      <c r="B153" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>22</v>
+      </c>
+      <c r="B154" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>22</v>
+      </c>
+      <c r="B155" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>22</v>
+      </c>
+      <c r="B156" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>22</v>
+      </c>
+      <c r="B157" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>22</v>
+      </c>
+      <c r="B158" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>22</v>
+      </c>
+      <c r="B159" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>22</v>
+      </c>
+      <c r="B160" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>22</v>
+      </c>
+      <c r="B161" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>22</v>
+      </c>
+      <c r="B162" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>22</v>
+      </c>
+      <c r="B163" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>22</v>
+      </c>
+      <c r="B164" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>22</v>
+      </c>
+      <c r="B165" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>22</v>
+      </c>
+      <c r="B166" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>22</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>22</v>
+      </c>
+      <c r="B168" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>22</v>
+      </c>
+      <c r="B169" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>162</v>
       </c>
-      <c r="B85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B87" s="6"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="6"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B89" s="6"/>
+      <c r="B170" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>162</v>
+      </c>
+      <c r="B171" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>162</v>
+      </c>
+      <c r="B172" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>162</v>
+      </c>
+      <c r="B173" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>162</v>
+      </c>
+      <c r="B174" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>162</v>
+      </c>
+      <c r="B175" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>162</v>
+      </c>
+      <c r="B176" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>162</v>
+      </c>
+      <c r="B177" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>162</v>
+      </c>
+      <c r="B178" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>162</v>
+      </c>
+      <c r="B179" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>162</v>
+      </c>
+      <c r="B180" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>162</v>
+      </c>
+      <c r="B181" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>162</v>
+      </c>
+      <c r="B182" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>162</v>
+      </c>
+      <c r="B183" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>162</v>
+      </c>
+      <c r="B184" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>162</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>162</v>
+      </c>
+      <c r="B186" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>162</v>
+      </c>
+      <c r="B187" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B203" s="4"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B221" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7307,21 +8112,21 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -8939,7 +9744,7 @@
       <c r="F55" t="s">
         <v>50</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="13" t="s">
         <v>49</v>
       </c>
       <c r="H55" t="s">
@@ -8951,7 +9756,7 @@
       <c r="J55" t="s">
         <v>47</v>
       </c>
-      <c r="K55" s="14" t="s">
+      <c r="K55" s="13" t="s">
         <v>162</v>
       </c>
     </row>
@@ -8971,7 +9776,7 @@
       <c r="F56" t="s">
         <v>50</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="13" t="s">
         <v>49</v>
       </c>
       <c r="H56" t="s">
@@ -8983,7 +9788,7 @@
       <c r="J56" t="s">
         <v>47</v>
       </c>
-      <c r="K56" s="14" t="s">
+      <c r="K56" s="13" t="s">
         <v>162</v>
       </c>
     </row>

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F859DE-F6CA-46C9-B391-35FA0630D098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8176C95-FD1B-43C0-B1F9-D3E3CFA4043C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27045" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -1684,7 +1684,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1744,6 +1744,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1875,7 +1881,7 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1895,7 +1901,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1905,6 +1910,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -4402,7 +4410,7 @@
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -4982,8 +4990,8 @@
   </sheetPr>
   <dimension ref="A1:C221"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5902,746 +5910,746 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="A95" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="A96" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="A97" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="A98" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="A101" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="A102" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="A103" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="A104" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="A105" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="A106" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="A107" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="A108" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+      <c r="A109" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+      <c r="A110" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+      <c r="A111" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="A112" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="A113" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="A114" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="A115" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+      <c r="A116" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+      <c r="A117" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+      <c r="A118" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+      <c r="A119" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+      <c r="A120" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+      <c r="A121" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+      <c r="A122" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+      <c r="A123" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+      <c r="A124" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+      <c r="A125" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+      <c r="A126" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+      <c r="A127" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+      <c r="A128" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+      <c r="A129" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+      <c r="A130" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+      <c r="A131" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+      <c r="A132" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+      <c r="A133" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+      <c r="A134" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
+      <c r="A135" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+      <c r="A136" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+      <c r="A137" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+      <c r="A138" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+      <c r="A139" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+      <c r="A140" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+      <c r="A141" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
+      <c r="A142" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+      <c r="A143" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
+      <c r="A144" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+      <c r="A145" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+      <c r="A146" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+      <c r="A147" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
+      <c r="A148" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+      <c r="A149" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+      <c r="A150" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+      <c r="A151" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
+      <c r="A152" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
+      <c r="A153" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
+      <c r="A154" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
+      <c r="A155" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
+      <c r="A156" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
+      <c r="A157" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
+      <c r="A158" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
+      <c r="A159" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
+      <c r="A160" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+      <c r="A161" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+      <c r="A162" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+      <c r="A163" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
+      <c r="A164" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
+      <c r="A165" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
+      <c r="A166" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
+      <c r="A167" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
+      <c r="A168" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
+      <c r="A169" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
+      <c r="A170" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
+      <c r="A171" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
+      <c r="A172" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+      <c r="A173" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
+      <c r="A174" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
+      <c r="A175" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
+      <c r="A176" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+      <c r="A177" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+      <c r="A178" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
+      <c r="A179" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
+      <c r="A180" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
+      <c r="A181" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
+      <c r="A182" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
+      <c r="A183" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
+      <c r="A184" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
+      <c r="A185" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
+      <c r="A186" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
+      <c r="A187" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="16" t="s">
         <v>103</v>
       </c>
     </row>
@@ -8088,10 +8096,10 @@
   </sheetPr>
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8112,21 +8120,21 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -9744,7 +9752,7 @@
       <c r="F55" t="s">
         <v>50</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="G55" s="17" t="s">
         <v>49</v>
       </c>
       <c r="H55" t="s">
@@ -9756,7 +9764,7 @@
       <c r="J55" t="s">
         <v>47</v>
       </c>
-      <c r="K55" s="13" t="s">
+      <c r="K55" s="17" t="s">
         <v>162</v>
       </c>
     </row>
@@ -9776,7 +9784,7 @@
       <c r="F56" t="s">
         <v>50</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="17" t="s">
         <v>49</v>
       </c>
       <c r="H56" t="s">
@@ -9788,7 +9796,7 @@
       <c r="J56" t="s">
         <v>47</v>
       </c>
-      <c r="K56" s="13" t="s">
+      <c r="K56" s="17" t="s">
         <v>162</v>
       </c>
     </row>
@@ -9820,7 +9828,7 @@
       <c r="J57" t="s">
         <v>184</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="18" t="s">
         <v>186</v>
       </c>
       <c r="L57" t="s">

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\9th_edition_visualisation\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8176C95-FD1B-43C0-B1F9-D3E3CFA4043C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE3328D-A380-475F-B915-96B1ADBF023E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" tabRatio="812" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -1881,7 +1881,7 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1901,6 +1901,8 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1910,9 +1912,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -3120,25 +3119,25 @@
       <selection activeCell="C4" sqref="C4:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>214</v>
       </c>
@@ -3167,7 +3166,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>218</v>
       </c>
@@ -3196,7 +3195,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>224</v>
       </c>
@@ -3225,7 +3224,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>230</v>
       </c>
@@ -3251,7 +3250,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>234</v>
       </c>
@@ -3277,7 +3276,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>239</v>
       </c>
@@ -3303,7 +3302,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>244</v>
       </c>
@@ -3329,7 +3328,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>250</v>
       </c>
@@ -3355,7 +3354,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>254</v>
       </c>
@@ -3381,7 +3380,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>258</v>
       </c>
@@ -3407,7 +3406,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>262</v>
       </c>
@@ -3433,7 +3432,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>266</v>
       </c>
@@ -3459,7 +3458,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>270</v>
       </c>
@@ -3485,7 +3484,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>274</v>
       </c>
@@ -3511,7 +3510,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>278</v>
       </c>
@@ -3537,7 +3536,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>282</v>
       </c>
@@ -3563,7 +3562,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>286</v>
       </c>
@@ -3589,7 +3588,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>291</v>
       </c>
@@ -3615,7 +3614,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>296</v>
       </c>
@@ -3641,7 +3640,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>302</v>
       </c>
@@ -3667,7 +3666,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>306</v>
       </c>
@@ -3690,7 +3689,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>311</v>
       </c>
@@ -3713,7 +3712,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>316</v>
       </c>
@@ -3733,7 +3732,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>321</v>
       </c>
@@ -3753,7 +3752,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>326</v>
       </c>
@@ -3773,7 +3772,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>331</v>
       </c>
@@ -3793,7 +3792,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>336</v>
       </c>
@@ -3813,7 +3812,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>341</v>
       </c>
@@ -3833,7 +3832,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>346</v>
       </c>
@@ -3853,7 +3852,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>113</v>
       </c>
@@ -3870,7 +3869,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>114</v>
       </c>
@@ -3887,7 +3886,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>115</v>
       </c>
@@ -3904,7 +3903,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>116</v>
       </c>
@@ -3921,7 +3920,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>117</v>
       </c>
@@ -3938,7 +3937,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>118</v>
       </c>
@@ -3955,7 +3954,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>119</v>
       </c>
@@ -3972,7 +3971,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>100</v>
       </c>
@@ -3989,7 +3988,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>124</v>
       </c>
@@ -4006,7 +4005,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>125</v>
       </c>
@@ -4023,7 +4022,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>388</v>
       </c>
@@ -4040,7 +4039,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>392</v>
       </c>
@@ -4051,7 +4050,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
         <v>395</v>
       </c>
@@ -4062,7 +4061,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
         <v>398</v>
       </c>
@@ -4073,7 +4072,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
         <v>401</v>
       </c>
@@ -4084,7 +4083,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
         <v>404</v>
       </c>
@@ -4095,7 +4094,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
         <v>407</v>
       </c>
@@ -4106,7 +4105,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
         <v>410</v>
       </c>
@@ -4117,7 +4116,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
         <v>413</v>
       </c>
@@ -4128,7 +4127,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
         <v>416</v>
       </c>
@@ -4139,7 +4138,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="52" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
         <v>418</v>
       </c>
@@ -4147,252 +4146,252 @@
         <v>388</v>
       </c>
     </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="54" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="55" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G57" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G59" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G60" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G63" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G67" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G71" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G74" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G75" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G76" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G78" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G80" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G81" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G82" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G83" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G84" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G85" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G86" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G89" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G90" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G91" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G92" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G94" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G95" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G96" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G97" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G98" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G99" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G100" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G102" t="s">
         <v>388</v>
       </c>
@@ -4410,21 +4409,21 @@
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.1796875" customWidth="1"/>
-    <col min="2" max="2" width="64.81640625" customWidth="1"/>
-    <col min="3" max="3" width="43.81640625" customWidth="1"/>
-    <col min="12" max="12" width="19.81640625" customWidth="1"/>
-    <col min="13" max="13" width="27.1796875" customWidth="1"/>
+    <col min="1" max="1" width="62.140625" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="27.140625" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -4438,7 +4437,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -4446,7 +4445,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -4454,7 +4453,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -4462,7 +4461,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -4470,7 +4469,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -4478,7 +4477,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -4486,7 +4485,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -4502,7 +4501,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -4510,7 +4509,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -4518,7 +4517,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -4526,7 +4525,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>160</v>
       </c>
@@ -4534,7 +4533,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -4542,7 +4541,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -4550,7 +4549,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -4558,7 +4557,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -4569,7 +4568,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -4583,7 +4582,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -4597,7 +4596,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -4608,7 +4607,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -4619,7 +4618,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
@@ -4627,7 +4626,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>172</v>
       </c>
@@ -4635,7 +4634,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>174</v>
       </c>
@@ -4643,7 +4642,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>175</v>
       </c>
@@ -4657,7 +4656,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>178</v>
       </c>
@@ -4671,7 +4670,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>180</v>
       </c>
@@ -4685,7 +4684,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>182</v>
       </c>
@@ -4696,7 +4695,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>184</v>
       </c>
@@ -4710,7 +4709,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>186</v>
       </c>
@@ -4724,7 +4723,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>188</v>
       </c>
@@ -4738,7 +4737,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>188</v>
       </c>
@@ -4752,7 +4751,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>188</v>
       </c>
@@ -4766,7 +4765,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>188</v>
       </c>
@@ -4780,7 +4779,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>188</v>
       </c>
@@ -4794,7 +4793,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>188</v>
       </c>
@@ -4808,7 +4807,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>194</v>
       </c>
@@ -4822,7 +4821,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>196</v>
       </c>
@@ -4833,7 +4832,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -4844,7 +4843,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -4855,7 +4854,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -4866,7 +4865,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -4877,7 +4876,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>202</v>
       </c>
@@ -4891,7 +4890,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>205</v>
       </c>
@@ -4905,7 +4904,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>207</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>487</v>
       </c>
@@ -4924,7 +4923,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -4932,7 +4931,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -4940,7 +4939,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -4951,7 +4950,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>209</v>
       </c>
@@ -4959,7 +4958,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>211</v>
       </c>
@@ -4967,7 +4966,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -4994,14 +4993,14 @@
       <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.81640625" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" customWidth="1"/>
-    <col min="3" max="3" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="57.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -5012,7 +5011,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -5020,7 +5019,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5028,7 +5027,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -5036,7 +5035,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -5044,7 +5043,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5052,7 +5051,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5060,7 +5059,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5068,7 +5067,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -5084,7 +5083,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -5092,7 +5091,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -5100,7 +5099,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -5108,7 +5107,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -5116,7 +5115,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -5124,7 +5123,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -5132,7 +5131,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -5143,7 +5142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -5151,7 +5150,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -5159,7 +5158,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>486</v>
       </c>
@@ -5167,7 +5166,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -5175,7 +5174,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>107</v>
       </c>
@@ -5183,7 +5182,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -5191,7 +5190,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -5199,7 +5198,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -5207,7 +5206,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>111</v>
       </c>
@@ -5215,7 +5214,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>111</v>
       </c>
@@ -5226,7 +5225,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>111</v>
       </c>
@@ -5237,7 +5236,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>111</v>
       </c>
@@ -5248,7 +5247,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>111</v>
       </c>
@@ -5259,7 +5258,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>111</v>
       </c>
@@ -5270,7 +5269,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>111</v>
       </c>
@@ -5281,7 +5280,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>111</v>
       </c>
@@ -5292,7 +5291,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>111</v>
       </c>
@@ -5303,7 +5302,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>111</v>
       </c>
@@ -5314,7 +5313,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -5325,7 +5324,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -5336,7 +5335,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -5347,7 +5346,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -5355,7 +5354,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -5363,7 +5362,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -5374,7 +5373,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -5385,7 +5384,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -5396,7 +5395,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -5407,7 +5406,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -5418,7 +5417,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -5429,7 +5428,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -5440,7 +5439,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -5451,7 +5450,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -5462,7 +5461,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -5473,7 +5472,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -5484,7 +5483,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>126</v>
       </c>
@@ -5495,7 +5494,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>128</v>
       </c>
@@ -5506,7 +5505,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>130</v>
       </c>
@@ -5517,7 +5516,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>490</v>
       </c>
@@ -5528,7 +5527,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>133</v>
       </c>
@@ -5539,7 +5538,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>133</v>
       </c>
@@ -5550,7 +5549,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>36</v>
       </c>
@@ -5561,7 +5560,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>29</v>
       </c>
@@ -5572,7 +5571,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -5583,7 +5582,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -5594,7 +5593,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -5605,7 +5604,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -5616,7 +5615,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -5627,7 +5626,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -5638,7 +5637,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>42</v>
       </c>
@@ -5649,7 +5648,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -5660,7 +5659,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -5671,7 +5670,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -5682,7 +5681,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>42</v>
       </c>
@@ -5693,7 +5692,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>142</v>
       </c>
@@ -5704,7 +5703,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -5715,7 +5714,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>144</v>
       </c>
@@ -5723,7 +5722,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -5734,7 +5733,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>144</v>
       </c>
@@ -5745,7 +5744,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>144</v>
       </c>
@@ -5756,7 +5755,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>144</v>
       </c>
@@ -5767,7 +5766,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>144</v>
       </c>
@@ -5778,7 +5777,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>144</v>
       </c>
@@ -5789,7 +5788,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -5797,7 +5796,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>27</v>
       </c>
@@ -5805,7 +5804,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -5813,7 +5812,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -5821,7 +5820,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -5829,7 +5828,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>27</v>
       </c>
@@ -5837,7 +5836,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>27</v>
       </c>
@@ -5845,7 +5844,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>27</v>
       </c>
@@ -5853,7 +5852,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -5861,7 +5860,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>27</v>
       </c>
@@ -5869,7 +5868,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -5877,7 +5876,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>27</v>
       </c>
@@ -5885,7 +5884,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>27</v>
       </c>
@@ -5893,7 +5892,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>27</v>
       </c>
@@ -5901,7 +5900,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -5909,754 +5908,754 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="16" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>27</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="16" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>27</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="16" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>27</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="16" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>13</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="16" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>13</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="16" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>13</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="16" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>13</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B101" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="16" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>13</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="16" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>13</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="16" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>13</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="16" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>13</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="16" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>13</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="16" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>13</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="16" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>13</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="16" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>13</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="16" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>13</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="16" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>13</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="16" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="16" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>13</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="B113" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="16" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>13</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="16" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>13</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="B115" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="16" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>24</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="16" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>24</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="16" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>24</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="16" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>24</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="16" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>24</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="16" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>24</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="16" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>24</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="16" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>24</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="B123" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="16" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>24</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B124" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="16" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>24</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="B125" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="16" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>24</v>
       </c>
-      <c r="B126" s="16" t="s">
+      <c r="B126" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="16" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>24</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="16" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>24</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="B128" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="16" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>24</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B129" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="16" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>24</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B130" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="16" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>24</v>
       </c>
-      <c r="B131" s="16" t="s">
+      <c r="B131" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="16" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>24</v>
       </c>
-      <c r="B132" s="16" t="s">
+      <c r="B132" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="16" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>24</v>
       </c>
-      <c r="B133" s="16" t="s">
+      <c r="B133" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="16" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>1</v>
       </c>
-      <c r="B134" s="16" t="s">
+      <c r="B134" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="16" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>1</v>
       </c>
-      <c r="B135" s="16" t="s">
+      <c r="B135" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="16" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>1</v>
       </c>
-      <c r="B136" s="16" t="s">
+      <c r="B136" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="16" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>1</v>
       </c>
-      <c r="B137" s="16" t="s">
+      <c r="B137" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" s="16" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>1</v>
       </c>
-      <c r="B138" s="16" t="s">
+      <c r="B138" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="16" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>1</v>
       </c>
-      <c r="B139" s="16" t="s">
+      <c r="B139" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" s="16" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>1</v>
       </c>
-      <c r="B140" s="16" t="s">
+      <c r="B140" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="16" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>1</v>
       </c>
-      <c r="B141" s="16" t="s">
+      <c r="B141" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="16" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>1</v>
       </c>
-      <c r="B142" s="16" t="s">
+      <c r="B142" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="16" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>1</v>
       </c>
-      <c r="B143" s="16" t="s">
+      <c r="B143" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="16" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>1</v>
       </c>
-      <c r="B144" s="16" t="s">
+      <c r="B144" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="16" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>1</v>
       </c>
-      <c r="B145" s="16" t="s">
+      <c r="B145" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="16" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>1</v>
       </c>
-      <c r="B146" s="16" t="s">
+      <c r="B146" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="16" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>1</v>
       </c>
-      <c r="B147" s="16" t="s">
+      <c r="B147" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" s="16" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>1</v>
       </c>
-      <c r="B148" s="16" t="s">
+      <c r="B148" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" s="16" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="16" t="s">
+      <c r="B149" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="16" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>1</v>
       </c>
-      <c r="B150" s="16" t="s">
+      <c r="B150" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="16" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>1</v>
       </c>
-      <c r="B151" s="16" t="s">
+      <c r="B151" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="16" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>22</v>
       </c>
-      <c r="B152" s="16" t="s">
+      <c r="B152" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="16" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>22</v>
       </c>
-      <c r="B153" s="16" t="s">
+      <c r="B153" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" s="16" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>22</v>
       </c>
-      <c r="B154" s="16" t="s">
+      <c r="B154" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="16" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>22</v>
       </c>
-      <c r="B155" s="16" t="s">
+      <c r="B155" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="16" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>22</v>
       </c>
-      <c r="B156" s="16" t="s">
+      <c r="B156" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="16" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>22</v>
       </c>
-      <c r="B157" s="16" t="s">
+      <c r="B157" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="16" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>22</v>
       </c>
-      <c r="B158" s="16" t="s">
+      <c r="B158" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="16" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>22</v>
       </c>
-      <c r="B159" s="16" t="s">
+      <c r="B159" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="16" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>22</v>
       </c>
-      <c r="B160" s="16" t="s">
+      <c r="B160" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" s="16" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>22</v>
       </c>
-      <c r="B161" s="16" t="s">
+      <c r="B161" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" s="16" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>22</v>
       </c>
-      <c r="B162" s="16" t="s">
+      <c r="B162" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="16" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>22</v>
       </c>
-      <c r="B163" s="16" t="s">
+      <c r="B163" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" s="16" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>22</v>
       </c>
-      <c r="B164" s="16" t="s">
+      <c r="B164" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" s="16" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>22</v>
       </c>
-      <c r="B165" s="16" t="s">
+      <c r="B165" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" s="16" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>22</v>
       </c>
-      <c r="B166" s="16" t="s">
+      <c r="B166" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" s="16" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>22</v>
       </c>
-      <c r="B167" s="16" t="s">
+      <c r="B167" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="16" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>22</v>
       </c>
-      <c r="B168" s="16" t="s">
+      <c r="B168" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" s="16" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>22</v>
       </c>
-      <c r="B169" s="16" t="s">
+      <c r="B169" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" s="16" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>162</v>
       </c>
-      <c r="B170" s="16" t="s">
+      <c r="B170" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" s="16" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>162</v>
       </c>
-      <c r="B171" s="16" t="s">
+      <c r="B171" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="16" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>162</v>
       </c>
-      <c r="B172" s="16" t="s">
+      <c r="B172" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" s="16" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>162</v>
       </c>
-      <c r="B173" s="16" t="s">
+      <c r="B173" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="16" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>162</v>
       </c>
-      <c r="B174" s="16" t="s">
+      <c r="B174" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" s="16" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>162</v>
       </c>
-      <c r="B175" s="16" t="s">
+      <c r="B175" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="16" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>162</v>
       </c>
-      <c r="B176" s="16" t="s">
+      <c r="B176" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="16" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>162</v>
       </c>
-      <c r="B177" s="16" t="s">
+      <c r="B177" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" s="16" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>162</v>
       </c>
-      <c r="B178" s="16" t="s">
+      <c r="B178" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" s="16" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>162</v>
       </c>
-      <c r="B179" s="16" t="s">
+      <c r="B179" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" s="16" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>162</v>
       </c>
-      <c r="B180" s="16" t="s">
+      <c r="B180" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" s="16" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>162</v>
       </c>
-      <c r="B181" s="16" t="s">
+      <c r="B181" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" s="16" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>162</v>
       </c>
-      <c r="B182" s="16" t="s">
+      <c r="B182" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" s="16" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>162</v>
       </c>
-      <c r="B183" s="16" t="s">
+      <c r="B183" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" s="16" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>162</v>
       </c>
-      <c r="B184" s="16" t="s">
+      <c r="B184" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" s="16" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>162</v>
       </c>
-      <c r="B185" s="16" t="s">
+      <c r="B185" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" s="16" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>162</v>
       </c>
-      <c r="B186" s="16" t="s">
+      <c r="B186" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" s="16" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>162</v>
       </c>
-      <c r="B187" s="16" t="s">
+      <c r="B187" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" s="4"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" s="4"/>
     </row>
   </sheetData>
@@ -6678,15 +6677,15 @@
       <selection activeCell="B13" activeCellId="1" sqref="B26 B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.453125" customWidth="1"/>
-    <col min="2" max="2" width="47.1796875" customWidth="1"/>
-    <col min="3" max="3" width="50.1796875" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" customWidth="1"/>
     <col min="4" max="4" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -6700,7 +6699,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -6714,7 +6713,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -6728,7 +6727,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>1</v>
       </c>
@@ -6742,7 +6741,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>1</v>
       </c>
@@ -6756,7 +6755,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -6770,7 +6769,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>1</v>
       </c>
@@ -6784,7 +6783,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="b">
         <v>1</v>
       </c>
@@ -6798,7 +6797,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="b">
         <v>1</v>
       </c>
@@ -6812,7 +6811,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="b">
         <v>1</v>
       </c>
@@ -6826,7 +6825,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="b">
         <v>1</v>
       </c>
@@ -6840,7 +6839,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="b">
         <v>1</v>
       </c>
@@ -6854,7 +6853,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="b">
         <v>1</v>
       </c>
@@ -6868,7 +6867,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="b">
         <v>1</v>
       </c>
@@ -6882,7 +6881,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="b">
         <v>0</v>
       </c>
@@ -6896,7 +6895,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="b">
         <v>0</v>
       </c>
@@ -6910,7 +6909,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="b">
         <v>0</v>
       </c>
@@ -6924,7 +6923,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="b">
         <v>0</v>
       </c>
@@ -6938,7 +6937,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="b">
         <v>0</v>
       </c>
@@ -6952,7 +6951,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="b">
         <v>0</v>
       </c>
@@ -6966,7 +6965,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="b">
         <v>0</v>
       </c>
@@ -6980,7 +6979,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="b">
         <v>0</v>
       </c>
@@ -6994,7 +6993,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="b">
         <v>0</v>
       </c>
@@ -7008,7 +7007,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="b">
         <v>0</v>
       </c>
@@ -7022,7 +7021,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="b">
         <v>0</v>
       </c>
@@ -7036,7 +7035,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="b">
         <v>0</v>
       </c>
@@ -7050,7 +7049,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="b">
         <v>0</v>
       </c>
@@ -7079,12 +7078,12 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>473</v>
       </c>
@@ -7092,7 +7091,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>480</v>
       </c>
@@ -7100,7 +7099,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>480</v>
       </c>
@@ -7108,7 +7107,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>480</v>
       </c>
@@ -7116,7 +7115,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>480</v>
       </c>
@@ -7124,7 +7123,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>481</v>
       </c>
@@ -7132,7 +7131,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>481</v>
       </c>
@@ -7140,7 +7139,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>481</v>
       </c>
@@ -7148,7 +7147,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>481</v>
       </c>
@@ -7156,7 +7155,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>481</v>
       </c>
@@ -7164,7 +7163,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>481</v>
       </c>
@@ -7172,7 +7171,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>481</v>
       </c>
@@ -7180,7 +7179,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>482</v>
       </c>
@@ -7188,7 +7187,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>485</v>
       </c>
@@ -7196,7 +7195,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>477</v>
       </c>
@@ -7204,7 +7203,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>477</v>
       </c>
@@ -7212,7 +7211,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>477</v>
       </c>
@@ -7220,7 +7219,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>477</v>
       </c>
@@ -7228,7 +7227,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>478</v>
       </c>
@@ -7236,7 +7235,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>478</v>
       </c>
@@ -7244,7 +7243,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>478</v>
       </c>
@@ -7252,7 +7251,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>478</v>
       </c>
@@ -7260,7 +7259,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>478</v>
       </c>
@@ -7268,7 +7267,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>478</v>
       </c>
@@ -7276,7 +7275,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>478</v>
       </c>
@@ -7284,7 +7283,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>479</v>
       </c>
@@ -7292,7 +7291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>477</v>
       </c>
@@ -7300,7 +7299,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>486</v>
       </c>
@@ -7308,7 +7307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>487</v>
       </c>
@@ -7334,9 +7333,9 @@
       <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>473</v>
       </c>
@@ -7344,7 +7343,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -7352,7 +7351,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -7360,7 +7359,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7368,7 +7367,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -7376,7 +7375,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -7384,7 +7383,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -7392,7 +7391,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -7400,7 +7399,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -7408,7 +7407,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -7416,7 +7415,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -7424,7 +7423,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -7432,7 +7431,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -7440,7 +7439,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -7448,7 +7447,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -7456,7 +7455,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -7464,7 +7463,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -7472,7 +7471,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -7480,7 +7479,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>180</v>
       </c>
@@ -7488,7 +7487,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -7496,7 +7495,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>175</v>
       </c>
@@ -7504,7 +7503,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>184</v>
       </c>
@@ -7512,7 +7511,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>182</v>
       </c>
@@ -7520,7 +7519,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>186</v>
       </c>
@@ -7528,7 +7527,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>133</v>
       </c>
@@ -7536,7 +7535,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -7544,7 +7543,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -7552,7 +7551,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -7560,7 +7559,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -7568,7 +7567,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -7576,7 +7575,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -7584,7 +7583,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -7592,7 +7591,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -7600,7 +7599,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -7608,7 +7607,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -7616,7 +7615,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -7624,7 +7623,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -7632,7 +7631,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -7640,7 +7639,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -7648,7 +7647,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -7656,7 +7655,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -7664,7 +7663,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -7672,7 +7671,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>142</v>
       </c>
@@ -7680,7 +7679,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -7688,7 +7687,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -7696,7 +7695,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -7704,7 +7703,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -7712,7 +7711,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -7720,7 +7719,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -7728,7 +7727,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -7736,7 +7735,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -7744,7 +7743,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -7752,7 +7751,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -7760,7 +7759,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>143</v>
       </c>
@@ -7768,7 +7767,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -7776,7 +7775,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -7784,7 +7783,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -7792,7 +7791,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -7800,7 +7799,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -7808,7 +7807,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>123</v>
       </c>
@@ -7816,7 +7815,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -7824,7 +7823,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>144</v>
       </c>
@@ -7832,7 +7831,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -7840,7 +7839,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -7848,7 +7847,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -7856,7 +7855,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>172</v>
       </c>
@@ -7864,7 +7863,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>202</v>
       </c>
@@ -7872,7 +7871,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>174</v>
       </c>
@@ -7880,7 +7879,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>194</v>
       </c>
@@ -7888,7 +7887,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>207</v>
       </c>
@@ -7896,7 +7895,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>188</v>
       </c>
@@ -7904,7 +7903,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>205</v>
       </c>
@@ -7912,7 +7911,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>158</v>
       </c>
@@ -7920,7 +7919,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>160</v>
       </c>
@@ -7928,7 +7927,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>162</v>
       </c>
@@ -7936,7 +7935,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -7944,7 +7943,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>154</v>
       </c>
@@ -7952,7 +7951,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>156</v>
       </c>
@@ -7960,7 +7959,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>480</v>
       </c>
@@ -7968,7 +7967,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>481</v>
       </c>
@@ -7976,7 +7975,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>477</v>
       </c>
@@ -7984,7 +7983,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>478</v>
       </c>
@@ -7992,7 +7991,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>482</v>
       </c>
@@ -8000,7 +7999,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>479</v>
       </c>
@@ -8008,7 +8007,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>486</v>
       </c>
@@ -8016,7 +8015,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>487</v>
       </c>
@@ -8038,12 +8037,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>472</v>
       </c>
@@ -8051,7 +8050,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -8059,7 +8058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -8067,7 +8066,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -8075,7 +8074,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -8096,47 +8095,47 @@
   </sheetPr>
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
       <selection pane="bottomLeft" activeCell="I45" sqref="I45:I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" customWidth="1"/>
-    <col min="7" max="7" width="25.1796875" customWidth="1"/>
-    <col min="8" max="8" width="28.1796875" customWidth="1"/>
-    <col min="9" max="9" width="34.1796875" customWidth="1"/>
-    <col min="10" max="10" width="20.81640625" customWidth="1"/>
-    <col min="11" max="11" width="20.1796875" customWidth="1"/>
-    <col min="12" max="12" width="22.81640625" customWidth="1"/>
-    <col min="13" max="13" width="21.81640625" customWidth="1"/>
-    <col min="14" max="14" width="24.81640625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>484</v>
       </c>
@@ -8180,7 +8179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8206,7 +8205,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -8232,7 +8231,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -8258,7 +8257,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -8293,7 +8292,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -8316,7 +8315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>493</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>493</v>
       </c>
@@ -8359,7 +8358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>493</v>
       </c>
@@ -8379,7 +8378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -8408,7 +8407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -8437,7 +8436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -8466,7 +8465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -8495,7 +8494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -8530,7 +8529,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -8571,7 +8570,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -8606,7 +8605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -8641,7 +8640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -8664,7 +8663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -8687,7 +8686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -8710,7 +8709,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -8748,7 +8747,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -8765,7 +8764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -8794,7 +8793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -8826,7 +8825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -8843,7 +8842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -8872,7 +8871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -8904,7 +8903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -8936,7 +8935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -8968,7 +8967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -9000,7 +8999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -9032,7 +9031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -9064,7 +9063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -9096,7 +9095,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -9128,7 +9127,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -9154,7 +9153,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -9180,7 +9179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -9212,7 +9211,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -9244,7 +9243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -9279,7 +9278,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -9314,7 +9313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -9352,7 +9351,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -9390,7 +9389,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -9416,7 +9415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -9442,7 +9441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -9474,7 +9473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -9506,7 +9505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -9541,7 +9540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -9576,7 +9575,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -9614,7 +9613,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -9652,7 +9651,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -9684,7 +9683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -9716,7 +9715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -9736,7 +9735,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -9752,7 +9751,7 @@
       <c r="F55" t="s">
         <v>50</v>
       </c>
-      <c r="G55" s="17" t="s">
+      <c r="G55" s="13" t="s">
         <v>49</v>
       </c>
       <c r="H55" t="s">
@@ -9764,11 +9763,11 @@
       <c r="J55" t="s">
         <v>47</v>
       </c>
-      <c r="K55" s="17" t="s">
+      <c r="K55" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -9784,7 +9783,7 @@
       <c r="F56" t="s">
         <v>50</v>
       </c>
-      <c r="G56" s="17" t="s">
+      <c r="G56" s="13" t="s">
         <v>49</v>
       </c>
       <c r="H56" t="s">
@@ -9796,11 +9795,11 @@
       <c r="J56" t="s">
         <v>47</v>
       </c>
-      <c r="K56" s="17" t="s">
+      <c r="K56" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -9828,14 +9827,14 @@
       <c r="J57" t="s">
         <v>184</v>
       </c>
-      <c r="K57" s="18" t="s">
+      <c r="K57" s="14" t="s">
         <v>186</v>
       </c>
       <c r="L57" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>24</v>
       </c>

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE3328D-A380-475F-B915-96B1ADBF023E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C031F5-44BB-4B9E-B857-E28616D1A436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" tabRatio="812" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" tabRatio="812" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="table_id_to_chart" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,7 +68,7 @@
     <author>Finbar Maunsell</author>
   </authors>
   <commentList>
-    <comment ref="A55" authorId="0" shapeId="0" xr:uid="{781EF275-393F-4D4F-B2E9-CE751F408370}">
+    <comment ref="A54" authorId="0" shapeId="0" xr:uid="{781EF275-393F-4D4F-B2E9-CE751F408370}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -75,7 +76,7 @@
     Is lng equivalent to cng or do we need to add in a new fuel type? Should check balances</t>
       </text>
     </comment>
-    <comment ref="C59" authorId="1" shapeId="0" xr:uid="{89B88E45-46D2-4A21-AC6F-3EA3AEBCAB61}">
+    <comment ref="C58" authorId="1" shapeId="0" xr:uid="{89B88E45-46D2-4A21-AC6F-3EA3AEBCAB61}">
       <text>
         <r>
           <rPr>
@@ -196,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="494">
   <si>
     <t>chart_type</t>
   </si>
@@ -282,9 +283,6 @@
     <t>Transport</t>
   </si>
   <si>
-    <t>FED by fuel</t>
-  </si>
-  <si>
     <t>Hydrogen</t>
   </si>
   <si>
@@ -1678,6 +1676,9 @@
   </si>
   <si>
     <t>TPES Coal by type</t>
+  </si>
+  <si>
+    <t>TFC by fuel</t>
   </si>
 </sst>
 </file>
@@ -2744,16 +2745,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>115166</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>121227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>29441</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>73602</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2768,8 +2769,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10944225" y="542925"/>
-          <a:ext cx="2962275" cy="1771650"/>
+          <a:off x="24204757" y="692727"/>
+          <a:ext cx="2944957" cy="1857375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3105,7 +3106,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A55" dT="2023-05-18T13:45:41.69" personId="{96FC88B6-068E-4187-B7BF-0009949FD93F}" id="{781EF275-393F-4D4F-B2E9-CE751F408370}">
+  <threadedComment ref="A54" dT="2023-05-18T13:45:41.69" personId="{96FC88B6-068E-4187-B7BF-0009949FD93F}" id="{781EF275-393F-4D4F-B2E9-CE751F408370}">
     <text>Is lng equivalent to cng or do we need to add in a new fuel type? Should check balances</text>
   </threadedComment>
 </ThreadedComments>
@@ -3134,1266 +3135,1266 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" t="s">
         <v>218</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" t="s">
         <v>219</v>
       </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>220</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>221</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>222</v>
-      </c>
-      <c r="I4" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" t="s">
         <v>224</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" t="s">
         <v>225</v>
       </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>226</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>227</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>228</v>
-      </c>
-      <c r="I5" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
         <v>230</v>
       </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>231</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>232</v>
-      </c>
-      <c r="I6" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
         <v>234</v>
       </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
         <v>235</v>
       </c>
-      <c r="E7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>236</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>237</v>
-      </c>
-      <c r="I7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
         <v>239</v>
       </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" t="s">
         <v>240</v>
       </c>
-      <c r="E8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>241</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>242</v>
-      </c>
-      <c r="I8" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
         <v>244</v>
       </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" t="s">
         <v>245</v>
       </c>
-      <c r="E9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>246</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>247</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>248</v>
-      </c>
-      <c r="I9" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
         <v>250</v>
       </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>251</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>252</v>
-      </c>
-      <c r="I10" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
         <v>254</v>
       </c>
-      <c r="C11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>255</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>256</v>
-      </c>
-      <c r="I11" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
         <v>258</v>
       </c>
-      <c r="C12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>259</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>260</v>
-      </c>
-      <c r="I12" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
         <v>262</v>
       </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>263</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>264</v>
-      </c>
-      <c r="I13" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
         <v>266</v>
       </c>
-      <c r="C14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" t="s">
-        <v>159</v>
-      </c>
-      <c r="F14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>267</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>268</v>
-      </c>
-      <c r="I14" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
         <v>270</v>
       </c>
-      <c r="C15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" t="s">
-        <v>161</v>
-      </c>
-      <c r="F15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>271</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>272</v>
-      </c>
-      <c r="I15" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="s">
         <v>274</v>
       </c>
-      <c r="C16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" t="s">
-        <v>163</v>
-      </c>
-      <c r="F16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>275</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>276</v>
-      </c>
-      <c r="I16" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
         <v>278</v>
       </c>
-      <c r="C17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" t="s">
-        <v>164</v>
-      </c>
-      <c r="F17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>279</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>280</v>
-      </c>
-      <c r="I17" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
         <v>282</v>
       </c>
-      <c r="C18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>283</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>284</v>
-      </c>
-      <c r="I18" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" t="s">
         <v>286</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" t="s">
         <v>287</v>
       </c>
-      <c r="F19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>288</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>289</v>
-      </c>
-      <c r="I19" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" t="s">
         <v>291</v>
       </c>
-      <c r="C20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" t="s">
-        <v>171</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>292</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>293</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>294</v>
-      </c>
-      <c r="I20" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>295</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
         <v>296</v>
       </c>
-      <c r="C21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" t="s">
         <v>297</v>
       </c>
-      <c r="E21" t="s">
-        <v>173</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>298</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>299</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>300</v>
-      </c>
-      <c r="I21" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>301</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
         <v>302</v>
       </c>
-      <c r="C22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" t="s">
-        <v>183</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>303</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>304</v>
-      </c>
-      <c r="I22" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>305</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
         <v>306</v>
       </c>
-      <c r="C23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" t="s">
         <v>307</v>
       </c>
-      <c r="F23" t="s">
-        <v>197</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>308</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>309</v>
-      </c>
-      <c r="I23" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>310</v>
+      </c>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" t="s">
         <v>311</v>
       </c>
-      <c r="C24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" t="s">
         <v>312</v>
       </c>
-      <c r="F24" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>313</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>314</v>
-      </c>
-      <c r="I24" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>315</v>
+      </c>
+      <c r="D25" t="s">
         <v>316</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
         <v>317</v>
       </c>
-      <c r="F25" t="s">
-        <v>199</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>318</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>319</v>
-      </c>
-      <c r="I25" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D26" t="s">
         <v>321</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" t="s">
         <v>322</v>
       </c>
-      <c r="F26" t="s">
-        <v>203</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>323</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>324</v>
-      </c>
-      <c r="I26" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>325</v>
+      </c>
+      <c r="D27" t="s">
         <v>326</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" t="s">
         <v>327</v>
       </c>
-      <c r="F27" t="s">
-        <v>201</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>328</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>329</v>
-      </c>
-      <c r="I27" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>330</v>
+      </c>
+      <c r="D28" t="s">
         <v>331</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
+        <v>197</v>
+      </c>
+      <c r="G28" t="s">
         <v>332</v>
       </c>
-      <c r="F28" t="s">
-        <v>198</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>333</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>334</v>
-      </c>
-      <c r="I28" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>335</v>
+      </c>
+      <c r="D29" t="s">
         <v>336</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" t="s">
         <v>337</v>
       </c>
-      <c r="F29" t="s">
-        <v>200</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>338</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>339</v>
-      </c>
-      <c r="I29" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>340</v>
+      </c>
+      <c r="D30" t="s">
         <v>341</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" t="s">
         <v>342</v>
       </c>
-      <c r="F30" t="s">
-        <v>208</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>343</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>344</v>
-      </c>
-      <c r="I30" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>345</v>
+      </c>
+      <c r="D31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G31" t="s">
         <v>346</v>
       </c>
-      <c r="D31" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" t="s">
-        <v>167</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>347</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>348</v>
-      </c>
-      <c r="I31" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G32" t="s">
+        <v>349</v>
+      </c>
+      <c r="H32" t="s">
         <v>350</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>351</v>
-      </c>
-      <c r="I32" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G33" t="s">
+        <v>352</v>
+      </c>
+      <c r="H33" t="s">
         <v>353</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>354</v>
-      </c>
-      <c r="I33" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F34" t="s">
+        <v>355</v>
+      </c>
+      <c r="G34" t="s">
         <v>356</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>357</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>358</v>
-      </c>
-      <c r="I34" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F35" t="s">
+        <v>359</v>
+      </c>
+      <c r="G35" t="s">
         <v>360</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>361</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>362</v>
-      </c>
-      <c r="I35" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F36" t="s">
+        <v>363</v>
+      </c>
+      <c r="G36" t="s">
         <v>364</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>365</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>366</v>
-      </c>
-      <c r="I36" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F37" t="s">
+        <v>367</v>
+      </c>
+      <c r="G37" t="s">
         <v>368</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>369</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>370</v>
-      </c>
-      <c r="I37" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F38" t="s">
+        <v>371</v>
+      </c>
+      <c r="G38" t="s">
         <v>372</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>373</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>374</v>
-      </c>
-      <c r="I38" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F39" t="s">
+        <v>375</v>
+      </c>
+      <c r="G39" t="s">
         <v>376</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>377</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>378</v>
-      </c>
-      <c r="I39" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F40" t="s">
+        <v>379</v>
+      </c>
+      <c r="G40" t="s">
         <v>380</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>381</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>382</v>
-      </c>
-      <c r="I40" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F41" t="s">
+        <v>383</v>
+      </c>
+      <c r="G41" t="s">
         <v>384</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>385</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>386</v>
-      </c>
-      <c r="I41" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
+        <v>387</v>
+      </c>
+      <c r="F42" t="s">
+        <v>387</v>
+      </c>
+      <c r="G42" t="s">
         <v>388</v>
       </c>
-      <c r="F42" t="s">
-        <v>388</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>389</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>390</v>
-      </c>
-      <c r="I42" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H43" t="s">
         <v>392</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>393</v>
-      </c>
-      <c r="I43" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
+        <v>394</v>
+      </c>
+      <c r="H44" t="s">
         <v>395</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>396</v>
-      </c>
-      <c r="I44" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
+        <v>397</v>
+      </c>
+      <c r="H45" t="s">
         <v>398</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>399</v>
-      </c>
-      <c r="I45" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
+        <v>400</v>
+      </c>
+      <c r="H46" t="s">
         <v>401</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>402</v>
-      </c>
-      <c r="I46" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
+        <v>403</v>
+      </c>
+      <c r="H47" t="s">
         <v>404</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>405</v>
-      </c>
-      <c r="I47" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
+        <v>406</v>
+      </c>
+      <c r="H48" t="s">
         <v>407</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>408</v>
-      </c>
-      <c r="I48" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="49" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
+        <v>409</v>
+      </c>
+      <c r="H49" t="s">
         <v>410</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>411</v>
-      </c>
-      <c r="I49" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
+        <v>412</v>
+      </c>
+      <c r="H50" t="s">
         <v>413</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>414</v>
-      </c>
-      <c r="I50" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
+        <v>415</v>
+      </c>
+      <c r="H51" t="s">
+        <v>387</v>
+      </c>
+      <c r="I51" t="s">
         <v>416</v>
-      </c>
-      <c r="H51" t="s">
-        <v>388</v>
-      </c>
-      <c r="I51" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I52" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G67" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="71" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G71" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="72" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="73" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G76" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="77" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="78" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G78" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="79" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="80" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G80" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="81" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G81" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="82" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G82" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="83" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G83" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="84" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G84" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="85" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G85" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="86" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G86" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="87" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="88" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="89" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G89" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="90" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G90" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="91" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G91" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="92" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G92" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="93" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="94" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G94" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="95" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G95" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="96" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G96" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="97" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G97" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="98" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G98" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="99" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G99" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="100" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G100" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="101" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="102" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G102" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -4409,7 +4410,7 @@
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -4425,16 +4426,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4442,7 +4443,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4450,7 +4451,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4458,23 +4459,23 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4482,7 +4483,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4490,23 +4491,23 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" t="s">
         <v>154</v>
-      </c>
-      <c r="B9" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4514,31 +4515,31 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s">
         <v>158</v>
-      </c>
-      <c r="B12" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" t="s">
         <v>160</v>
-      </c>
-      <c r="B13" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" t="s">
         <v>162</v>
-      </c>
-      <c r="B14" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4546,7 +4547,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4554,7 +4555,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4562,10 +4563,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4573,13 +4574,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" t="s">
         <v>167</v>
-      </c>
-      <c r="D18" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4587,13 +4588,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4601,10 +4602,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4612,358 +4613,358 @@
         <v>25</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" t="s">
         <v>172</v>
-      </c>
-      <c r="B23" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" t="s">
         <v>175</v>
       </c>
-      <c r="B25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>176</v>
-      </c>
-      <c r="D25" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" t="s">
         <v>178</v>
-      </c>
-      <c r="B26" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" t="s">
         <v>180</v>
-      </c>
-      <c r="B27" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" t="s">
         <v>182</v>
-      </c>
-      <c r="B28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" t="s">
         <v>184</v>
-      </c>
-      <c r="B29" t="s">
-        <v>164</v>
-      </c>
-      <c r="C29" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" t="s">
         <v>186</v>
-      </c>
-      <c r="B30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" t="s">
         <v>188</v>
-      </c>
-      <c r="B31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" t="s">
         <v>194</v>
-      </c>
-      <c r="B37" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" t="s">
-        <v>176</v>
-      </c>
-      <c r="D37" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" t="s">
         <v>196</v>
-      </c>
-      <c r="B38" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" t="s">
         <v>202</v>
       </c>
-      <c r="B43" t="s">
-        <v>165</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>203</v>
-      </c>
-      <c r="D43" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D44" t="s">
         <v>205</v>
-      </c>
-      <c r="B44" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44" t="s">
-        <v>203</v>
-      </c>
-      <c r="D44" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" t="s">
         <v>207</v>
-      </c>
-      <c r="B45" t="s">
-        <v>165</v>
-      </c>
-      <c r="C45" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>208</v>
+      </c>
+      <c r="B50" t="s">
         <v>209</v>
-      </c>
-      <c r="B50" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>210</v>
+      </c>
+      <c r="B51" t="s">
         <v>211</v>
-      </c>
-      <c r="B51" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -4971,7 +4972,7 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4987,10 +4988,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:C221"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5002,13 +5003,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>76</v>
-      </c>
-      <c r="C1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5016,7 +5017,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5024,7 +5025,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5032,7 +5033,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5040,7 +5041,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5048,7 +5049,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5056,7 +5057,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5064,7 +5065,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5072,55 +5073,55 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
         <v>86</v>
-      </c>
-      <c r="B10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
         <v>88</v>
-      </c>
-      <c r="B11" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
         <v>90</v>
-      </c>
-      <c r="B12" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
         <v>92</v>
-      </c>
-      <c r="B13" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
         <v>94</v>
-      </c>
-      <c r="B14" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
         <v>96</v>
-      </c>
-      <c r="B15" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5128,18 +5129,18 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
         <v>99</v>
-      </c>
-      <c r="C17" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5147,170 +5148,170 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
         <v>102</v>
-      </c>
-      <c r="B19" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" t="s">
         <v>105</v>
-      </c>
-      <c r="B21" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
         <v>107</v>
-      </c>
-      <c r="B22" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" t="s">
         <v>111</v>
-      </c>
-      <c r="B27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
         <v>99</v>
-      </c>
-      <c r="C35" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -5318,10 +5319,10 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5329,10 +5330,10 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5340,26 +5341,26 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5367,10 +5368,10 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5378,10 +5379,10 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5389,10 +5390,10 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5400,10 +5401,10 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -5411,10 +5412,10 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -5422,10 +5423,10 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -5433,10 +5434,10 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -5444,10 +5445,10 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5455,216 +5456,216 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
         <v>99</v>
-      </c>
-      <c r="C49" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>130</v>
+      <c r="A54" s="4" t="s">
+        <v>489</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>490</v>
+      <c r="A55" t="s">
+        <v>132</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>132</v>
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>133</v>
+      <c r="A57" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="A58" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>125</v>
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
         <v>139</v>
@@ -5672,10 +5673,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
         <v>140</v>
@@ -5683,13 +5684,13 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -5697,10 +5698,10 @@
         <v>142</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C71" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -5708,48 +5709,48 @@
         <v>143</v>
       </c>
       <c r="B72" t="s">
-        <v>99</v>
-      </c>
-      <c r="C72" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B73" t="s">
         <v>98</v>
       </c>
+      <c r="C73" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C75" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
         <v>116</v>
@@ -5757,10 +5758,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
         <v>117</v>
@@ -5768,10 +5769,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C78" t="s">
         <v>118</v>
@@ -5779,13 +5780,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
-      </c>
-      <c r="C79" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -5849,7 +5847,7 @@
         <v>27</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -5857,7 +5855,7 @@
         <v>27</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -5865,7 +5863,7 @@
         <v>27</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -5873,7 +5871,7 @@
         <v>27</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -5881,7 +5879,7 @@
         <v>27</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -5889,7 +5887,7 @@
         <v>27</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -5913,7 +5911,7 @@
         <v>27</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -5921,15 +5919,15 @@
         <v>27</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -5993,7 +5991,7 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -6001,7 +5999,7 @@
         <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -6009,7 +6007,7 @@
         <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -6017,7 +6015,7 @@
         <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -6025,7 +6023,7 @@
         <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -6033,7 +6031,7 @@
         <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -6057,7 +6055,7 @@
         <v>13</v>
       </c>
       <c r="B113" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -6065,15 +6063,15 @@
         <v>13</v>
       </c>
       <c r="B114" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B115" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -6137,7 +6135,7 @@
         <v>24</v>
       </c>
       <c r="B123" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -6145,7 +6143,7 @@
         <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -6153,7 +6151,7 @@
         <v>24</v>
       </c>
       <c r="B125" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -6161,7 +6159,7 @@
         <v>24</v>
       </c>
       <c r="B126" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -6169,7 +6167,7 @@
         <v>24</v>
       </c>
       <c r="B127" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -6177,7 +6175,7 @@
         <v>24</v>
       </c>
       <c r="B128" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -6201,7 +6199,7 @@
         <v>24</v>
       </c>
       <c r="B131" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -6209,15 +6207,15 @@
         <v>24</v>
       </c>
       <c r="B132" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B133" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -6281,7 +6279,7 @@
         <v>1</v>
       </c>
       <c r="B141" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -6289,7 +6287,7 @@
         <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -6297,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="B143" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -6305,7 +6303,7 @@
         <v>1</v>
       </c>
       <c r="B144" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -6313,7 +6311,7 @@
         <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -6321,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="B146" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -6345,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="B149" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -6353,15 +6351,15 @@
         <v>1</v>
       </c>
       <c r="B150" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B151" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -6425,7 +6423,7 @@
         <v>22</v>
       </c>
       <c r="B159" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -6433,7 +6431,7 @@
         <v>22</v>
       </c>
       <c r="B160" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -6441,7 +6439,7 @@
         <v>22</v>
       </c>
       <c r="B161" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -6449,7 +6447,7 @@
         <v>22</v>
       </c>
       <c r="B162" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -6457,7 +6455,7 @@
         <v>22</v>
       </c>
       <c r="B163" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -6465,7 +6463,7 @@
         <v>22</v>
       </c>
       <c r="B164" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -6489,7 +6487,7 @@
         <v>22</v>
       </c>
       <c r="B167" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -6497,20 +6495,20 @@
         <v>22</v>
       </c>
       <c r="B168" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="B169" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B170" t="s">
         <v>78</v>
@@ -6518,7 +6516,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B171" t="s">
         <v>79</v>
@@ -6526,7 +6524,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B172" t="s">
         <v>80</v>
@@ -6534,7 +6532,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B173" t="s">
         <v>81</v>
@@ -6542,7 +6540,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B174" t="s">
         <v>82</v>
@@ -6550,7 +6548,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B175" t="s">
         <v>83</v>
@@ -6558,7 +6556,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B176" t="s">
         <v>84</v>
@@ -6566,55 +6564,55 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B177" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B178" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B179" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B180" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B181" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B182" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B183" t="s">
         <v>97</v>
@@ -6622,7 +6620,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B184" t="s">
         <v>98</v>
@@ -6630,33 +6628,166 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B185" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B186" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B187" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" s="4"/>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B221" s="4"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>159</v>
+      </c>
+      <c r="B188" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>159</v>
+      </c>
+      <c r="B189" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>159</v>
+      </c>
+      <c r="B190" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>159</v>
+      </c>
+      <c r="B191" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>159</v>
+      </c>
+      <c r="B192" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>159</v>
+      </c>
+      <c r="B193" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>159</v>
+      </c>
+      <c r="B194" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>159</v>
+      </c>
+      <c r="B195" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>159</v>
+      </c>
+      <c r="B196" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>159</v>
+      </c>
+      <c r="B197" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>159</v>
+      </c>
+      <c r="B198" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>159</v>
+      </c>
+      <c r="B199" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>159</v>
+      </c>
+      <c r="B200" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>159</v>
+      </c>
+      <c r="B201" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>159</v>
+      </c>
+      <c r="B202" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>159</v>
+      </c>
+      <c r="B203" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>159</v>
+      </c>
+      <c r="B204" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6687,16 +6818,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6704,13 +6835,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6718,13 +6849,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6732,13 +6863,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6746,13 +6877,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -6760,13 +6891,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6774,13 +6905,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -6788,13 +6919,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -6802,13 +6933,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -6816,13 +6947,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -6830,13 +6961,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -6844,13 +6975,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -6858,13 +6989,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -6872,13 +7003,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -6886,13 +7017,13 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -6900,13 +7031,13 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6914,13 +7045,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6928,13 +7059,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6942,13 +7073,13 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -6956,13 +7087,13 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6970,13 +7101,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6984,13 +7115,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -6998,13 +7129,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -7012,13 +7143,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -7026,13 +7157,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -7040,13 +7171,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -7054,13 +7185,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -7085,223 +7216,223 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -7309,7 +7440,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -7329,18 +7460,18 @@
   </sheetPr>
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" t="s">
         <v>473</v>
-      </c>
-      <c r="B1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7348,7 +7479,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7356,7 +7487,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7364,7 +7495,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7372,7 +7503,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7380,15 +7511,15 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7396,23 +7527,23 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7420,7 +7551,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7428,7 +7559,7 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7436,7 +7567,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7444,15 +7575,15 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7460,7 +7591,7 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7468,7 +7599,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7476,151 +7607,151 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -7628,31 +7759,31 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -7660,7 +7791,7 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -7668,31 +7799,31 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B43" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -7700,7 +7831,7 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -7708,47 +7839,47 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -7756,15 +7887,15 @@
         <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B54" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -7772,7 +7903,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -7780,7 +7911,7 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -7788,151 +7919,151 @@
         <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B62" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B64" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B65" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B66" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B67" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B68" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B69" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B70" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B71" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B72" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B73" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B74" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B75" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -7940,87 +8071,87 @@
         <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B77" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B78" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B79" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B80" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B81" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B82" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B83" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B84" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B85" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B86" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -8044,15 +8175,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>18</v>
@@ -8060,15 +8191,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>500</v>
@@ -8076,7 +8207,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>300</v>
@@ -8093,12 +8224,12 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="I45" sqref="I45:I46"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8116,15 +8247,15 @@
     <col min="14" max="14" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
@@ -8135,21 +8266,21 @@
       <c r="M1" s="16"/>
       <c r="N1" s="17"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -8178,8 +8309,14 @@
       <c r="N2" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="1">
+        <v>9</v>
+      </c>
+      <c r="P2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8193,19 +8330,28 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -8219,19 +8365,28 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -8245,19 +8400,28 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -8280,19 +8444,31 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" t="s">
         <v>4</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
+      <c r="N6" t="s">
         <v>12</v>
       </c>
-      <c r="L6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -8315,9 +8491,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -8338,9 +8514,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -8358,9 +8534,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -8378,7 +8554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -8407,7 +8583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -8436,7 +8612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -8465,7 +8641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -8494,7 +8670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -8526,12 +8702,12 @@
         <v>27</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>493</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -8540,7 +8716,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -8552,27 +8728,33 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" t="s">
         <v>4</v>
       </c>
-      <c r="J16" t="s">
-        <v>482</v>
-      </c>
       <c r="K16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
         <v>5</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>12</v>
       </c>
-      <c r="M16" t="s">
+      <c r="O16" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>30</v>
-      </c>
-      <c r="N16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>31</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -8581,7 +8763,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F17" t="s">
         <v>1</v>
@@ -8593,21 +8775,21 @@
         <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
         <v>25</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -8616,7 +8798,7 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F18" t="s">
         <v>1</v>
@@ -8628,21 +8810,21 @@
         <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J18" t="s">
         <v>25</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -8651,21 +8833,21 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -8674,21 +8856,21 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
         <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -8697,19 +8879,19 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -8735,21 +8917,24 @@
         <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>482</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" t="s">
         <v>5</v>
       </c>
-      <c r="L22" t="s">
-        <v>30</v>
-      </c>
       <c r="M22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -8758,15 +8943,15 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -8775,7 +8960,7 @@
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -8793,9 +8978,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -8804,10 +8989,10 @@
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>18</v>
@@ -8825,9 +9010,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -8836,15 +9021,15 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -8853,7 +9038,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
@@ -8871,9 +9056,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -8882,10 +9067,10 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
         <v>18</v>
@@ -8903,7 +9088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -8926,16 +9111,16 @@
         <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -8958,16 +9143,16 @@
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -8990,18 +9175,18 @@
         <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -9010,10 +9195,10 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>18</v>
@@ -9033,7 +9218,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -9042,10 +9227,10 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
         <v>18</v>
@@ -9065,7 +9250,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -9074,10 +9259,10 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
         <v>18</v>
@@ -9097,7 +9282,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -9106,10 +9291,10 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
         <v>18</v>
@@ -9129,7 +9314,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -9141,10 +9326,10 @@
         <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H36" t="s">
         <v>20</v>
@@ -9155,7 +9340,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -9167,10 +9352,10 @@
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H37" t="s">
         <v>20</v>
@@ -9181,7 +9366,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -9196,16 +9381,16 @@
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K38" t="s">
         <v>22</v>
@@ -9213,7 +9398,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -9228,16 +9413,16 @@
         <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K39" t="s">
         <v>22</v>
@@ -9245,7 +9430,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -9260,7 +9445,7 @@
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H40" t="s">
         <v>3</v>
@@ -9269,10 +9454,10 @@
         <v>4</v>
       </c>
       <c r="J40" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L40" t="s">
         <v>22</v>
@@ -9280,7 +9465,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -9295,7 +9480,7 @@
         <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H41" t="s">
         <v>3</v>
@@ -9304,10 +9489,10 @@
         <v>4</v>
       </c>
       <c r="J41" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L41" t="s">
         <v>22</v>
@@ -9315,7 +9500,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -9330,30 +9515,30 @@
         <v>11</v>
       </c>
       <c r="G42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s">
         <v>41</v>
-      </c>
-      <c r="H42" t="s">
-        <v>42</v>
       </c>
       <c r="I42" t="s">
         <v>4</v>
       </c>
       <c r="J42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K42" t="s">
         <v>3</v>
       </c>
       <c r="L42" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -9368,30 +9553,30 @@
         <v>11</v>
       </c>
       <c r="G43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s">
         <v>41</v>
-      </c>
-      <c r="H43" t="s">
-        <v>42</v>
       </c>
       <c r="I43" t="s">
         <v>4</v>
       </c>
       <c r="J43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K43" t="s">
         <v>3</v>
       </c>
       <c r="L43" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -9403,10 +9588,10 @@
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H44" t="s">
         <v>20</v>
@@ -9417,7 +9602,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -9429,10 +9614,10 @@
         <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H45" t="s">
         <v>20</v>
@@ -9443,7 +9628,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -9458,16 +9643,16 @@
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K46" t="s">
         <v>22</v>
@@ -9475,7 +9660,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -9490,16 +9675,16 @@
         <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K47" t="s">
         <v>22</v>
@@ -9507,7 +9692,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -9522,7 +9707,7 @@
         <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H48" t="s">
         <v>3</v>
@@ -9531,10 +9716,10 @@
         <v>4</v>
       </c>
       <c r="J48" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L48" t="s">
         <v>22</v>
@@ -9542,7 +9727,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -9557,7 +9742,7 @@
         <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H49" t="s">
         <v>3</v>
@@ -9566,10 +9751,10 @@
         <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L49" t="s">
         <v>22</v>
@@ -9577,7 +9762,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -9592,30 +9777,30 @@
         <v>11</v>
       </c>
       <c r="G50" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s">
         <v>41</v>
-      </c>
-      <c r="H50" t="s">
-        <v>42</v>
       </c>
       <c r="I50" t="s">
         <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K50" t="s">
         <v>3</v>
       </c>
       <c r="L50" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -9630,30 +9815,30 @@
         <v>11</v>
       </c>
       <c r="G51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s">
         <v>41</v>
-      </c>
-      <c r="H51" t="s">
-        <v>42</v>
       </c>
       <c r="I51" t="s">
         <v>4</v>
       </c>
       <c r="J51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K51" t="s">
         <v>3</v>
       </c>
       <c r="L51" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -9674,10 +9859,10 @@
         <v>5</v>
       </c>
       <c r="I52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K52" t="s">
         <v>22</v>
@@ -9685,7 +9870,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -9706,10 +9891,10 @@
         <v>5</v>
       </c>
       <c r="I53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K53" t="s">
         <v>22</v>
@@ -9717,7 +9902,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -9732,7 +9917,7 @@
         <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -9745,26 +9930,26 @@
       <c r="C55" t="s">
         <v>2</v>
       </c>
-      <c r="E55" t="s">
+      <c r="D55" t="s">
         <v>27</v>
       </c>
       <c r="F55" t="s">
-        <v>50</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>49</v>
+        <v>110</v>
+      </c>
+      <c r="G55" t="s">
+        <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="I55" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
-      </c>
-      <c r="K55" s="13" t="s">
-        <v>162</v>
+        <v>5</v>
+      </c>
+      <c r="K55" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -9772,101 +9957,226 @@
         <v>27</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
         <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>49</v>
+        <v>110</v>
+      </c>
+      <c r="G56" t="s">
+        <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
-      </c>
-      <c r="K56" s="13" t="s">
-        <v>162</v>
+        <v>5</v>
+      </c>
+      <c r="K56" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" t="s">
+        <v>110</v>
+      </c>
+      <c r="G57" t="s">
         <v>3</v>
       </c>
-      <c r="C57" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s">
-        <v>24</v>
-      </c>
-      <c r="F57" t="s">
-        <v>175</v>
-      </c>
-      <c r="G57" t="s">
-        <v>178</v>
-      </c>
       <c r="H57" t="s">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="I57" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>184</v>
-      </c>
-      <c r="K57" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="L57" t="s">
-        <v>188</v>
+        <v>5</v>
+      </c>
+      <c r="K57" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" t="s">
+        <v>49</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H58" t="s">
+        <v>45</v>
+      </c>
+      <c r="I58" t="s">
+        <v>47</v>
+      </c>
+      <c r="J58" t="s">
+        <v>46</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" t="s">
+        <v>49</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H59" t="s">
+        <v>45</v>
+      </c>
+      <c r="I59" t="s">
+        <v>47</v>
+      </c>
+      <c r="J59" t="s">
+        <v>46</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>24</v>
       </c>
-      <c r="B58">
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" t="s">
+        <v>174</v>
+      </c>
+      <c r="G60" t="s">
+        <v>177</v>
+      </c>
+      <c r="H60" t="s">
+        <v>179</v>
+      </c>
+      <c r="I60" t="s">
+        <v>181</v>
+      </c>
+      <c r="J60" t="s">
+        <v>183</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="L60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61">
         <v>4</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C61" t="s">
         <v>8</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E61" t="s">
         <v>24</v>
       </c>
-      <c r="F58" t="s">
-        <v>175</v>
-      </c>
-      <c r="G58" t="s">
-        <v>178</v>
-      </c>
-      <c r="H58" t="s">
-        <v>180</v>
-      </c>
-      <c r="I58" t="s">
-        <v>182</v>
-      </c>
-      <c r="J58" t="s">
-        <v>184</v>
-      </c>
-      <c r="K58" t="s">
-        <v>186</v>
-      </c>
-      <c r="L58" t="s">
-        <v>188</v>
+      <c r="F61" t="s">
+        <v>174</v>
+      </c>
+      <c r="G61" t="s">
+        <v>177</v>
+      </c>
+      <c r="H61" t="s">
+        <v>179</v>
+      </c>
+      <c r="I61" t="s">
+        <v>181</v>
+      </c>
+      <c r="J61" t="s">
+        <v>183</v>
+      </c>
+      <c r="K61" t="s">
+        <v>185</v>
+      </c>
+      <c r="L61" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C031F5-44BB-4B9E-B857-E28616D1A436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BE17B4-AEE3-4CFA-A79C-24EA45E164C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" tabRatio="812" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,6 @@
     <sheet name="table_id_to_chart" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -76,7 +75,7 @@
     Is lng equivalent to cng or do we need to add in a new fuel type? Should check balances</t>
       </text>
     </comment>
-    <comment ref="C58" authorId="1" shapeId="0" xr:uid="{89B88E45-46D2-4A21-AC6F-3EA3AEBCAB61}">
+    <comment ref="C62" authorId="1" shapeId="0" xr:uid="{89B88E45-46D2-4A21-AC6F-3EA3AEBCAB61}">
       <text>
         <r>
           <rPr>
@@ -197,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="502">
   <si>
     <t>chart_type</t>
   </si>
@@ -1679,6 +1678,30 @@
   </si>
   <si>
     <t>TFC by fuel</t>
+  </si>
+  <si>
+    <t>Fuel consumption power sector</t>
+  </si>
+  <si>
+    <t>Crude oil</t>
+  </si>
+  <si>
+    <t>NGL</t>
+  </si>
+  <si>
+    <t>Other hydrocarbons</t>
+  </si>
+  <si>
+    <t>Naphtha</t>
+  </si>
+  <si>
+    <t>Kerosene</t>
+  </si>
+  <si>
+    <t>Other petroleum products</t>
+  </si>
+  <si>
+    <t>#b0bf1a</t>
   </si>
 </sst>
 </file>
@@ -4988,10 +5011,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:C220"/>
+  <dimension ref="A1:C224"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5540,69 +5563,69 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>35</v>
+      <c r="A57" t="s">
+        <v>498</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>124</v>
+      <c r="A58" t="s">
+        <v>499</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="B59" t="s">
         <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>500</v>
       </c>
       <c r="B60" t="s">
         <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>41</v>
+      <c r="A61" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>41</v>
-      </c>
-      <c r="B62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" t="s">
-        <v>134</v>
+      <c r="A62" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -5613,7 +5636,7 @@
         <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -5624,7 +5647,7 @@
         <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -5635,7 +5658,7 @@
         <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -5646,7 +5669,7 @@
         <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -5657,7 +5680,7 @@
         <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -5668,7 +5691,7 @@
         <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -5679,70 +5702,73 @@
         <v>83</v>
       </c>
       <c r="C69" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="B70" t="s">
         <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C71" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>97</v>
+        <v>83</v>
+      </c>
+      <c r="C72" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B75" t="s">
         <v>98</v>
       </c>
       <c r="C75" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -5750,10 +5776,7 @@
         <v>143</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
-      </c>
-      <c r="C76" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -5764,7 +5787,7 @@
         <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -5775,183 +5798,195 @@
         <v>98</v>
       </c>
       <c r="C78" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>98</v>
+      </c>
+      <c r="C79" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="C80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="C81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="C82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>27</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>27</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>27</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>27</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>27</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>27</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>27</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>27</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>27</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>27</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>27</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>27</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>27</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B97" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B98" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B99" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B100" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -5959,7 +5994,7 @@
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -5967,7 +6002,7 @@
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -5975,7 +6010,7 @@
         <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -5983,7 +6018,7 @@
         <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -5991,7 +6026,7 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -5999,7 +6034,7 @@
         <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -6007,7 +6042,7 @@
         <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -6015,7 +6050,7 @@
         <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -6023,7 +6058,7 @@
         <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -6031,7 +6066,7 @@
         <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -6039,7 +6074,7 @@
         <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -6047,7 +6082,7 @@
         <v>13</v>
       </c>
       <c r="B112" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -6055,7 +6090,7 @@
         <v>13</v>
       </c>
       <c r="B113" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -6063,39 +6098,39 @@
         <v>13</v>
       </c>
       <c r="B114" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B115" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B116" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B117" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B118" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -6103,7 +6138,7 @@
         <v>24</v>
       </c>
       <c r="B119" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -6111,7 +6146,7 @@
         <v>24</v>
       </c>
       <c r="B120" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -6119,7 +6154,7 @@
         <v>24</v>
       </c>
       <c r="B121" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -6127,7 +6162,7 @@
         <v>24</v>
       </c>
       <c r="B122" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -6135,7 +6170,7 @@
         <v>24</v>
       </c>
       <c r="B123" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -6143,7 +6178,7 @@
         <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -6151,7 +6186,7 @@
         <v>24</v>
       </c>
       <c r="B125" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -6159,7 +6194,7 @@
         <v>24</v>
       </c>
       <c r="B126" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -6167,7 +6202,7 @@
         <v>24</v>
       </c>
       <c r="B127" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -6175,7 +6210,7 @@
         <v>24</v>
       </c>
       <c r="B128" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -6183,7 +6218,7 @@
         <v>24</v>
       </c>
       <c r="B129" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -6191,7 +6226,7 @@
         <v>24</v>
       </c>
       <c r="B130" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -6199,7 +6234,7 @@
         <v>24</v>
       </c>
       <c r="B131" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -6207,39 +6242,39 @@
         <v>24</v>
       </c>
       <c r="B132" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B133" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B134" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B135" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B136" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -6247,7 +6282,7 @@
         <v>1</v>
       </c>
       <c r="B137" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -6255,7 +6290,7 @@
         <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -6263,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="B139" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -6271,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="B140" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -6279,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="B141" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -6287,7 +6322,7 @@
         <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -6295,7 +6330,7 @@
         <v>1</v>
       </c>
       <c r="B143" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -6303,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="B144" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -6311,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -6319,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="B146" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -6327,7 +6362,7 @@
         <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -6335,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="B148" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -6343,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="B149" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -6351,39 +6386,39 @@
         <v>1</v>
       </c>
       <c r="B150" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B151" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B153" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B154" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -6391,7 +6426,7 @@
         <v>22</v>
       </c>
       <c r="B155" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -6399,7 +6434,7 @@
         <v>22</v>
       </c>
       <c r="B156" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -6407,7 +6442,7 @@
         <v>22</v>
       </c>
       <c r="B157" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -6415,7 +6450,7 @@
         <v>22</v>
       </c>
       <c r="B158" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -6423,7 +6458,7 @@
         <v>22</v>
       </c>
       <c r="B159" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -6431,7 +6466,7 @@
         <v>22</v>
       </c>
       <c r="B160" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -6439,7 +6474,7 @@
         <v>22</v>
       </c>
       <c r="B161" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -6447,7 +6482,7 @@
         <v>22</v>
       </c>
       <c r="B162" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -6455,7 +6490,7 @@
         <v>22</v>
       </c>
       <c r="B163" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -6463,7 +6498,7 @@
         <v>22</v>
       </c>
       <c r="B164" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -6471,7 +6506,7 @@
         <v>22</v>
       </c>
       <c r="B165" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -6479,7 +6514,7 @@
         <v>22</v>
       </c>
       <c r="B166" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -6487,7 +6522,7 @@
         <v>22</v>
       </c>
       <c r="B167" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -6495,39 +6530,39 @@
         <v>22</v>
       </c>
       <c r="B168" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="B169" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="B170" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="B171" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="B172" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -6535,7 +6570,7 @@
         <v>161</v>
       </c>
       <c r="B173" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -6543,7 +6578,7 @@
         <v>161</v>
       </c>
       <c r="B174" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -6551,7 +6586,7 @@
         <v>161</v>
       </c>
       <c r="B175" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -6559,7 +6594,7 @@
         <v>161</v>
       </c>
       <c r="B176" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -6567,7 +6602,7 @@
         <v>161</v>
       </c>
       <c r="B177" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -6575,7 +6610,7 @@
         <v>161</v>
       </c>
       <c r="B178" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -6583,7 +6618,7 @@
         <v>161</v>
       </c>
       <c r="B179" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -6591,7 +6626,7 @@
         <v>161</v>
       </c>
       <c r="B180" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -6599,7 +6634,7 @@
         <v>161</v>
       </c>
       <c r="B181" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -6607,7 +6642,7 @@
         <v>161</v>
       </c>
       <c r="B182" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -6615,7 +6650,7 @@
         <v>161</v>
       </c>
       <c r="B183" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -6623,7 +6658,7 @@
         <v>161</v>
       </c>
       <c r="B184" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -6631,7 +6666,7 @@
         <v>161</v>
       </c>
       <c r="B185" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -6639,39 +6674,39 @@
         <v>161</v>
       </c>
       <c r="B186" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B187" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B188" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B189" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B190" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -6679,7 +6714,7 @@
         <v>159</v>
       </c>
       <c r="B191" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -6687,7 +6722,7 @@
         <v>159</v>
       </c>
       <c r="B192" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -6695,7 +6730,7 @@
         <v>159</v>
       </c>
       <c r="B193" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -6703,7 +6738,7 @@
         <v>159</v>
       </c>
       <c r="B194" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -6711,7 +6746,7 @@
         <v>159</v>
       </c>
       <c r="B195" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -6719,7 +6754,7 @@
         <v>159</v>
       </c>
       <c r="B196" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -6727,7 +6762,7 @@
         <v>159</v>
       </c>
       <c r="B197" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -6735,7 +6770,7 @@
         <v>159</v>
       </c>
       <c r="B198" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -6743,7 +6778,7 @@
         <v>159</v>
       </c>
       <c r="B199" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -6751,7 +6786,7 @@
         <v>159</v>
       </c>
       <c r="B200" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -6759,7 +6794,7 @@
         <v>159</v>
       </c>
       <c r="B201" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -6767,7 +6802,7 @@
         <v>159</v>
       </c>
       <c r="B202" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -6775,7 +6810,7 @@
         <v>159</v>
       </c>
       <c r="B203" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -6783,11 +6818,76 @@
         <v>159</v>
       </c>
       <c r="B204" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>159</v>
+      </c>
+      <c r="B205" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>159</v>
+      </c>
+      <c r="B206" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>159</v>
+      </c>
+      <c r="B207" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>159</v>
+      </c>
+      <c r="B208" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B220" s="4"/>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>495</v>
+      </c>
+      <c r="B209" t="s">
+        <v>82</v>
+      </c>
+      <c r="C209" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>496</v>
+      </c>
+      <c r="B210" t="s">
+        <v>82</v>
+      </c>
+      <c r="C210" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>497</v>
+      </c>
+      <c r="B211" t="s">
+        <v>82</v>
+      </c>
+      <c r="C211" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B224" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6805,7 +6905,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" activeCellId="1" sqref="B26 B13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7458,10 +7558,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8152,6 +8252,54 @@
       </c>
       <c r="B86" t="s">
         <v>452</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>498</v>
+      </c>
+      <c r="B87" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>499</v>
+      </c>
+      <c r="B88" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>495</v>
+      </c>
+      <c r="B89" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>496</v>
+      </c>
+      <c r="B90" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>497</v>
+      </c>
+      <c r="B91" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>500</v>
+      </c>
+      <c r="B92" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -8224,12 +8372,12 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16:P16"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9725,7 +9873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -9760,7 +9908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -9798,7 +9946,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -9836,7 +9984,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -9868,7 +10016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -9900,7 +10048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -9920,7 +10068,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -9952,7 +10100,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -9984,7 +10132,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -10016,7 +10164,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -10048,7 +10196,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -10080,7 +10228,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -10115,7 +10263,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -10150,7 +10298,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -10177,6 +10325,146 @@
       </c>
       <c r="J62" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>494</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>479</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>4</v>
+      </c>
+      <c r="I63" t="s">
+        <v>89</v>
+      </c>
+      <c r="J63" t="s">
+        <v>87</v>
+      </c>
+      <c r="K63" t="s">
+        <v>5</v>
+      </c>
+      <c r="L63" t="s">
+        <v>12</v>
+      </c>
+      <c r="M63" t="s">
+        <v>91</v>
+      </c>
+      <c r="N63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>480</v>
+      </c>
+      <c r="F64" t="s">
+        <v>495</v>
+      </c>
+      <c r="G64" t="s">
+        <v>496</v>
+      </c>
+      <c r="H64" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>477</v>
+      </c>
+      <c r="F65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G65" t="s">
+        <v>132</v>
+      </c>
+      <c r="H65" t="s">
+        <v>498</v>
+      </c>
+      <c r="I65" t="s">
+        <v>499</v>
+      </c>
+      <c r="J65" t="s">
+        <v>125</v>
+      </c>
+      <c r="K65" t="s">
+        <v>141</v>
+      </c>
+      <c r="L65" t="s">
+        <v>129</v>
+      </c>
+      <c r="M65" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>477</v>
+      </c>
+      <c r="F66" t="s">
+        <v>127</v>
+      </c>
+      <c r="G66" t="s">
+        <v>132</v>
+      </c>
+      <c r="H66" t="s">
+        <v>498</v>
+      </c>
+      <c r="I66" t="s">
+        <v>499</v>
+      </c>
+      <c r="J66" t="s">
+        <v>125</v>
+      </c>
+      <c r="K66" t="s">
+        <v>141</v>
+      </c>
+      <c r="L66" t="s">
+        <v>129</v>
+      </c>
+      <c r="M66" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BE17B4-AEE3-4CFA-A79C-24EA45E164C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6C49B1-8C87-4E08-BBEF-39D1FC6A122B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" tabRatio="812" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="501">
   <si>
     <t>chart_type</t>
   </si>
@@ -1666,9 +1666,6 @@
   </si>
   <si>
     <t>Gas?</t>
-  </si>
-  <si>
-    <t>16_others_dummy</t>
   </si>
   <si>
     <t>['2000', '2010', '2020', '2030', '2040', '2050', '2060', '2070']</t>
@@ -1708,7 +1705,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1760,13 +1757,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1779,7 +1769,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1826,11 +1816,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1900,12 +1885,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1924,9 +1908,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1937,9 +1920,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4434,7 +4416,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4585,8 +4567,8 @@
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>490</v>
+      <c r="B17" t="s">
+        <v>286</v>
       </c>
       <c r="C17" t="s">
         <v>165</v>
@@ -4596,8 +4578,8 @@
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>490</v>
+      <c r="B18" t="s">
+        <v>286</v>
       </c>
       <c r="C18" t="s">
         <v>166</v>
@@ -4610,8 +4592,8 @@
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>490</v>
+      <c r="B19" t="s">
+        <v>286</v>
       </c>
       <c r="C19" t="s">
         <v>166</v>
@@ -4624,8 +4606,8 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>490</v>
+      <c r="B20" t="s">
+        <v>286</v>
       </c>
       <c r="C20" t="s">
         <v>166</v>
@@ -4635,8 +4617,8 @@
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>490</v>
+      <c r="B21" t="s">
+        <v>286</v>
       </c>
       <c r="C21" t="s">
         <v>169</v>
@@ -5013,8 +4995,8 @@
   </sheetPr>
   <dimension ref="A1:C224"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5564,7 +5546,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B57" t="s">
         <v>83</v>
@@ -5575,7 +5557,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B58" t="s">
         <v>83</v>
@@ -5597,7 +5579,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B60" t="s">
         <v>83</v>
@@ -5991,7 +5973,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B101" t="s">
         <v>77</v>
@@ -5999,7 +5981,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
         <v>78</v>
@@ -6007,7 +5989,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B103" t="s">
         <v>79</v>
@@ -6015,7 +5997,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
         <v>80</v>
@@ -6023,7 +6005,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
         <v>81</v>
@@ -6031,7 +6013,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
         <v>82</v>
@@ -6039,7 +6021,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
         <v>83</v>
@@ -6047,7 +6029,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B108" t="s">
         <v>84</v>
@@ -6055,7 +6037,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B109" t="s">
         <v>86</v>
@@ -6063,7 +6045,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B110" t="s">
         <v>88</v>
@@ -6071,7 +6053,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
         <v>90</v>
@@ -6079,7 +6061,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B112" t="s">
         <v>92</v>
@@ -6087,7 +6069,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B113" t="s">
         <v>94</v>
@@ -6095,7 +6077,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B114" t="s">
         <v>96</v>
@@ -6103,7 +6085,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B115" t="s">
         <v>97</v>
@@ -6111,7 +6093,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B116" t="s">
         <v>98</v>
@@ -6119,7 +6101,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
         <v>100</v>
@@ -6127,7 +6109,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
         <v>102</v>
@@ -6855,7 +6837,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B209" t="s">
         <v>82</v>
@@ -6866,7 +6848,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B210" t="s">
         <v>82</v>
@@ -6877,7 +6859,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B211" t="s">
         <v>82</v>
@@ -8256,15 +8238,15 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B87" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B88" t="s">
         <v>460</v>
@@ -8272,7 +8254,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B89" t="s">
         <v>466</v>
@@ -8280,7 +8262,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B90" t="s">
         <v>454</v>
@@ -8288,7 +8270,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B91" t="s">
         <v>457</v>
@@ -8296,7 +8278,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B92" t="s">
         <v>457</v>
@@ -8342,7 +8324,7 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8375,9 +8357,9 @@
   <dimension ref="A1:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8398,21 +8380,21 @@
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8626,22 +8608,22 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -8664,7 +8646,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -8684,7 +8666,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -8855,7 +8837,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -10180,7 +10162,7 @@
       <c r="F58" t="s">
         <v>49</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="G58" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H58" t="s">
@@ -10192,7 +10174,7 @@
       <c r="J58" t="s">
         <v>46</v>
       </c>
-      <c r="K58" s="13" t="s">
+      <c r="K58" s="12" t="s">
         <v>161</v>
       </c>
     </row>
@@ -10212,7 +10194,7 @@
       <c r="F59" t="s">
         <v>49</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="G59" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H59" t="s">
@@ -10224,7 +10206,7 @@
       <c r="J59" t="s">
         <v>46</v>
       </c>
-      <c r="K59" s="13" t="s">
+      <c r="K59" s="12" t="s">
         <v>161</v>
       </c>
     </row>
@@ -10256,7 +10238,7 @@
       <c r="J60" t="s">
         <v>183</v>
       </c>
-      <c r="K60" s="14" t="s">
+      <c r="K60" s="13" t="s">
         <v>185</v>
       </c>
       <c r="L60" t="s">
@@ -10329,7 +10311,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -10382,13 +10364,13 @@
         <v>480</v>
       </c>
       <c r="F64" t="s">
+        <v>494</v>
+      </c>
+      <c r="G64" t="s">
         <v>495</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>496</v>
-      </c>
-      <c r="H64" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -10411,10 +10393,10 @@
         <v>132</v>
       </c>
       <c r="H65" t="s">
+        <v>497</v>
+      </c>
+      <c r="I65" t="s">
         <v>498</v>
-      </c>
-      <c r="I65" t="s">
-        <v>499</v>
       </c>
       <c r="J65" t="s">
         <v>125</v>
@@ -10426,7 +10408,7 @@
         <v>129</v>
       </c>
       <c r="M65" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -10449,10 +10431,10 @@
         <v>132</v>
       </c>
       <c r="H66" t="s">
+        <v>497</v>
+      </c>
+      <c r="I66" t="s">
         <v>498</v>
-      </c>
-      <c r="I66" t="s">
-        <v>499</v>
       </c>
       <c r="J66" t="s">
         <v>125</v>
@@ -10464,7 +10446,7 @@
         <v>129</v>
       </c>
       <c r="M66" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6C49B1-8C87-4E08-BBEF-39D1FC6A122B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6119B36-6262-4BAD-8FBA-87071AD4B88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" tabRatio="812" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="812" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="plotting_specifications" sheetId="3" r:id="rId7"/>
     <sheet name="table_id_to_chart" sheetId="2" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">colors!$A$1:$B$93</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -63,11 +66,36 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Finbar Barton MAUNSELL</author>
     <author>tc={781EF275-393F-4D4F-B2E9-CE751F408370}</author>
     <author>Finbar Maunsell</author>
   </authors>
   <commentList>
-    <comment ref="A54" authorId="0" shapeId="0" xr:uid="{781EF275-393F-4D4F-B2E9-CE751F408370}">
+    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{9F0638CB-4DB1-42E7-8B14-C4243A85CB22}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Finbar Barton MAUNSELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+use capital to differentiate it. We need this because we need to select all 16_others and call them other renewables for power input.. At least as of octover 27</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A55" authorId="1" shapeId="0" xr:uid="{781EF275-393F-4D4F-B2E9-CE751F408370}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -75,7 +103,7 @@
     Is lng equivalent to cng or do we need to add in a new fuel type? Should check balances</t>
       </text>
     </comment>
-    <comment ref="C62" authorId="1" shapeId="0" xr:uid="{89B88E45-46D2-4A21-AC6F-3EA3AEBCAB61}">
+    <comment ref="C63" authorId="2" shapeId="0" xr:uid="{89B88E45-46D2-4A21-AC6F-3EA3AEBCAB61}">
       <text>
         <r>
           <rPr>
@@ -196,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="502">
   <si>
     <t>chart_type</t>
   </si>
@@ -306,15 +334,9 @@
     <t>Renewables</t>
   </si>
   <si>
-    <t>Renewable fuels VER2</t>
-  </si>
-  <si>
     <t>Renewable fuels</t>
   </si>
   <si>
-    <t>Supply CN</t>
-  </si>
-  <si>
     <t>Net trade</t>
   </si>
   <si>
@@ -324,12 +346,6 @@
     <t>Refined products</t>
   </si>
   <si>
-    <t>Trade balance</t>
-  </si>
-  <si>
-    <t>Supply REF</t>
-  </si>
-  <si>
     <t>Supply</t>
   </si>
   <si>
@@ -1674,9 +1690,6 @@
     <t>TPES Coal by type</t>
   </si>
   <si>
-    <t>TFC by fuel</t>
-  </si>
-  <si>
     <t>Fuel consumption power sector</t>
   </si>
   <si>
@@ -1699,6 +1712,24 @@
   </si>
   <si>
     <t>#b0bf1a</t>
+  </si>
+  <si>
+    <t>sheet_order</t>
+  </si>
+  <si>
+    <t>#800080</t>
+  </si>
+  <si>
+    <t>Other Renewables</t>
+  </si>
+  <si>
+    <t>FED by fuel</t>
+  </si>
+  <si>
+    <t>line_thickness</t>
+  </si>
+  <si>
+    <t>['Buildings', 'Industry', 'Transport', 'Agriculture', 'Non-energy', 'FED by fuel', 'Fuel consumption power sector', 'Refining', 'Coal', 'Electricity', 'FED by sector', 'Hydrogen', 'Production', 'Renewable fuels', 'Supply', 'TPES Coal by type']</t>
   </si>
 </sst>
 </file>
@@ -3111,7 +3142,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A54" dT="2023-05-18T13:45:41.69" personId="{96FC88B6-068E-4187-B7BF-0009949FD93F}" id="{781EF275-393F-4D4F-B2E9-CE751F408370}">
+  <threadedComment ref="A55" dT="2023-05-18T13:45:41.69" personId="{96FC88B6-068E-4187-B7BF-0009949FD93F}" id="{781EF275-393F-4D4F-B2E9-CE751F408370}">
     <text>Is lng equivalent to cng or do we need to add in a new fuel type? Should check balances</text>
   </threadedComment>
 </ThreadedComments>
@@ -3121,8 +3152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A000B41E-5923-4013-B542-E4247E89557C}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C21"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3140,1266 +3171,1266 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H4" t="s">
         <v>217</v>
       </c>
-      <c r="B4" t="s">
+      <c r="I4" t="s">
         <v>218</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" t="s">
-        <v>219</v>
-      </c>
-      <c r="G4" t="s">
-        <v>220</v>
-      </c>
-      <c r="H4" t="s">
-        <v>221</v>
-      </c>
-      <c r="I4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" t="s">
         <v>223</v>
       </c>
-      <c r="B5" t="s">
+      <c r="I5" t="s">
         <v>224</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G5" t="s">
-        <v>226</v>
-      </c>
-      <c r="H5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I5" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I7" t="s">
         <v>233</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H7" t="s">
-        <v>236</v>
-      </c>
-      <c r="I7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I8" t="s">
         <v>238</v>
-      </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H8" t="s">
-        <v>241</v>
-      </c>
-      <c r="I8" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" t="s">
+        <v>241</v>
+      </c>
+      <c r="G9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H9" t="s">
         <v>243</v>
       </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="I9" t="s">
         <v>244</v>
-      </c>
-      <c r="E9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9" t="s">
-        <v>245</v>
-      </c>
-      <c r="G9" t="s">
-        <v>246</v>
-      </c>
-      <c r="H9" t="s">
-        <v>247</v>
-      </c>
-      <c r="I9" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H13" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I13" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I14" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H15" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I15" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I16" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I17" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H18" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" t="s">
+        <v>282</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
+        <v>283</v>
+      </c>
+      <c r="H19" t="s">
+        <v>284</v>
+      </c>
+      <c r="I19" t="s">
         <v>285</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" t="s">
-        <v>286</v>
-      </c>
-      <c r="F19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" t="s">
-        <v>287</v>
-      </c>
-      <c r="H19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I19" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" t="s">
+        <v>287</v>
+      </c>
+      <c r="G20" t="s">
+        <v>288</v>
+      </c>
+      <c r="H20" t="s">
+        <v>289</v>
+      </c>
+      <c r="I20" t="s">
         <v>290</v>
-      </c>
-      <c r="C20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" t="s">
-        <v>291</v>
-      </c>
-      <c r="G20" t="s">
-        <v>292</v>
-      </c>
-      <c r="H20" t="s">
-        <v>293</v>
-      </c>
-      <c r="I20" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
+        <v>292</v>
+      </c>
+      <c r="E21" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" t="s">
+        <v>293</v>
+      </c>
+      <c r="G21" t="s">
+        <v>294</v>
+      </c>
+      <c r="H21" t="s">
         <v>295</v>
       </c>
-      <c r="C21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="I21" t="s">
         <v>296</v>
-      </c>
-      <c r="E21" t="s">
-        <v>172</v>
-      </c>
-      <c r="F21" t="s">
-        <v>297</v>
-      </c>
-      <c r="G21" t="s">
-        <v>298</v>
-      </c>
-      <c r="H21" t="s">
-        <v>299</v>
-      </c>
-      <c r="I21" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G22" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H22" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I22" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" t="s">
+        <v>302</v>
+      </c>
+      <c r="F23" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" t="s">
+        <v>303</v>
+      </c>
+      <c r="H23" t="s">
+        <v>304</v>
+      </c>
+      <c r="I23" t="s">
         <v>305</v>
-      </c>
-      <c r="C23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" t="s">
-        <v>306</v>
-      </c>
-      <c r="F23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G23" t="s">
-        <v>307</v>
-      </c>
-      <c r="H23" t="s">
-        <v>308</v>
-      </c>
-      <c r="I23" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>307</v>
+      </c>
+      <c r="F24" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" t="s">
+        <v>308</v>
+      </c>
+      <c r="H24" t="s">
+        <v>309</v>
+      </c>
+      <c r="I24" t="s">
         <v>310</v>
-      </c>
-      <c r="C24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" t="s">
-        <v>311</v>
-      </c>
-      <c r="F24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" t="s">
-        <v>312</v>
-      </c>
-      <c r="H24" t="s">
-        <v>313</v>
-      </c>
-      <c r="I24" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>311</v>
+      </c>
+      <c r="D25" t="s">
+        <v>312</v>
+      </c>
+      <c r="F25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" t="s">
+        <v>313</v>
+      </c>
+      <c r="H25" t="s">
+        <v>314</v>
+      </c>
+      <c r="I25" t="s">
         <v>315</v>
-      </c>
-      <c r="D25" t="s">
-        <v>316</v>
-      </c>
-      <c r="F25" t="s">
-        <v>198</v>
-      </c>
-      <c r="G25" t="s">
-        <v>317</v>
-      </c>
-      <c r="H25" t="s">
-        <v>318</v>
-      </c>
-      <c r="I25" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>316</v>
+      </c>
+      <c r="D26" t="s">
+        <v>317</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>318</v>
+      </c>
+      <c r="H26" t="s">
+        <v>319</v>
+      </c>
+      <c r="I26" t="s">
         <v>320</v>
-      </c>
-      <c r="D26" t="s">
-        <v>321</v>
-      </c>
-      <c r="F26" t="s">
-        <v>202</v>
-      </c>
-      <c r="G26" t="s">
-        <v>322</v>
-      </c>
-      <c r="H26" t="s">
-        <v>323</v>
-      </c>
-      <c r="I26" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>321</v>
+      </c>
+      <c r="D27" t="s">
+        <v>322</v>
+      </c>
+      <c r="F27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" t="s">
+        <v>323</v>
+      </c>
+      <c r="H27" t="s">
+        <v>324</v>
+      </c>
+      <c r="I27" t="s">
         <v>325</v>
-      </c>
-      <c r="D27" t="s">
-        <v>326</v>
-      </c>
-      <c r="F27" t="s">
-        <v>200</v>
-      </c>
-      <c r="G27" t="s">
-        <v>327</v>
-      </c>
-      <c r="H27" t="s">
-        <v>328</v>
-      </c>
-      <c r="I27" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>326</v>
+      </c>
+      <c r="D28" t="s">
+        <v>327</v>
+      </c>
+      <c r="F28" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" t="s">
+        <v>328</v>
+      </c>
+      <c r="H28" t="s">
+        <v>329</v>
+      </c>
+      <c r="I28" t="s">
         <v>330</v>
-      </c>
-      <c r="D28" t="s">
-        <v>331</v>
-      </c>
-      <c r="F28" t="s">
-        <v>197</v>
-      </c>
-      <c r="G28" t="s">
-        <v>332</v>
-      </c>
-      <c r="H28" t="s">
-        <v>333</v>
-      </c>
-      <c r="I28" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>331</v>
+      </c>
+      <c r="D29" t="s">
+        <v>332</v>
+      </c>
+      <c r="F29" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" t="s">
+        <v>333</v>
+      </c>
+      <c r="H29" t="s">
+        <v>334</v>
+      </c>
+      <c r="I29" t="s">
         <v>335</v>
-      </c>
-      <c r="D29" t="s">
-        <v>336</v>
-      </c>
-      <c r="F29" t="s">
-        <v>199</v>
-      </c>
-      <c r="G29" t="s">
-        <v>337</v>
-      </c>
-      <c r="H29" t="s">
-        <v>338</v>
-      </c>
-      <c r="I29" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>336</v>
+      </c>
+      <c r="D30" t="s">
+        <v>337</v>
+      </c>
+      <c r="F30" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" t="s">
+        <v>338</v>
+      </c>
+      <c r="H30" t="s">
+        <v>339</v>
+      </c>
+      <c r="I30" t="s">
         <v>340</v>
-      </c>
-      <c r="D30" t="s">
-        <v>341</v>
-      </c>
-      <c r="F30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G30" t="s">
-        <v>342</v>
-      </c>
-      <c r="H30" t="s">
-        <v>343</v>
-      </c>
-      <c r="I30" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F31" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G31" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H31" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I31" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F32" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G32" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H32" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I32" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F33" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G33" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H33" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I33" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F34" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G34" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H34" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="I34" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F35" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G35" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H35" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I35" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F36" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G36" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H36" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I36" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F37" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G37" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H37" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I37" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F38" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G38" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H38" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I38" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G39" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H39" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I39" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F40" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G40" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H40" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I40" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F41" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H41" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I41" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F42" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G42" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H42" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I42" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H43" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I43" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H44" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I44" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H45" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I45" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H46" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I46" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H47" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I47" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H48" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I48" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H49" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="I49" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H50" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I50" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H51" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I51" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I52" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G57" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G59" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G60" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G63" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="67" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G67" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="68" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="71" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G71" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="72" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="73" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="74" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G74" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G75" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G76" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="77" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="78" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G78" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="79" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="80" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G80" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="81" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G81" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="82" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G82" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="83" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G83" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="84" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G84" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="85" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G85" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="86" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G86" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="87" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="88" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G89" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G90" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="91" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G91" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="92" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G92" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="93" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="94" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G94" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="95" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G95" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="96" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G96" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="97" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G97" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="98" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G98" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="99" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G99" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="100" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G100" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="101" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="102" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G102" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -4431,16 +4462,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4448,7 +4479,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4456,7 +4487,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4464,7 +4495,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4472,7 +4503,7 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4480,7 +4511,7 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4488,7 +4519,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4496,23 +4527,23 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4520,31 +4551,31 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4552,7 +4583,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4560,7 +4591,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4568,10 +4599,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4579,13 +4610,13 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4593,13 +4624,13 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4607,10 +4638,10 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4618,10 +4649,10 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4629,347 +4660,347 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D25" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C27" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D27" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C29" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D29" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D31" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C32" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D32" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B33" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C33" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D34" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" t="s">
         <v>187</v>
-      </c>
-      <c r="B35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C35" t="s">
-        <v>175</v>
-      </c>
-      <c r="D35" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B36" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C36" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D36" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D37" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C42" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D43" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D44" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C49" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B50" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B51" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -4977,7 +5008,7 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4993,10 +5024,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:C224"/>
+  <dimension ref="A1:C225"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:A118"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5008,13 +5039,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5022,7 +5053,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5030,7 +5061,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5038,7 +5069,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5046,7 +5077,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5054,7 +5085,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5062,7 +5093,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5070,7 +5101,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5078,55 +5109,55 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5134,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5142,10 +5173,10 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5153,170 +5184,170 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
         <v>110</v>
-      </c>
-      <c r="B30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -5324,10 +5355,10 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5335,10 +5366,10 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5346,37 +5377,34 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>498</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5384,10 +5412,10 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5395,10 +5423,10 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5406,10 +5434,10 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -5417,10 +5445,10 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -5428,10 +5456,10 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -5439,10 +5467,10 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -5450,10 +5478,10 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5461,378 +5489,381 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>489</v>
+      <c r="A54" t="s">
+        <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>131</v>
+        <v>79</v>
+      </c>
+      <c r="C54" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>132</v>
+      <c r="A55" s="4" t="s">
+        <v>485</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" t="s">
-        <v>133</v>
+        <v>79</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>497</v>
+        <v>128</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>493</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>499</v>
+        <v>137</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" t="s">
+        <v>494</v>
+      </c>
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B61" t="s">
-        <v>98</v>
-      </c>
-      <c r="C61" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>41</v>
-      </c>
-      <c r="B63" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" t="s">
-        <v>128</v>
+      <c r="B63" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="C76" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
-      </c>
-      <c r="C77" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C79" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C80" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C82" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>94</v>
+      </c>
+      <c r="C83" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -5840,7 +5871,7 @@
         <v>27</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -5848,7 +5879,7 @@
         <v>27</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -5856,7 +5887,7 @@
         <v>27</v>
       </c>
       <c r="B86" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -5864,7 +5895,7 @@
         <v>27</v>
       </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -5872,7 +5903,7 @@
         <v>27</v>
       </c>
       <c r="B88" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -5880,7 +5911,7 @@
         <v>27</v>
       </c>
       <c r="B89" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -5888,7 +5919,7 @@
         <v>27</v>
       </c>
       <c r="B90" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -5896,7 +5927,7 @@
         <v>27</v>
       </c>
       <c r="B91" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -5904,7 +5935,7 @@
         <v>27</v>
       </c>
       <c r="B92" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -5912,7 +5943,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -5920,7 +5951,7 @@
         <v>27</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -5928,7 +5959,7 @@
         <v>27</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -5936,7 +5967,7 @@
         <v>27</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -5944,7 +5975,7 @@
         <v>27</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -5952,7 +5983,7 @@
         <v>27</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -5960,7 +5991,7 @@
         <v>27</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -5968,15 +5999,15 @@
         <v>27</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B101" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -5984,7 +6015,7 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -5992,7 +6023,7 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -6000,7 +6031,7 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -6008,7 +6039,7 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -6016,7 +6047,7 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -6024,7 +6055,7 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -6032,7 +6063,7 @@
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -6040,7 +6071,7 @@
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -6048,7 +6079,7 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -6056,7 +6087,7 @@
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -6064,7 +6095,7 @@
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -6072,7 +6103,7 @@
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -6080,7 +6111,7 @@
         <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -6088,7 +6119,7 @@
         <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -6096,7 +6127,7 @@
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -6104,7 +6135,7 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -6112,15 +6143,15 @@
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -6128,7 +6159,7 @@
         <v>24</v>
       </c>
       <c r="B120" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -6136,7 +6167,7 @@
         <v>24</v>
       </c>
       <c r="B121" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -6144,7 +6175,7 @@
         <v>24</v>
       </c>
       <c r="B122" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -6152,7 +6183,7 @@
         <v>24</v>
       </c>
       <c r="B123" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -6160,7 +6191,7 @@
         <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -6168,7 +6199,7 @@
         <v>24</v>
       </c>
       <c r="B125" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -6176,7 +6207,7 @@
         <v>24</v>
       </c>
       <c r="B126" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -6184,7 +6215,7 @@
         <v>24</v>
       </c>
       <c r="B127" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -6192,7 +6223,7 @@
         <v>24</v>
       </c>
       <c r="B128" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -6200,7 +6231,7 @@
         <v>24</v>
       </c>
       <c r="B129" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -6208,7 +6239,7 @@
         <v>24</v>
       </c>
       <c r="B130" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -6216,7 +6247,7 @@
         <v>24</v>
       </c>
       <c r="B131" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -6224,7 +6255,7 @@
         <v>24</v>
       </c>
       <c r="B132" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -6232,7 +6263,7 @@
         <v>24</v>
       </c>
       <c r="B133" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -6240,7 +6271,7 @@
         <v>24</v>
       </c>
       <c r="B134" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -6248,7 +6279,7 @@
         <v>24</v>
       </c>
       <c r="B135" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -6256,15 +6287,15 @@
         <v>24</v>
       </c>
       <c r="B136" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B137" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -6272,7 +6303,7 @@
         <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -6280,7 +6311,7 @@
         <v>1</v>
       </c>
       <c r="B139" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -6288,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="B140" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -6296,7 +6327,7 @@
         <v>1</v>
       </c>
       <c r="B141" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -6304,7 +6335,7 @@
         <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -6312,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="B143" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -6320,7 +6351,7 @@
         <v>1</v>
       </c>
       <c r="B144" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -6328,7 +6359,7 @@
         <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -6336,7 +6367,7 @@
         <v>1</v>
       </c>
       <c r="B146" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -6344,7 +6375,7 @@
         <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -6352,7 +6383,7 @@
         <v>1</v>
       </c>
       <c r="B148" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -6360,7 +6391,7 @@
         <v>1</v>
       </c>
       <c r="B149" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -6368,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="B150" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -6376,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="B151" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -6384,7 +6415,7 @@
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -6392,7 +6423,7 @@
         <v>1</v>
       </c>
       <c r="B153" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -6400,15 +6431,15 @@
         <v>1</v>
       </c>
       <c r="B154" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B155" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -6416,7 +6447,7 @@
         <v>22</v>
       </c>
       <c r="B156" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -6424,7 +6455,7 @@
         <v>22</v>
       </c>
       <c r="B157" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -6432,7 +6463,7 @@
         <v>22</v>
       </c>
       <c r="B158" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -6440,7 +6471,7 @@
         <v>22</v>
       </c>
       <c r="B159" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -6448,7 +6479,7 @@
         <v>22</v>
       </c>
       <c r="B160" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -6456,7 +6487,7 @@
         <v>22</v>
       </c>
       <c r="B161" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -6464,7 +6495,7 @@
         <v>22</v>
       </c>
       <c r="B162" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -6472,7 +6503,7 @@
         <v>22</v>
       </c>
       <c r="B163" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -6480,7 +6511,7 @@
         <v>22</v>
       </c>
       <c r="B164" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -6488,7 +6519,7 @@
         <v>22</v>
       </c>
       <c r="B165" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -6496,7 +6527,7 @@
         <v>22</v>
       </c>
       <c r="B166" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -6504,7 +6535,7 @@
         <v>22</v>
       </c>
       <c r="B167" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -6512,7 +6543,7 @@
         <v>22</v>
       </c>
       <c r="B168" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -6520,7 +6551,7 @@
         <v>22</v>
       </c>
       <c r="B169" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -6528,7 +6559,7 @@
         <v>22</v>
       </c>
       <c r="B170" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -6536,7 +6567,7 @@
         <v>22</v>
       </c>
       <c r="B171" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -6544,332 +6575,340 @@
         <v>22</v>
       </c>
       <c r="B172" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="B173" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B174" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B175" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B176" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B177" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B178" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B179" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B180" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B181" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B182" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B183" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B184" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B185" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B186" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B187" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B188" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B189" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B190" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B191" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B192" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B193" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B194" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B195" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B196" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B197" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B198" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B199" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B200" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B201" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B202" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B203" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B204" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B205" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B206" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B207" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B208" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>494</v>
+        <v>155</v>
       </c>
       <c r="B209" t="s">
-        <v>82</v>
-      </c>
-      <c r="C209" t="s">
-        <v>234</v>
+        <v>98</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B210" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C210" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B211" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C211" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B224" s="4"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>491</v>
+      </c>
+      <c r="B212" t="s">
+        <v>78</v>
+      </c>
+      <c r="C212" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6887,7 +6926,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6900,16 +6939,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6917,13 +6956,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6931,13 +6970,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6945,13 +6984,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6959,13 +6998,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -6973,13 +7012,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6987,13 +7026,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7001,13 +7040,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -7015,13 +7054,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -7029,13 +7068,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -7043,13 +7082,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -7057,13 +7096,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -7071,13 +7110,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -7085,13 +7124,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -7099,13 +7138,13 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -7113,13 +7152,13 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7127,13 +7166,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -7141,13 +7180,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -7155,13 +7194,13 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7169,13 +7208,13 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -7183,13 +7222,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7197,13 +7236,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -7211,13 +7250,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -7225,13 +7264,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -7239,13 +7278,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -7253,13 +7292,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -7267,13 +7306,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -7298,103 +7337,103 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -7402,103 +7441,103 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -7506,15 +7545,15 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -7522,7 +7561,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -7540,657 +7579,657 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>490</v>
       </c>
       <c r="B8" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="B13" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>481</v>
       </c>
       <c r="B17" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>482</v>
       </c>
       <c r="B18" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="B30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="B34" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="B35" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="B36" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="B37" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="B39" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="B41" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="B46" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="B47" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="B53" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="B54" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>476</v>
       </c>
       <c r="B55" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>473</v>
       </c>
       <c r="B56" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>489</v>
       </c>
       <c r="B57" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="B60" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="B63" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B65" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B66" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>201</v>
+        <v>492</v>
       </c>
       <c r="B67" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>173</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B70" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="B71" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="B74" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="B75" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="B76" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="B77" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>475</v>
       </c>
       <c r="B78" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B79" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="B80" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>476</v>
+        <v>125</v>
       </c>
       <c r="B81" t="s">
         <v>460</v>
@@ -8198,93 +8237,106 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>477</v>
+        <v>43</v>
       </c>
       <c r="B82" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>481</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>478</v>
+        <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>457</v>
+        <v>497</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>485</v>
+        <v>181</v>
       </c>
       <c r="B85" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>486</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>497</v>
+        <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>498</v>
+        <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="B89" t="s">
-        <v>466</v>
+        <v>497</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="B90" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B91" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B92" t="s">
-        <v>457</v>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>498</v>
+      </c>
+      <c r="B93" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B93" xr:uid="{344218C0-5C74-48AB-A8DF-7C6AE2CA916D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B92">
+      <sortCondition ref="B1:B92"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8292,10 +8344,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD61665-6B06-460E-828D-1570B45BB2AE}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8305,15 +8357,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>18</v>
@@ -8321,15 +8373,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>500</v>
@@ -8337,10 +8389,26 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B5">
-        <v>300</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>496</v>
+      </c>
+      <c r="B6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -8354,12 +8422,12 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8381,11 +8449,11 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" s="14" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="14" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -8398,19 +8466,19 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -8472,13 +8540,13 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s">
         <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -8507,13 +8575,13 @@
         <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s">
         <v>5</v>
       </c>
       <c r="L4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -8542,13 +8610,13 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s">
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -8574,13 +8642,13 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J6" t="s">
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
         <v>28</v>
@@ -8592,10 +8660,10 @@
         <v>12</v>
       </c>
       <c r="O6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -8617,85 +8685,106 @@
       <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>491</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>491</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -8715,65 +8804,77 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -8782,62 +8883,74 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>488</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>475</v>
       </c>
       <c r="F15" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>498</v>
+      </c>
+      <c r="M15" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>492</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -8845,116 +8958,68 @@
       <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
-        <v>161</v>
+      <c r="E16" t="s">
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="H16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" t="s">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" t="s">
-        <v>91</v>
-      </c>
-      <c r="P16" t="s">
-        <v>161</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" t="s">
-        <v>161</v>
-      </c>
-      <c r="L17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" t="s">
-        <v>161</v>
-      </c>
-      <c r="L18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -8962,68 +9027,110 @@
       <c r="C19" t="s">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" t="s">
         <v>28</v>
       </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>161</v>
-      </c>
-      <c r="H19" t="s">
-        <v>27</v>
+      <c r="L19" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>175</v>
+      </c>
+      <c r="I20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="G21" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>175</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>181</v>
+      </c>
+      <c r="L21" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -9032,34 +9139,22 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="I22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>89</v>
-      </c>
-      <c r="K22" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -9073,7 +9168,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F23" t="s">
         <v>20</v>
@@ -9090,7 +9185,7 @@
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -9119,7 +9214,7 @@
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F25" t="s">
         <v>33</v>
@@ -9151,7 +9246,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -9168,7 +9263,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
@@ -9197,7 +9292,7 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F28" t="s">
         <v>33</v>
@@ -9316,112 +9411,115 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>476</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>489</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>473</v>
+      </c>
+      <c r="F33" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" t="s">
+        <v>128</v>
+      </c>
+      <c r="H33" t="s">
+        <v>492</v>
+      </c>
+      <c r="I33" t="s">
+        <v>493</v>
+      </c>
+      <c r="J33" t="s">
+        <v>121</v>
+      </c>
+      <c r="K33" t="s">
+        <v>137</v>
+      </c>
+      <c r="L33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M33" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="E33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34">
+      <c r="D34" t="s">
+        <v>473</v>
+      </c>
+      <c r="F34" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34" t="s">
+        <v>492</v>
+      </c>
+      <c r="I34" t="s">
+        <v>493</v>
+      </c>
+      <c r="J34" t="s">
+        <v>121</v>
+      </c>
+      <c r="K34" t="s">
+        <v>137</v>
+      </c>
+      <c r="L34" t="s">
+        <v>125</v>
+      </c>
+      <c r="M34" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
         <v>1</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>2</v>
       </c>
-      <c r="E34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="F35" t="s">
         <v>33</v>
@@ -9442,67 +9540,79 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="F36" t="s">
         <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s">
         <v>20</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
         <v>2</v>
       </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D37" t="s">
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="J37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
@@ -9511,13 +9621,13 @@
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I38" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J38" t="s">
         <v>35</v>
@@ -9526,930 +9636,348 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
-      </c>
-      <c r="H39" t="s">
-        <v>4</v>
-      </c>
-      <c r="I39" t="s">
-        <v>41</v>
-      </c>
-      <c r="J39" t="s">
-        <v>35</v>
-      </c>
-      <c r="K39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>499</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
         <v>11</v>
-      </c>
-      <c r="G40" t="s">
-        <v>40</v>
       </c>
       <c r="H40" t="s">
         <v>3</v>
       </c>
       <c r="I40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J40" t="s">
         <v>4</v>
       </c>
-      <c r="J40" t="s">
-        <v>478</v>
-      </c>
       <c r="K40" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="L40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="M40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>12</v>
+      </c>
+      <c r="O40" t="s">
+        <v>87</v>
+      </c>
+      <c r="P40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>499</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
         <v>11</v>
-      </c>
-      <c r="G41" t="s">
-        <v>40</v>
       </c>
       <c r="H41" t="s">
         <v>3</v>
       </c>
       <c r="I41" t="s">
+        <v>97</v>
+      </c>
+      <c r="J41" t="s">
         <v>4</v>
       </c>
-      <c r="J41" t="s">
-        <v>478</v>
-      </c>
       <c r="K41" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="L41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="M41" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>12</v>
+      </c>
+      <c r="O41" t="s">
+        <v>87</v>
+      </c>
+      <c r="P41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>487</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>487</v>
+      </c>
+      <c r="B43">
         <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" t="s">
-        <v>41</v>
-      </c>
-      <c r="I42" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" t="s">
-        <v>35</v>
-      </c>
-      <c r="K42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" t="s">
-        <v>478</v>
-      </c>
-      <c r="M42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43">
-        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>487</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>40</v>
-      </c>
-      <c r="H43" t="s">
-        <v>41</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
         <v>4</v>
       </c>
-      <c r="J43" t="s">
-        <v>35</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="J45" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" t="s">
         <v>3</v>
       </c>
-      <c r="L43" t="s">
-        <v>478</v>
-      </c>
-      <c r="M43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47">
         <v>2</v>
       </c>
-      <c r="E44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>8</v>
       </c>
-      <c r="E45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46">
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47" t="s">
         <v>3</v>
       </c>
-      <c r="C46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
         <v>4</v>
       </c>
-      <c r="I46" t="s">
-        <v>41</v>
-      </c>
-      <c r="J46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K46" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47">
+      <c r="J47" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48">
         <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s">
-        <v>40</v>
-      </c>
-      <c r="H47" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" t="s">
-        <v>41</v>
-      </c>
-      <c r="J47" t="s">
-        <v>35</v>
-      </c>
-      <c r="K47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
       </c>
-      <c r="D48" t="s">
-        <v>22</v>
+      <c r="E48" t="s">
+        <v>27</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="H48" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="I48" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="J48" t="s">
-        <v>478</v>
-      </c>
-      <c r="K48" t="s">
-        <v>41</v>
-      </c>
-      <c r="L48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B49">
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>27</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="H49" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="I49" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="J49" t="s">
-        <v>478</v>
-      </c>
-      <c r="K49" t="s">
-        <v>41</v>
-      </c>
-      <c r="L49" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50">
-        <v>5</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s">
-        <v>40</v>
-      </c>
-      <c r="H50" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" t="s">
-        <v>4</v>
-      </c>
-      <c r="J50" t="s">
-        <v>35</v>
-      </c>
-      <c r="K50" t="s">
-        <v>3</v>
-      </c>
-      <c r="L50" t="s">
-        <v>478</v>
-      </c>
-      <c r="M50" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51">
-        <v>5</v>
-      </c>
-      <c r="C51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s">
-        <v>40</v>
-      </c>
-      <c r="H51" t="s">
-        <v>41</v>
-      </c>
-      <c r="I51" t="s">
-        <v>4</v>
-      </c>
-      <c r="J51" t="s">
-        <v>35</v>
-      </c>
-      <c r="K51" t="s">
-        <v>3</v>
-      </c>
-      <c r="L51" t="s">
-        <v>478</v>
-      </c>
-      <c r="M51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" t="s">
-        <v>29</v>
-      </c>
-      <c r="J52" t="s">
-        <v>35</v>
-      </c>
-      <c r="K52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s">
-        <v>4</v>
-      </c>
-      <c r="H53" t="s">
-        <v>5</v>
-      </c>
-      <c r="I53" t="s">
-        <v>29</v>
-      </c>
-      <c r="J53" t="s">
-        <v>35</v>
-      </c>
-      <c r="K53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54">
-        <v>2</v>
-      </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
-      </c>
-      <c r="G55" t="s">
-        <v>3</v>
-      </c>
-      <c r="H55" t="s">
-        <v>28</v>
-      </c>
-      <c r="I55" t="s">
-        <v>4</v>
-      </c>
-      <c r="J55" t="s">
-        <v>5</v>
-      </c>
-      <c r="K55" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" t="s">
-        <v>27</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
-      </c>
-      <c r="G56" t="s">
-        <v>3</v>
-      </c>
-      <c r="H56" t="s">
-        <v>28</v>
-      </c>
-      <c r="I56" t="s">
-        <v>4</v>
-      </c>
-      <c r="J56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K56" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57">
-        <v>2</v>
-      </c>
-      <c r="C57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" t="s">
-        <v>27</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
-      </c>
-      <c r="G57" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" t="s">
-        <v>28</v>
-      </c>
-      <c r="I57" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58" t="s">
-        <v>49</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H58" t="s">
-        <v>45</v>
-      </c>
-      <c r="I58" t="s">
-        <v>47</v>
-      </c>
-      <c r="J58" t="s">
-        <v>46</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59">
-        <v>4</v>
-      </c>
-      <c r="C59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" t="s">
-        <v>27</v>
-      </c>
-      <c r="F59" t="s">
-        <v>49</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H59" t="s">
-        <v>45</v>
-      </c>
-      <c r="I59" t="s">
-        <v>47</v>
-      </c>
-      <c r="J59" t="s">
-        <v>46</v>
-      </c>
-      <c r="K59" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" t="s">
-        <v>174</v>
-      </c>
-      <c r="G60" t="s">
-        <v>177</v>
-      </c>
-      <c r="H60" t="s">
-        <v>179</v>
-      </c>
-      <c r="I60" t="s">
-        <v>181</v>
-      </c>
-      <c r="J60" t="s">
-        <v>183</v>
-      </c>
-      <c r="K60" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="L60" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61">
-        <v>4</v>
-      </c>
-      <c r="C61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" t="s">
-        <v>24</v>
-      </c>
-      <c r="F61" t="s">
-        <v>174</v>
-      </c>
-      <c r="G61" t="s">
-        <v>177</v>
-      </c>
-      <c r="H61" t="s">
-        <v>179</v>
-      </c>
-      <c r="I61" t="s">
-        <v>181</v>
-      </c>
-      <c r="J61" t="s">
-        <v>183</v>
-      </c>
-      <c r="K61" t="s">
-        <v>185</v>
-      </c>
-      <c r="L61" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
-        <v>31</v>
-      </c>
-      <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" t="s">
-        <v>28</v>
-      </c>
-      <c r="I62" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>493</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" t="s">
-        <v>479</v>
-      </c>
-      <c r="F63" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" t="s">
-        <v>11</v>
-      </c>
-      <c r="H63" t="s">
-        <v>4</v>
-      </c>
-      <c r="I63" t="s">
-        <v>89</v>
-      </c>
-      <c r="J63" t="s">
-        <v>87</v>
-      </c>
-      <c r="K63" t="s">
-        <v>5</v>
-      </c>
-      <c r="L63" t="s">
-        <v>12</v>
-      </c>
-      <c r="M63" t="s">
-        <v>91</v>
-      </c>
-      <c r="N63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" t="s">
-        <v>480</v>
-      </c>
-      <c r="F64" t="s">
-        <v>494</v>
-      </c>
-      <c r="G64" t="s">
-        <v>495</v>
-      </c>
-      <c r="H64" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>2</v>
-      </c>
-      <c r="C65" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" t="s">
-        <v>477</v>
-      </c>
-      <c r="F65" t="s">
-        <v>127</v>
-      </c>
-      <c r="G65" t="s">
-        <v>132</v>
-      </c>
-      <c r="H65" t="s">
-        <v>497</v>
-      </c>
-      <c r="I65" t="s">
-        <v>498</v>
-      </c>
-      <c r="J65" t="s">
-        <v>125</v>
-      </c>
-      <c r="K65" t="s">
-        <v>141</v>
-      </c>
-      <c r="L65" t="s">
-        <v>129</v>
-      </c>
-      <c r="M65" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" t="s">
-        <v>477</v>
-      </c>
-      <c r="F66" t="s">
-        <v>127</v>
-      </c>
-      <c r="G66" t="s">
-        <v>132</v>
-      </c>
-      <c r="H66" t="s">
-        <v>497</v>
-      </c>
-      <c r="I66" t="s">
-        <v>498</v>
-      </c>
-      <c r="J66" t="s">
-        <v>125</v>
-      </c>
-      <c r="K66" t="s">
-        <v>141</v>
-      </c>
-      <c r="L66" t="s">
-        <v>129</v>
-      </c>
-      <c r="M66" t="s">
-        <v>499</v>
+      <c r="K49" s="12" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P49">
+    <sortCondition ref="A3:A49"/>
+    <sortCondition ref="B3:B49"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="F1:N1"/>
     <mergeCell ref="D1:E1"/>

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6119B36-6262-4BAD-8FBA-87071AD4B88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95182253-812E-49D5-B3C3-D8E193DCAA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="812" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
     <author>Finbar Maunsell</author>
   </authors>
   <commentList>
-    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{9F0638CB-4DB1-42E7-8B14-C4243A85CB22}">
+    <comment ref="A40" authorId="0" shapeId="0" xr:uid="{9F0638CB-4DB1-42E7-8B14-C4243A85CB22}">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A55" authorId="1" shapeId="0" xr:uid="{781EF275-393F-4D4F-B2E9-CE751F408370}">
+    <comment ref="A54" authorId="1" shapeId="0" xr:uid="{781EF275-393F-4D4F-B2E9-CE751F408370}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -103,7 +103,7 @@
     Is lng equivalent to cng or do we need to add in a new fuel type? Should check balances</t>
       </text>
     </comment>
-    <comment ref="C63" authorId="2" shapeId="0" xr:uid="{89B88E45-46D2-4A21-AC6F-3EA3AEBCAB61}">
+    <comment ref="C62" authorId="2" shapeId="0" xr:uid="{89B88E45-46D2-4A21-AC6F-3EA3AEBCAB61}">
       <text>
         <r>
           <rPr>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="499">
   <si>
     <t>chart_type</t>
   </si>
@@ -322,15 +322,9 @@
     <t>Non-energy</t>
   </si>
   <si>
-    <t>Other fuels CN</t>
-  </si>
-  <si>
     <t>Bunkers</t>
   </si>
   <si>
-    <t>Other fuels REF</t>
-  </si>
-  <si>
     <t>Renewables</t>
   </si>
   <si>
@@ -1678,9 +1672,6 @@
     <t>aggregate</t>
   </si>
   <si>
-    <t>Other_fuels</t>
-  </si>
-  <si>
     <t>Gas?</t>
   </si>
   <si>
@@ -1729,7 +1720,7 @@
     <t>line_thickness</t>
   </si>
   <si>
-    <t>['Buildings', 'Industry', 'Transport', 'Agriculture', 'Non-energy', 'FED by fuel', 'Fuel consumption power sector', 'Refining', 'Coal', 'Electricity', 'FED by sector', 'Hydrogen', 'Production', 'Renewable fuels', 'Supply', 'TPES Coal by type']</t>
+    <t>['FED by fuel', 'FED by sector',  'Production','Supply', 'Buildings', 'Industry', 'Transport', 'Agriculture','Fuel consumption power sector','Electricity', 'Refining',    'Renewable fuels','Non-energy','Hydrogen','Coal','TPES Coal by type', 'Crude &amp; NGL']</t>
   </si>
 </sst>
 </file>
@@ -2789,7 +2780,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>29441</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>73602</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3142,7 +3133,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A55" dT="2023-05-18T13:45:41.69" personId="{96FC88B6-068E-4187-B7BF-0009949FD93F}" id="{781EF275-393F-4D4F-B2E9-CE751F408370}">
+  <threadedComment ref="A54" dT="2023-05-18T13:45:41.69" personId="{96FC88B6-068E-4187-B7BF-0009949FD93F}" id="{781EF275-393F-4D4F-B2E9-CE751F408370}">
     <text>Is lng equivalent to cng or do we need to add in a new fuel type? Should check balances</text>
   </threadedComment>
 </ThreadedComments>
@@ -3171,1266 +3162,1266 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="I3" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" t="s">
         <v>213</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" t="s">
         <v>214</v>
       </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>215</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>216</v>
-      </c>
-      <c r="H4" t="s">
-        <v>217</v>
-      </c>
-      <c r="I4" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" t="s">
         <v>219</v>
       </c>
-      <c r="B5" t="s">
+      <c r="G5" t="s">
         <v>220</v>
       </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>221</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>222</v>
-      </c>
-      <c r="H5" t="s">
-        <v>223</v>
-      </c>
-      <c r="I5" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H6" t="s">
         <v>225</v>
       </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>226</v>
-      </c>
-      <c r="H6" t="s">
-        <v>227</v>
-      </c>
-      <c r="I6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
         <v>229</v>
       </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
         <v>230</v>
       </c>
-      <c r="E7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>231</v>
-      </c>
-      <c r="H7" t="s">
-        <v>232</v>
-      </c>
-      <c r="I7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
         <v>234</v>
       </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
         <v>235</v>
       </c>
-      <c r="E8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>236</v>
-      </c>
-      <c r="H8" t="s">
-        <v>237</v>
-      </c>
-      <c r="I8" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" t="s">
         <v>239</v>
       </c>
-      <c r="C9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>240</v>
       </c>
-      <c r="E9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>241</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>242</v>
-      </c>
-      <c r="H9" t="s">
-        <v>243</v>
-      </c>
-      <c r="I9" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>244</v>
+      </c>
+      <c r="H10" t="s">
         <v>245</v>
       </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>246</v>
-      </c>
-      <c r="H10" t="s">
-        <v>247</v>
-      </c>
-      <c r="I10" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" t="s">
         <v>249</v>
       </c>
-      <c r="C11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>250</v>
-      </c>
-      <c r="H11" t="s">
-        <v>251</v>
-      </c>
-      <c r="I11" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>252</v>
+      </c>
+      <c r="H12" t="s">
         <v>253</v>
       </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>254</v>
-      </c>
-      <c r="H12" t="s">
-        <v>255</v>
-      </c>
-      <c r="I12" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>256</v>
+      </c>
+      <c r="H13" t="s">
         <v>257</v>
       </c>
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>258</v>
-      </c>
-      <c r="H13" t="s">
-        <v>259</v>
-      </c>
-      <c r="I13" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>260</v>
+      </c>
+      <c r="H14" t="s">
         <v>261</v>
       </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>262</v>
-      </c>
-      <c r="H14" t="s">
-        <v>263</v>
-      </c>
-      <c r="I14" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>264</v>
+      </c>
+      <c r="H15" t="s">
         <v>265</v>
       </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>266</v>
-      </c>
-      <c r="H15" t="s">
-        <v>267</v>
-      </c>
-      <c r="I15" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
+        <v>268</v>
+      </c>
+      <c r="H16" t="s">
         <v>269</v>
       </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>270</v>
-      </c>
-      <c r="H16" t="s">
-        <v>271</v>
-      </c>
-      <c r="I16" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>272</v>
+      </c>
+      <c r="H17" t="s">
         <v>273</v>
       </c>
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" t="s">
-        <v>159</v>
-      </c>
-      <c r="F17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>274</v>
-      </c>
-      <c r="H17" t="s">
-        <v>275</v>
-      </c>
-      <c r="I17" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" t="s">
+        <v>276</v>
+      </c>
+      <c r="H18" t="s">
         <v>277</v>
       </c>
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>278</v>
-      </c>
-      <c r="H18" t="s">
-        <v>279</v>
-      </c>
-      <c r="I18" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" t="s">
+        <v>280</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" t="s">
         <v>281</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>282</v>
       </c>
-      <c r="F19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>283</v>
-      </c>
-      <c r="H19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I19" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G20" t="s">
         <v>286</v>
       </c>
-      <c r="C20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" t="s">
-        <v>166</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>287</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>288</v>
-      </c>
-      <c r="H20" t="s">
-        <v>289</v>
-      </c>
-      <c r="I20" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" t="s">
         <v>291</v>
       </c>
-      <c r="C21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="G21" t="s">
         <v>292</v>
       </c>
-      <c r="E21" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>293</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>294</v>
-      </c>
-      <c r="H21" t="s">
-        <v>295</v>
-      </c>
-      <c r="I21" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>296</v>
+      </c>
+      <c r="H22" t="s">
         <v>297</v>
       </c>
-      <c r="C22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" t="s">
-        <v>178</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>298</v>
-      </c>
-      <c r="H22" t="s">
-        <v>299</v>
-      </c>
-      <c r="I22" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" t="s">
+        <v>300</v>
+      </c>
+      <c r="F23" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" t="s">
         <v>301</v>
       </c>
-      <c r="C23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="H23" t="s">
         <v>302</v>
       </c>
-      <c r="F23" t="s">
-        <v>192</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>303</v>
-      </c>
-      <c r="H23" t="s">
-        <v>304</v>
-      </c>
-      <c r="I23" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" t="s">
         <v>306</v>
       </c>
-      <c r="C24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="H24" t="s">
         <v>307</v>
       </c>
-      <c r="F24" t="s">
-        <v>171</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>308</v>
-      </c>
-      <c r="H24" t="s">
-        <v>309</v>
-      </c>
-      <c r="I24" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>309</v>
+      </c>
+      <c r="D25" t="s">
+        <v>310</v>
+      </c>
+      <c r="F25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" t="s">
         <v>311</v>
       </c>
-      <c r="D25" t="s">
+      <c r="H25" t="s">
         <v>312</v>
       </c>
-      <c r="F25" t="s">
-        <v>194</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>313</v>
-      </c>
-      <c r="H25" t="s">
-        <v>314</v>
-      </c>
-      <c r="I25" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>314</v>
+      </c>
+      <c r="D26" t="s">
+        <v>315</v>
+      </c>
+      <c r="F26" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" t="s">
         <v>316</v>
       </c>
-      <c r="D26" t="s">
+      <c r="H26" t="s">
         <v>317</v>
       </c>
-      <c r="F26" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>318</v>
-      </c>
-      <c r="H26" t="s">
-        <v>319</v>
-      </c>
-      <c r="I26" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D27" t="s">
+        <v>320</v>
+      </c>
+      <c r="F27" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" t="s">
         <v>321</v>
       </c>
-      <c r="D27" t="s">
+      <c r="H27" t="s">
         <v>322</v>
       </c>
-      <c r="F27" t="s">
-        <v>196</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
         <v>323</v>
-      </c>
-      <c r="H27" t="s">
-        <v>324</v>
-      </c>
-      <c r="I27" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>324</v>
+      </c>
+      <c r="D28" t="s">
+        <v>325</v>
+      </c>
+      <c r="F28" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" t="s">
         <v>326</v>
       </c>
-      <c r="D28" t="s">
+      <c r="H28" t="s">
         <v>327</v>
       </c>
-      <c r="F28" t="s">
-        <v>193</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>328</v>
-      </c>
-      <c r="H28" t="s">
-        <v>329</v>
-      </c>
-      <c r="I28" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>329</v>
+      </c>
+      <c r="D29" t="s">
+        <v>330</v>
+      </c>
+      <c r="F29" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" t="s">
         <v>331</v>
       </c>
-      <c r="D29" t="s">
+      <c r="H29" t="s">
         <v>332</v>
       </c>
-      <c r="F29" t="s">
-        <v>195</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
         <v>333</v>
-      </c>
-      <c r="H29" t="s">
-        <v>334</v>
-      </c>
-      <c r="I29" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>334</v>
+      </c>
+      <c r="D30" t="s">
+        <v>335</v>
+      </c>
+      <c r="F30" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" t="s">
         <v>336</v>
       </c>
-      <c r="D30" t="s">
+      <c r="H30" t="s">
         <v>337</v>
       </c>
-      <c r="F30" t="s">
-        <v>203</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
         <v>338</v>
-      </c>
-      <c r="H30" t="s">
-        <v>339</v>
-      </c>
-      <c r="I30" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" t="s">
+        <v>340</v>
+      </c>
+      <c r="H31" t="s">
         <v>341</v>
       </c>
-      <c r="D31" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" t="s">
-        <v>162</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
         <v>342</v>
-      </c>
-      <c r="H31" t="s">
-        <v>343</v>
-      </c>
-      <c r="I31" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G32" t="s">
+        <v>343</v>
+      </c>
+      <c r="H32" t="s">
+        <v>344</v>
+      </c>
+      <c r="I32" t="s">
         <v>345</v>
-      </c>
-      <c r="H32" t="s">
-        <v>346</v>
-      </c>
-      <c r="I32" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G33" t="s">
+        <v>346</v>
+      </c>
+      <c r="H33" t="s">
+        <v>347</v>
+      </c>
+      <c r="I33" t="s">
         <v>348</v>
-      </c>
-      <c r="H33" t="s">
-        <v>349</v>
-      </c>
-      <c r="I33" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F34" t="s">
+        <v>349</v>
+      </c>
+      <c r="G34" t="s">
+        <v>350</v>
+      </c>
+      <c r="H34" t="s">
         <v>351</v>
       </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
         <v>352</v>
-      </c>
-      <c r="H34" t="s">
-        <v>353</v>
-      </c>
-      <c r="I34" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F35" t="s">
+        <v>353</v>
+      </c>
+      <c r="G35" t="s">
+        <v>354</v>
+      </c>
+      <c r="H35" t="s">
         <v>355</v>
       </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
         <v>356</v>
-      </c>
-      <c r="H35" t="s">
-        <v>357</v>
-      </c>
-      <c r="I35" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F36" t="s">
+        <v>357</v>
+      </c>
+      <c r="G36" t="s">
+        <v>358</v>
+      </c>
+      <c r="H36" t="s">
         <v>359</v>
       </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
         <v>360</v>
-      </c>
-      <c r="H36" t="s">
-        <v>361</v>
-      </c>
-      <c r="I36" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F37" t="s">
+        <v>361</v>
+      </c>
+      <c r="G37" t="s">
+        <v>362</v>
+      </c>
+      <c r="H37" t="s">
         <v>363</v>
       </c>
-      <c r="G37" t="s">
+      <c r="I37" t="s">
         <v>364</v>
-      </c>
-      <c r="H37" t="s">
-        <v>365</v>
-      </c>
-      <c r="I37" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F38" t="s">
+        <v>365</v>
+      </c>
+      <c r="G38" t="s">
+        <v>366</v>
+      </c>
+      <c r="H38" t="s">
         <v>367</v>
       </c>
-      <c r="G38" t="s">
+      <c r="I38" t="s">
         <v>368</v>
-      </c>
-      <c r="H38" t="s">
-        <v>369</v>
-      </c>
-      <c r="I38" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F39" t="s">
+        <v>369</v>
+      </c>
+      <c r="G39" t="s">
+        <v>370</v>
+      </c>
+      <c r="H39" t="s">
         <v>371</v>
       </c>
-      <c r="G39" t="s">
+      <c r="I39" t="s">
         <v>372</v>
-      </c>
-      <c r="H39" t="s">
-        <v>373</v>
-      </c>
-      <c r="I39" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F40" t="s">
+        <v>373</v>
+      </c>
+      <c r="G40" t="s">
+        <v>374</v>
+      </c>
+      <c r="H40" t="s">
         <v>375</v>
       </c>
-      <c r="G40" t="s">
+      <c r="I40" t="s">
         <v>376</v>
-      </c>
-      <c r="H40" t="s">
-        <v>377</v>
-      </c>
-      <c r="I40" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F41" t="s">
+        <v>377</v>
+      </c>
+      <c r="G41" t="s">
+        <v>378</v>
+      </c>
+      <c r="H41" t="s">
         <v>379</v>
       </c>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
         <v>380</v>
-      </c>
-      <c r="H41" t="s">
-        <v>381</v>
-      </c>
-      <c r="I41" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
+        <v>381</v>
+      </c>
+      <c r="F42" t="s">
+        <v>381</v>
+      </c>
+      <c r="G42" t="s">
+        <v>382</v>
+      </c>
+      <c r="H42" t="s">
         <v>383</v>
       </c>
-      <c r="F42" t="s">
-        <v>383</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="I42" t="s">
         <v>384</v>
-      </c>
-      <c r="H42" t="s">
-        <v>385</v>
-      </c>
-      <c r="I42" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
+        <v>385</v>
+      </c>
+      <c r="H43" t="s">
+        <v>386</v>
+      </c>
+      <c r="I43" t="s">
         <v>387</v>
-      </c>
-      <c r="H43" t="s">
-        <v>388</v>
-      </c>
-      <c r="I43" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
+        <v>388</v>
+      </c>
+      <c r="H44" t="s">
+        <v>389</v>
+      </c>
+      <c r="I44" t="s">
         <v>390</v>
-      </c>
-      <c r="H44" t="s">
-        <v>391</v>
-      </c>
-      <c r="I44" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
+        <v>391</v>
+      </c>
+      <c r="H45" t="s">
+        <v>392</v>
+      </c>
+      <c r="I45" t="s">
         <v>393</v>
-      </c>
-      <c r="H45" t="s">
-        <v>394</v>
-      </c>
-      <c r="I45" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
+        <v>394</v>
+      </c>
+      <c r="H46" t="s">
+        <v>395</v>
+      </c>
+      <c r="I46" t="s">
         <v>396</v>
-      </c>
-      <c r="H46" t="s">
-        <v>397</v>
-      </c>
-      <c r="I46" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
+        <v>397</v>
+      </c>
+      <c r="H47" t="s">
+        <v>398</v>
+      </c>
+      <c r="I47" t="s">
         <v>399</v>
-      </c>
-      <c r="H47" t="s">
-        <v>400</v>
-      </c>
-      <c r="I47" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
+        <v>400</v>
+      </c>
+      <c r="H48" t="s">
+        <v>401</v>
+      </c>
+      <c r="I48" t="s">
         <v>402</v>
-      </c>
-      <c r="H48" t="s">
-        <v>403</v>
-      </c>
-      <c r="I48" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="49" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
+        <v>403</v>
+      </c>
+      <c r="H49" t="s">
+        <v>404</v>
+      </c>
+      <c r="I49" t="s">
         <v>405</v>
-      </c>
-      <c r="H49" t="s">
-        <v>406</v>
-      </c>
-      <c r="I49" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
+        <v>406</v>
+      </c>
+      <c r="H50" t="s">
+        <v>407</v>
+      </c>
+      <c r="I50" t="s">
         <v>408</v>
-      </c>
-      <c r="H50" t="s">
-        <v>409</v>
-      </c>
-      <c r="I50" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H51" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I51" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I52" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G57" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G60" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G63" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="67" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G67" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="68" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="71" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G71" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="72" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="73" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="74" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G74" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G75" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G76" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="77" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="78" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G78" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="79" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="80" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G80" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="81" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G81" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="82" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G82" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="83" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G83" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="84" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G84" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="85" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G85" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="86" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G86" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="87" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="88" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="89" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G89" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="90" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G90" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="91" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G91" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="92" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G92" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="93" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="94" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G94" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="95" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G95" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="96" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G96" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="97" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G97" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="98" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="99" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G99" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="100" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G100" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="101" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="102" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G102" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -4447,7 +4438,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4462,16 +4453,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4479,7 +4470,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4487,7 +4478,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4495,23 +4486,23 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4519,7 +4510,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4527,23 +4518,23 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4551,31 +4542,31 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4583,7 +4574,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4591,7 +4582,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4599,10 +4590,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4610,13 +4601,13 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4624,13 +4615,13 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" t="s">
         <v>162</v>
-      </c>
-      <c r="D19" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4638,10 +4629,10 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4649,10 +4640,10 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4660,347 +4651,347 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" t="s">
         <v>170</v>
-      </c>
-      <c r="B25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" t="s">
         <v>183</v>
-      </c>
-      <c r="B32" t="s">
-        <v>159</v>
-      </c>
-      <c r="C32" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" t="s">
         <v>197</v>
-      </c>
-      <c r="B43" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" t="s">
-        <v>198</v>
-      </c>
-      <c r="D43" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D44" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C45" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C49" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5008,7 +4999,7 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5024,10 +5015,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:C225"/>
+  <dimension ref="A1:C224"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5039,13 +5030,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
         <v>70</v>
-      </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5053,7 +5044,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5061,7 +5052,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5069,7 +5060,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5077,7 +5068,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5085,7 +5076,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5093,7 +5084,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5101,7 +5092,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5109,55 +5100,55 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5165,7 +5156,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5173,10 +5164,10 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5184,170 +5175,170 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
         <v>106</v>
-      </c>
-      <c r="B28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -5355,10 +5346,10 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5366,10 +5357,10 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5377,34 +5368,37 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>495</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>498</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5412,10 +5406,10 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5423,10 +5417,10 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5434,10 +5428,10 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -5445,10 +5439,10 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -5456,10 +5450,10 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -5467,10 +5461,10 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -5478,10 +5472,10 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5489,32 +5483,32 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5522,7 +5516,7 @@
         <v>121</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
         <v>122</v>
@@ -5533,139 +5527,139 @@
         <v>123</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B54" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" t="s">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>485</v>
-      </c>
       <c r="B55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" t="s">
         <v>128</v>
-      </c>
-      <c r="B56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>128</v>
+        <v>489</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>493</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>137</v>
+        <v>491</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>494</v>
+      <c r="A61" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" t="s">
-        <v>119</v>
+      <c r="A62" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>120</v>
+      <c r="A63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s">
         <v>129</v>
@@ -5673,21 +5667,21 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
         <v>130</v>
@@ -5695,117 +5689,117 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
-      </c>
-      <c r="C76" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="C77" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C78" t="s">
         <v>107</v>
@@ -5813,10 +5807,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B79" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C79" t="s">
         <v>109</v>
@@ -5824,46 +5818,43 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B81" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B82" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="B83" t="s">
-        <v>94</v>
-      </c>
-      <c r="C83" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -5871,7 +5862,7 @@
         <v>27</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -5879,7 +5870,7 @@
         <v>27</v>
       </c>
       <c r="B85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -5887,7 +5878,7 @@
         <v>27</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -5895,7 +5886,7 @@
         <v>27</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -5903,7 +5894,7 @@
         <v>27</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -5911,7 +5902,7 @@
         <v>27</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -5919,7 +5910,7 @@
         <v>27</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -5975,7 +5966,7 @@
         <v>27</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -5983,7 +5974,7 @@
         <v>27</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -6004,10 +5995,10 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -6015,7 +6006,7 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -6023,7 +6014,7 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -6031,7 +6022,7 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -6039,7 +6030,7 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -6047,7 +6038,7 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -6055,7 +6046,7 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -6063,7 +6054,7 @@
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -6119,7 +6110,7 @@
         <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -6127,7 +6118,7 @@
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -6148,10 +6139,10 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B119" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -6159,7 +6150,7 @@
         <v>24</v>
       </c>
       <c r="B120" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -6167,7 +6158,7 @@
         <v>24</v>
       </c>
       <c r="B121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -6175,7 +6166,7 @@
         <v>24</v>
       </c>
       <c r="B122" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -6183,7 +6174,7 @@
         <v>24</v>
       </c>
       <c r="B123" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -6191,7 +6182,7 @@
         <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -6199,7 +6190,7 @@
         <v>24</v>
       </c>
       <c r="B125" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -6207,7 +6198,7 @@
         <v>24</v>
       </c>
       <c r="B126" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -6263,7 +6254,7 @@
         <v>24</v>
       </c>
       <c r="B133" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -6271,7 +6262,7 @@
         <v>24</v>
       </c>
       <c r="B134" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -6292,10 +6283,10 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B137" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -6303,7 +6294,7 @@
         <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -6311,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="B139" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -6319,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="B140" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -6327,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="B141" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -6335,7 +6326,7 @@
         <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -6343,7 +6334,7 @@
         <v>1</v>
       </c>
       <c r="B143" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -6351,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="B144" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -6407,7 +6398,7 @@
         <v>1</v>
       </c>
       <c r="B151" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -6415,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -6436,10 +6427,10 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B155" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -6447,7 +6438,7 @@
         <v>22</v>
       </c>
       <c r="B156" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -6455,7 +6446,7 @@
         <v>22</v>
       </c>
       <c r="B157" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -6463,7 +6454,7 @@
         <v>22</v>
       </c>
       <c r="B158" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -6471,7 +6462,7 @@
         <v>22</v>
       </c>
       <c r="B159" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -6479,7 +6470,7 @@
         <v>22</v>
       </c>
       <c r="B160" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -6487,7 +6478,7 @@
         <v>22</v>
       </c>
       <c r="B161" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -6495,7 +6486,7 @@
         <v>22</v>
       </c>
       <c r="B162" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -6551,7 +6542,7 @@
         <v>22</v>
       </c>
       <c r="B169" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -6559,7 +6550,7 @@
         <v>22</v>
       </c>
       <c r="B170" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -6580,71 +6571,71 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="B173" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B174" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B175" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B176" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B177" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B178" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B179" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B180" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B181" t="s">
         <v>80</v>
@@ -6652,7 +6643,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B182" t="s">
         <v>82</v>
@@ -6660,7 +6651,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B183" t="s">
         <v>84</v>
@@ -6668,7 +6659,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B184" t="s">
         <v>86</v>
@@ -6676,7 +6667,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B185" t="s">
         <v>88</v>
@@ -6684,7 +6675,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B186" t="s">
         <v>90</v>
@@ -6692,23 +6683,23 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B187" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B188" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B189" t="s">
         <v>94</v>
@@ -6716,7 +6707,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B190" t="s">
         <v>96</v>
@@ -6724,71 +6715,71 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B191" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B192" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B193" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B194" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B195" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B196" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B197" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B198" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B199" t="s">
         <v>80</v>
@@ -6796,7 +6787,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B200" t="s">
         <v>82</v>
@@ -6804,7 +6795,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B201" t="s">
         <v>84</v>
@@ -6812,7 +6803,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B202" t="s">
         <v>86</v>
@@ -6820,7 +6811,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B203" t="s">
         <v>88</v>
@@ -6828,7 +6819,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B204" t="s">
         <v>90</v>
@@ -6836,23 +6827,23 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B205" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B206" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B207" t="s">
         <v>94</v>
@@ -6860,7 +6851,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B208" t="s">
         <v>96</v>
@@ -6868,47 +6859,39 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>155</v>
+        <v>486</v>
       </c>
       <c r="B209" t="s">
-        <v>98</v>
+        <v>76</v>
+      </c>
+      <c r="C209" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B210" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C210" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B211" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C211" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>491</v>
-      </c>
-      <c r="B212" t="s">
-        <v>78</v>
-      </c>
-      <c r="C212" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B225" s="4"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B224" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6939,16 +6922,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6956,13 +6939,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6970,13 +6953,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6984,13 +6967,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6998,13 +6981,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7012,13 +6995,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7026,13 +7009,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7040,13 +7023,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -7054,13 +7037,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -7068,13 +7051,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -7082,13 +7065,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -7096,13 +7079,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -7110,13 +7093,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -7124,13 +7107,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -7138,13 +7121,13 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -7152,13 +7135,13 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7166,13 +7149,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -7180,13 +7163,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -7194,13 +7177,13 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7208,13 +7191,13 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -7222,13 +7205,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7236,13 +7219,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -7250,13 +7233,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -7264,13 +7247,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -7278,13 +7261,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -7292,13 +7275,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -7306,13 +7289,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -7337,103 +7320,103 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -7441,103 +7424,103 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -7545,15 +7528,15 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -7561,7 +7544,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -7589,10 +7572,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7600,7 +7583,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7608,7 +7591,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7616,39 +7599,39 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7656,23 +7639,23 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7680,23 +7663,23 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B13" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7704,7 +7687,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7712,23 +7695,23 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B18" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7736,7 +7719,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7744,7 +7727,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7752,39 +7735,39 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7792,7 +7775,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7800,7 +7783,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7808,23 +7791,23 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B30" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -7832,7 +7815,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -7840,63 +7823,63 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B34" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B35" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B36" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B37" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B39" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -7904,31 +7887,31 @@
         <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B41" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -7936,31 +7919,31 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B47" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -7968,15 +7951,15 @@
         <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B49" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -7984,63 +7967,63 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B53" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B54" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B55" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B56" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B57" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -8048,31 +8031,31 @@
         <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -8080,47 +8063,47 @@
         <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B64" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B65" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B66" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>489</v>
+      </c>
+      <c r="B67" t="s">
         <v>492</v>
-      </c>
-      <c r="B67" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -8128,7 +8111,7 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -8136,31 +8119,31 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B70" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B71" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -8168,7 +8151,7 @@
         <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -8176,79 +8159,79 @@
         <v>29</v>
       </c>
       <c r="B74" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B76" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B77" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B78" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B79" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B80" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B82" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -8256,79 +8239,79 @@
         <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B85" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B89" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B90" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B91" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B92" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B93" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -8347,7 +8330,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8357,15 +8340,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>18</v>
@@ -8373,15 +8356,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>500</v>
@@ -8389,7 +8372,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>400</v>
@@ -8397,15 +8380,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B6" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -8422,12 +8405,12 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8449,11 +8432,11 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" s="14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="14" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -8466,19 +8449,19 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -8540,13 +8523,13 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s">
         <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -8575,13 +8558,13 @@
         <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s">
         <v>5</v>
       </c>
       <c r="L4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -8610,13 +8593,13 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -8642,13 +8625,13 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J6" t="s">
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
         <v>28</v>
@@ -8660,10 +8643,10 @@
         <v>12</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -8694,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -8834,21 +8817,21 @@
         <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
         <v>1</v>
@@ -8860,16 +8843,16 @@
         <v>24</v>
       </c>
       <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
         <v>27</v>
       </c>
-      <c r="J13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" t="s">
-        <v>25</v>
-      </c>
       <c r="L13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -8877,13 +8860,13 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F14" t="s">
         <v>1</v>
@@ -8904,71 +8887,83 @@
         <v>25</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>488</v>
+        <v>30</v>
       </c>
       <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>475</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="K15" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="L15" t="s">
-        <v>498</v>
-      </c>
-      <c r="M15" t="s">
-        <v>87</v>
-      </c>
-      <c r="N15" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>485</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>473</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" t="s">
+        <v>495</v>
+      </c>
+      <c r="M16" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -8979,7 +8974,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -8988,10 +8983,10 @@
         <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -8999,10 +8994,10 @@
         <v>28</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
@@ -9011,51 +9006,33 @@
         <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
         <v>24</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -9063,34 +9040,40 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D20" t="s">
         <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>177</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>181</v>
+        <v>83</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>5</v>
+      </c>
+      <c r="M20" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -9098,138 +9081,159 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
         <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G21" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" t="s">
         <v>173</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>175</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>177</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>181</v>
-      </c>
-      <c r="L21" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="G22" t="s">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="I22" t="s">
-        <v>5</v>
+        <v>175</v>
       </c>
       <c r="J22" t="s">
-        <v>155</v>
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>484</v>
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>484</v>
+      <c r="D24" t="s">
+        <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>484</v>
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
       </c>
       <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="s">
         <v>33</v>
-      </c>
-      <c r="G25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" t="s">
-        <v>21</v>
       </c>
       <c r="K25" t="s">
         <v>22</v>
@@ -9237,141 +9241,162 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="E26" t="s">
-        <v>484</v>
+      <c r="D26" t="s">
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>474</v>
+      </c>
+      <c r="F27" t="s">
+        <v>486</v>
+      </c>
+      <c r="G27" t="s">
+        <v>487</v>
+      </c>
+      <c r="H27" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28">
         <v>2</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>471</v>
+      </c>
+      <c r="F28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" t="s">
+        <v>489</v>
+      </c>
+      <c r="I28" t="s">
+        <v>490</v>
+      </c>
+      <c r="J28" t="s">
+        <v>119</v>
+      </c>
+      <c r="K28" t="s">
+        <v>135</v>
+      </c>
+      <c r="L28" t="s">
+        <v>123</v>
+      </c>
+      <c r="M28" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
         <v>8</v>
       </c>
-      <c r="E27" t="s">
-        <v>484</v>
-      </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>484</v>
-      </c>
-      <c r="F28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>471</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G29" t="s">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="H29" t="s">
-        <v>5</v>
+        <v>489</v>
       </c>
       <c r="I29" t="s">
-        <v>29</v>
+        <v>490</v>
       </c>
       <c r="J29" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="K29" t="s">
-        <v>22</v>
+        <v>135</v>
+      </c>
+      <c r="L29" t="s">
+        <v>123</v>
+      </c>
+      <c r="M29" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I30" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K30" t="s">
         <v>22</v>
@@ -9379,13 +9404,13 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
         <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -9403,7 +9428,7 @@
         <v>29</v>
       </c>
       <c r="J31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K31" t="s">
         <v>22</v>
@@ -9411,7 +9436,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -9420,59 +9445,50 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>476</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>489</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>490</v>
+        <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>491</v>
+        <v>5</v>
+      </c>
+      <c r="I32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>473</v>
+        <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>128</v>
-      </c>
-      <c r="H33" t="s">
-        <v>492</v>
-      </c>
-      <c r="I33" t="s">
-        <v>493</v>
-      </c>
-      <c r="J33" t="s">
-        <v>121</v>
-      </c>
-      <c r="K33" t="s">
-        <v>137</v>
-      </c>
-      <c r="L33" t="s">
-        <v>125</v>
-      </c>
-      <c r="M33" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -9480,37 +9496,25 @@
       <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" t="s">
-        <v>473</v>
+      <c r="E34" t="s">
+        <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="H34" t="s">
-        <v>492</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>493</v>
-      </c>
-      <c r="J34" t="s">
-        <v>121</v>
-      </c>
-      <c r="K34" t="s">
-        <v>137</v>
-      </c>
-      <c r="L34" t="s">
-        <v>125</v>
-      </c>
-      <c r="M34" t="s">
-        <v>494</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>496</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -9518,31 +9522,46 @@
       <c r="C35" t="s">
         <v>2</v>
       </c>
-      <c r="E35" t="s">
-        <v>106</v>
+      <c r="D35" t="s">
+        <v>155</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="J35" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="K35" t="s">
-        <v>22</v>
+        <v>83</v>
+      </c>
+      <c r="L35" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" t="s">
+        <v>85</v>
+      </c>
+      <c r="P35" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>496</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -9550,115 +9569,109 @@
       <c r="C36" t="s">
         <v>8</v>
       </c>
-      <c r="E36" t="s">
-        <v>106</v>
+      <c r="D36" t="s">
+        <v>155</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I36" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="J36" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="K36" t="s">
-        <v>22</v>
+        <v>83</v>
+      </c>
+      <c r="L36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>12</v>
+      </c>
+      <c r="O36" t="s">
+        <v>85</v>
+      </c>
+      <c r="P36" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>484</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H37" t="s">
-        <v>5</v>
-      </c>
-      <c r="I37" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37" t="s">
-        <v>35</v>
-      </c>
-      <c r="K37" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>484</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38" t="s">
-        <v>5</v>
-      </c>
-      <c r="I38" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" t="s">
-        <v>35</v>
-      </c>
-      <c r="K38" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>484</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>474</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>499</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -9667,316 +9680,159 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="I40" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="J40" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K40" t="s">
-        <v>85</v>
-      </c>
-      <c r="L40" t="s">
-        <v>28</v>
-      </c>
-      <c r="M40" t="s">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s">
-        <v>12</v>
-      </c>
-      <c r="O40" t="s">
-        <v>87</v>
-      </c>
-      <c r="P40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>499</v>
+        <v>27</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="F41" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="G41" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="I41" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="J41" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K41" t="s">
-        <v>85</v>
-      </c>
-      <c r="L41" t="s">
-        <v>28</v>
-      </c>
-      <c r="M41" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s">
-        <v>12</v>
-      </c>
-      <c r="O41" t="s">
-        <v>87</v>
-      </c>
-      <c r="P41" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>487</v>
+        <v>27</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="G42" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>487</v>
+        <v>27</v>
       </c>
       <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
         <v>2</v>
       </c>
-      <c r="C43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" t="s">
-        <v>11</v>
+      <c r="E43" t="s">
+        <v>27</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
+        <v>43</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" t="s">
+        <v>40</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>487</v>
+        <v>27</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" t="s">
-        <v>106</v>
-      </c>
-      <c r="G45" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" t="s">
-        <v>106</v>
-      </c>
-      <c r="G46" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" t="s">
-        <v>27</v>
-      </c>
-      <c r="F47" t="s">
-        <v>106</v>
-      </c>
-      <c r="G47" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H48" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" t="s">
         <v>41</v>
       </c>
-      <c r="I48" t="s">
-        <v>43</v>
-      </c>
-      <c r="J48" t="s">
-        <v>42</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H49" t="s">
-        <v>41</v>
-      </c>
-      <c r="I49" t="s">
-        <v>43</v>
-      </c>
-      <c r="J49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>157</v>
+      <c r="J44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P49">
-    <sortCondition ref="A3:A49"/>
-    <sortCondition ref="B3:B49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P44">
+    <sortCondition ref="A3:A44"/>
+    <sortCondition ref="B3:B44"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="F1:N1"/>

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95182253-812E-49D5-B3C3-D8E193DCAA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B1C39A-C273-422F-AC8B-511BA3F0DC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="812" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="812" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -67,7 +67,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Finbar Barton MAUNSELL</author>
-    <author>tc={781EF275-393F-4D4F-B2E9-CE751F408370}</author>
     <author>Finbar Maunsell</author>
   </authors>
   <commentList>
@@ -95,15 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A54" authorId="1" shapeId="0" xr:uid="{781EF275-393F-4D4F-B2E9-CE751F408370}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Is lng equivalent to cng or do we need to add in a new fuel type? Should check balances</t>
-      </text>
-    </comment>
-    <comment ref="C62" authorId="2" shapeId="0" xr:uid="{89B88E45-46D2-4A21-AC6F-3EA3AEBCAB61}">
+    <comment ref="C70" authorId="1" shapeId="0" xr:uid="{89B88E45-46D2-4A21-AC6F-3EA3AEBCAB61}">
       <text>
         <r>
           <rPr>
@@ -224,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="500">
   <si>
     <t>chart_type</t>
   </si>
@@ -1672,9 +1663,6 @@
     <t>aggregate</t>
   </si>
   <si>
-    <t>Gas?</t>
-  </si>
-  <si>
     <t>['2000', '2010', '2020', '2030', '2040', '2050', '2060', '2070']</t>
   </si>
   <si>
@@ -1720,7 +1708,13 @@
     <t>line_thickness</t>
   </si>
   <si>
-    <t>['FED by fuel', 'FED by sector',  'Production','Supply', 'Buildings', 'Industry', 'Transport', 'Agriculture','Fuel consumption power sector','Electricity', 'Refining',    'Renewable fuels','Non-energy','Hydrogen','Coal','TPES Coal by type', 'Crude &amp; NGL']</t>
+    <t>Other oil</t>
+  </si>
+  <si>
+    <t>Oil use by sector</t>
+  </si>
+  <si>
+    <t>['FED by fuel', 'FED by sector',  'Production','Supply', 'Buildings', 'Industry', 'Transport', 'Agriculture','Fuel consumption power sector','Electricity', 'Refining',    'Renewable fuels','Non-energy','Hydrogen','Coal','TPES Coal by type', 'Crude &amp; NGL', 'Oil use by sector']</t>
   </si>
 </sst>
 </file>
@@ -3131,20 +3125,12 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A54" dT="2023-05-18T13:45:41.69" personId="{96FC88B6-068E-4187-B7BF-0009949FD93F}" id="{781EF275-393F-4D4F-B2E9-CE751F408370}">
-    <text>Is lng equivalent to cng or do we need to add in a new fuel type? Should check balances</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A000B41E-5923-4013-B542-E4247E89557C}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5015,10 +5001,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:C224"/>
+  <dimension ref="A1:C232"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5384,7 +5370,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B40" t="s">
         <v>92</v>
@@ -5524,7 +5510,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>497</v>
       </c>
       <c r="B53" t="s">
         <v>77</v>
@@ -5534,129 +5520,129 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>482</v>
+      <c r="A54" t="s">
+        <v>497</v>
       </c>
       <c r="B54" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>125</v>
+      <c r="C54" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>497</v>
       </c>
       <c r="B55" t="s">
         <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>497</v>
       </c>
       <c r="B56" t="s">
         <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="B57" t="s">
         <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B58" t="s">
         <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>497</v>
       </c>
       <c r="B59" t="s">
         <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B60" t="s">
         <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>33</v>
+      <c r="A61" t="s">
+        <v>497</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>118</v>
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="B63" t="s">
         <v>77</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>488</v>
       </c>
       <c r="B65" t="s">
         <v>77</v>
@@ -5667,57 +5653,57 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>37</v>
+        <v>489</v>
       </c>
       <c r="B66" t="s">
         <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
         <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>490</v>
       </c>
       <c r="B68" t="s">
         <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>37</v>
+      <c r="A69" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C69" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>37</v>
-      </c>
-      <c r="B70" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" t="s">
-        <v>124</v>
+      <c r="A70" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -5728,7 +5714,7 @@
         <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -5739,7 +5725,7 @@
         <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -5750,167 +5736,191 @@
         <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="B74" t="s">
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>92</v>
+      </c>
+      <c r="C83" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="B84" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="B85" t="s">
-        <v>73</v>
+        <v>92</v>
+      </c>
+      <c r="C85" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="B86" t="s">
-        <v>74</v>
+        <v>92</v>
+      </c>
+      <c r="C86" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="B87" t="s">
-        <v>75</v>
+        <v>92</v>
+      </c>
+      <c r="C87" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="B88" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+      <c r="C88" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>92</v>
+      </c>
+      <c r="C89" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="B90" t="s">
-        <v>78</v>
+        <v>92</v>
+      </c>
+      <c r="C90" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -5918,7 +5928,7 @@
         <v>27</v>
       </c>
       <c r="B91" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -5926,7 +5936,7 @@
         <v>27</v>
       </c>
       <c r="B92" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -5934,7 +5944,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -5942,7 +5952,7 @@
         <v>27</v>
       </c>
       <c r="B94" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -5950,7 +5960,7 @@
         <v>27</v>
       </c>
       <c r="B95" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -5958,7 +5968,7 @@
         <v>27</v>
       </c>
       <c r="B96" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -5966,7 +5976,7 @@
         <v>27</v>
       </c>
       <c r="B97" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -5974,7 +5984,7 @@
         <v>27</v>
       </c>
       <c r="B98" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -5982,7 +5992,7 @@
         <v>27</v>
       </c>
       <c r="B99" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -5990,71 +6000,71 @@
         <v>27</v>
       </c>
       <c r="B100" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B101" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B102" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B103" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B104" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B105" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B106" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B107" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B108" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -6062,7 +6072,7 @@
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -6070,7 +6080,7 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -6078,7 +6088,7 @@
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -6086,7 +6096,7 @@
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -6094,7 +6104,7 @@
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -6102,7 +6112,7 @@
         <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -6110,7 +6120,7 @@
         <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -6118,7 +6128,7 @@
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -6126,7 +6136,7 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -6134,71 +6144,71 @@
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -6206,7 +6216,7 @@
         <v>24</v>
       </c>
       <c r="B127" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -6214,7 +6224,7 @@
         <v>24</v>
       </c>
       <c r="B128" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -6222,7 +6232,7 @@
         <v>24</v>
       </c>
       <c r="B129" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -6230,7 +6240,7 @@
         <v>24</v>
       </c>
       <c r="B130" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -6238,7 +6248,7 @@
         <v>24</v>
       </c>
       <c r="B131" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -6246,7 +6256,7 @@
         <v>24</v>
       </c>
       <c r="B132" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -6254,7 +6264,7 @@
         <v>24</v>
       </c>
       <c r="B133" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -6262,7 +6272,7 @@
         <v>24</v>
       </c>
       <c r="B134" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -6270,7 +6280,7 @@
         <v>24</v>
       </c>
       <c r="B135" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -6278,71 +6288,71 @@
         <v>24</v>
       </c>
       <c r="B136" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B137" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B138" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B139" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B140" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B141" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B142" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B143" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B144" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -6350,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -6358,7 +6368,7 @@
         <v>1</v>
       </c>
       <c r="B146" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -6366,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -6374,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="B148" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -6382,7 +6392,7 @@
         <v>1</v>
       </c>
       <c r="B149" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -6390,7 +6400,7 @@
         <v>1</v>
       </c>
       <c r="B150" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -6398,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="B151" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -6406,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -6414,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="B153" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -6422,71 +6432,71 @@
         <v>1</v>
       </c>
       <c r="B154" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B155" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B156" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B157" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B158" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B159" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B161" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B162" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -6494,7 +6504,7 @@
         <v>22</v>
       </c>
       <c r="B163" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -6502,7 +6512,7 @@
         <v>22</v>
       </c>
       <c r="B164" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -6510,7 +6520,7 @@
         <v>22</v>
       </c>
       <c r="B165" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -6518,7 +6528,7 @@
         <v>22</v>
       </c>
       <c r="B166" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -6526,7 +6536,7 @@
         <v>22</v>
       </c>
       <c r="B167" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -6534,7 +6544,7 @@
         <v>22</v>
       </c>
       <c r="B168" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -6542,7 +6552,7 @@
         <v>22</v>
       </c>
       <c r="B169" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -6550,7 +6560,7 @@
         <v>22</v>
       </c>
       <c r="B170" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -6558,7 +6568,7 @@
         <v>22</v>
       </c>
       <c r="B171" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -6566,71 +6576,71 @@
         <v>22</v>
       </c>
       <c r="B172" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="B173" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="B174" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="B175" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="B176" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="B177" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="B178" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="B179" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="B180" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -6638,7 +6648,7 @@
         <v>155</v>
       </c>
       <c r="B181" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -6646,7 +6656,7 @@
         <v>155</v>
       </c>
       <c r="B182" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -6654,7 +6664,7 @@
         <v>155</v>
       </c>
       <c r="B183" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -6662,7 +6672,7 @@
         <v>155</v>
       </c>
       <c r="B184" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -6670,7 +6680,7 @@
         <v>155</v>
       </c>
       <c r="B185" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -6678,7 +6688,7 @@
         <v>155</v>
       </c>
       <c r="B186" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -6686,7 +6696,7 @@
         <v>155</v>
       </c>
       <c r="B187" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -6694,7 +6704,7 @@
         <v>155</v>
       </c>
       <c r="B188" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -6702,7 +6712,7 @@
         <v>155</v>
       </c>
       <c r="B189" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -6710,71 +6720,71 @@
         <v>155</v>
       </c>
       <c r="B190" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B191" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B192" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B193" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B194" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B195" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B196" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B197" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B198" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -6782,7 +6792,7 @@
         <v>153</v>
       </c>
       <c r="B199" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -6790,7 +6800,7 @@
         <v>153</v>
       </c>
       <c r="B200" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -6798,7 +6808,7 @@
         <v>153</v>
       </c>
       <c r="B201" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -6806,7 +6816,7 @@
         <v>153</v>
       </c>
       <c r="B202" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -6814,7 +6824,7 @@
         <v>153</v>
       </c>
       <c r="B203" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -6822,7 +6832,7 @@
         <v>153</v>
       </c>
       <c r="B204" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -6830,7 +6840,7 @@
         <v>153</v>
       </c>
       <c r="B205" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -6838,7 +6848,7 @@
         <v>153</v>
       </c>
       <c r="B206" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -6846,7 +6856,7 @@
         <v>153</v>
       </c>
       <c r="B207" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -6854,44 +6864,108 @@
         <v>153</v>
       </c>
       <c r="B208" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>486</v>
+        <v>153</v>
       </c>
       <c r="B209" t="s">
-        <v>76</v>
-      </c>
-      <c r="C209" t="s">
-        <v>228</v>
+        <v>84</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>487</v>
+        <v>153</v>
       </c>
       <c r="B210" t="s">
-        <v>76</v>
-      </c>
-      <c r="C210" t="s">
-        <v>233</v>
+        <v>86</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>488</v>
+        <v>153</v>
       </c>
       <c r="B211" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>153</v>
+      </c>
+      <c r="B212" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>153</v>
+      </c>
+      <c r="B213" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>153</v>
+      </c>
+      <c r="B214" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>153</v>
+      </c>
+      <c r="B215" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>153</v>
+      </c>
+      <c r="B216" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>485</v>
+      </c>
+      <c r="B217" t="s">
         <v>76</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C217" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>486</v>
+      </c>
+      <c r="B218" t="s">
+        <v>76</v>
+      </c>
+      <c r="C218" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>487</v>
+      </c>
+      <c r="B219" t="s">
+        <v>76</v>
+      </c>
+      <c r="C219" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B224" s="4"/>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7628,7 +7702,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B8" t="s">
         <v>448</v>
@@ -8020,7 +8094,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B57" t="s">
         <v>460</v>
@@ -8100,10 +8174,10 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B67" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -8204,7 +8278,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B80" t="s">
         <v>454</v>
@@ -8239,7 +8313,7 @@
         <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -8279,7 +8353,7 @@
         <v>475</v>
       </c>
       <c r="B89" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -8287,12 +8361,12 @@
         <v>472</v>
       </c>
       <c r="B90" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B91" t="s">
         <v>451</v>
@@ -8300,7 +8374,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B92" t="s">
         <v>451</v>
@@ -8308,7 +8382,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B93" t="s">
         <v>449</v>
@@ -8330,7 +8404,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8359,7 +8433,7 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8380,15 +8454,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -8405,12 +8479,12 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G37:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8927,7 +9001,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -8957,7 +9031,7 @@
         <v>5</v>
       </c>
       <c r="L16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M16" t="s">
         <v>85</v>
@@ -9285,13 +9359,13 @@
         <v>474</v>
       </c>
       <c r="F27" t="s">
+        <v>485</v>
+      </c>
+      <c r="G27" t="s">
         <v>486</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>487</v>
-      </c>
-      <c r="H27" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9314,10 +9388,10 @@
         <v>126</v>
       </c>
       <c r="H28" t="s">
+        <v>488</v>
+      </c>
+      <c r="I28" t="s">
         <v>489</v>
-      </c>
-      <c r="I28" t="s">
-        <v>490</v>
       </c>
       <c r="J28" t="s">
         <v>119</v>
@@ -9329,7 +9403,7 @@
         <v>123</v>
       </c>
       <c r="M28" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9352,10 +9426,10 @@
         <v>126</v>
       </c>
       <c r="H29" t="s">
+        <v>488</v>
+      </c>
+      <c r="I29" t="s">
         <v>489</v>
-      </c>
-      <c r="I29" t="s">
-        <v>490</v>
       </c>
       <c r="J29" t="s">
         <v>119</v>
@@ -9367,7 +9441,7 @@
         <v>123</v>
       </c>
       <c r="M29" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -9514,7 +9588,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -9561,7 +9635,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -9608,7 +9682,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -9631,7 +9705,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -9651,7 +9725,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -9826,6 +9900,120 @@
         <v>40</v>
       </c>
       <c r="K44" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>498</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" t="s">
+        <v>27</v>
+      </c>
+      <c r="M45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>498</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>498</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" t="s">
         <v>155</v>
       </c>
     </row>

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B1C39A-C273-422F-AC8B-511BA3F0DC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34397191-9B9A-4B6B-BBB0-556B61E73E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="812" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="812" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="table_id_to_chart" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">colors!$A$1:$B$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">colors!$A$1:$B$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="500">
   <si>
     <t>chart_type</t>
   </si>
@@ -7636,13 +7636,16 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7654,143 +7657,143 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>480</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>479</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>480</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>449</v>
@@ -7798,7 +7801,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>449</v>
@@ -7806,103 +7809,103 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>471</v>
       </c>
       <c r="B21" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>474</v>
       </c>
       <c r="B22" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="B26" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>470</v>
       </c>
       <c r="B28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>473</v>
       </c>
       <c r="B29" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="B32" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
         <v>452</v>
@@ -7910,71 +7913,71 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>494</v>
       </c>
       <c r="B37" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>490</v>
       </c>
       <c r="B38" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>167</v>
+        <v>487</v>
       </c>
       <c r="B39" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>173</v>
+        <v>497</v>
       </c>
       <c r="B41" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
         <v>456</v>
@@ -7982,416 +7985,424 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="B44" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="B45" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="B47" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>486</v>
       </c>
       <c r="B50" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>488</v>
       </c>
       <c r="B52" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B54" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>474</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>471</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>485</v>
+        <v>123</v>
       </c>
       <c r="B57" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>489</v>
       </c>
       <c r="B60" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="B62" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>195</v>
+        <v>472</v>
       </c>
       <c r="B65" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>151</v>
+        <v>475</v>
       </c>
       <c r="B66" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>488</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="B69" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="B70" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="B72" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="B75" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="B76" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B77" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>473</v>
+        <v>103</v>
       </c>
       <c r="B78" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>470</v>
+        <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>489</v>
+        <v>119</v>
       </c>
       <c r="B80" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B81" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B82" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="B83" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="B84" t="s">
-        <v>493</v>
+        <v>460</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="B86" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>475</v>
+        <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>493</v>
+        <v>450</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>472</v>
+        <v>136</v>
       </c>
       <c r="B90" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>487</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>490</v>
+        <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>494</v>
+        <v>168</v>
       </c>
       <c r="B93" t="s">
-        <v>449</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B93" xr:uid="{344218C0-5C74-48AB-A8DF-7C6AE2CA916D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B92">
-      <sortCondition ref="B1:B92"/>
+  <autoFilter ref="A1:B94" xr:uid="{344218C0-5C74-48AB-A8DF-7C6AE2CA916D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B94">
+      <sortCondition descending="1" ref="A1:A94"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8403,8 +8414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD61665-6B06-460E-828D-1570B45BB2AE}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8484,7 +8495,7 @@
     <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G37:G38"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9769,9 +9780,15 @@
         <v>4</v>
       </c>
       <c r="J40" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="K40" t="s">
+        <v>121</v>
+      </c>
+      <c r="L40" t="s">
+        <v>497</v>
+      </c>
+      <c r="M40" t="s">
         <v>155</v>
       </c>
     </row>
@@ -9801,9 +9818,15 @@
         <v>4</v>
       </c>
       <c r="J41" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="K41" t="s">
+        <v>121</v>
+      </c>
+      <c r="L41" t="s">
+        <v>497</v>
+      </c>
+      <c r="M41" t="s">
         <v>155</v>
       </c>
     </row>
@@ -9833,9 +9856,15 @@
         <v>4</v>
       </c>
       <c r="J42" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="K42" t="s">
+        <v>121</v>
+      </c>
+      <c r="L42" t="s">
+        <v>497</v>
+      </c>
+      <c r="M42" t="s">
         <v>155</v>
       </c>
     </row>

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -8,22 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34397191-9B9A-4B6B-BBB0-556B61E73E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0FEE19-F745-4324-8AC2-52AD472DF931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="812" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17510" yWindow="10690" windowWidth="19420" windowHeight="10300" tabRatio="812" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
     <sheet name="sectors_plotting" sheetId="6" r:id="rId2"/>
     <sheet name="fuels_plotting" sheetId="5" r:id="rId3"/>
     <sheet name="transformation_sector_mappings" sheetId="4" r:id="rId4"/>
-    <sheet name="plotting_name_to_label" sheetId="10" r:id="rId5"/>
-    <sheet name="colors" sheetId="9" r:id="rId6"/>
-    <sheet name="plotting_specifications" sheetId="3" r:id="rId7"/>
-    <sheet name="table_id_to_chart" sheetId="2" r:id="rId8"/>
+    <sheet name="capacity_plotting" sheetId="12" r:id="rId5"/>
+    <sheet name="emissions_plotting" sheetId="13" r:id="rId6"/>
+    <sheet name="plotting_name_to_label" sheetId="10" r:id="rId7"/>
+    <sheet name="colors" sheetId="9" r:id="rId8"/>
+    <sheet name="plotting_specifications" sheetId="3" r:id="rId9"/>
+    <sheet name="table_id_to_chart" sheetId="11" r:id="rId10"/>
+    <sheet name="table_id_to_chart_old" sheetId="2" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">colors!$A$1:$B$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">colors!$A$1:$B$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -162,6 +165,64 @@
     <author>Finbar Maunsell</author>
   </authors>
   <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{57A9EE34-42F4-4A8B-99CE-A51273AA7675}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Finbar Maunsell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+table should be used if you need/want a sepaarate table for this data. This will be needed if the data wouldn’t be available otherwise, OR if the chart is a bar chart in which case we will show it in 10 year splits, so a new table will be needed for that</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{5E951C48-D73D-4433-8E16-977434213952}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Finbar Maunsell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+These numbers are just placeholders, if you need more plotting names just extend the numbers to X+wahtever</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Finbar Maunsell</author>
+  </authors>
+  <commentList>
     <comment ref="B2" authorId="0" shapeId="0" xr:uid="{F8D9EB51-4F5D-4717-A406-24B93C8CF60F}">
       <text>
         <r>
@@ -215,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="517">
   <si>
     <t>chart_type</t>
   </si>
@@ -1715,6 +1776,57 @@
   </si>
   <si>
     <t>['FED by fuel', 'FED by sector',  'Production','Supply', 'Buildings', 'Industry', 'Transport', 'Agriculture','Fuel consumption power sector','Electricity', 'Refining',    'Renewable fuels','Non-energy','Hydrogen','Coal','TPES Coal by type', 'Crude &amp; NGL', 'Oil use by sector']</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>Generation capacity</t>
+  </si>
+  <si>
+    <t>generation</t>
+  </si>
+  <si>
+    <t>transport_stocks</t>
+  </si>
+  <si>
+    <t>Transport stocks</t>
+  </si>
+  <si>
+    <t>ev</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>capacity_plotting</t>
+  </si>
+  <si>
+    <t>emissions_plotting</t>
+  </si>
+  <si>
+    <t>Emissions</t>
+  </si>
+  <si>
+    <t>emissions</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>coal plants</t>
+  </si>
+  <si>
+    <t>aggregate_name_column</t>
+  </si>
+  <si>
+    <t>aggregate_name</t>
   </si>
 </sst>
 </file>
@@ -1905,7 +2017,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1926,6 +2038,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2602,6 +2717,86 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0924CD-1B37-BB66-0EC5-57A72D818D2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6486525" y="2343150"/>
+          <a:ext cx="7267575" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>maybe</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> we need emissions to ahve fuels and sectors?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>403860</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -2687,7 +2882,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2762,7 +2957,95 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>115166</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>29441</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>73602</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702AFFC0-263B-4ED3-A46F-0B1A3A9BC15D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24222941" y="692727"/>
+          <a:ext cx="2962275" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>If you add want to</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> add n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ew Plotting names, for</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> example 'fossil fuels' then you would add that in the related sheet, which would be one of ['sectors_plotting', 'fuels_plotting', 'transformation_sector_mappings'] and it's associated fuels (which for fossil fuels would be a lot!). Then also, add it to colors dict, which is the color to use for that plotting name!</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3129,8 +3412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A000B41E-5923-4013-B542-E4247E89557C}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D20"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4416,6 +4699,3523 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC8577D-0F20-48F8-AE15-CDDDC7C56AC5}">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1:Q50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1"/>
+    <col min="15" max="15" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="F1" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1">
+        <v>6</v>
+      </c>
+      <c r="N2" s="1">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1">
+        <v>8</v>
+      </c>
+      <c r="P2" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>501</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>501</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>501</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>501</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>501</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>501</v>
+      </c>
+      <c r="B16" t="s">
+        <v>484</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>473</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N16" t="s">
+        <v>85</v>
+      </c>
+      <c r="O16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>501</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>501</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>501</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>501</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>501</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" t="s">
+        <v>171</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>501</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" t="s">
+        <v>171</v>
+      </c>
+      <c r="I22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>501</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>501</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>501</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>501</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" t="s">
+        <v>474</v>
+      </c>
+      <c r="G27" t="s">
+        <v>485</v>
+      </c>
+      <c r="H27" t="s">
+        <v>486</v>
+      </c>
+      <c r="I27" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>501</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" t="s">
+        <v>471</v>
+      </c>
+      <c r="G28" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" t="s">
+        <v>488</v>
+      </c>
+      <c r="J28" t="s">
+        <v>489</v>
+      </c>
+      <c r="K28" t="s">
+        <v>119</v>
+      </c>
+      <c r="L28" t="s">
+        <v>135</v>
+      </c>
+      <c r="M28" t="s">
+        <v>123</v>
+      </c>
+      <c r="N28" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>501</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" t="s">
+        <v>471</v>
+      </c>
+      <c r="G29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" t="s">
+        <v>488</v>
+      </c>
+      <c r="J29" t="s">
+        <v>489</v>
+      </c>
+      <c r="K29" t="s">
+        <v>119</v>
+      </c>
+      <c r="L29" t="s">
+        <v>135</v>
+      </c>
+      <c r="M29" t="s">
+        <v>123</v>
+      </c>
+      <c r="N29" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>501</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>501</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>501</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>501</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>501</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>501</v>
+      </c>
+      <c r="B35" t="s">
+        <v>495</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>95</v>
+      </c>
+      <c r="K35" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" t="s">
+        <v>83</v>
+      </c>
+      <c r="M35" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>501</v>
+      </c>
+      <c r="B36" t="s">
+        <v>495</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>95</v>
+      </c>
+      <c r="K36" t="s">
+        <v>4</v>
+      </c>
+      <c r="L36" t="s">
+        <v>83</v>
+      </c>
+      <c r="M36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N36" t="s">
+        <v>5</v>
+      </c>
+      <c r="O36" t="s">
+        <v>12</v>
+      </c>
+      <c r="P36" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>501</v>
+      </c>
+      <c r="B37" t="s">
+        <v>483</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>501</v>
+      </c>
+      <c r="B38" t="s">
+        <v>483</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>501</v>
+      </c>
+      <c r="B39" t="s">
+        <v>483</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>501</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" t="s">
+        <v>119</v>
+      </c>
+      <c r="L40" t="s">
+        <v>121</v>
+      </c>
+      <c r="M40" t="s">
+        <v>497</v>
+      </c>
+      <c r="N40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>501</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" t="s">
+        <v>119</v>
+      </c>
+      <c r="L41" t="s">
+        <v>121</v>
+      </c>
+      <c r="M41" t="s">
+        <v>497</v>
+      </c>
+      <c r="N41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>501</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" t="s">
+        <v>119</v>
+      </c>
+      <c r="L42" t="s">
+        <v>121</v>
+      </c>
+      <c r="M42" t="s">
+        <v>497</v>
+      </c>
+      <c r="N42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>501</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J43" t="s">
+        <v>41</v>
+      </c>
+      <c r="K43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>501</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" t="s">
+        <v>41</v>
+      </c>
+      <c r="K44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>501</v>
+      </c>
+      <c r="B45" t="s">
+        <v>498</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G45" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>501</v>
+      </c>
+      <c r="B46" t="s">
+        <v>498</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>501</v>
+      </c>
+      <c r="B47" t="s">
+        <v>498</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" t="s">
+        <v>497</v>
+      </c>
+      <c r="G47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>502</v>
+      </c>
+      <c r="B48" t="s">
+        <v>503</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>509</v>
+      </c>
+      <c r="F48" t="s">
+        <v>504</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" t="s">
+        <v>95</v>
+      </c>
+      <c r="K48" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" t="s">
+        <v>83</v>
+      </c>
+      <c r="M48" t="s">
+        <v>28</v>
+      </c>
+      <c r="N48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>502</v>
+      </c>
+      <c r="B49" t="s">
+        <v>506</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>509</v>
+      </c>
+      <c r="F49" t="s">
+        <v>505</v>
+      </c>
+      <c r="G49" t="s">
+        <v>507</v>
+      </c>
+      <c r="H49" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>512</v>
+      </c>
+      <c r="B50" t="s">
+        <v>511</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>510</v>
+      </c>
+      <c r="F50" t="s">
+        <v>512</v>
+      </c>
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E48C7DC-4A7A-4BD9-B396-DFAEAA4F5867}">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1:P47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="D1" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1">
+        <v>9</v>
+      </c>
+      <c r="P2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>484</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>473</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" t="s">
+        <v>494</v>
+      </c>
+      <c r="M16" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>474</v>
+      </c>
+      <c r="F27" t="s">
+        <v>485</v>
+      </c>
+      <c r="G27" t="s">
+        <v>486</v>
+      </c>
+      <c r="H27" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>471</v>
+      </c>
+      <c r="F28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" t="s">
+        <v>488</v>
+      </c>
+      <c r="I28" t="s">
+        <v>489</v>
+      </c>
+      <c r="J28" t="s">
+        <v>119</v>
+      </c>
+      <c r="K28" t="s">
+        <v>135</v>
+      </c>
+      <c r="L28" t="s">
+        <v>123</v>
+      </c>
+      <c r="M28" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>471</v>
+      </c>
+      <c r="F29" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" t="s">
+        <v>488</v>
+      </c>
+      <c r="I29" t="s">
+        <v>489</v>
+      </c>
+      <c r="J29" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" t="s">
+        <v>135</v>
+      </c>
+      <c r="L29" t="s">
+        <v>123</v>
+      </c>
+      <c r="M29" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>495</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>95</v>
+      </c>
+      <c r="J35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" t="s">
+        <v>83</v>
+      </c>
+      <c r="L35" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" t="s">
+        <v>85</v>
+      </c>
+      <c r="P35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>495</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J36" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" t="s">
+        <v>83</v>
+      </c>
+      <c r="L36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>12</v>
+      </c>
+      <c r="O36" t="s">
+        <v>85</v>
+      </c>
+      <c r="P36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>483</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>483</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>483</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" t="s">
+        <v>119</v>
+      </c>
+      <c r="K40" t="s">
+        <v>121</v>
+      </c>
+      <c r="L40" t="s">
+        <v>497</v>
+      </c>
+      <c r="M40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" t="s">
+        <v>119</v>
+      </c>
+      <c r="K41" t="s">
+        <v>121</v>
+      </c>
+      <c r="L41" t="s">
+        <v>497</v>
+      </c>
+      <c r="M41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" t="s">
+        <v>119</v>
+      </c>
+      <c r="K42" t="s">
+        <v>121</v>
+      </c>
+      <c r="L42" t="s">
+        <v>497</v>
+      </c>
+      <c r="M42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" t="s">
+        <v>40</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>498</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" t="s">
+        <v>27</v>
+      </c>
+      <c r="M45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>498</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>498</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P44">
+    <sortCondition ref="A3:A44"/>
+    <sortCondition ref="B3:B44"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C8BA5F-2106-4B22-BB57-5C2751E6CA5D}">
   <sheetPr>
@@ -4424,7 +8224,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B17" sqref="B17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5003,8 +8803,8 @@
   </sheetPr>
   <dimension ref="A1:C232"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7380,6 +11180,168 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA369B5-07EE-4625-90E7-8EEBB3B3D66D}">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E69E30F-054A-47A4-A956-3CDF1FB97C01}">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B968B52A-197D-4486-BE9F-20DC33AA9971}">
   <dimension ref="A1:B29"/>
   <sheetViews>
@@ -7631,16 +11593,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344218C0-5C74-48AB-A8DF-7C6AE2CA916D}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8410,7 +12370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD61665-6B06-460E-828D-1570B45BB2AE}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -8483,1581 +12443,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E48C7DC-4A7A-4BD9-B396-DFAEAA4F5867}">
-  <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:P47"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" customWidth="1"/>
-    <col min="9" max="9" width="34.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" customWidth="1"/>
-    <col min="14" max="14" width="24.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="D1" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1">
-        <v>6</v>
-      </c>
-      <c r="M2" s="1">
-        <v>7</v>
-      </c>
-      <c r="N2" s="1">
-        <v>8</v>
-      </c>
-      <c r="O2" s="1">
-        <v>9</v>
-      </c>
-      <c r="P2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" t="s">
-        <v>85</v>
-      </c>
-      <c r="P6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>484</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>473</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L16" t="s">
-        <v>494</v>
-      </c>
-      <c r="M16" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" t="s">
-        <v>168</v>
-      </c>
-      <c r="G21" t="s">
-        <v>171</v>
-      </c>
-      <c r="H21" t="s">
-        <v>173</v>
-      </c>
-      <c r="I21" t="s">
-        <v>175</v>
-      </c>
-      <c r="J21" t="s">
-        <v>177</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="L21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" t="s">
-        <v>168</v>
-      </c>
-      <c r="G22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H22" t="s">
-        <v>173</v>
-      </c>
-      <c r="I22" t="s">
-        <v>175</v>
-      </c>
-      <c r="J22" t="s">
-        <v>177</v>
-      </c>
-      <c r="K22" t="s">
-        <v>179</v>
-      </c>
-      <c r="L22" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>474</v>
-      </c>
-      <c r="F27" t="s">
-        <v>485</v>
-      </c>
-      <c r="G27" t="s">
-        <v>486</v>
-      </c>
-      <c r="H27" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>471</v>
-      </c>
-      <c r="F28" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" t="s">
-        <v>488</v>
-      </c>
-      <c r="I28" t="s">
-        <v>489</v>
-      </c>
-      <c r="J28" t="s">
-        <v>119</v>
-      </c>
-      <c r="K28" t="s">
-        <v>135</v>
-      </c>
-      <c r="L28" t="s">
-        <v>123</v>
-      </c>
-      <c r="M28" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>471</v>
-      </c>
-      <c r="F29" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29" t="s">
-        <v>126</v>
-      </c>
-      <c r="H29" t="s">
-        <v>488</v>
-      </c>
-      <c r="I29" t="s">
-        <v>489</v>
-      </c>
-      <c r="J29" t="s">
-        <v>119</v>
-      </c>
-      <c r="K29" t="s">
-        <v>135</v>
-      </c>
-      <c r="L29" t="s">
-        <v>123</v>
-      </c>
-      <c r="M29" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" t="s">
-        <v>33</v>
-      </c>
-      <c r="K31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>495</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
-        <v>155</v>
-      </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" t="s">
-        <v>95</v>
-      </c>
-      <c r="J35" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" t="s">
-        <v>83</v>
-      </c>
-      <c r="L35" t="s">
-        <v>28</v>
-      </c>
-      <c r="M35" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s">
-        <v>12</v>
-      </c>
-      <c r="O35" t="s">
-        <v>85</v>
-      </c>
-      <c r="P35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>495</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>155</v>
-      </c>
-      <c r="F36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I36" t="s">
-        <v>95</v>
-      </c>
-      <c r="J36" t="s">
-        <v>4</v>
-      </c>
-      <c r="K36" t="s">
-        <v>83</v>
-      </c>
-      <c r="L36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s">
-        <v>12</v>
-      </c>
-      <c r="O36" t="s">
-        <v>85</v>
-      </c>
-      <c r="P36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>483</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>483</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>483</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" t="s">
-        <v>104</v>
-      </c>
-      <c r="G40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" t="s">
-        <v>4</v>
-      </c>
-      <c r="J40" t="s">
-        <v>119</v>
-      </c>
-      <c r="K40" t="s">
-        <v>121</v>
-      </c>
-      <c r="L40" t="s">
-        <v>497</v>
-      </c>
-      <c r="M40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" t="s">
-        <v>104</v>
-      </c>
-      <c r="G41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" t="s">
-        <v>119</v>
-      </c>
-      <c r="K41" t="s">
-        <v>121</v>
-      </c>
-      <c r="L41" t="s">
-        <v>497</v>
-      </c>
-      <c r="M41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" t="s">
-        <v>119</v>
-      </c>
-      <c r="K42" t="s">
-        <v>121</v>
-      </c>
-      <c r="L42" t="s">
-        <v>497</v>
-      </c>
-      <c r="M42" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H43" t="s">
-        <v>39</v>
-      </c>
-      <c r="I43" t="s">
-        <v>41</v>
-      </c>
-      <c r="J43" t="s">
-        <v>40</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H44" t="s">
-        <v>39</v>
-      </c>
-      <c r="I44" t="s">
-        <v>41</v>
-      </c>
-      <c r="J44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>498</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>119</v>
-      </c>
-      <c r="F45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J45" t="s">
-        <v>25</v>
-      </c>
-      <c r="K45" t="s">
-        <v>26</v>
-      </c>
-      <c r="L45" t="s">
-        <v>27</v>
-      </c>
-      <c r="M45" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>498</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s">
-        <v>121</v>
-      </c>
-      <c r="F46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J46" t="s">
-        <v>25</v>
-      </c>
-      <c r="K46" t="s">
-        <v>26</v>
-      </c>
-      <c r="L46" t="s">
-        <v>27</v>
-      </c>
-      <c r="M46" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>498</v>
-      </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
-        <v>497</v>
-      </c>
-      <c r="F47" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47" t="s">
-        <v>24</v>
-      </c>
-      <c r="J47" t="s">
-        <v>25</v>
-      </c>
-      <c r="K47" t="s">
-        <v>26</v>
-      </c>
-      <c r="L47" t="s">
-        <v>27</v>
-      </c>
-      <c r="M47" t="s">
-        <v>155</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P44">
-    <sortCondition ref="A3:A44"/>
-    <sortCondition ref="B3:B44"/>
-  </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="F1:N1"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
 </file>
--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5AD227-A7D8-43F0-80C4-5BD6D7E5AEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D34DB7-8B3B-4E95-B385-2B895062319B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4412" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4397" uniqueCount="550">
   <si>
     <t>chart_type</t>
   </si>
@@ -1991,21 +1991,6 @@
     <t>chart_title</t>
   </si>
   <si>
-    <t>intensity</t>
-  </si>
-  <si>
-    <t>energy_intensity</t>
-  </si>
-  <si>
-    <t>emissions_intensity</t>
-  </si>
-  <si>
-    <t>energy_intensity - {ECONOMY_ID} {SCENARIO} {UNIT}</t>
-  </si>
-  <si>
-    <t>emissions_intensity - {ECONOMY_ID} {SCENARIO} {UNIT}</t>
-  </si>
-  <si>
     <t>GDP_per_capita - {ECONOMY_ID} {UNIT}</t>
   </si>
   <si>
@@ -2013,12 +1998,6 @@
   </si>
   <si>
     <t>real_GDP - {ECONOMY_ID} {UNIT}</t>
-  </si>
-  <si>
-    <t>renewable_share</t>
-  </si>
-  <si>
-    <t>renewable_share - {ECONOMY_ID} {SCENARIO} {UNIT}</t>
   </si>
   <si>
     <t>10_01_13_pump_storage_plants</t>
@@ -3992,7 +3971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A000B41E-5923-4013-B542-E4247E89557C}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -4505,7 +4484,7 @@
         <v>166</v>
       </c>
       <c r="F21" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G21" t="s">
         <v>291</v>
@@ -4890,7 +4869,7 @@
         <v>376</v>
       </c>
       <c r="G41" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="H41" t="s">
         <v>377</v>
@@ -4907,7 +4886,7 @@
         <v>379</v>
       </c>
       <c r="G42" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="H42" t="s">
         <v>380</v>
@@ -4918,7 +4897,7 @@
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="H43" t="s">
         <v>382</v>
@@ -4929,7 +4908,7 @@
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="H44" t="s">
         <v>384</v>
@@ -4940,7 +4919,7 @@
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="H45" t="s">
         <v>386</v>
@@ -4951,7 +4930,7 @@
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="H46" t="s">
         <v>388</v>
@@ -4962,7 +4941,7 @@
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H47" t="s">
         <v>390</v>
@@ -4973,7 +4952,7 @@
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="H48" t="s">
         <v>392</v>
@@ -4984,7 +4963,7 @@
     </row>
     <row r="49" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="H49" t="s">
         <v>394</v>
@@ -4995,7 +4974,7 @@
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="H50" t="s">
         <v>396</v>
@@ -5006,7 +4985,7 @@
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="H51" t="s">
         <v>379</v>
@@ -5017,7 +4996,7 @@
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="I52" t="s">
         <v>379</v>
@@ -5030,7 +5009,7 @@
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.25">
@@ -17808,9 +17787,9 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView topLeftCell="D2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19958,8 +19937,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20007,7 +19986,7 @@
         <v>529</v>
       </c>
       <c r="F2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -20027,7 +20006,7 @@
         <v>530</v>
       </c>
       <c r="F3" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -20047,67 +20026,7 @@
         <v>531</v>
       </c>
       <c r="F4" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
         <v>533</v>
-      </c>
-      <c r="B5" t="s">
-        <v>533</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>534</v>
-      </c>
-      <c r="F5" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>533</v>
-      </c>
-      <c r="B6" t="s">
-        <v>533</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>535</v>
-      </c>
-      <c r="F6" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>541</v>
-      </c>
-      <c r="B7" t="s">
-        <v>541</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>541</v>
-      </c>
-      <c r="F7" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D34DB7-8B3B-4E95-B385-2B895062319B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4D1AAB-9F3B-41EA-B240-25E6FAEB395F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4397" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4397" uniqueCount="551">
   <si>
     <t>chart_type</t>
   </si>
@@ -1847,9 +1847,6 @@
     <t>Oil use by sector</t>
   </si>
   <si>
-    <t>['FED by fuel', 'FED by sector',  'Production','Supply', 'Buildings', 'Industry', 'Transport', 'Agriculture','Fuel consumption power sector','Electricity', 'Refining',    'Renewable fuels','Non-energy','Hydrogen','Coal','TPES Coal by type', 'Crude &amp; NGL', 'Oil use by sector']</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -2040,6 +2037,12 @@
   </si>
   <si>
     <t>10_02_transmission_and_distribution_losses</t>
+  </si>
+  <si>
+    <t>Macro</t>
+  </si>
+  <si>
+    <t>['Macro', 'FED by fuel', 'FED by sector', 'Buildings', 'Industry', 'Transport', 'Agriculture', 'Non-energy', 'Electricity', 'Oil use by sector', 'Fuel consumption power sector', 'Refining', 'Hydrogen', 'Production', 'Supply', 'Coal', 'TPES Coal by type', 'Crude &amp; NGL', 'Renewable fuels']</t>
   </si>
 </sst>
 </file>
@@ -4484,7 +4487,7 @@
         <v>166</v>
       </c>
       <c r="F21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G21" t="s">
         <v>291</v>
@@ -4869,7 +4872,7 @@
         <v>376</v>
       </c>
       <c r="G41" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H41" t="s">
         <v>377</v>
@@ -4886,7 +4889,7 @@
         <v>379</v>
       </c>
       <c r="G42" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H42" t="s">
         <v>380</v>
@@ -4897,7 +4900,7 @@
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H43" t="s">
         <v>382</v>
@@ -4908,7 +4911,7 @@
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H44" t="s">
         <v>384</v>
@@ -4919,7 +4922,7 @@
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H45" t="s">
         <v>386</v>
@@ -4930,7 +4933,7 @@
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H46" t="s">
         <v>388</v>
@@ -4941,7 +4944,7 @@
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H47" t="s">
         <v>390</v>
@@ -4952,7 +4955,7 @@
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H48" t="s">
         <v>392</v>
@@ -4963,7 +4966,7 @@
     </row>
     <row r="49" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H49" t="s">
         <v>394</v>
@@ -4974,7 +4977,7 @@
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H50" t="s">
         <v>396</v>
@@ -4985,7 +4988,7 @@
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H51" t="s">
         <v>379</v>
@@ -4996,7 +4999,7 @@
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I52" t="s">
         <v>379</v>
@@ -5009,7 +5012,7 @@
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.25">
@@ -6291,8 +6294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD61665-6B06-460E-828D-1570B45BB2AE}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6345,7 +6348,7 @@
         <v>478</v>
       </c>
       <c r="B6" t="s">
-        <v>485</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6375,26 +6378,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -8003,7 +8006,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B1" t="s">
         <v>49</v>
@@ -8020,7 +8023,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -8031,7 +8034,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -8042,7 +8045,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -8053,7 +8056,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -8064,7 +8067,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -8075,7 +8078,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -8086,7 +8089,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -8097,7 +8100,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B9" t="s">
         <v>147</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B10" t="s">
         <v>149</v>
@@ -8119,7 +8122,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -8130,7 +8133,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B12" t="s">
         <v>151</v>
@@ -8141,7 +8144,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B13" t="s">
         <v>153</v>
@@ -8152,7 +8155,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B14" t="s">
         <v>155</v>
@@ -8163,7 +8166,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -8174,7 +8177,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
@@ -8185,7 +8188,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -8199,7 +8202,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -8216,7 +8219,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -8233,7 +8236,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -8247,7 +8250,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>25</v>
@@ -8261,7 +8264,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>31</v>
@@ -8272,7 +8275,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B23" t="s">
         <v>165</v>
@@ -8283,7 +8286,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B24" t="s">
         <v>167</v>
@@ -8294,7 +8297,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B25" t="s">
         <v>168</v>
@@ -8311,7 +8314,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B26" t="s">
         <v>171</v>
@@ -8328,7 +8331,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B27" t="s">
         <v>173</v>
@@ -8345,7 +8348,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B28" t="s">
         <v>175</v>
@@ -8359,7 +8362,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B29" t="s">
         <v>177</v>
@@ -8376,7 +8379,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B30" t="s">
         <v>179</v>
@@ -8393,7 +8396,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B31" t="s">
         <v>181</v>
@@ -8410,7 +8413,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B32" t="s">
         <v>181</v>
@@ -8427,7 +8430,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B33" t="s">
         <v>181</v>
@@ -8444,7 +8447,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B34" t="s">
         <v>181</v>
@@ -8461,7 +8464,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B35" t="s">
         <v>181</v>
@@ -8478,7 +8481,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B36" t="s">
         <v>181</v>
@@ -8495,7 +8498,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>187</v>
@@ -8512,7 +8515,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B38" t="s">
         <v>189</v>
@@ -8526,7 +8529,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -8540,7 +8543,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
@@ -8554,7 +8557,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
@@ -8568,7 +8571,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
@@ -8582,7 +8585,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B43" t="s">
         <v>195</v>
@@ -8599,7 +8602,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B44" t="s">
         <v>198</v>
@@ -8616,7 +8619,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B45" t="s">
         <v>200</v>
@@ -8630,7 +8633,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B46" t="s">
         <v>466</v>
@@ -8641,7 +8644,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
@@ -8652,7 +8655,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B48" t="s">
         <v>35</v>
@@ -8663,7 +8666,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B49" t="s">
         <v>43</v>
@@ -8677,7 +8680,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B50" t="s">
         <v>202</v>
@@ -8688,7 +8691,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B51" t="s">
         <v>204</v>
@@ -8699,7 +8702,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
@@ -8736,7 +8739,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B1" t="s">
         <v>68</v>
@@ -8750,7 +8753,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -8761,7 +8764,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -8772,7 +8775,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -8783,7 +8786,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -8794,7 +8797,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -8805,7 +8808,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -8816,7 +8819,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -8827,7 +8830,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -8838,7 +8841,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B10" t="s">
         <v>79</v>
@@ -8849,7 +8852,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B11" t="s">
         <v>81</v>
@@ -8860,7 +8863,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -8871,7 +8874,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -8882,7 +8885,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B14" t="s">
         <v>87</v>
@@ -8893,7 +8896,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B15" t="s">
         <v>89</v>
@@ -8904,7 +8907,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -8915,7 +8918,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -8929,7 +8932,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -8940,7 +8943,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B19" t="s">
         <v>95</v>
@@ -8951,7 +8954,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B20" t="s">
         <v>465</v>
@@ -8962,7 +8965,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B21" t="s">
         <v>98</v>
@@ -8973,7 +8976,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B22" t="s">
         <v>100</v>
@@ -8984,7 +8987,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B23" t="s">
         <v>102</v>
@@ -8995,7 +8998,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B24" t="s">
         <v>103</v>
@@ -9006,7 +9009,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B25" t="s">
         <v>103</v>
@@ -9017,7 +9020,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>104</v>
@@ -9028,7 +9031,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>104</v>
@@ -9042,7 +9045,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>104</v>
@@ -9056,7 +9059,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>104</v>
@@ -9070,7 +9073,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>104</v>
@@ -9084,7 +9087,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>104</v>
@@ -9098,7 +9101,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>104</v>
@@ -9112,7 +9115,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>104</v>
@@ -9126,7 +9129,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>104</v>
@@ -9140,7 +9143,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>104</v>
@@ -9154,7 +9157,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B37" t="s">
         <v>17</v>
@@ -9182,7 +9185,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
@@ -9196,7 +9199,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
@@ -9207,7 +9210,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B40" t="s">
         <v>480</v>
@@ -9218,7 +9221,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
@@ -9232,7 +9235,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -9246,7 +9249,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
@@ -9260,7 +9263,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
@@ -9288,7 +9291,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
@@ -9302,7 +9305,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -9316,7 +9319,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
@@ -9330,7 +9333,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
@@ -9344,7 +9347,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B50" t="s">
         <v>28</v>
@@ -9358,7 +9361,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B51" t="s">
         <v>119</v>
@@ -9372,7 +9375,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B52" t="s">
         <v>121</v>
@@ -9386,7 +9389,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B53" t="s">
         <v>483</v>
@@ -9400,7 +9403,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B54" t="s">
         <v>483</v>
@@ -9414,7 +9417,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B55" t="s">
         <v>483</v>
@@ -9428,7 +9431,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B56" t="s">
         <v>483</v>
@@ -9442,7 +9445,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B57" t="s">
         <v>483</v>
@@ -9456,7 +9459,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B58" t="s">
         <v>483</v>
@@ -9470,7 +9473,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B59" t="s">
         <v>483</v>
@@ -9484,7 +9487,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B60" t="s">
         <v>483</v>
@@ -9498,7 +9501,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B61" t="s">
         <v>483</v>
@@ -9512,7 +9515,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B62" t="s">
         <v>123</v>
@@ -9526,7 +9529,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B63" t="s">
         <v>126</v>
@@ -9540,7 +9543,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B64" t="s">
         <v>126</v>
@@ -9554,7 +9557,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B65" t="s">
         <v>474</v>
@@ -9568,7 +9571,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B66" t="s">
         <v>475</v>
@@ -9582,7 +9585,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B67" t="s">
         <v>135</v>
@@ -9596,7 +9599,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B68" t="s">
         <v>476</v>
@@ -9610,7 +9613,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>33</v>
@@ -9624,7 +9627,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>28</v>
@@ -9638,7 +9641,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B71" t="s">
         <v>37</v>
@@ -9652,7 +9655,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B72" t="s">
         <v>37</v>
@@ -9666,7 +9669,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B73" t="s">
         <v>37</v>
@@ -9680,7 +9683,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B74" t="s">
         <v>37</v>
@@ -9694,7 +9697,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B75" t="s">
         <v>37</v>
@@ -9708,7 +9711,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B76" t="s">
         <v>37</v>
@@ -9722,7 +9725,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B77" t="s">
         <v>37</v>
@@ -9736,7 +9739,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B78" t="s">
         <v>37</v>
@@ -9750,7 +9753,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B79" t="s">
         <v>37</v>
@@ -9764,7 +9767,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B80" t="s">
         <v>37</v>
@@ -9778,7 +9781,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B81" t="s">
         <v>37</v>
@@ -9792,7 +9795,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B82" t="s">
         <v>135</v>
@@ -9806,7 +9809,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B83" t="s">
         <v>136</v>
@@ -9820,7 +9823,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B84" t="s">
         <v>137</v>
@@ -9831,7 +9834,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B85" t="s">
         <v>137</v>
@@ -9845,7 +9848,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B86" t="s">
         <v>137</v>
@@ -9859,7 +9862,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B87" t="s">
         <v>137</v>
@@ -9873,7 +9876,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B88" t="s">
         <v>137</v>
@@ -9887,7 +9890,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B89" t="s">
         <v>137</v>
@@ -9901,7 +9904,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B90" t="s">
         <v>137</v>
@@ -9915,7 +9918,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B91" t="s">
         <v>27</v>
@@ -9926,7 +9929,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B92" t="s">
         <v>27</v>
@@ -9937,7 +9940,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B93" t="s">
         <v>27</v>
@@ -9948,7 +9951,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B94" t="s">
         <v>27</v>
@@ -9959,7 +9962,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B95" t="s">
         <v>27</v>
@@ -9970,7 +9973,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B96" t="s">
         <v>27</v>
@@ -9981,7 +9984,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B97" t="s">
         <v>27</v>
@@ -9992,7 +9995,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B98" t="s">
         <v>27</v>
@@ -10003,7 +10006,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B99" t="s">
         <v>27</v>
@@ -10014,7 +10017,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B100" t="s">
         <v>27</v>
@@ -10025,7 +10028,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B101" t="s">
         <v>27</v>
@@ -10036,7 +10039,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B102" t="s">
         <v>27</v>
@@ -10047,7 +10050,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B103" t="s">
         <v>27</v>
@@ -10058,7 +10061,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B104" t="s">
         <v>27</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B105" t="s">
         <v>27</v>
@@ -10080,7 +10083,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B106" t="s">
         <v>27</v>
@@ -10091,7 +10094,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B107" t="s">
         <v>27</v>
@@ -10102,7 +10105,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B108" t="s">
         <v>27</v>
@@ -10113,7 +10116,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B109" t="s">
         <v>9</v>
@@ -10124,7 +10127,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B110" t="s">
         <v>9</v>
@@ -10135,7 +10138,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B111" t="s">
         <v>9</v>
@@ -10146,7 +10149,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B112" t="s">
         <v>9</v>
@@ -10157,7 +10160,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B113" t="s">
         <v>9</v>
@@ -10168,7 +10171,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B114" t="s">
         <v>9</v>
@@ -10179,7 +10182,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B115" t="s">
         <v>9</v>
@@ -10190,7 +10193,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B116" t="s">
         <v>9</v>
@@ -10201,7 +10204,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B117" t="s">
         <v>9</v>
@@ -10212,7 +10215,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B118" t="s">
         <v>9</v>
@@ -10223,7 +10226,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B119" t="s">
         <v>9</v>
@@ -10234,7 +10237,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B120" t="s">
         <v>9</v>
@@ -10245,7 +10248,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B121" t="s">
         <v>9</v>
@@ -10256,7 +10259,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B122" t="s">
         <v>9</v>
@@ -10267,7 +10270,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B123" t="s">
         <v>9</v>
@@ -10278,7 +10281,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B124" t="s">
         <v>9</v>
@@ -10289,7 +10292,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B125" t="s">
         <v>9</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B126" t="s">
         <v>9</v>
@@ -10311,7 +10314,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B127" t="s">
         <v>24</v>
@@ -10322,7 +10325,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B128" t="s">
         <v>24</v>
@@ -10333,7 +10336,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B129" t="s">
         <v>24</v>
@@ -10344,7 +10347,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B130" t="s">
         <v>24</v>
@@ -10355,7 +10358,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B131" t="s">
         <v>24</v>
@@ -10366,7 +10369,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B132" t="s">
         <v>24</v>
@@ -10377,7 +10380,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B133" t="s">
         <v>24</v>
@@ -10388,7 +10391,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B134" t="s">
         <v>24</v>
@@ -10399,7 +10402,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B135" t="s">
         <v>24</v>
@@ -10410,7 +10413,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B136" t="s">
         <v>24</v>
@@ -10421,7 +10424,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B137" t="s">
         <v>24</v>
@@ -10432,7 +10435,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B138" t="s">
         <v>24</v>
@@ -10443,7 +10446,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B139" t="s">
         <v>24</v>
@@ -10454,7 +10457,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B140" t="s">
         <v>24</v>
@@ -10465,7 +10468,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B141" t="s">
         <v>24</v>
@@ -10476,7 +10479,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B142" t="s">
         <v>24</v>
@@ -10487,7 +10490,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B143" t="s">
         <v>24</v>
@@ -10498,7 +10501,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B144" t="s">
         <v>24</v>
@@ -10509,7 +10512,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B145" t="s">
         <v>1</v>
@@ -10520,7 +10523,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B146" t="s">
         <v>1</v>
@@ -10531,7 +10534,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B147" t="s">
         <v>1</v>
@@ -10542,7 +10545,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B148" t="s">
         <v>1</v>
@@ -10553,7 +10556,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B149" t="s">
         <v>1</v>
@@ -10564,7 +10567,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B150" t="s">
         <v>1</v>
@@ -10575,7 +10578,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B151" t="s">
         <v>1</v>
@@ -10586,7 +10589,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B152" t="s">
         <v>1</v>
@@ -10597,7 +10600,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B153" t="s">
         <v>1</v>
@@ -10608,7 +10611,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B154" t="s">
         <v>1</v>
@@ -10619,7 +10622,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B155" t="s">
         <v>1</v>
@@ -10630,7 +10633,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B156" t="s">
         <v>1</v>
@@ -10641,7 +10644,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B157" t="s">
         <v>1</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B158" t="s">
         <v>1</v>
@@ -10663,7 +10666,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B159" t="s">
         <v>1</v>
@@ -10674,7 +10677,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B160" t="s">
         <v>1</v>
@@ -10685,7 +10688,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B161" t="s">
         <v>1</v>
@@ -10696,7 +10699,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B162" t="s">
         <v>1</v>
@@ -10707,7 +10710,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B163" t="s">
         <v>22</v>
@@ -10718,7 +10721,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B164" t="s">
         <v>22</v>
@@ -10729,7 +10732,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B165" t="s">
         <v>22</v>
@@ -10740,7 +10743,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B166" t="s">
         <v>22</v>
@@ -10751,7 +10754,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B167" t="s">
         <v>22</v>
@@ -10762,7 +10765,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B168" t="s">
         <v>22</v>
@@ -10773,7 +10776,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B169" t="s">
         <v>22</v>
@@ -10784,7 +10787,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B170" t="s">
         <v>22</v>
@@ -10795,7 +10798,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B171" t="s">
         <v>22</v>
@@ -10806,7 +10809,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B172" t="s">
         <v>22</v>
@@ -10817,7 +10820,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B173" t="s">
         <v>22</v>
@@ -10828,7 +10831,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B174" t="s">
         <v>22</v>
@@ -10839,7 +10842,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B175" t="s">
         <v>22</v>
@@ -10850,7 +10853,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B176" t="s">
         <v>22</v>
@@ -10861,7 +10864,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B177" t="s">
         <v>22</v>
@@ -10872,7 +10875,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B178" t="s">
         <v>22</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B179" t="s">
         <v>22</v>
@@ -10894,7 +10897,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B180" t="s">
         <v>22</v>
@@ -10905,7 +10908,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B181" t="s">
         <v>155</v>
@@ -10916,7 +10919,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B182" t="s">
         <v>155</v>
@@ -10927,7 +10930,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B183" t="s">
         <v>155</v>
@@ -10938,7 +10941,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B184" t="s">
         <v>155</v>
@@ -10949,7 +10952,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B185" t="s">
         <v>155</v>
@@ -10960,7 +10963,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B186" t="s">
         <v>155</v>
@@ -10971,7 +10974,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B187" t="s">
         <v>155</v>
@@ -10982,7 +10985,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B188" t="s">
         <v>155</v>
@@ -10993,7 +10996,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B189" t="s">
         <v>155</v>
@@ -11004,7 +11007,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B190" t="s">
         <v>155</v>
@@ -11015,7 +11018,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B191" t="s">
         <v>155</v>
@@ -11026,7 +11029,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B192" t="s">
         <v>155</v>
@@ -11037,7 +11040,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B193" t="s">
         <v>155</v>
@@ -11048,7 +11051,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B194" t="s">
         <v>155</v>
@@ -11059,7 +11062,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B195" t="s">
         <v>155</v>
@@ -11070,7 +11073,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B196" t="s">
         <v>155</v>
@@ -11081,7 +11084,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B197" t="s">
         <v>155</v>
@@ -11092,7 +11095,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B198" t="s">
         <v>155</v>
@@ -11103,7 +11106,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B199" t="s">
         <v>153</v>
@@ -11114,7 +11117,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B200" t="s">
         <v>153</v>
@@ -11125,7 +11128,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B201" t="s">
         <v>153</v>
@@ -11136,7 +11139,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B202" t="s">
         <v>153</v>
@@ -11147,7 +11150,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B203" t="s">
         <v>153</v>
@@ -11158,7 +11161,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B204" t="s">
         <v>153</v>
@@ -11169,7 +11172,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B205" t="s">
         <v>153</v>
@@ -11180,7 +11183,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B206" t="s">
         <v>153</v>
@@ -11191,7 +11194,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B207" t="s">
         <v>153</v>
@@ -11202,7 +11205,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B208" t="s">
         <v>153</v>
@@ -11213,7 +11216,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B209" t="s">
         <v>153</v>
@@ -11224,7 +11227,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B210" t="s">
         <v>153</v>
@@ -11235,7 +11238,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B211" t="s">
         <v>153</v>
@@ -11246,7 +11249,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B212" t="s">
         <v>153</v>
@@ -11257,7 +11260,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B213" t="s">
         <v>153</v>
@@ -11268,7 +11271,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B214" t="s">
         <v>153</v>
@@ -11279,7 +11282,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B215" t="s">
         <v>153</v>
@@ -11290,7 +11293,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B216" t="s">
         <v>153</v>
@@ -11301,7 +11304,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B217" t="s">
         <v>471</v>
@@ -11315,7 +11318,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B218" t="s">
         <v>472</v>
@@ -11329,7 +11332,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B219" t="s">
         <v>473</v>
@@ -11778,13 +11781,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D1" t="s">
         <v>50</v>
@@ -11804,13 +11807,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D2" t="s">
         <v>158</v>
@@ -11830,13 +11833,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D3" t="s">
         <v>158</v>
@@ -11856,13 +11859,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D4" t="s">
         <v>158</v>
@@ -11874,7 +11877,7 @@
         <v>199</v>
       </c>
       <c r="G4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H4" t="s">
         <v>246</v>
@@ -11882,13 +11885,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D5" t="s">
         <v>158</v>
@@ -11900,7 +11903,7 @@
         <v>199</v>
       </c>
       <c r="G5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H5" t="s">
         <v>250</v>
@@ -11908,13 +11911,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D6" t="s">
         <v>158</v>
@@ -11926,7 +11929,7 @@
         <v>199</v>
       </c>
       <c r="G6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H6" t="s">
         <v>270</v>
@@ -11934,13 +11937,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D7" t="s">
         <v>158</v>
@@ -11952,7 +11955,7 @@
         <v>199</v>
       </c>
       <c r="G7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H7" t="s">
         <v>274</v>
@@ -11960,13 +11963,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D8" t="s">
         <v>158</v>
@@ -11978,7 +11981,7 @@
         <v>199</v>
       </c>
       <c r="G8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H8" t="s">
         <v>297</v>
@@ -11986,13 +11989,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D9" t="s">
         <v>158</v>
@@ -12004,7 +12007,7 @@
         <v>199</v>
       </c>
       <c r="G9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H9" t="s">
         <v>302</v>
@@ -12012,13 +12015,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D10" t="s">
         <v>158</v>
@@ -12030,21 +12033,21 @@
         <v>199</v>
       </c>
       <c r="G10" t="s">
+        <v>501</v>
+      </c>
+      <c r="H10" t="s">
         <v>502</v>
-      </c>
-      <c r="H10" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D11" t="s">
         <v>158</v>
@@ -12056,21 +12059,21 @@
         <v>199</v>
       </c>
       <c r="G11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D12" t="s">
         <v>158</v>
@@ -12082,7 +12085,7 @@
         <v>197</v>
       </c>
       <c r="G12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H12" t="s">
         <v>327</v>
@@ -12090,13 +12093,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D13" t="s">
         <v>158</v>
@@ -12108,7 +12111,7 @@
         <v>197</v>
       </c>
       <c r="G13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H13" t="s">
         <v>332</v>
@@ -12116,13 +12119,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D14" t="s">
         <v>158</v>
@@ -12134,7 +12137,7 @@
         <v>197</v>
       </c>
       <c r="G14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H14" t="s">
         <v>351</v>
@@ -12142,13 +12145,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D15" t="s">
         <v>158</v>
@@ -12160,7 +12163,7 @@
         <v>197</v>
       </c>
       <c r="G15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H15" t="s">
         <v>355</v>
@@ -12168,13 +12171,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D16" t="s">
         <v>158</v>
@@ -12186,7 +12189,7 @@
         <v>197</v>
       </c>
       <c r="G16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H16" t="s">
         <v>375</v>
@@ -12194,13 +12197,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D17" t="s">
         <v>158</v>
@@ -12212,7 +12215,7 @@
         <v>197</v>
       </c>
       <c r="G17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H17" t="s">
         <v>378</v>
@@ -12220,13 +12223,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D18" t="s">
         <v>158</v>
@@ -12246,13 +12249,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D19" t="s">
         <v>158</v>
@@ -12272,13 +12275,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D20" t="s">
         <v>158</v>
@@ -12298,13 +12301,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D21" t="s">
         <v>158</v>
@@ -12316,7 +12319,7 @@
         <v>199</v>
       </c>
       <c r="G21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H21" t="s">
         <v>250</v>
@@ -12324,13 +12327,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B22" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D22" t="s">
         <v>158</v>
@@ -12342,7 +12345,7 @@
         <v>199</v>
       </c>
       <c r="G22" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H22" t="s">
         <v>274</v>
@@ -12350,13 +12353,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C23" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D23" t="s">
         <v>158</v>
@@ -12368,7 +12371,7 @@
         <v>199</v>
       </c>
       <c r="G23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H23" t="s">
         <v>302</v>
@@ -12376,13 +12379,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C24" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D24" t="s">
         <v>158</v>
@@ -12394,7 +12397,7 @@
         <v>199</v>
       </c>
       <c r="G24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H24" t="s">
         <v>246</v>
@@ -12402,13 +12405,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D25" t="s">
         <v>158</v>
@@ -12420,7 +12423,7 @@
         <v>199</v>
       </c>
       <c r="G25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H25" t="s">
         <v>270</v>
@@ -12428,13 +12431,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C26" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D26" t="s">
         <v>158</v>
@@ -12446,7 +12449,7 @@
         <v>199</v>
       </c>
       <c r="G26" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H26" t="s">
         <v>297</v>
@@ -12454,13 +12457,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D27" t="s">
         <v>158</v>
@@ -12472,21 +12475,21 @@
         <v>199</v>
       </c>
       <c r="G27" t="s">
+        <v>501</v>
+      </c>
+      <c r="H27" t="s">
         <v>502</v>
-      </c>
-      <c r="H27" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D28" t="s">
         <v>158</v>
@@ -12498,7 +12501,7 @@
         <v>197</v>
       </c>
       <c r="G28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H28" t="s">
         <v>351</v>
@@ -12506,13 +12509,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C29" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D29" t="s">
         <v>158</v>
@@ -12524,7 +12527,7 @@
         <v>197</v>
       </c>
       <c r="G29" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H29" t="s">
         <v>375</v>
@@ -12532,13 +12535,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B30" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D30" t="s">
         <v>158</v>
@@ -12558,13 +12561,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D31" t="s">
         <v>158</v>
@@ -12584,13 +12587,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B32" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D32" t="s">
         <v>158</v>
@@ -12602,7 +12605,7 @@
         <v>199</v>
       </c>
       <c r="G32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H32" t="s">
         <v>246</v>
@@ -12610,13 +12613,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B33" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D33" t="s">
         <v>158</v>
@@ -12628,7 +12631,7 @@
         <v>199</v>
       </c>
       <c r="G33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H33" t="s">
         <v>250</v>
@@ -12636,13 +12639,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D34" t="s">
         <v>158</v>
@@ -12654,7 +12657,7 @@
         <v>199</v>
       </c>
       <c r="G34" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H34" t="s">
         <v>270</v>
@@ -12662,13 +12665,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C35" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D35" t="s">
         <v>158</v>
@@ -12680,7 +12683,7 @@
         <v>199</v>
       </c>
       <c r="G35" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H35" t="s">
         <v>274</v>
@@ -12688,13 +12691,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B36" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C36" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D36" t="s">
         <v>158</v>
@@ -12706,7 +12709,7 @@
         <v>199</v>
       </c>
       <c r="G36" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H36" t="s">
         <v>297</v>
@@ -12714,13 +12717,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B37" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C37" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D37" t="s">
         <v>158</v>
@@ -12732,7 +12735,7 @@
         <v>199</v>
       </c>
       <c r="G37" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H37" t="s">
         <v>302</v>
@@ -12740,13 +12743,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B38" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D38" t="s">
         <v>158</v>
@@ -12758,21 +12761,21 @@
         <v>199</v>
       </c>
       <c r="G38" t="s">
+        <v>501</v>
+      </c>
+      <c r="H38" t="s">
         <v>502</v>
-      </c>
-      <c r="H38" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C39" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D39" t="s">
         <v>158</v>
@@ -12784,7 +12787,7 @@
         <v>197</v>
       </c>
       <c r="G39" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H39" t="s">
         <v>351</v>
@@ -12792,13 +12795,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B40" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C40" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D40" t="s">
         <v>158</v>
@@ -12810,7 +12813,7 @@
         <v>197</v>
       </c>
       <c r="G40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H40" t="s">
         <v>375</v>
@@ -12818,13 +12821,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B41" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C41" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D41" t="s">
         <v>158</v>
@@ -12844,13 +12847,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B42" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C42" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D42" t="s">
         <v>158</v>
@@ -12870,13 +12873,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B43" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C43" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D43" t="s">
         <v>158</v>
@@ -12888,7 +12891,7 @@
         <v>199</v>
       </c>
       <c r="G43" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H43" t="s">
         <v>250</v>
@@ -12896,13 +12899,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B44" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C44" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D44" t="s">
         <v>158</v>
@@ -12914,7 +12917,7 @@
         <v>199</v>
       </c>
       <c r="G44" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H44" t="s">
         <v>274</v>
@@ -12922,13 +12925,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B45" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C45" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D45" t="s">
         <v>158</v>
@@ -12940,7 +12943,7 @@
         <v>199</v>
       </c>
       <c r="G45" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H45" t="s">
         <v>302</v>
@@ -12948,13 +12951,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B46" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C46" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D46" t="s">
         <v>158</v>
@@ -12966,7 +12969,7 @@
         <v>199</v>
       </c>
       <c r="G46" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H46" t="s">
         <v>246</v>
@@ -12974,13 +12977,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B47" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C47" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D47" t="s">
         <v>158</v>
@@ -12992,7 +12995,7 @@
         <v>199</v>
       </c>
       <c r="G47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H47" t="s">
         <v>270</v>
@@ -13000,13 +13003,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B48" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C48" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D48" t="s">
         <v>158</v>
@@ -13018,7 +13021,7 @@
         <v>199</v>
       </c>
       <c r="G48" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H48" t="s">
         <v>297</v>
@@ -13026,13 +13029,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B49" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C49" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D49" t="s">
         <v>158</v>
@@ -13044,21 +13047,21 @@
         <v>199</v>
       </c>
       <c r="G49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H49" t="s">
         <v>502</v>
-      </c>
-      <c r="H49" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B50" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C50" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D50" t="s">
         <v>158</v>
@@ -13070,7 +13073,7 @@
         <v>197</v>
       </c>
       <c r="G50" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H50" t="s">
         <v>351</v>
@@ -13078,13 +13081,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C51" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D51" t="s">
         <v>158</v>
@@ -13096,7 +13099,7 @@
         <v>197</v>
       </c>
       <c r="G51" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H51" t="s">
         <v>375</v>
@@ -13104,13 +13107,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B52" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C52" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D52" t="s">
         <v>158</v>
@@ -13130,13 +13133,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B53" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C53" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D53" t="s">
         <v>158</v>
@@ -13156,13 +13159,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B54" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C54" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D54" t="s">
         <v>158</v>
@@ -13174,7 +13177,7 @@
         <v>199</v>
       </c>
       <c r="G54" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H54" t="s">
         <v>246</v>
@@ -13182,13 +13185,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B55" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C55" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D55" t="s">
         <v>158</v>
@@ -13200,7 +13203,7 @@
         <v>199</v>
       </c>
       <c r="G55" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H55" t="s">
         <v>250</v>
@@ -13208,13 +13211,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B56" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C56" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D56" t="s">
         <v>158</v>
@@ -13226,7 +13229,7 @@
         <v>199</v>
       </c>
       <c r="G56" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H56" t="s">
         <v>270</v>
@@ -13234,13 +13237,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B57" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C57" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D57" t="s">
         <v>158</v>
@@ -13252,7 +13255,7 @@
         <v>199</v>
       </c>
       <c r="G57" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H57" t="s">
         <v>274</v>
@@ -13260,13 +13263,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B58" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C58" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D58" t="s">
         <v>158</v>
@@ -13278,7 +13281,7 @@
         <v>199</v>
       </c>
       <c r="G58" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H58" t="s">
         <v>297</v>
@@ -13286,13 +13289,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B59" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C59" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D59" t="s">
         <v>158</v>
@@ -13304,7 +13307,7 @@
         <v>199</v>
       </c>
       <c r="G59" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H59" t="s">
         <v>302</v>
@@ -13312,13 +13315,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B60" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C60" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D60" t="s">
         <v>158</v>
@@ -13330,21 +13333,21 @@
         <v>199</v>
       </c>
       <c r="G60" t="s">
+        <v>501</v>
+      </c>
+      <c r="H60" t="s">
         <v>502</v>
-      </c>
-      <c r="H60" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B61" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C61" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D61" t="s">
         <v>158</v>
@@ -13356,7 +13359,7 @@
         <v>197</v>
       </c>
       <c r="G61" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H61" t="s">
         <v>351</v>
@@ -13364,13 +13367,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B62" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C62" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D62" t="s">
         <v>158</v>
@@ -13382,7 +13385,7 @@
         <v>197</v>
       </c>
       <c r="G62" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H62" t="s">
         <v>375</v>
@@ -13390,13 +13393,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B63" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C63" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D63" t="s">
         <v>158</v>
@@ -13416,13 +13419,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C64" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D64" t="s">
         <v>158</v>
@@ -13442,13 +13445,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B65" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C65" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D65" t="s">
         <v>158</v>
@@ -13460,7 +13463,7 @@
         <v>199</v>
       </c>
       <c r="G65" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H65" t="s">
         <v>254</v>
@@ -13468,13 +13471,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B66" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C66" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D66" t="s">
         <v>158</v>
@@ -13486,7 +13489,7 @@
         <v>199</v>
       </c>
       <c r="G66" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H66" t="s">
         <v>278</v>
@@ -13494,13 +13497,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B67" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C67" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D67" t="s">
         <v>158</v>
@@ -13512,7 +13515,7 @@
         <v>199</v>
       </c>
       <c r="G67" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H67" t="s">
         <v>307</v>
@@ -13520,13 +13523,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B68" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C68" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D68" t="s">
         <v>158</v>
@@ -13538,21 +13541,21 @@
         <v>199</v>
       </c>
       <c r="G68" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B69" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C69" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D69" t="s">
         <v>158</v>
@@ -13564,7 +13567,7 @@
         <v>197</v>
       </c>
       <c r="G69" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H69" t="s">
         <v>337</v>
@@ -13572,13 +13575,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B70" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C70" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D70" t="s">
         <v>158</v>
@@ -13590,7 +13593,7 @@
         <v>197</v>
       </c>
       <c r="G70" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H70" t="s">
         <v>359</v>
@@ -13598,13 +13601,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B71" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C71" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D71" t="s">
         <v>158</v>
@@ -13616,7 +13619,7 @@
         <v>197</v>
       </c>
       <c r="G71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H71" t="s">
         <v>381</v>
@@ -13624,13 +13627,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B72" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C72" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D72" t="s">
         <v>158</v>
@@ -13650,13 +13653,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B73" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C73" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D73" t="s">
         <v>158</v>
@@ -13676,13 +13679,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B74" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C74" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D74" t="s">
         <v>158</v>
@@ -13694,7 +13697,7 @@
         <v>199</v>
       </c>
       <c r="G74" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H74" t="s">
         <v>254</v>
@@ -13702,13 +13705,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B75" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C75" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D75" t="s">
         <v>158</v>
@@ -13720,7 +13723,7 @@
         <v>199</v>
       </c>
       <c r="G75" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H75" t="s">
         <v>278</v>
@@ -13728,13 +13731,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B76" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C76" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D76" t="s">
         <v>158</v>
@@ -13746,7 +13749,7 @@
         <v>199</v>
       </c>
       <c r="G76" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H76" t="s">
         <v>307</v>
@@ -13754,13 +13757,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B77" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C77" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D77" t="s">
         <v>158</v>
@@ -13772,21 +13775,21 @@
         <v>199</v>
       </c>
       <c r="G77" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H77" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B78" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C78" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D78" t="s">
         <v>158</v>
@@ -13798,7 +13801,7 @@
         <v>197</v>
       </c>
       <c r="G78" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H78" t="s">
         <v>359</v>
@@ -13806,13 +13809,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B79" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C79" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D79" t="s">
         <v>158</v>
@@ -13824,7 +13827,7 @@
         <v>197</v>
       </c>
       <c r="G79" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H79" t="s">
         <v>381</v>
@@ -13832,13 +13835,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B80" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C80" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D80" t="s">
         <v>158</v>
@@ -13858,13 +13861,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B81" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C81" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D81" t="s">
         <v>158</v>
@@ -13879,18 +13882,18 @@
         <v>326</v>
       </c>
       <c r="H81" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B82" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C82" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D82" t="s">
         <v>158</v>
@@ -13902,21 +13905,21 @@
         <v>199</v>
       </c>
       <c r="G82" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H82" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B83" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C83" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D83" t="s">
         <v>158</v>
@@ -13928,21 +13931,21 @@
         <v>199</v>
       </c>
       <c r="G83" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H83" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B84" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C84" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D84" t="s">
         <v>158</v>
@@ -13954,21 +13957,21 @@
         <v>199</v>
       </c>
       <c r="G84" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H84" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B85" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C85" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D85" t="s">
         <v>158</v>
@@ -13980,21 +13983,21 @@
         <v>199</v>
       </c>
       <c r="G85" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H85" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B86" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C86" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D86" t="s">
         <v>158</v>
@@ -14006,21 +14009,21 @@
         <v>197</v>
       </c>
       <c r="G86" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B87" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C87" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D87" t="s">
         <v>158</v>
@@ -14032,21 +14035,21 @@
         <v>197</v>
       </c>
       <c r="G87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H87" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B88" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C88" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D88" t="s">
         <v>158</v>
@@ -14058,21 +14061,21 @@
         <v>197</v>
       </c>
       <c r="G88" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H88" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B89" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C89" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D89" t="s">
         <v>158</v>
@@ -14087,15 +14090,15 @@
         <v>354</v>
       </c>
       <c r="H89" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>487</v>
+      </c>
+      <c r="B90" t="s">
         <v>488</v>
-      </c>
-      <c r="B90" t="s">
-        <v>489</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
@@ -14112,10 +14115,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>487</v>
+      </c>
+      <c r="B91" t="s">
         <v>488</v>
-      </c>
-      <c r="B91" t="s">
-        <v>489</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
@@ -14132,10 +14135,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>487</v>
+      </c>
+      <c r="B92" t="s">
         <v>488</v>
-      </c>
-      <c r="B92" t="s">
-        <v>489</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -14152,13 +14155,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>487</v>
+      </c>
+      <c r="B93" t="s">
         <v>488</v>
       </c>
-      <c r="B93" t="s">
-        <v>489</v>
-      </c>
       <c r="C93" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D93" t="s">
         <v>53</v>
@@ -14172,13 +14175,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>487</v>
+      </c>
+      <c r="B94" t="s">
         <v>488</v>
       </c>
-      <c r="B94" t="s">
-        <v>489</v>
-      </c>
       <c r="C94" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D94" t="s">
         <v>53</v>
@@ -14192,13 +14195,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>487</v>
+      </c>
+      <c r="B95" t="s">
         <v>488</v>
       </c>
-      <c r="B95" t="s">
-        <v>489</v>
-      </c>
       <c r="C95" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D95" t="s">
         <v>53</v>
@@ -14212,13 +14215,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>487</v>
+      </c>
+      <c r="B96" t="s">
         <v>488</v>
       </c>
-      <c r="B96" t="s">
-        <v>489</v>
-      </c>
       <c r="C96" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D96" t="s">
         <v>53</v>
@@ -14232,10 +14235,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>487</v>
+      </c>
+      <c r="B97" t="s">
         <v>488</v>
-      </c>
-      <c r="B97" t="s">
-        <v>489</v>
       </c>
       <c r="C97" t="s">
         <v>79</v>
@@ -14252,10 +14255,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>487</v>
+      </c>
+      <c r="B98" t="s">
         <v>488</v>
-      </c>
-      <c r="B98" t="s">
-        <v>489</v>
       </c>
       <c r="C98" t="s">
         <v>81</v>
@@ -14272,10 +14275,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>487</v>
+      </c>
+      <c r="B99" t="s">
         <v>488</v>
-      </c>
-      <c r="B99" t="s">
-        <v>489</v>
       </c>
       <c r="C99" t="s">
         <v>10</v>
@@ -14292,10 +14295,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>487</v>
+      </c>
+      <c r="B100" t="s">
         <v>488</v>
-      </c>
-      <c r="B100" t="s">
-        <v>489</v>
       </c>
       <c r="C100" t="s">
         <v>83</v>
@@ -14312,10 +14315,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>487</v>
+      </c>
+      <c r="B101" t="s">
         <v>488</v>
-      </c>
-      <c r="B101" t="s">
-        <v>489</v>
       </c>
       <c r="C101" t="s">
         <v>85</v>
@@ -14332,10 +14335,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>487</v>
+      </c>
+      <c r="B102" t="s">
         <v>488</v>
-      </c>
-      <c r="B102" t="s">
-        <v>489</v>
       </c>
       <c r="C102" t="s">
         <v>89</v>
@@ -14352,13 +14355,13 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>487</v>
+      </c>
+      <c r="B103" t="s">
         <v>488</v>
       </c>
-      <c r="B103" t="s">
-        <v>489</v>
-      </c>
       <c r="C103" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D103" t="s">
         <v>53</v>
@@ -14372,13 +14375,13 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>487</v>
+      </c>
+      <c r="B104" t="s">
         <v>488</v>
       </c>
-      <c r="B104" t="s">
-        <v>489</v>
-      </c>
       <c r="C104" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D104" t="s">
         <v>53</v>
@@ -14392,13 +14395,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>487</v>
+      </c>
+      <c r="B105" t="s">
         <v>488</v>
       </c>
-      <c r="B105" t="s">
-        <v>489</v>
-      </c>
       <c r="C105" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D105" t="s">
         <v>53</v>
@@ -14434,10 +14437,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C1" t="s">
         <v>69</v>
@@ -14448,7 +14451,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -14459,7 +14462,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -14470,7 +14473,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -14481,7 +14484,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -14492,7 +14495,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -14503,7 +14506,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -14514,7 +14517,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -14525,7 +14528,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -14536,7 +14539,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B10" t="s">
         <v>79</v>
@@ -14547,7 +14550,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B11" t="s">
         <v>81</v>
@@ -14558,7 +14561,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -14569,7 +14572,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -14580,7 +14583,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B14" t="s">
         <v>87</v>
@@ -14591,7 +14594,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B15" t="s">
         <v>89</v>
@@ -14602,7 +14605,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -14613,7 +14616,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -14627,7 +14630,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -14638,7 +14641,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B19" t="s">
         <v>95</v>
@@ -14649,7 +14652,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B20" t="s">
         <v>465</v>
@@ -14660,7 +14663,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B21" t="s">
         <v>98</v>
@@ -14671,7 +14674,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B22" t="s">
         <v>100</v>
@@ -14682,7 +14685,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B23" t="s">
         <v>102</v>
@@ -14693,7 +14696,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B24" t="s">
         <v>103</v>
@@ -14704,7 +14707,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B25" t="s">
         <v>103</v>
@@ -14715,7 +14718,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>104</v>
@@ -14726,7 +14729,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>104</v>
@@ -14740,7 +14743,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>104</v>
@@ -14754,7 +14757,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>104</v>
@@ -14768,7 +14771,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>104</v>
@@ -14782,7 +14785,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>104</v>
@@ -14796,7 +14799,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>104</v>
@@ -14810,7 +14813,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>104</v>
@@ -14824,7 +14827,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>104</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>104</v>
@@ -14852,7 +14855,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -14866,7 +14869,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B37" t="s">
         <v>17</v>
@@ -14880,7 +14883,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
@@ -14894,7 +14897,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
@@ -14905,7 +14908,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B40" t="s">
         <v>480</v>
@@ -14916,7 +14919,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
@@ -14930,7 +14933,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
@@ -14958,7 +14961,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
@@ -14972,7 +14975,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
@@ -14986,7 +14989,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
@@ -15000,7 +15003,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -15014,7 +15017,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
@@ -15028,7 +15031,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
@@ -15042,7 +15045,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B50" t="s">
         <v>28</v>
@@ -15056,7 +15059,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B51" t="s">
         <v>119</v>
@@ -15070,7 +15073,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B52" t="s">
         <v>121</v>
@@ -15084,7 +15087,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B53" t="s">
         <v>483</v>
@@ -15098,7 +15101,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B54" t="s">
         <v>483</v>
@@ -15112,7 +15115,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B55" t="s">
         <v>483</v>
@@ -15126,7 +15129,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B56" t="s">
         <v>483</v>
@@ -15140,7 +15143,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B57" t="s">
         <v>483</v>
@@ -15154,7 +15157,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B58" t="s">
         <v>483</v>
@@ -15168,7 +15171,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B59" t="s">
         <v>483</v>
@@ -15182,7 +15185,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B60" t="s">
         <v>483</v>
@@ -15196,7 +15199,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B61" t="s">
         <v>483</v>
@@ -15210,7 +15213,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B62" t="s">
         <v>123</v>
@@ -15224,7 +15227,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B63" t="s">
         <v>126</v>
@@ -15238,7 +15241,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B64" t="s">
         <v>126</v>
@@ -15252,7 +15255,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B65" t="s">
         <v>474</v>
@@ -15266,7 +15269,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B66" t="s">
         <v>475</v>
@@ -15280,7 +15283,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B67" t="s">
         <v>135</v>
@@ -15294,7 +15297,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B68" t="s">
         <v>476</v>
@@ -15308,7 +15311,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>33</v>
@@ -15322,7 +15325,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>28</v>
@@ -15336,7 +15339,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B71" t="s">
         <v>37</v>
@@ -15350,7 +15353,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B72" t="s">
         <v>37</v>
@@ -15364,7 +15367,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B73" t="s">
         <v>37</v>
@@ -15378,7 +15381,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B74" t="s">
         <v>37</v>
@@ -15392,7 +15395,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B75" t="s">
         <v>37</v>
@@ -15406,7 +15409,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B76" t="s">
         <v>37</v>
@@ -15420,7 +15423,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B77" t="s">
         <v>37</v>
@@ -15434,7 +15437,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B78" t="s">
         <v>37</v>
@@ -15448,7 +15451,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B79" t="s">
         <v>37</v>
@@ -15462,7 +15465,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B80" t="s">
         <v>37</v>
@@ -15476,7 +15479,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B81" t="s">
         <v>37</v>
@@ -15490,7 +15493,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B82" t="s">
         <v>135</v>
@@ -15504,7 +15507,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B83" t="s">
         <v>136</v>
@@ -15518,7 +15521,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B84" t="s">
         <v>137</v>
@@ -15529,7 +15532,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B85" t="s">
         <v>137</v>
@@ -15543,7 +15546,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B86" t="s">
         <v>137</v>
@@ -15557,7 +15560,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B87" t="s">
         <v>137</v>
@@ -15571,7 +15574,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B88" t="s">
         <v>137</v>
@@ -15585,7 +15588,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B89" t="s">
         <v>137</v>
@@ -15599,7 +15602,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B90" t="s">
         <v>137</v>
@@ -15613,7 +15616,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B91" t="s">
         <v>27</v>
@@ -15624,7 +15627,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B92" t="s">
         <v>27</v>
@@ -15635,7 +15638,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B93" t="s">
         <v>27</v>
@@ -15646,7 +15649,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B94" t="s">
         <v>27</v>
@@ -15657,7 +15660,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B95" t="s">
         <v>27</v>
@@ -15668,7 +15671,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B96" t="s">
         <v>27</v>
@@ -15679,7 +15682,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B97" t="s">
         <v>27</v>
@@ -15690,7 +15693,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B98" t="s">
         <v>27</v>
@@ -15701,7 +15704,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B99" t="s">
         <v>27</v>
@@ -15712,7 +15715,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B100" t="s">
         <v>27</v>
@@ -15723,7 +15726,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B101" t="s">
         <v>27</v>
@@ -15734,7 +15737,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B102" t="s">
         <v>27</v>
@@ -15745,7 +15748,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B103" t="s">
         <v>27</v>
@@ -15756,7 +15759,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B104" t="s">
         <v>27</v>
@@ -15767,7 +15770,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B105" t="s">
         <v>27</v>
@@ -15778,7 +15781,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B106" t="s">
         <v>27</v>
@@ -15789,7 +15792,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B107" t="s">
         <v>27</v>
@@ -15800,7 +15803,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B108" t="s">
         <v>27</v>
@@ -15811,7 +15814,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B109" t="s">
         <v>9</v>
@@ -15822,7 +15825,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B110" t="s">
         <v>9</v>
@@ -15833,7 +15836,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B111" t="s">
         <v>9</v>
@@ -15844,7 +15847,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B112" t="s">
         <v>9</v>
@@ -15855,7 +15858,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B113" t="s">
         <v>9</v>
@@ -15866,7 +15869,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B114" t="s">
         <v>9</v>
@@ -15877,7 +15880,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B115" t="s">
         <v>9</v>
@@ -15888,7 +15891,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B116" t="s">
         <v>9</v>
@@ -15899,7 +15902,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B117" t="s">
         <v>9</v>
@@ -15910,7 +15913,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B118" t="s">
         <v>9</v>
@@ -15921,7 +15924,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B119" t="s">
         <v>9</v>
@@ -15932,7 +15935,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B120" t="s">
         <v>9</v>
@@ -15943,7 +15946,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B121" t="s">
         <v>9</v>
@@ -15954,7 +15957,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B122" t="s">
         <v>9</v>
@@ -15965,7 +15968,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B123" t="s">
         <v>9</v>
@@ -15976,7 +15979,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B124" t="s">
         <v>9</v>
@@ -15987,7 +15990,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B125" t="s">
         <v>9</v>
@@ -15998,7 +16001,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B126" t="s">
         <v>9</v>
@@ -16009,7 +16012,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B127" t="s">
         <v>24</v>
@@ -16020,7 +16023,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B128" t="s">
         <v>24</v>
@@ -16031,7 +16034,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B129" t="s">
         <v>24</v>
@@ -16042,7 +16045,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B130" t="s">
         <v>24</v>
@@ -16053,7 +16056,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B131" t="s">
         <v>24</v>
@@ -16064,7 +16067,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B132" t="s">
         <v>24</v>
@@ -16075,7 +16078,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B133" t="s">
         <v>24</v>
@@ -16086,7 +16089,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B134" t="s">
         <v>24</v>
@@ -16097,7 +16100,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B135" t="s">
         <v>24</v>
@@ -16108,7 +16111,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B136" t="s">
         <v>24</v>
@@ -16119,7 +16122,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B137" t="s">
         <v>24</v>
@@ -16130,7 +16133,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B138" t="s">
         <v>24</v>
@@ -16141,7 +16144,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B139" t="s">
         <v>24</v>
@@ -16152,7 +16155,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B140" t="s">
         <v>24</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B141" t="s">
         <v>24</v>
@@ -16174,7 +16177,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B142" t="s">
         <v>24</v>
@@ -16185,7 +16188,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B143" t="s">
         <v>24</v>
@@ -16196,7 +16199,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B144" t="s">
         <v>24</v>
@@ -16207,7 +16210,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B145" t="s">
         <v>1</v>
@@ -16218,7 +16221,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B146" t="s">
         <v>1</v>
@@ -16229,7 +16232,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B147" t="s">
         <v>1</v>
@@ -16240,7 +16243,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B148" t="s">
         <v>1</v>
@@ -16251,7 +16254,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B149" t="s">
         <v>1</v>
@@ -16262,7 +16265,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B150" t="s">
         <v>1</v>
@@ -16273,7 +16276,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B151" t="s">
         <v>1</v>
@@ -16284,7 +16287,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B152" t="s">
         <v>1</v>
@@ -16295,7 +16298,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B153" t="s">
         <v>1</v>
@@ -16306,7 +16309,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B154" t="s">
         <v>1</v>
@@ -16317,7 +16320,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B155" t="s">
         <v>1</v>
@@ -16328,7 +16331,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B156" t="s">
         <v>1</v>
@@ -16339,7 +16342,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B157" t="s">
         <v>1</v>
@@ -16350,7 +16353,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B158" t="s">
         <v>1</v>
@@ -16361,7 +16364,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B159" t="s">
         <v>1</v>
@@ -16372,7 +16375,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B160" t="s">
         <v>1</v>
@@ -16383,7 +16386,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B161" t="s">
         <v>1</v>
@@ -16394,7 +16397,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B162" t="s">
         <v>1</v>
@@ -16405,7 +16408,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B163" t="s">
         <v>22</v>
@@ -16416,7 +16419,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B164" t="s">
         <v>22</v>
@@ -16427,7 +16430,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B165" t="s">
         <v>22</v>
@@ -16438,7 +16441,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B166" t="s">
         <v>22</v>
@@ -16449,7 +16452,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B167" t="s">
         <v>22</v>
@@ -16460,7 +16463,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B168" t="s">
         <v>22</v>
@@ -16471,7 +16474,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B169" t="s">
         <v>22</v>
@@ -16482,7 +16485,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B170" t="s">
         <v>22</v>
@@ -16493,7 +16496,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B171" t="s">
         <v>22</v>
@@ -16504,7 +16507,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B172" t="s">
         <v>22</v>
@@ -16515,7 +16518,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B173" t="s">
         <v>22</v>
@@ -16526,7 +16529,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B174" t="s">
         <v>22</v>
@@ -16537,7 +16540,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B175" t="s">
         <v>22</v>
@@ -16548,7 +16551,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B176" t="s">
         <v>22</v>
@@ -16559,7 +16562,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B177" t="s">
         <v>22</v>
@@ -16570,7 +16573,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B178" t="s">
         <v>22</v>
@@ -16581,7 +16584,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B179" t="s">
         <v>22</v>
@@ -16592,7 +16595,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B180" t="s">
         <v>22</v>
@@ -16603,7 +16606,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B181" t="s">
         <v>155</v>
@@ -16614,7 +16617,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B182" t="s">
         <v>155</v>
@@ -16625,7 +16628,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B183" t="s">
         <v>155</v>
@@ -16636,7 +16639,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B184" t="s">
         <v>155</v>
@@ -16647,7 +16650,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B185" t="s">
         <v>155</v>
@@ -16658,7 +16661,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B186" t="s">
         <v>155</v>
@@ -16669,7 +16672,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B187" t="s">
         <v>155</v>
@@ -16680,7 +16683,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B188" t="s">
         <v>155</v>
@@ -16691,7 +16694,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B189" t="s">
         <v>155</v>
@@ -16702,7 +16705,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B190" t="s">
         <v>155</v>
@@ -16713,7 +16716,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B191" t="s">
         <v>155</v>
@@ -16724,7 +16727,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B192" t="s">
         <v>155</v>
@@ -16735,7 +16738,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B193" t="s">
         <v>155</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B194" t="s">
         <v>155</v>
@@ -16757,7 +16760,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B195" t="s">
         <v>155</v>
@@ -16768,7 +16771,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B196" t="s">
         <v>155</v>
@@ -16779,7 +16782,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B197" t="s">
         <v>155</v>
@@ -16790,7 +16793,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B198" t="s">
         <v>155</v>
@@ -16801,7 +16804,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B199" t="s">
         <v>153</v>
@@ -16812,7 +16815,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B200" t="s">
         <v>153</v>
@@ -16823,7 +16826,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B201" t="s">
         <v>153</v>
@@ -16834,7 +16837,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B202" t="s">
         <v>153</v>
@@ -16845,7 +16848,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B203" t="s">
         <v>153</v>
@@ -16856,7 +16859,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B204" t="s">
         <v>153</v>
@@ -16867,7 +16870,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B205" t="s">
         <v>153</v>
@@ -16878,7 +16881,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B206" t="s">
         <v>153</v>
@@ -16889,7 +16892,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B207" t="s">
         <v>153</v>
@@ -16900,7 +16903,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B208" t="s">
         <v>153</v>
@@ -16911,7 +16914,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B209" t="s">
         <v>153</v>
@@ -16922,7 +16925,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B210" t="s">
         <v>153</v>
@@ -16933,7 +16936,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B211" t="s">
         <v>153</v>
@@ -16944,7 +16947,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B212" t="s">
         <v>153</v>
@@ -16955,7 +16958,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B213" t="s">
         <v>153</v>
@@ -16966,7 +16969,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B214" t="s">
         <v>153</v>
@@ -16977,7 +16980,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B215" t="s">
         <v>153</v>
@@ -16988,7 +16991,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B216" t="s">
         <v>153</v>
@@ -16999,7 +17002,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B217" t="s">
         <v>471</v>
@@ -17013,7 +17016,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B218" t="s">
         <v>472</v>
@@ -17027,7 +17030,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B219" t="s">
         <v>473</v>
@@ -17066,10 +17069,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C1" t="s">
         <v>50</v>
@@ -17083,7 +17086,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -17094,7 +17097,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -17105,7 +17108,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -17116,7 +17119,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -17127,7 +17130,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -17138,7 +17141,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -17149,7 +17152,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -17160,7 +17163,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B9" t="s">
         <v>147</v>
@@ -17171,7 +17174,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B10" t="s">
         <v>149</v>
@@ -17182,7 +17185,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -17193,7 +17196,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B12" t="s">
         <v>151</v>
@@ -17204,7 +17207,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B13" t="s">
         <v>153</v>
@@ -17215,7 +17218,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B14" t="s">
         <v>155</v>
@@ -17226,7 +17229,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -17237,7 +17240,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
@@ -17248,7 +17251,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -17262,7 +17265,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -17279,7 +17282,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -17296,7 +17299,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -17310,7 +17313,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>25</v>
@@ -17324,7 +17327,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>31</v>
@@ -17335,7 +17338,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B23" t="s">
         <v>165</v>
@@ -17346,7 +17349,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B24" t="s">
         <v>167</v>
@@ -17357,7 +17360,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B25" t="s">
         <v>168</v>
@@ -17374,7 +17377,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B26" t="s">
         <v>171</v>
@@ -17391,7 +17394,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B27" t="s">
         <v>173</v>
@@ -17408,7 +17411,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B28" t="s">
         <v>175</v>
@@ -17422,7 +17425,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B29" t="s">
         <v>177</v>
@@ -17439,7 +17442,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B30" t="s">
         <v>179</v>
@@ -17456,7 +17459,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B31" t="s">
         <v>181</v>
@@ -17473,7 +17476,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B32" t="s">
         <v>181</v>
@@ -17490,7 +17493,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B33" t="s">
         <v>181</v>
@@ -17507,7 +17510,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B34" t="s">
         <v>181</v>
@@ -17524,7 +17527,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B35" t="s">
         <v>181</v>
@@ -17541,7 +17544,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B36" t="s">
         <v>181</v>
@@ -17558,7 +17561,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>187</v>
@@ -17575,7 +17578,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B38" t="s">
         <v>189</v>
@@ -17589,7 +17592,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -17603,7 +17606,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
@@ -17617,7 +17620,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
@@ -17631,7 +17634,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
@@ -17645,7 +17648,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B43" t="s">
         <v>195</v>
@@ -17662,7 +17665,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B44" t="s">
         <v>198</v>
@@ -17679,7 +17682,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B45" t="s">
         <v>200</v>
@@ -17693,7 +17696,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B46" t="s">
         <v>466</v>
@@ -17704,7 +17707,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
@@ -17715,7 +17718,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B48" t="s">
         <v>35</v>
@@ -17726,7 +17729,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B49" t="s">
         <v>43</v>
@@ -17740,7 +17743,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B50" t="s">
         <v>202</v>
@@ -17751,7 +17754,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B51" t="s">
         <v>204</v>
@@ -17762,7 +17765,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
@@ -17831,10 +17834,10 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>463</v>
@@ -17846,10 +17849,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>495</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -17902,7 +17905,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -17946,7 +17949,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -17990,7 +17993,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -18034,7 +18037,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -18090,7 +18093,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -18119,7 +18122,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -18157,7 +18160,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -18195,7 +18198,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -18233,7 +18236,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -18271,7 +18274,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -18315,7 +18318,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -18359,7 +18362,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -18403,7 +18406,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -18447,7 +18450,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B16" t="s">
         <v>470</v>
@@ -18497,7 +18500,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
@@ -18529,7 +18532,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
@@ -18561,7 +18564,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
@@ -18593,7 +18596,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -18643,7 +18646,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -18687,7 +18690,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -18731,7 +18734,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -18769,7 +18772,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -18810,7 +18813,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -18851,7 +18854,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -18892,7 +18895,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
@@ -18924,7 +18927,7 @@
     </row>
     <row r="28" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
@@ -18971,7 +18974,7 @@
     </row>
     <row r="29" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
@@ -19018,7 +19021,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
@@ -19059,7 +19062,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B31" t="s">
         <v>38</v>
@@ -19100,7 +19103,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
@@ -19141,7 +19144,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
@@ -19170,7 +19173,7 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
@@ -19205,7 +19208,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B35" t="s">
         <v>481</v>
@@ -19261,7 +19264,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B36" t="s">
         <v>481</v>
@@ -19317,7 +19320,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B37" t="s">
         <v>469</v>
@@ -19349,7 +19352,7 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B38" t="s">
         <v>469</v>
@@ -19378,7 +19381,7 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B39" t="s">
         <v>469</v>
@@ -19407,7 +19410,7 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
@@ -19454,7 +19457,7 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B41" t="s">
         <v>27</v>
@@ -19501,7 +19504,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B42" t="s">
         <v>27</v>
@@ -19548,7 +19551,7 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B43" t="s">
         <v>27</v>
@@ -19589,7 +19592,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B44" t="s">
         <v>27</v>
@@ -19630,7 +19633,7 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B45" t="s">
         <v>484</v>
@@ -19677,7 +19680,7 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B46" t="s">
         <v>484</v>
@@ -19724,7 +19727,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B47" t="s">
         <v>484</v>
@@ -19771,13 +19774,13 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>487</v>
+      </c>
+      <c r="B48" t="s">
         <v>488</v>
       </c>
-      <c r="B48" t="s">
-        <v>489</v>
-      </c>
       <c r="C48" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -19786,10 +19789,10 @@
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G48" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H48" t="s">
         <v>10</v>
@@ -19816,16 +19819,16 @@
         <v>5</v>
       </c>
       <c r="P48" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q48" t="s">
         <v>520</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
         <v>521</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>522</v>
-      </c>
-      <c r="S48" t="s">
-        <v>523</v>
       </c>
       <c r="T48" t="s">
         <v>85</v>
@@ -19834,7 +19837,7 @@
         <v>89</v>
       </c>
       <c r="V48" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="W48" t="s">
         <v>79</v>
@@ -19842,13 +19845,13 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B49" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C49" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -19857,30 +19860,30 @@
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G49" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H49" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I49" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B50" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C50" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -19889,7 +19892,7 @@
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G50" t="s">
         <v>27</v>
@@ -19937,8 +19940,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19951,7 +19954,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>463</v>
@@ -19966,15 +19969,15 @@
         <v>452</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B2" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -19983,18 +19986,18 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B3" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -20003,18 +20006,18 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B4" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -20023,10 +20026,10 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4D1AAB-9F3B-41EA-B240-25E6FAEB395F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5672B59-86A1-49AD-B17F-6B62913193FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4397" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4398" uniqueCount="551">
   <si>
     <t>chart_type</t>
   </si>
@@ -1991,12 +1991,6 @@
     <t>GDP_per_capita - {ECONOMY_ID} {UNIT}</t>
   </si>
   <si>
-    <t>population - {ECONOMY_ID} {UNIT}</t>
-  </si>
-  <si>
-    <t>real_GDP - {ECONOMY_ID} {UNIT}</t>
-  </si>
-  <si>
     <t>10_01_13_pump_storage_plants</t>
   </si>
   <si>
@@ -2043,6 +2037,12 @@
   </si>
   <si>
     <t>['Macro', 'FED by fuel', 'FED by sector', 'Buildings', 'Industry', 'Transport', 'Agriculture', 'Non-energy', 'Electricity', 'Oil use by sector', 'Fuel consumption power sector', 'Refining', 'Hydrogen', 'Production', 'Supply', 'Coal', 'TPES Coal by type', 'Crude &amp; NGL', 'Renewable fuels']</t>
+  </si>
+  <si>
+    <t>Population - {ECONOMY_ID} {UNIT}</t>
+  </si>
+  <si>
+    <t>Real_GDP - {ECONOMY_ID} {UNIT}</t>
   </si>
 </sst>
 </file>
@@ -4487,7 +4487,7 @@
         <v>166</v>
       </c>
       <c r="F21" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G21" t="s">
         <v>291</v>
@@ -4872,7 +4872,7 @@
         <v>376</v>
       </c>
       <c r="G41" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H41" t="s">
         <v>377</v>
@@ -4889,7 +4889,7 @@
         <v>379</v>
       </c>
       <c r="G42" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H42" t="s">
         <v>380</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H43" t="s">
         <v>382</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H44" t="s">
         <v>384</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H45" t="s">
         <v>386</v>
@@ -4933,7 +4933,7 @@
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H46" t="s">
         <v>388</v>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H47" t="s">
         <v>390</v>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H48" t="s">
         <v>392</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="49" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H49" t="s">
         <v>394</v>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H50" t="s">
         <v>396</v>
@@ -4988,7 +4988,7 @@
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H51" t="s">
         <v>379</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I52" t="s">
         <v>379</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.25">
@@ -6294,7 +6294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD61665-6B06-460E-828D-1570B45BB2AE}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -6348,7 +6348,7 @@
         <v>478</v>
       </c>
       <c r="B6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -17789,10 +17789,10 @@
   </sheetPr>
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
+      <selection pane="bottomLeft" activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18067,13 +18067,13 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="s">
         <v>95</v>
-      </c>
-      <c r="L6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" t="s">
-        <v>83</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -18498,7 +18498,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>486</v>
       </c>
@@ -18530,7 +18530,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>486</v>
       </c>
@@ -18562,7 +18562,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>486</v>
       </c>
@@ -18594,7 +18594,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>486</v>
       </c>
@@ -18632,19 +18632,22 @@
         <v>83</v>
       </c>
       <c r="M20" t="s">
+        <v>95</v>
+      </c>
+      <c r="N20" t="s">
         <v>28</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>5</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>12</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>486</v>
       </c>
@@ -18688,7 +18691,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>486</v>
       </c>
@@ -18732,7 +18735,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>486</v>
       </c>
@@ -18770,7 +18773,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>486</v>
       </c>
@@ -18811,7 +18814,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>486</v>
       </c>
@@ -18852,7 +18855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>486</v>
       </c>
@@ -18893,7 +18896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>486</v>
       </c>
@@ -18925,7 +18928,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>486</v>
       </c>
@@ -18972,7 +18975,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>486</v>
       </c>
@@ -19019,7 +19022,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>486</v>
       </c>
@@ -19060,7 +19063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>486</v>
       </c>
@@ -19101,7 +19104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>486</v>
       </c>
@@ -19238,13 +19241,13 @@
         <v>3</v>
       </c>
       <c r="K35" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" t="s">
+        <v>83</v>
+      </c>
+      <c r="M35" t="s">
         <v>95</v>
-      </c>
-      <c r="L35" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" t="s">
-        <v>83</v>
       </c>
       <c r="N35" t="s">
         <v>28</v>
@@ -19294,13 +19297,13 @@
         <v>3</v>
       </c>
       <c r="K36" t="s">
+        <v>4</v>
+      </c>
+      <c r="L36" t="s">
+        <v>83</v>
+      </c>
+      <c r="M36" t="s">
         <v>95</v>
-      </c>
-      <c r="L36" t="s">
-        <v>4</v>
-      </c>
-      <c r="M36" t="s">
-        <v>83</v>
       </c>
       <c r="N36" t="s">
         <v>28</v>
@@ -19941,7 +19944,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19977,7 +19980,7 @@
         <v>527</v>
       </c>
       <c r="B2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -19989,7 +19992,7 @@
         <v>528</v>
       </c>
       <c r="F2" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -19997,7 +20000,7 @@
         <v>527</v>
       </c>
       <c r="B3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -20009,7 +20012,7 @@
         <v>529</v>
       </c>
       <c r="F3" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -20017,7 +20020,7 @@
         <v>527</v>
       </c>
       <c r="B4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C4">
         <v>3</v>

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5672B59-86A1-49AD-B17F-6B62913193FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AE0D47-2134-462B-A60F-7D7AC986C225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" tabRatio="812" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4398" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4399" uniqueCount="551">
   <si>
     <t>chart_type</t>
   </si>
@@ -6414,7 +6414,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
       <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
     </sheetView>
@@ -8726,8 +8726,8 @@
   </sheetPr>
   <dimension ref="A1:D232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14425,7 +14425,7 @@
   </sheetPr>
   <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -17789,10 +17789,10 @@
   </sheetPr>
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="M39" sqref="M39"/>
+      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17926,22 +17926,22 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
       <c r="J3" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s">
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N3" t="s">
         <v>155</v>
@@ -17970,22 +17970,22 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
       <c r="J4" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s">
         <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="M4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N4" t="s">
         <v>155</v>
@@ -18014,22 +18014,22 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
       <c r="J5" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N5" t="s">
         <v>155</v>
@@ -18058,34 +18058,34 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
         <v>11</v>
-      </c>
-      <c r="J6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" t="s">
-        <v>95</v>
-      </c>
-      <c r="N6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>85</v>
       </c>
       <c r="R6" t="s">
         <v>155</v>
@@ -18114,10 +18114,10 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
         <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -18143,16 +18143,16 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>19</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
       </c>
       <c r="L8" t="s">
         <v>22</v>
@@ -18181,16 +18181,16 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>19</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>20</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
       </c>
       <c r="L9" t="s">
         <v>22</v>
@@ -18219,16 +18219,16 @@
         <v>23</v>
       </c>
       <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>21</v>
       </c>
       <c r="L10" t="s">
         <v>22</v>
@@ -18257,16 +18257,16 @@
         <v>23</v>
       </c>
       <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
         <v>18</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>19</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>20</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
       </c>
       <c r="L11" t="s">
         <v>22</v>
@@ -18295,22 +18295,22 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
         <v>1</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>9</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
         <v>24</v>
       </c>
-      <c r="K12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>26</v>
-      </c>
-      <c r="M12" t="s">
-        <v>27</v>
       </c>
       <c r="N12" t="s">
         <v>155</v>
@@ -18339,22 +18339,22 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>9</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
         <v>24</v>
       </c>
-      <c r="K13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>26</v>
-      </c>
-      <c r="M13" t="s">
-        <v>27</v>
       </c>
       <c r="N13" t="s">
         <v>155</v>
@@ -18383,22 +18383,22 @@
         <v>155</v>
       </c>
       <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" t="s">
         <v>1</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>9</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s">
         <v>24</v>
-      </c>
-      <c r="K14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" t="s">
-        <v>25</v>
       </c>
       <c r="N14" t="s">
         <v>155</v>
@@ -18427,22 +18427,22 @@
         <v>155</v>
       </c>
       <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
         <v>1</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>9</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" t="s">
         <v>24</v>
-      </c>
-      <c r="K15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" t="s">
-        <v>25</v>
       </c>
       <c r="N15" t="s">
         <v>155</v>
@@ -18471,31 +18471,34 @@
         <v>459</v>
       </c>
       <c r="H16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J16" t="s">
         <v>4</v>
       </c>
       <c r="K16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L16" t="s">
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" t="s">
         <v>480</v>
-      </c>
-      <c r="O16" t="s">
-        <v>85</v>
-      </c>
-      <c r="P16" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -18521,10 +18524,10 @@
         <v>28</v>
       </c>
       <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
         <v>24</v>
-      </c>
-      <c r="I17" t="s">
-        <v>27</v>
       </c>
       <c r="J17" t="s">
         <v>155</v>
@@ -18553,10 +18556,10 @@
         <v>28</v>
       </c>
       <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
         <v>24</v>
-      </c>
-      <c r="I18" t="s">
-        <v>27</v>
       </c>
       <c r="J18" t="s">
         <v>155</v>
@@ -18585,10 +18588,10 @@
         <v>28</v>
       </c>
       <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
         <v>24</v>
-      </c>
-      <c r="I19" t="s">
-        <v>27</v>
       </c>
       <c r="J19" t="s">
         <v>155</v>
@@ -18617,31 +18620,31 @@
         <v>24</v>
       </c>
       <c r="H20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" t="s">
         <v>10</v>
-      </c>
-      <c r="I20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" t="s">
-        <v>4</v>
       </c>
       <c r="L20" t="s">
         <v>83</v>
       </c>
       <c r="M20" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="N20" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="O20" t="s">
         <v>5</v>
       </c>
       <c r="P20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q20" t="s">
         <v>155</v>
@@ -18670,25 +18673,25 @@
         <v>24</v>
       </c>
       <c r="H21" t="s">
+        <v>181</v>
+      </c>
+      <c r="I21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s">
         <v>168</v>
       </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>171</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" t="s">
         <v>173</v>
       </c>
-      <c r="K21" t="s">
+      <c r="N21" t="s">
         <v>175</v>
-      </c>
-      <c r="L21" t="s">
-        <v>177</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="N21" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -18714,25 +18717,25 @@
         <v>24</v>
       </c>
       <c r="H22" t="s">
+        <v>181</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
         <v>168</v>
       </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>171</v>
       </c>
-      <c r="J22" t="s">
+      <c r="M22" t="s">
         <v>173</v>
       </c>
-      <c r="K22" t="s">
+      <c r="N22" t="s">
         <v>175</v>
-      </c>
-      <c r="L22" t="s">
-        <v>177</v>
-      </c>
-      <c r="M22" t="s">
-        <v>179</v>
-      </c>
-      <c r="N22" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -18758,16 +18761,16 @@
         <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I23" t="s">
         <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="K23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L23" t="s">
         <v>153</v>
@@ -18796,19 +18799,19 @@
         <v>20</v>
       </c>
       <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" t="s">
         <v>11</v>
-      </c>
-      <c r="I24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" t="s">
-        <v>33</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>22</v>
@@ -18837,19 +18840,19 @@
         <v>20</v>
       </c>
       <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" t="s">
         <v>11</v>
-      </c>
-      <c r="I25" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K25" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" t="s">
-        <v>33</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>22</v>
@@ -18878,19 +18881,19 @@
         <v>20</v>
       </c>
       <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" t="s">
         <v>11</v>
-      </c>
-      <c r="I26" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" t="s">
-        <v>33</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>22</v>
@@ -18919,13 +18922,13 @@
         <v>460</v>
       </c>
       <c r="H27" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I27" t="s">
         <v>472</v>
       </c>
       <c r="J27" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18951,28 +18954,28 @@
         <v>457</v>
       </c>
       <c r="H28" t="s">
+        <v>476</v>
+      </c>
+      <c r="I28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J28" t="s">
+        <v>135</v>
+      </c>
+      <c r="K28" t="s">
+        <v>119</v>
+      </c>
+      <c r="L28" t="s">
+        <v>475</v>
+      </c>
+      <c r="M28" t="s">
+        <v>474</v>
+      </c>
+      <c r="N28" t="s">
+        <v>126</v>
+      </c>
+      <c r="O28" t="s">
         <v>121</v>
-      </c>
-      <c r="I28" t="s">
-        <v>126</v>
-      </c>
-      <c r="J28" t="s">
-        <v>474</v>
-      </c>
-      <c r="K28" t="s">
-        <v>475</v>
-      </c>
-      <c r="L28" t="s">
-        <v>119</v>
-      </c>
-      <c r="M28" t="s">
-        <v>135</v>
-      </c>
-      <c r="N28" t="s">
-        <v>123</v>
-      </c>
-      <c r="O28" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -18998,28 +19001,28 @@
         <v>457</v>
       </c>
       <c r="H29" t="s">
+        <v>476</v>
+      </c>
+      <c r="I29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J29" t="s">
+        <v>135</v>
+      </c>
+      <c r="K29" t="s">
+        <v>119</v>
+      </c>
+      <c r="L29" t="s">
+        <v>475</v>
+      </c>
+      <c r="M29" t="s">
+        <v>474</v>
+      </c>
+      <c r="N29" t="s">
+        <v>126</v>
+      </c>
+      <c r="O29" t="s">
         <v>121</v>
-      </c>
-      <c r="I29" t="s">
-        <v>126</v>
-      </c>
-      <c r="J29" t="s">
-        <v>474</v>
-      </c>
-      <c r="K29" t="s">
-        <v>475</v>
-      </c>
-      <c r="L29" t="s">
-        <v>119</v>
-      </c>
-      <c r="M29" t="s">
-        <v>135</v>
-      </c>
-      <c r="N29" t="s">
-        <v>123</v>
-      </c>
-      <c r="O29" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -19045,19 +19048,19 @@
         <v>104</v>
       </c>
       <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s">
         <v>32</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>18</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>19</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>20</v>
-      </c>
-      <c r="L30" t="s">
-        <v>21</v>
       </c>
       <c r="M30" t="s">
         <v>22</v>
@@ -19086,19 +19089,19 @@
         <v>22</v>
       </c>
       <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" t="s">
         <v>11</v>
-      </c>
-      <c r="I31" t="s">
-        <v>4</v>
-      </c>
-      <c r="J31" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" t="s">
-        <v>29</v>
-      </c>
-      <c r="L31" t="s">
-        <v>33</v>
       </c>
       <c r="M31" t="s">
         <v>22</v>
@@ -19127,19 +19130,19 @@
         <v>22</v>
       </c>
       <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" t="s">
         <v>11</v>
-      </c>
-      <c r="I32" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" t="s">
-        <v>29</v>
-      </c>
-      <c r="L32" t="s">
-        <v>33</v>
       </c>
       <c r="M32" t="s">
         <v>22</v>
@@ -19197,16 +19200,16 @@
         <v>22</v>
       </c>
       <c r="H34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" t="s">
         <v>32</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>35</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>20</v>
-      </c>
-      <c r="K34" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -19232,34 +19235,34 @@
         <v>155</v>
       </c>
       <c r="H35" t="s">
+        <v>95</v>
+      </c>
+      <c r="I35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" t="s">
         <v>10</v>
       </c>
-      <c r="I35" t="s">
+      <c r="L35" t="s">
+        <v>85</v>
+      </c>
+      <c r="M35" t="s">
+        <v>83</v>
+      </c>
+      <c r="N35" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s">
         <v>11</v>
-      </c>
-      <c r="J35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" t="s">
-        <v>4</v>
-      </c>
-      <c r="L35" t="s">
-        <v>83</v>
-      </c>
-      <c r="M35" t="s">
-        <v>95</v>
-      </c>
-      <c r="N35" t="s">
-        <v>28</v>
-      </c>
-      <c r="O35" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>85</v>
       </c>
       <c r="R35" t="s">
         <v>155</v>
@@ -19288,34 +19291,34 @@
         <v>155</v>
       </c>
       <c r="H36" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" t="s">
         <v>10</v>
       </c>
-      <c r="I36" t="s">
+      <c r="L36" t="s">
+        <v>85</v>
+      </c>
+      <c r="M36" t="s">
+        <v>83</v>
+      </c>
+      <c r="N36" t="s">
+        <v>12</v>
+      </c>
+      <c r="O36" t="s">
+        <v>4</v>
+      </c>
+      <c r="P36" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s">
         <v>11</v>
-      </c>
-      <c r="J36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K36" t="s">
-        <v>4</v>
-      </c>
-      <c r="L36" t="s">
-        <v>83</v>
-      </c>
-      <c r="M36" t="s">
-        <v>95</v>
-      </c>
-      <c r="N36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O36" t="s">
-        <v>5</v>
-      </c>
-      <c r="P36" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>85</v>
       </c>
       <c r="R36" t="s">
         <v>155</v>
@@ -19344,13 +19347,13 @@
         <v>11</v>
       </c>
       <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
         <v>15</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>16</v>
-      </c>
-      <c r="J37" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -19376,10 +19379,10 @@
         <v>11</v>
       </c>
       <c r="H38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s">
         <v>16</v>
-      </c>
-      <c r="I38" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -19405,10 +19408,10 @@
         <v>11</v>
       </c>
       <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
         <v>16</v>
-      </c>
-      <c r="I39" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
@@ -19434,16 +19437,16 @@
         <v>27</v>
       </c>
       <c r="H40" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" t="s">
         <v>104</v>
       </c>
-      <c r="I40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J40" t="s">
-        <v>28</v>
-      </c>
       <c r="K40" t="s">
-        <v>4</v>
+        <v>483</v>
       </c>
       <c r="L40" t="s">
         <v>119</v>
@@ -19452,7 +19455,7 @@
         <v>121</v>
       </c>
       <c r="N40" t="s">
-        <v>483</v>
+        <v>4</v>
       </c>
       <c r="O40" t="s">
         <v>155</v>
@@ -19481,16 +19484,16 @@
         <v>27</v>
       </c>
       <c r="H41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" t="s">
         <v>104</v>
       </c>
-      <c r="I41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" t="s">
-        <v>28</v>
-      </c>
       <c r="K41" t="s">
-        <v>4</v>
+        <v>483</v>
       </c>
       <c r="L41" t="s">
         <v>119</v>
@@ -19499,7 +19502,7 @@
         <v>121</v>
       </c>
       <c r="N41" t="s">
-        <v>483</v>
+        <v>4</v>
       </c>
       <c r="O41" t="s">
         <v>155</v>
@@ -19528,16 +19531,16 @@
         <v>27</v>
       </c>
       <c r="H42" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" t="s">
         <v>104</v>
       </c>
-      <c r="I42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" t="s">
-        <v>28</v>
-      </c>
       <c r="K42" t="s">
-        <v>4</v>
+        <v>483</v>
       </c>
       <c r="L42" t="s">
         <v>119</v>
@@ -19546,7 +19549,7 @@
         <v>121</v>
       </c>
       <c r="N42" t="s">
-        <v>483</v>
+        <v>4</v>
       </c>
       <c r="O42" t="s">
         <v>155</v>
@@ -19575,19 +19578,19 @@
         <v>27</v>
       </c>
       <c r="H43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s">
+        <v>40</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K43" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="L43" t="s">
         <v>39</v>
-      </c>
-      <c r="K43" t="s">
-        <v>41</v>
-      </c>
-      <c r="L43" t="s">
-        <v>40</v>
       </c>
       <c r="M43" s="12" t="s">
         <v>155</v>
@@ -19616,19 +19619,19 @@
         <v>27</v>
       </c>
       <c r="H44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K44" t="s">
         <v>43</v>
       </c>
-      <c r="I44" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="L44" t="s">
         <v>39</v>
-      </c>
-      <c r="K44" t="s">
-        <v>41</v>
-      </c>
-      <c r="L44" t="s">
-        <v>40</v>
       </c>
       <c r="M44" s="12" t="s">
         <v>155</v>
@@ -19660,22 +19663,22 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" t="s">
         <v>1</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>9</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
+        <v>27</v>
+      </c>
+      <c r="M45" t="s">
         <v>24</v>
       </c>
-      <c r="L45" t="s">
-        <v>25</v>
-      </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>26</v>
-      </c>
-      <c r="N45" t="s">
-        <v>27</v>
       </c>
       <c r="O45" t="s">
         <v>155</v>
@@ -19707,22 +19710,22 @@
         <v>3</v>
       </c>
       <c r="I46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" t="s">
         <v>1</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>9</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" t="s">
         <v>24</v>
       </c>
-      <c r="L46" t="s">
-        <v>25</v>
-      </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>26</v>
-      </c>
-      <c r="N46" t="s">
-        <v>27</v>
       </c>
       <c r="O46" t="s">
         <v>155</v>
@@ -19754,22 +19757,22 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" t="s">
         <v>1</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>9</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" t="s">
         <v>24</v>
       </c>
-      <c r="L47" t="s">
-        <v>25</v>
-      </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>26</v>
-      </c>
-      <c r="N47" t="s">
-        <v>27</v>
       </c>
       <c r="O47" t="s">
         <v>155</v>
@@ -19901,16 +19904,16 @@
         <v>27</v>
       </c>
       <c r="H50" t="s">
+        <v>3</v>
+      </c>
+      <c r="I50" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50" t="s">
         <v>104</v>
       </c>
-      <c r="I50" t="s">
-        <v>3</v>
-      </c>
-      <c r="J50" t="s">
-        <v>28</v>
-      </c>
       <c r="K50" t="s">
-        <v>4</v>
+        <v>483</v>
       </c>
       <c r="L50" t="s">
         <v>119</v>
@@ -19919,7 +19922,7 @@
         <v>121</v>
       </c>
       <c r="N50" t="s">
-        <v>483</v>
+        <v>4</v>
       </c>
       <c r="O50" t="s">
         <v>155</v>

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AE0D47-2134-462B-A60F-7D7AC986C225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA1A0C6-A65B-400A-91FD-34EE687B3DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" tabRatio="812" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="table_id_to_chart_old" sheetId="2" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">colors!$A$1:$B$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">colors!$A$1:$B$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4399" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4407" uniqueCount="555">
   <si>
     <t>chart_type</t>
   </si>
@@ -1949,21 +1949,6 @@
     <t>BEV vehicles</t>
   </si>
   <si>
-    <t>Coal CHP</t>
-  </si>
-  <si>
-    <t>Gas CHP</t>
-  </si>
-  <si>
-    <t>Oil CHP</t>
-  </si>
-  <si>
-    <t>Biomass CHP</t>
-  </si>
-  <si>
-    <t>Other powerplants</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
@@ -2036,13 +2021,40 @@
     <t>Macro</t>
   </si>
   <si>
-    <t>['Macro', 'FED by fuel', 'FED by sector', 'Buildings', 'Industry', 'Transport', 'Agriculture', 'Non-energy', 'Electricity', 'Oil use by sector', 'Fuel consumption power sector', 'Refining', 'Hydrogen', 'Production', 'Supply', 'Coal', 'TPES Coal by type', 'Crude &amp; NGL', 'Renewable fuels']</t>
-  </si>
-  <si>
     <t>Population - {ECONOMY_ID} {UNIT}</t>
   </si>
   <si>
     <t>Real_GDP - {ECONOMY_ID} {UNIT}</t>
+  </si>
+  <si>
+    <t>Total_transport</t>
+  </si>
+  <si>
+    <t>Electricity generation</t>
+  </si>
+  <si>
+    <t>Other fuel</t>
+  </si>
+  <si>
+    <t>['Macro', 'FED by fuel', 'FED by sector', 'Industry', 'Transport', 'Buildings', 'Agriculture', 'Non-energy', 'Electricity', 'Oil use by sector', 'Electricity generation', 'Fuel consumption power sector', 'Refining', 'Hydrogen', 'Production', 'Supply', 'Coal', 'TPES Coal by type', 'Crude &amp; NGL', 'Renewable fuels']</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Solar PV</t>
+  </si>
+  <si>
+    <t>Solid Biomass</t>
+  </si>
+  <si>
+    <t>Storage Pumped hydro</t>
+  </si>
+  <si>
+    <t>Wind offshore</t>
+  </si>
+  <si>
+    <t>Wind onshore</t>
   </si>
 </sst>
 </file>
@@ -2473,13 +2485,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3442,7 +3454,7 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>29441</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>73602</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4487,7 +4499,7 @@
         <v>166</v>
       </c>
       <c r="F21" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G21" t="s">
         <v>291</v>
@@ -4872,7 +4884,7 @@
         <v>376</v>
       </c>
       <c r="G41" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="H41" t="s">
         <v>377</v>
@@ -4889,7 +4901,7 @@
         <v>379</v>
       </c>
       <c r="G42" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="H42" t="s">
         <v>380</v>
@@ -4900,7 +4912,7 @@
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="H43" t="s">
         <v>382</v>
@@ -4911,7 +4923,7 @@
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="H44" t="s">
         <v>384</v>
@@ -4922,7 +4934,7 @@
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="H45" t="s">
         <v>386</v>
@@ -4933,7 +4945,7 @@
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="H46" t="s">
         <v>388</v>
@@ -4944,7 +4956,7 @@
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="H47" t="s">
         <v>390</v>
@@ -4955,7 +4967,7 @@
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="H48" t="s">
         <v>392</v>
@@ -4966,7 +4978,7 @@
     </row>
     <row r="49" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="H49" t="s">
         <v>394</v>
@@ -4977,7 +4989,7 @@
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="H50" t="s">
         <v>396</v>
@@ -4988,7 +5000,7 @@
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="H51" t="s">
         <v>379</v>
@@ -4999,7 +5011,7 @@
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="I52" t="s">
         <v>379</v>
@@ -5012,7 +5024,7 @@
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.25">
@@ -5263,10 +5275,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B968B52A-197D-4486-BE9F-20DC33AA9971}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5503,6 +5515,14 @@
         <v>466</v>
       </c>
       <c r="B29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>545</v>
+      </c>
+      <c r="B30" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5518,9 +5538,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5577,7 +5599,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>466</v>
+        <v>545</v>
       </c>
       <c r="B7" t="s">
         <v>432</v>
@@ -5585,7 +5607,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B8" t="s">
         <v>432</v>
@@ -5593,23 +5615,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>465</v>
       </c>
       <c r="B9" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>432</v>
@@ -5617,71 +5639,71 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
         <v>435</v>
@@ -5689,15 +5711,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>457</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B22" t="s">
         <v>446</v>
@@ -5705,7 +5727,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>460</v>
       </c>
       <c r="B23" t="s">
         <v>446</v>
@@ -5713,47 +5735,47 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>456</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B29" t="s">
         <v>440</v>
@@ -5761,7 +5783,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>459</v>
       </c>
       <c r="B30" t="s">
         <v>440</v>
@@ -5769,39 +5791,39 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="B33" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
         <v>440</v>
@@ -5809,15 +5831,15 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
         <v>435</v>
@@ -5825,15 +5847,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B38" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B39" t="s">
         <v>437</v>
@@ -5841,15 +5863,15 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>547</v>
       </c>
       <c r="B40" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B41" t="s">
         <v>437</v>
@@ -5857,79 +5879,79 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="B43" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="B46" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B47" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="B49" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>472</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
         <v>434</v>
@@ -5937,39 +5959,39 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B52" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>175</v>
+        <v>474</v>
       </c>
       <c r="B54" t="s">
-        <v>435</v>
+        <v>477</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="B56" t="s">
         <v>435</v>
@@ -5977,87 +5999,87 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>475</v>
+        <v>137</v>
       </c>
       <c r="B60" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>173</v>
+        <v>475</v>
       </c>
       <c r="B62" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="B63" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>458</v>
+        <v>24</v>
       </c>
       <c r="B65" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>461</v>
+        <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>458</v>
       </c>
       <c r="B67" t="s">
         <v>479</v>
@@ -6065,55 +6087,55 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>461</v>
       </c>
       <c r="B68" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="B71" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B74" t="s">
         <v>443</v>
@@ -6121,15 +6143,15 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="B76" t="s">
         <v>443</v>
@@ -6137,23 +6159,23 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="B77" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="B78" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="B79" t="s">
         <v>438</v>
@@ -6161,39 +6183,39 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>119</v>
+        <v>546</v>
       </c>
       <c r="B80" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B81" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>471</v>
+        <v>119</v>
       </c>
       <c r="B83" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="B84" t="s">
         <v>446</v>
@@ -6201,88 +6223,112 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B85" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>171</v>
+        <v>471</v>
       </c>
       <c r="B86" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="B87" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B89" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="B90" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="B93" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>1</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B97" t="s">
         <v>434</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B94" xr:uid="{344218C0-5C74-48AB-A8DF-7C6AE2CA916D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B94">
-      <sortCondition descending="1" ref="A1:A94"/>
+  <autoFilter ref="A1:B97" xr:uid="{344218C0-5C74-48AB-A8DF-7C6AE2CA916D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B97">
+      <sortCondition descending="1" ref="A1:A97"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6371,7 +6417,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6381,7 +6427,7 @@
         <v>494</v>
       </c>
       <c r="B1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6389,7 +6435,7 @@
         <v>489</v>
       </c>
       <c r="B2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6397,7 +6443,7 @@
         <v>488</v>
       </c>
       <c r="B3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -7988,10 +8034,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8636,10 +8682,10 @@
         <v>486</v>
       </c>
       <c r="B46" t="s">
-        <v>466</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>156</v>
+        <v>545</v>
+      </c>
+      <c r="C46" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -8647,10 +8693,10 @@
         <v>486</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" t="s">
-        <v>141</v>
+        <v>466</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -8661,7 +8707,7 @@
         <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -8669,13 +8715,10 @@
         <v>486</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
-      </c>
-      <c r="D49" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -8683,10 +8726,13 @@
         <v>486</v>
       </c>
       <c r="B50" t="s">
-        <v>202</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>203</v>
+        <v>158</v>
+      </c>
+      <c r="D50" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -8694,10 +8740,10 @@
         <v>486</v>
       </c>
       <c r="B51" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -8705,10 +8751,35 @@
         <v>486</v>
       </c>
       <c r="B52" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>486</v>
+      </c>
+      <c r="B53" t="s">
         <v>11</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>486</v>
+      </c>
+      <c r="B54" t="s">
+        <v>546</v>
+      </c>
+      <c r="C54" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -8726,8 +8797,8 @@
   </sheetPr>
   <dimension ref="A1:D232"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11342,6 +11413,17 @@
       </c>
       <c r="D219" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>486</v>
+      </c>
+      <c r="B220" t="s">
+        <v>547</v>
+      </c>
+      <c r="C220" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.25">
@@ -11764,10 +11846,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14104,13 +14186,7 @@
         <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>53</v>
-      </c>
-      <c r="E90" t="s">
-        <v>54</v>
-      </c>
-      <c r="F90" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -14124,13 +14200,7 @@
         <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>53</v>
-      </c>
-      <c r="E91" t="s">
-        <v>54</v>
-      </c>
-      <c r="F91" t="s">
-        <v>220</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -14144,13 +14214,7 @@
         <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>53</v>
-      </c>
-      <c r="E92" t="s">
-        <v>54</v>
-      </c>
-      <c r="F92" t="s">
-        <v>224</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -14161,16 +14225,10 @@
         <v>488</v>
       </c>
       <c r="C93" t="s">
-        <v>519</v>
+        <v>79</v>
       </c>
       <c r="D93" t="s">
-        <v>53</v>
-      </c>
-      <c r="E93" t="s">
-        <v>55</v>
-      </c>
-      <c r="F93" t="s">
-        <v>268</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -14181,16 +14239,10 @@
         <v>488</v>
       </c>
       <c r="C94" t="s">
-        <v>520</v>
+        <v>81</v>
       </c>
       <c r="D94" t="s">
-        <v>53</v>
-      </c>
-      <c r="E94" t="s">
-        <v>55</v>
-      </c>
-      <c r="F94" t="s">
-        <v>272</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -14201,16 +14253,10 @@
         <v>488</v>
       </c>
       <c r="C95" t="s">
-        <v>521</v>
+        <v>89</v>
       </c>
       <c r="D95" t="s">
-        <v>53</v>
-      </c>
-      <c r="E95" t="s">
-        <v>55</v>
-      </c>
-      <c r="F95" t="s">
-        <v>276</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -14221,19 +14267,13 @@
         <v>488</v>
       </c>
       <c r="C96" t="s">
-        <v>522</v>
+        <v>85</v>
       </c>
       <c r="D96" t="s">
-        <v>53</v>
-      </c>
-      <c r="E96" t="s">
-        <v>55</v>
-      </c>
-      <c r="F96" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>487</v>
       </c>
@@ -14241,19 +14281,13 @@
         <v>488</v>
       </c>
       <c r="C97" t="s">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="D97" t="s">
-        <v>53</v>
-      </c>
-      <c r="E97" t="s">
-        <v>54</v>
-      </c>
-      <c r="F97" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>487</v>
       </c>
@@ -14261,19 +14295,13 @@
         <v>488</v>
       </c>
       <c r="C98" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D98" t="s">
-        <v>53</v>
-      </c>
-      <c r="E98" t="s">
-        <v>54</v>
-      </c>
-      <c r="F98" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>487</v>
       </c>
@@ -14284,133 +14312,40 @@
         <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>53</v>
-      </c>
-      <c r="E99" t="s">
-        <v>54</v>
-      </c>
-      <c r="F99" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>487</v>
       </c>
       <c r="B100" t="s">
         <v>488</v>
       </c>
-      <c r="C100" t="s">
-        <v>83</v>
-      </c>
       <c r="D100" t="s">
-        <v>53</v>
-      </c>
-      <c r="E100" t="s">
-        <v>54</v>
-      </c>
-      <c r="F100" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>487</v>
       </c>
       <c r="B101" t="s">
         <v>488</v>
       </c>
-      <c r="C101" t="s">
-        <v>85</v>
-      </c>
       <c r="D101" t="s">
-        <v>53</v>
-      </c>
-      <c r="E101" t="s">
-        <v>54</v>
-      </c>
-      <c r="F101" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>487</v>
       </c>
       <c r="B102" t="s">
         <v>488</v>
       </c>
-      <c r="C102" t="s">
-        <v>89</v>
-      </c>
       <c r="D102" t="s">
-        <v>53</v>
-      </c>
-      <c r="E102" t="s">
-        <v>54</v>
-      </c>
-      <c r="F102" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>487</v>
-      </c>
-      <c r="B103" t="s">
-        <v>488</v>
-      </c>
-      <c r="C103" t="s">
-        <v>523</v>
-      </c>
-      <c r="D103" t="s">
-        <v>53</v>
-      </c>
-      <c r="E103" t="s">
-        <v>54</v>
-      </c>
-      <c r="F103" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>487</v>
-      </c>
-      <c r="B104" t="s">
-        <v>488</v>
-      </c>
-      <c r="C104" t="s">
-        <v>523</v>
-      </c>
-      <c r="D104" t="s">
-        <v>53</v>
-      </c>
-      <c r="E104" t="s">
-        <v>54</v>
-      </c>
-      <c r="F104" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>487</v>
-      </c>
-      <c r="B105" t="s">
-        <v>488</v>
-      </c>
-      <c r="C105" t="s">
-        <v>523</v>
-      </c>
-      <c r="D105" t="s">
-        <v>53</v>
-      </c>
-      <c r="E105" t="s">
-        <v>54</v>
-      </c>
-      <c r="F105" t="s">
-        <v>264</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -17787,12 +17722,12 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:W50"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+      <selection pane="bottomLeft" activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17837,7 +17772,7 @@
         <v>485</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>463</v>
@@ -18014,22 +17949,22 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
         <v>3</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" t="s">
-        <v>11</v>
       </c>
       <c r="N5" t="s">
         <v>155</v>
@@ -18058,34 +17993,34 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s">
         <v>95</v>
-      </c>
-      <c r="I6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>11</v>
       </c>
       <c r="R6" t="s">
         <v>155</v>
@@ -18114,10 +18049,10 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
         <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -18181,16 +18116,16 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
         <v>21</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
       </c>
       <c r="L9" t="s">
         <v>22</v>
@@ -18219,16 +18154,16 @@
         <v>23</v>
       </c>
       <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
         <v>21</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
-        <v>20</v>
       </c>
       <c r="L10" t="s">
         <v>22</v>
@@ -18257,16 +18192,16 @@
         <v>23</v>
       </c>
       <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
         <v>21</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
       </c>
       <c r="L11" t="s">
         <v>22</v>
@@ -18295,22 +18230,22 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
         <v>25</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" t="s">
-        <v>26</v>
       </c>
       <c r="N12" t="s">
         <v>155</v>
@@ -18374,13 +18309,13 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
@@ -18401,7 +18336,7 @@
         <v>24</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -18415,16 +18350,16 @@
         <v>30</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
         <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
@@ -18445,7 +18380,7 @@
         <v>24</v>
       </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -18453,52 +18388,43 @@
         <v>486</v>
       </c>
       <c r="B16" t="s">
-        <v>470</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>470</v>
+        <v>30</v>
       </c>
       <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" t="s">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" t="s">
-        <v>459</v>
-      </c>
-      <c r="H16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" t="s">
-        <v>79</v>
-      </c>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="M16" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="N16" t="s">
-        <v>89</v>
-      </c>
-      <c r="O16" t="s">
-        <v>83</v>
-      </c>
-      <c r="P16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>480</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -18506,31 +18432,52 @@
         <v>486</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>470</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>470</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>459</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>4</v>
+      </c>
+      <c r="K17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" t="s">
+        <v>89</v>
+      </c>
+      <c r="O17" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -18547,7 +18494,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>68</v>
@@ -18556,10 +18503,10 @@
         <v>28</v>
       </c>
       <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
         <v>27</v>
-      </c>
-      <c r="I18" t="s">
-        <v>24</v>
       </c>
       <c r="J18" t="s">
         <v>155</v>
@@ -18576,10 +18523,10 @@
         <v>28</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
         <v>68</v>
@@ -18588,10 +18535,10 @@
         <v>28</v>
       </c>
       <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
         <v>27</v>
-      </c>
-      <c r="I19" t="s">
-        <v>24</v>
       </c>
       <c r="J19" t="s">
         <v>155</v>
@@ -18602,51 +18549,30 @@
         <v>486</v>
       </c>
       <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" t="s">
-        <v>95</v>
-      </c>
       <c r="I20" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="J20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L20" t="s">
-        <v>83</v>
-      </c>
-      <c r="M20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q20" t="s">
         <v>155</v>
       </c>
     </row>
@@ -18661,37 +18587,46 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
         <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="I21" t="s">
-        <v>179</v>
+        <v>5</v>
       </c>
       <c r="J21" t="s">
-        <v>177</v>
+        <v>4</v>
       </c>
       <c r="K21" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="L21" t="s">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="M21" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="N21" t="s">
-        <v>175</v>
+        <v>28</v>
+      </c>
+      <c r="O21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -18705,10 +18640,10 @@
         <v>24</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
         <v>68</v>
@@ -18717,25 +18652,25 @@
         <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I22" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J22" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s">
         <v>168</v>
       </c>
       <c r="L22" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="M22" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="N22" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -18743,37 +18678,43 @@
         <v>486</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="I23" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="J23" t="s">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="K23" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="L23" t="s">
-        <v>153</v>
+        <v>177</v>
+      </c>
+      <c r="M23" t="s">
+        <v>179</v>
+      </c>
+      <c r="N23" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -18781,10 +18722,10 @@
         <v>486</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -18796,25 +18737,22 @@
         <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H24" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I24" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="J24" t="s">
         <v>4</v>
       </c>
       <c r="K24" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="L24" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -18831,7 +18769,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>49</v>
@@ -18840,19 +18778,19 @@
         <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="J25" t="s">
         <v>4</v>
       </c>
       <c r="K25" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="L25" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>22</v>
@@ -18869,10 +18807,10 @@
         <v>20</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
         <v>49</v>
@@ -18881,19 +18819,19 @@
         <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="J26" t="s">
         <v>4</v>
       </c>
       <c r="K26" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="L26" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>22</v>
@@ -18904,34 +18842,43 @@
         <v>486</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
         <v>49</v>
       </c>
       <c r="G27" t="s">
-        <v>460</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>473</v>
+        <v>11</v>
       </c>
       <c r="I27" t="s">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="J27" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="K27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>486</v>
       </c>
@@ -18942,7 +18889,7 @@
         <v>58</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
@@ -18951,34 +18898,19 @@
         <v>49</v>
       </c>
       <c r="G28" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H28" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I28" t="s">
-        <v>123</v>
+        <v>472</v>
       </c>
       <c r="J28" t="s">
-        <v>135</v>
-      </c>
-      <c r="K28" t="s">
-        <v>119</v>
-      </c>
-      <c r="L28" t="s">
-        <v>475</v>
-      </c>
-      <c r="M28" t="s">
-        <v>474</v>
-      </c>
-      <c r="N28" t="s">
-        <v>126</v>
-      </c>
-      <c r="O28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>486</v>
       </c>
@@ -18989,10 +18921,10 @@
         <v>58</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
         <v>49</v>
@@ -19025,45 +18957,51 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>486</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>104</v>
+        <v>457</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="I30" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="J30" t="s">
-        <v>18</v>
+        <v>474</v>
       </c>
       <c r="K30" t="s">
-        <v>19</v>
+        <v>475</v>
       </c>
       <c r="L30" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="M30" t="s">
-        <v>22</v>
+        <v>135</v>
+      </c>
+      <c r="N30" t="s">
+        <v>123</v>
+      </c>
+      <c r="O30" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -19071,37 +19009,37 @@
         <v>486</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="H31" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J31" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K31" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="L31" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M31" t="s">
         <v>22</v>
@@ -19121,7 +19059,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>49</v>
@@ -19130,25 +19068,25 @@
         <v>22</v>
       </c>
       <c r="H32" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I32" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="J32" t="s">
         <v>4</v>
       </c>
       <c r="K32" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="L32" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>486</v>
       </c>
@@ -19159,10 +19097,10 @@
         <v>38</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
         <v>49</v>
@@ -19171,13 +19109,25 @@
         <v>22</v>
       </c>
       <c r="H33" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I33" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="J33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>486</v>
       </c>
@@ -19188,87 +19138,66 @@
         <v>38</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
         <v>22</v>
       </c>
       <c r="H34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>486</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" t="s">
         <v>21</v>
       </c>
-      <c r="I34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" t="s">
-        <v>35</v>
-      </c>
-      <c r="K34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>486</v>
-      </c>
-      <c r="B35" t="s">
-        <v>481</v>
-      </c>
-      <c r="C35" t="s">
-        <v>481</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" t="s">
-        <v>155</v>
-      </c>
-      <c r="H35" t="s">
-        <v>95</v>
-      </c>
-      <c r="I35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" t="s">
-        <v>10</v>
-      </c>
-      <c r="L35" t="s">
-        <v>85</v>
-      </c>
       <c r="M35" t="s">
-        <v>83</v>
-      </c>
-      <c r="N35" t="s">
-        <v>12</v>
-      </c>
-      <c r="O35" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>11</v>
-      </c>
-      <c r="R35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>486</v>
       </c>
@@ -19279,60 +19208,60 @@
         <v>481</v>
       </c>
       <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
         <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
       </c>
       <c r="F36" t="s">
         <v>49</v>
       </c>
       <c r="G36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" t="s">
+        <v>83</v>
+      </c>
+      <c r="M36" t="s">
+        <v>85</v>
+      </c>
+      <c r="N36" t="s">
+        <v>10</v>
+      </c>
+      <c r="O36" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="s">
         <v>95</v>
       </c>
-      <c r="I36" t="s">
-        <v>3</v>
-      </c>
-      <c r="J36" t="s">
-        <v>28</v>
-      </c>
-      <c r="K36" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" t="s">
-        <v>85</v>
-      </c>
-      <c r="M36" t="s">
-        <v>83</v>
-      </c>
-      <c r="N36" t="s">
-        <v>12</v>
-      </c>
-      <c r="O36" t="s">
-        <v>4</v>
-      </c>
-      <c r="P36" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>11</v>
-      </c>
       <c r="R36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>486</v>
       </c>
       <c r="B37" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="C37" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -19344,48 +19273,99 @@
         <v>49</v>
       </c>
       <c r="G37" t="s">
+        <v>153</v>
+      </c>
+      <c r="H37" t="s">
         <v>11</v>
       </c>
-      <c r="H37" t="s">
-        <v>17</v>
-      </c>
       <c r="I37" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="K37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" t="s">
+        <v>83</v>
+      </c>
+      <c r="M37" t="s">
+        <v>85</v>
+      </c>
+      <c r="N37" t="s">
+        <v>10</v>
+      </c>
+      <c r="O37" t="s">
+        <v>28</v>
+      </c>
+      <c r="P37" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>95</v>
+      </c>
+      <c r="R37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>486</v>
       </c>
       <c r="B38" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="C38" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
         <v>49</v>
       </c>
       <c r="G38" t="s">
+        <v>153</v>
+      </c>
+      <c r="H38" t="s">
         <v>11</v>
       </c>
-      <c r="H38" t="s">
-        <v>17</v>
-      </c>
       <c r="I38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="J38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" t="s">
+        <v>83</v>
+      </c>
+      <c r="M38" t="s">
+        <v>85</v>
+      </c>
+      <c r="N38" t="s">
+        <v>10</v>
+      </c>
+      <c r="O38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>486</v>
       </c>
@@ -19396,7 +19376,7 @@
         <v>469</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -19411,68 +19391,53 @@
         <v>17</v>
       </c>
       <c r="I39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>486</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>469</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>469</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
         <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>486</v>
+      </c>
+      <c r="B41" t="s">
+        <v>469</v>
+      </c>
+      <c r="C41" t="s">
+        <v>469</v>
+      </c>
+      <c r="D41">
         <v>3</v>
-      </c>
-      <c r="I40" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40" t="s">
-        <v>104</v>
-      </c>
-      <c r="K40" t="s">
-        <v>483</v>
-      </c>
-      <c r="L40" t="s">
-        <v>119</v>
-      </c>
-      <c r="M40" t="s">
-        <v>121</v>
-      </c>
-      <c r="N40" t="s">
-        <v>4</v>
-      </c>
-      <c r="O40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>486</v>
-      </c>
-      <c r="B41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
@@ -19481,34 +19446,16 @@
         <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H41" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>28</v>
-      </c>
-      <c r="J41" t="s">
-        <v>104</v>
-      </c>
-      <c r="K41" t="s">
-        <v>483</v>
-      </c>
-      <c r="L41" t="s">
-        <v>119</v>
-      </c>
-      <c r="M41" t="s">
-        <v>121</v>
-      </c>
-      <c r="N41" t="s">
-        <v>4</v>
-      </c>
-      <c r="O41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>486</v>
       </c>
@@ -19519,10 +19466,10 @@
         <v>27</v>
       </c>
       <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
         <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
       </c>
       <c r="F42" t="s">
         <v>49</v>
@@ -19531,31 +19478,31 @@
         <v>27</v>
       </c>
       <c r="H42" t="s">
+        <v>121</v>
+      </c>
+      <c r="I42" t="s">
+        <v>119</v>
+      </c>
+      <c r="J42" t="s">
+        <v>483</v>
+      </c>
+      <c r="K42" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" t="s">
+        <v>104</v>
+      </c>
+      <c r="M42" t="s">
+        <v>28</v>
+      </c>
+      <c r="N42" t="s">
         <v>3</v>
-      </c>
-      <c r="I42" t="s">
-        <v>28</v>
-      </c>
-      <c r="J42" t="s">
-        <v>104</v>
-      </c>
-      <c r="K42" t="s">
-        <v>483</v>
-      </c>
-      <c r="L42" t="s">
-        <v>119</v>
-      </c>
-      <c r="M42" t="s">
-        <v>121</v>
-      </c>
-      <c r="N42" t="s">
-        <v>4</v>
       </c>
       <c r="O42" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>486</v>
       </c>
@@ -19566,37 +19513,43 @@
         <v>27</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G43" t="s">
         <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="I43" t="s">
-        <v>40</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>42</v>
+        <v>119</v>
+      </c>
+      <c r="J43" t="s">
+        <v>483</v>
       </c>
       <c r="K43" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="L43" t="s">
-        <v>39</v>
-      </c>
-      <c r="M43" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="M43" t="s">
+        <v>28</v>
+      </c>
+      <c r="N43" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>486</v>
       </c>
@@ -19607,48 +19560,54 @@
         <v>27</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s">
         <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="I44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>42</v>
+        <v>119</v>
+      </c>
+      <c r="J44" t="s">
+        <v>483</v>
       </c>
       <c r="K44" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="L44" t="s">
-        <v>39</v>
-      </c>
-      <c r="M44" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="M44" t="s">
+        <v>28</v>
+      </c>
+      <c r="N44" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>486</v>
       </c>
       <c r="B45" t="s">
-        <v>484</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>484</v>
+        <v>27</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
         <v>2</v>
@@ -19657,81 +19616,69 @@
         <v>68</v>
       </c>
       <c r="G45" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="H45" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="I45" t="s">
-        <v>25</v>
-      </c>
-      <c r="J45" t="s">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="K45" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="L45" t="s">
+        <v>41</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>486</v>
+      </c>
+      <c r="B46" t="s">
         <v>27</v>
       </c>
-      <c r="M45" t="s">
-        <v>24</v>
-      </c>
-      <c r="N45" t="s">
-        <v>26</v>
-      </c>
-      <c r="O45" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>486</v>
-      </c>
-      <c r="B46" t="s">
-        <v>484</v>
-      </c>
       <c r="C46" t="s">
-        <v>484</v>
+        <v>27</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
         <v>68</v>
       </c>
       <c r="G46" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="H46" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="I46" t="s">
-        <v>25</v>
-      </c>
-      <c r="J46" t="s">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="K46" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="L46" t="s">
-        <v>27</v>
-      </c>
-      <c r="M46" t="s">
-        <v>24</v>
-      </c>
-      <c r="N46" t="s">
-        <v>26</v>
-      </c>
-      <c r="O46" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>486</v>
       </c>
@@ -19742,7 +19689,7 @@
         <v>484</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
         <v>2</v>
@@ -19751,145 +19698,127 @@
         <v>68</v>
       </c>
       <c r="G47" t="s">
-        <v>483</v>
+        <v>119</v>
       </c>
       <c r="H47" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J47" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="K47" t="s">
         <v>9</v>
       </c>
       <c r="L47" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N47" t="s">
-        <v>26</v>
-      </c>
-      <c r="O47" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B48" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C48" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>494</v>
+        <v>68</v>
       </c>
       <c r="G48" t="s">
-        <v>488</v>
+        <v>121</v>
       </c>
       <c r="H48" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I48" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J48" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" t="s">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
+        <v>25</v>
+      </c>
+      <c r="N48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>486</v>
+      </c>
+      <c r="B49" t="s">
+        <v>484</v>
+      </c>
+      <c r="C49" t="s">
+        <v>484</v>
+      </c>
+      <c r="D49">
         <v>3</v>
-      </c>
-      <c r="K48" t="s">
-        <v>95</v>
-      </c>
-      <c r="L48" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" t="s">
-        <v>83</v>
-      </c>
-      <c r="N48" t="s">
-        <v>28</v>
-      </c>
-      <c r="O48" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>520</v>
-      </c>
-      <c r="R48" t="s">
-        <v>521</v>
-      </c>
-      <c r="S48" t="s">
-        <v>522</v>
-      </c>
-      <c r="T48" t="s">
-        <v>85</v>
-      </c>
-      <c r="U48" t="s">
-        <v>89</v>
-      </c>
-      <c r="V48" t="s">
-        <v>523</v>
-      </c>
-      <c r="W48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>487</v>
-      </c>
-      <c r="B49" t="s">
-        <v>489</v>
-      </c>
-      <c r="C49" t="s">
-        <v>489</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>494</v>
+        <v>68</v>
       </c>
       <c r="G49" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H49" t="s">
-        <v>518</v>
+        <v>26</v>
       </c>
       <c r="I49" t="s">
-        <v>497</v>
+        <v>24</v>
       </c>
       <c r="J49" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="K49" t="s">
+        <v>9</v>
+      </c>
+      <c r="L49" t="s">
+        <v>1</v>
+      </c>
+      <c r="M49" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B50" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C50" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -19898,34 +19827,166 @@
         <v>2</v>
       </c>
       <c r="F50" t="s">
+        <v>494</v>
+      </c>
+      <c r="G50" t="s">
+        <v>488</v>
+      </c>
+      <c r="H50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" t="s">
+        <v>4</v>
+      </c>
+      <c r="K50" t="s">
+        <v>79</v>
+      </c>
+      <c r="L50" t="s">
+        <v>81</v>
+      </c>
+      <c r="M50" t="s">
+        <v>89</v>
+      </c>
+      <c r="N50" t="s">
+        <v>85</v>
+      </c>
+      <c r="O50" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>487</v>
+      </c>
+      <c r="B51" t="s">
+        <v>489</v>
+      </c>
+      <c r="C51" t="s">
+        <v>489</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>494</v>
+      </c>
+      <c r="G51" t="s">
+        <v>489</v>
+      </c>
+      <c r="H51" t="s">
+        <v>518</v>
+      </c>
+      <c r="I51" t="s">
+        <v>497</v>
+      </c>
+      <c r="J51" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>492</v>
+      </c>
+      <c r="B52" t="s">
+        <v>491</v>
+      </c>
+      <c r="C52" t="s">
+        <v>491</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
         <v>496</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G52" t="s">
         <v>27</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H52" t="s">
         <v>3</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I52" t="s">
         <v>28</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J52" t="s">
         <v>104</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K52" t="s">
         <v>483</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L52" t="s">
         <v>119</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M52" t="s">
         <v>121</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N52" t="s">
         <v>4</v>
       </c>
-      <c r="O50" t="s">
+      <c r="O52" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>486</v>
+      </c>
+      <c r="B53" t="s">
+        <v>546</v>
+      </c>
+      <c r="C53" t="s">
+        <v>546</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" t="s">
+        <v>546</v>
+      </c>
+      <c r="H53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" t="s">
+        <v>4</v>
+      </c>
+      <c r="K53" t="s">
+        <v>81</v>
+      </c>
+      <c r="L53" t="s">
+        <v>83</v>
+      </c>
+      <c r="M53" t="s">
+        <v>85</v>
+      </c>
+      <c r="N53" t="s">
+        <v>89</v>
+      </c>
+      <c r="O53" t="s">
+        <v>10</v>
+      </c>
+      <c r="P53" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -19975,15 +20036,15 @@
         <v>452</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -19992,18 +20053,18 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -20012,18 +20073,18 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B4" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -20032,10 +20093,10 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F4" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA1A0C6-A65B-400A-91FD-34EE687B3DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347784AC-7792-43B3-BE0A-13CD508B8DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="table_id_to_chart_old" sheetId="2" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">colors!$A$1:$B$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">colors!$A$1:$B$99</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4407" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4426" uniqueCount="559">
   <si>
     <t>chart_type</t>
   </si>
@@ -2055,6 +2055,18 @@
   </si>
   <si>
     <t>Wind onshore</t>
+  </si>
+  <si>
+    <t>Storage Batteries</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>#2A615A</t>
+  </si>
+  <si>
+    <t>#AB6262</t>
   </si>
 </sst>
 </file>
@@ -2491,7 +2503,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5538,10 +5550,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5663,55 +5675,55 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>556</v>
       </c>
       <c r="B15" t="s">
-        <v>433</v>
+        <v>557</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>435</v>
@@ -5719,15 +5731,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>457</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B23" t="s">
         <v>446</v>
@@ -5735,7 +5747,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>460</v>
       </c>
       <c r="B24" t="s">
         <v>446</v>
@@ -5743,47 +5755,47 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="B28" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>456</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B30" t="s">
         <v>440</v>
@@ -5791,7 +5803,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>459</v>
       </c>
       <c r="B31" t="s">
         <v>440</v>
@@ -5799,39 +5811,39 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="B34" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
         <v>440</v>
@@ -5839,15 +5851,15 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
         <v>435</v>
@@ -5855,15 +5867,15 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B39" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>547</v>
+        <v>476</v>
       </c>
       <c r="B40" t="s">
         <v>437</v>
@@ -5871,7 +5883,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="B41" t="s">
         <v>437</v>
@@ -5879,10 +5891,10 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>473</v>
       </c>
       <c r="B42" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -5895,79 +5907,79 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>549</v>
       </c>
       <c r="B44" t="s">
-        <v>442</v>
+        <v>558</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B49" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="B51" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>472</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
         <v>434</v>
@@ -5975,39 +5987,39 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B54" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>175</v>
+        <v>474</v>
       </c>
       <c r="B56" t="s">
-        <v>435</v>
+        <v>477</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="B58" t="s">
         <v>435</v>
@@ -6015,87 +6027,87 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>475</v>
+        <v>137</v>
       </c>
       <c r="B62" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>475</v>
       </c>
       <c r="B64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="B66" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>458</v>
+        <v>24</v>
       </c>
       <c r="B67" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>461</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>458</v>
       </c>
       <c r="B69" t="s">
         <v>479</v>
@@ -6103,55 +6115,55 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>461</v>
       </c>
       <c r="B70" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="B73" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B74" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B76" t="s">
         <v>443</v>
@@ -6159,15 +6171,15 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="B78" t="s">
         <v>443</v>
@@ -6175,23 +6187,23 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="B79" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>546</v>
+        <v>18</v>
       </c>
       <c r="B80" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="B81" t="s">
         <v>438</v>
@@ -6199,7 +6211,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>546</v>
       </c>
       <c r="B82" t="s">
         <v>438</v>
@@ -6207,31 +6219,31 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B83" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="B85" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>471</v>
+        <v>116</v>
       </c>
       <c r="B86" t="s">
         <v>446</v>
@@ -6239,7 +6251,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c r="B87" t="s">
         <v>446</v>
@@ -6247,55 +6259,55 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>471</v>
       </c>
       <c r="B88" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B89" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="B91" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B92" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
         <v>436</v>
@@ -6303,32 +6315,48 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="B95" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>1</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B99" t="s">
         <v>434</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B97" xr:uid="{344218C0-5C74-48AB-A8DF-7C6AE2CA916D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B97">
-      <sortCondition descending="1" ref="A1:A97"/>
+  <autoFilter ref="A1:B99" xr:uid="{344218C0-5C74-48AB-A8DF-7C6AE2CA916D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B99">
+      <sortCondition descending="1" ref="A1:A99"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11846,10 +11874,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14322,8 +14350,11 @@
       <c r="B100" t="s">
         <v>488</v>
       </c>
+      <c r="C100" t="s">
+        <v>556</v>
+      </c>
       <c r="D100" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -14333,8 +14364,11 @@
       <c r="B101" t="s">
         <v>488</v>
       </c>
+      <c r="C101" t="s">
+        <v>556</v>
+      </c>
       <c r="D101" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -14344,7 +14378,24 @@
       <c r="B102" t="s">
         <v>488</v>
       </c>
+      <c r="C102" t="s">
+        <v>89</v>
+      </c>
       <c r="D102" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>487</v>
+      </c>
+      <c r="B103" t="s">
+        <v>488</v>
+      </c>
+      <c r="C103" t="s">
+        <v>89</v>
+      </c>
+      <c r="D103" t="s">
         <v>554</v>
       </c>
     </row>
@@ -17722,12 +17773,12 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="O50" sqref="O50"/>
+      <selection pane="bottomLeft" activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19854,6 +19905,12 @@
         <v>85</v>
       </c>
       <c r="O50" t="s">
+        <v>10</v>
+      </c>
+      <c r="P50" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q50" t="s">
         <v>549</v>
       </c>
     </row>
@@ -19862,42 +19919,33 @@
         <v>487</v>
       </c>
       <c r="B51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
         <v>494</v>
       </c>
       <c r="G51" t="s">
-        <v>489</v>
-      </c>
-      <c r="H51" t="s">
-        <v>518</v>
-      </c>
-      <c r="I51" t="s">
-        <v>497</v>
-      </c>
-      <c r="J51" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B52" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C52" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -19906,45 +19954,30 @@
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G52" t="s">
-        <v>27</v>
+        <v>489</v>
       </c>
       <c r="H52" t="s">
-        <v>3</v>
+        <v>518</v>
       </c>
       <c r="I52" t="s">
-        <v>28</v>
+        <v>497</v>
       </c>
       <c r="J52" t="s">
-        <v>104</v>
-      </c>
-      <c r="K52" t="s">
-        <v>483</v>
-      </c>
-      <c r="L52" t="s">
-        <v>119</v>
-      </c>
-      <c r="M52" t="s">
-        <v>121</v>
-      </c>
-      <c r="N52" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" t="s">
-        <v>155</v>
+        <v>517</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B53" t="s">
-        <v>546</v>
+        <v>491</v>
       </c>
       <c r="C53" t="s">
-        <v>546</v>
+        <v>491</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -19953,39 +19986,86 @@
         <v>2</v>
       </c>
       <c r="F53" t="s">
+        <v>496</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I53" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" t="s">
+        <v>104</v>
+      </c>
+      <c r="K53" t="s">
+        <v>483</v>
+      </c>
+      <c r="L53" t="s">
+        <v>119</v>
+      </c>
+      <c r="M53" t="s">
+        <v>121</v>
+      </c>
+      <c r="N53" t="s">
+        <v>4</v>
+      </c>
+      <c r="O53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>486</v>
+      </c>
+      <c r="B54" t="s">
+        <v>546</v>
+      </c>
+      <c r="C54" t="s">
+        <v>546</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
         <v>49</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G54" t="s">
         <v>546</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H54" t="s">
         <v>11</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I54" t="s">
         <v>5</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J54" t="s">
         <v>4</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K54" t="s">
         <v>81</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L54" t="s">
         <v>83</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M54" t="s">
         <v>85</v>
       </c>
-      <c r="N53" t="s">
+      <c r="N54" t="s">
         <v>89</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O54" t="s">
         <v>10</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P54" t="s">
         <v>547</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="Q54" t="s">
         <v>3</v>
       </c>
     </row>

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347784AC-7792-43B3-BE0A-13CD508B8DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D92353-E110-4723-80CA-1929FC3D0943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="table_id_to_chart_old" sheetId="2" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">colors!$A$1:$B$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">colors!$A$1:$B$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4426" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4844" uniqueCount="587">
   <si>
     <t>chart_type</t>
   </si>
@@ -2036,9 +2036,6 @@
     <t>Other fuel</t>
   </si>
   <si>
-    <t>['Macro', 'FED by fuel', 'FED by sector', 'Industry', 'Transport', 'Buildings', 'Agriculture', 'Non-energy', 'Electricity', 'Oil use by sector', 'Electricity generation', 'Fuel consumption power sector', 'Refining', 'Hydrogen', 'Production', 'Supply', 'Coal', 'TPES Coal by type', 'Crude &amp; NGL', 'Renewable fuels']</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -2067,6 +2064,93 @@
   </si>
   <si>
     <t>#AB6262</t>
+  </si>
+  <si>
+    <t>CNG vehicles</t>
+  </si>
+  <si>
+    <t>PHEV vehicles</t>
+  </si>
+  <si>
+    <t>LPG vehicles</t>
+  </si>
+  <si>
+    <t>15_02_01_01_07_liquified_petroleum_gas</t>
+  </si>
+  <si>
+    <t>15_02_01_02_07_liquified_petroleum_gas</t>
+  </si>
+  <si>
+    <t>15_02_01_03_07_liquified_petroleum_gas</t>
+  </si>
+  <si>
+    <t>15_02_01_04_07_liquified_petroleum_gas</t>
+  </si>
+  <si>
+    <t>15_02_02_01_07_liquified_petroleum_gas</t>
+  </si>
+  <si>
+    <t>15_02_02_02_07_liquified_petroleum_gas</t>
+  </si>
+  <si>
+    <t>15_02_02_03_07_liquified_petroleum_gas</t>
+  </si>
+  <si>
+    <t>15_02_02_04_07_liquified_petroleum_gas</t>
+  </si>
+  <si>
+    <t>15_02_02_06_01_diesel_engine</t>
+  </si>
+  <si>
+    <t>15_02_02_06_02_gasoline_engine</t>
+  </si>
+  <si>
+    <t>15_02_02_06_03_battery_ev</t>
+  </si>
+  <si>
+    <t>15_02_02_06_04_compressed_natual_gas</t>
+  </si>
+  <si>
+    <t>15_02_02_06_05_plugin_hybrid_ev_gasoline</t>
+  </si>
+  <si>
+    <t>15_02_02_06_06_plugin_hybrid_ev_diesel</t>
+  </si>
+  <si>
+    <t>15_02_02_06_07_liquified_petroleum_gas</t>
+  </si>
+  <si>
+    <t>15_02_02_06_08_fuel_cell_ev</t>
+  </si>
+  <si>
+    <t>['Macro', 'FED by fuel', 'FED by sector', 'Industry', 'Transport', 'Buildings', 'Agriculture', 'Non-energy', 'Electricity', 'Oil use by sector', 'Electricity generation', 'Generation capacity', 'Fuel consumption power sector', 'Refining', 'Hydrogen', 'Production', 'Supply', 'Coal', 'TPES Coal by type', 'Crude &amp; NGL', 'Renewable fuels']</t>
+  </si>
+  <si>
+    <t>Coal CHP</t>
+  </si>
+  <si>
+    <t>Gas CHP</t>
+  </si>
+  <si>
+    <t>Oil CHP</t>
+  </si>
+  <si>
+    <t>Other CHP</t>
+  </si>
+  <si>
+    <t>Solar CSP</t>
+  </si>
+  <si>
+    <t>Solid Biomass CHP</t>
+  </si>
+  <si>
+    <t>Gas ccs new</t>
+  </si>
+  <si>
+    <t>Gas CCS</t>
+  </si>
+  <si>
+    <t>#CFCFCF</t>
   </si>
 </sst>
 </file>
@@ -5550,10 +5634,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5675,10 +5759,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>555</v>
+      </c>
+      <c r="B15" t="s">
         <v>556</v>
-      </c>
-      <c r="B15" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5907,10 +5991,10 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B44" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -6171,23 +6255,23 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>585</v>
       </c>
       <c r="B77" t="s">
-        <v>434</v>
+        <v>586</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="B79" t="s">
         <v>443</v>
@@ -6195,7 +6279,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="B80" t="s">
         <v>443</v>
@@ -6203,15 +6287,15 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="B81" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>546</v>
+        <v>165</v>
       </c>
       <c r="B82" t="s">
         <v>438</v>
@@ -6219,7 +6303,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>103</v>
+        <v>546</v>
       </c>
       <c r="B83" t="s">
         <v>438</v>
@@ -6227,7 +6311,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B84" t="s">
         <v>438</v>
@@ -6235,23 +6319,23 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="B87" t="s">
         <v>446</v>
@@ -6259,7 +6343,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>471</v>
+        <v>36</v>
       </c>
       <c r="B88" t="s">
         <v>446</v>
@@ -6267,7 +6351,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>189</v>
+        <v>471</v>
       </c>
       <c r="B89" t="s">
         <v>446</v>
@@ -6275,88 +6359,96 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="B90" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="B92" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B93" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B96" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="B98" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>168</v>
+      </c>
+      <c r="B99" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>1</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>434</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B99" xr:uid="{344218C0-5C74-48AB-A8DF-7C6AE2CA916D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B99">
-      <sortCondition descending="1" ref="A1:A99"/>
+  <autoFilter ref="A1:B100" xr:uid="{344218C0-5C74-48AB-A8DF-7C6AE2CA916D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B100">
+      <sortCondition descending="1" ref="A1:A100"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6422,7 +6514,7 @@
         <v>478</v>
       </c>
       <c r="B6" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11874,10 +11966,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14225,10 +14317,10 @@
         <v>488</v>
       </c>
       <c r="C91" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>4</v>
+        <v>578</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -14239,10 +14331,10 @@
         <v>488</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -14253,10 +14345,10 @@
         <v>488</v>
       </c>
       <c r="C93" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>79</v>
+        <v>579</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -14267,10 +14359,10 @@
         <v>488</v>
       </c>
       <c r="C94" t="s">
-        <v>81</v>
+        <v>585</v>
       </c>
       <c r="D94" t="s">
-        <v>81</v>
+        <v>584</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -14281,10 +14373,10 @@
         <v>488</v>
       </c>
       <c r="C95" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -14295,13 +14387,13 @@
         <v>488</v>
       </c>
       <c r="C96" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>487</v>
       </c>
@@ -14309,13 +14401,13 @@
         <v>488</v>
       </c>
       <c r="C97" t="s">
-        <v>549</v>
+        <v>79</v>
       </c>
       <c r="D97" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>487</v>
       </c>
@@ -14323,13 +14415,13 @@
         <v>488</v>
       </c>
       <c r="C98" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D98" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>487</v>
       </c>
@@ -14337,13 +14429,13 @@
         <v>488</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="D99" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>487</v>
       </c>
@@ -14351,13 +14443,13 @@
         <v>488</v>
       </c>
       <c r="C100" t="s">
-        <v>556</v>
+        <v>89</v>
       </c>
       <c r="D100" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>487</v>
       </c>
@@ -14365,13 +14457,13 @@
         <v>488</v>
       </c>
       <c r="C101" t="s">
-        <v>556</v>
+        <v>89</v>
       </c>
       <c r="D101" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>487</v>
       </c>
@@ -14379,13 +14471,13 @@
         <v>488</v>
       </c>
       <c r="C102" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D102" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>487</v>
       </c>
@@ -14393,10 +14485,1330 @@
         <v>488</v>
       </c>
       <c r="C103" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D103" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>487</v>
+      </c>
+      <c r="B104" t="s">
+        <v>488</v>
+      </c>
+      <c r="C104" t="s">
+        <v>548</v>
+      </c>
+      <c r="D104" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>487</v>
+      </c>
+      <c r="B105" t="s">
+        <v>488</v>
+      </c>
+      <c r="C105" t="s">
+        <v>548</v>
+      </c>
+      <c r="D105" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>487</v>
+      </c>
+      <c r="B106" t="s">
+        <v>488</v>
+      </c>
+      <c r="C106" t="s">
+        <v>83</v>
+      </c>
+      <c r="D106" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>487</v>
+      </c>
+      <c r="B107" t="s">
+        <v>488</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>487</v>
+      </c>
+      <c r="B108" t="s">
+        <v>488</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>487</v>
+      </c>
+      <c r="B109" t="s">
+        <v>488</v>
+      </c>
+      <c r="C109" t="s">
+        <v>555</v>
+      </c>
+      <c r="D109" t="s">
         <v>554</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>487</v>
+      </c>
+      <c r="B110" t="s">
+        <v>488</v>
+      </c>
+      <c r="C110" t="s">
+        <v>555</v>
+      </c>
+      <c r="D110" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>487</v>
+      </c>
+      <c r="B111" t="s">
+        <v>489</v>
+      </c>
+      <c r="C111" t="s">
+        <v>558</v>
+      </c>
+      <c r="D111" t="s">
+        <v>158</v>
+      </c>
+      <c r="E111" t="s">
+        <v>196</v>
+      </c>
+      <c r="F111" t="s">
+        <v>199</v>
+      </c>
+      <c r="G111" t="s">
+        <v>326</v>
+      </c>
+      <c r="H111" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>487</v>
+      </c>
+      <c r="B112" t="s">
+        <v>489</v>
+      </c>
+      <c r="C112" t="s">
+        <v>558</v>
+      </c>
+      <c r="D112" t="s">
+        <v>158</v>
+      </c>
+      <c r="E112" t="s">
+        <v>196</v>
+      </c>
+      <c r="F112" t="s">
+        <v>199</v>
+      </c>
+      <c r="G112" t="s">
+        <v>498</v>
+      </c>
+      <c r="H112" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>487</v>
+      </c>
+      <c r="B113" t="s">
+        <v>489</v>
+      </c>
+      <c r="C113" t="s">
+        <v>558</v>
+      </c>
+      <c r="D113" t="s">
+        <v>158</v>
+      </c>
+      <c r="E113" t="s">
+        <v>196</v>
+      </c>
+      <c r="F113" t="s">
+        <v>199</v>
+      </c>
+      <c r="G113" t="s">
+        <v>499</v>
+      </c>
+      <c r="H113" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>487</v>
+      </c>
+      <c r="B114" t="s">
+        <v>489</v>
+      </c>
+      <c r="C114" t="s">
+        <v>558</v>
+      </c>
+      <c r="D114" t="s">
+        <v>158</v>
+      </c>
+      <c r="E114" t="s">
+        <v>196</v>
+      </c>
+      <c r="F114" t="s">
+        <v>199</v>
+      </c>
+      <c r="G114" t="s">
+        <v>500</v>
+      </c>
+      <c r="H114" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>487</v>
+      </c>
+      <c r="B115" t="s">
+        <v>489</v>
+      </c>
+      <c r="C115" t="s">
+        <v>558</v>
+      </c>
+      <c r="D115" t="s">
+        <v>158</v>
+      </c>
+      <c r="E115" t="s">
+        <v>196</v>
+      </c>
+      <c r="F115" t="s">
+        <v>197</v>
+      </c>
+      <c r="G115" t="s">
+        <v>504</v>
+      </c>
+      <c r="H115" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>487</v>
+      </c>
+      <c r="B116" t="s">
+        <v>489</v>
+      </c>
+      <c r="C116" t="s">
+        <v>558</v>
+      </c>
+      <c r="D116" t="s">
+        <v>158</v>
+      </c>
+      <c r="E116" t="s">
+        <v>196</v>
+      </c>
+      <c r="F116" t="s">
+        <v>197</v>
+      </c>
+      <c r="G116" t="s">
+        <v>505</v>
+      </c>
+      <c r="H116" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>487</v>
+      </c>
+      <c r="B117" t="s">
+        <v>489</v>
+      </c>
+      <c r="C117" t="s">
+        <v>558</v>
+      </c>
+      <c r="D117" t="s">
+        <v>158</v>
+      </c>
+      <c r="E117" t="s">
+        <v>196</v>
+      </c>
+      <c r="F117" t="s">
+        <v>197</v>
+      </c>
+      <c r="G117" t="s">
+        <v>506</v>
+      </c>
+      <c r="H117" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>487</v>
+      </c>
+      <c r="B118" t="s">
+        <v>489</v>
+      </c>
+      <c r="C118" t="s">
+        <v>558</v>
+      </c>
+      <c r="D118" t="s">
+        <v>158</v>
+      </c>
+      <c r="E118" t="s">
+        <v>196</v>
+      </c>
+      <c r="F118" t="s">
+        <v>197</v>
+      </c>
+      <c r="G118" t="s">
+        <v>354</v>
+      </c>
+      <c r="H118" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>487</v>
+      </c>
+      <c r="B119" t="s">
+        <v>489</v>
+      </c>
+      <c r="C119" t="s">
+        <v>559</v>
+      </c>
+      <c r="D119" t="s">
+        <v>158</v>
+      </c>
+      <c r="E119" t="s">
+        <v>196</v>
+      </c>
+      <c r="F119" t="s">
+        <v>199</v>
+      </c>
+      <c r="G119" t="s">
+        <v>326</v>
+      </c>
+      <c r="H119" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>487</v>
+      </c>
+      <c r="B120" t="s">
+        <v>489</v>
+      </c>
+      <c r="C120" t="s">
+        <v>559</v>
+      </c>
+      <c r="D120" t="s">
+        <v>158</v>
+      </c>
+      <c r="E120" t="s">
+        <v>196</v>
+      </c>
+      <c r="F120" t="s">
+        <v>199</v>
+      </c>
+      <c r="G120" t="s">
+        <v>326</v>
+      </c>
+      <c r="H120" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>487</v>
+      </c>
+      <c r="B121" t="s">
+        <v>489</v>
+      </c>
+      <c r="C121" t="s">
+        <v>559</v>
+      </c>
+      <c r="D121" t="s">
+        <v>158</v>
+      </c>
+      <c r="E121" t="s">
+        <v>196</v>
+      </c>
+      <c r="F121" t="s">
+        <v>199</v>
+      </c>
+      <c r="G121" t="s">
+        <v>498</v>
+      </c>
+      <c r="H121" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>487</v>
+      </c>
+      <c r="B122" t="s">
+        <v>489</v>
+      </c>
+      <c r="C122" t="s">
+        <v>559</v>
+      </c>
+      <c r="D122" t="s">
+        <v>158</v>
+      </c>
+      <c r="E122" t="s">
+        <v>196</v>
+      </c>
+      <c r="F122" t="s">
+        <v>199</v>
+      </c>
+      <c r="G122" t="s">
+        <v>498</v>
+      </c>
+      <c r="H122" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>487</v>
+      </c>
+      <c r="B123" t="s">
+        <v>489</v>
+      </c>
+      <c r="C123" t="s">
+        <v>559</v>
+      </c>
+      <c r="D123" t="s">
+        <v>158</v>
+      </c>
+      <c r="E123" t="s">
+        <v>196</v>
+      </c>
+      <c r="F123" t="s">
+        <v>199</v>
+      </c>
+      <c r="G123" t="s">
+        <v>499</v>
+      </c>
+      <c r="H123" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>487</v>
+      </c>
+      <c r="B124" t="s">
+        <v>489</v>
+      </c>
+      <c r="C124" t="s">
+        <v>559</v>
+      </c>
+      <c r="D124" t="s">
+        <v>158</v>
+      </c>
+      <c r="E124" t="s">
+        <v>196</v>
+      </c>
+      <c r="F124" t="s">
+        <v>199</v>
+      </c>
+      <c r="G124" t="s">
+        <v>499</v>
+      </c>
+      <c r="H124" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>487</v>
+      </c>
+      <c r="B125" t="s">
+        <v>489</v>
+      </c>
+      <c r="C125" t="s">
+        <v>559</v>
+      </c>
+      <c r="D125" t="s">
+        <v>158</v>
+      </c>
+      <c r="E125" t="s">
+        <v>196</v>
+      </c>
+      <c r="F125" t="s">
+        <v>199</v>
+      </c>
+      <c r="G125" t="s">
+        <v>500</v>
+      </c>
+      <c r="H125" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>487</v>
+      </c>
+      <c r="B126" t="s">
+        <v>489</v>
+      </c>
+      <c r="C126" t="s">
+        <v>559</v>
+      </c>
+      <c r="D126" t="s">
+        <v>158</v>
+      </c>
+      <c r="E126" t="s">
+        <v>196</v>
+      </c>
+      <c r="F126" t="s">
+        <v>199</v>
+      </c>
+      <c r="G126" t="s">
+        <v>500</v>
+      </c>
+      <c r="H126" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>487</v>
+      </c>
+      <c r="B127" t="s">
+        <v>489</v>
+      </c>
+      <c r="C127" t="s">
+        <v>559</v>
+      </c>
+      <c r="D127" t="s">
+        <v>158</v>
+      </c>
+      <c r="E127" t="s">
+        <v>196</v>
+      </c>
+      <c r="F127" t="s">
+        <v>197</v>
+      </c>
+      <c r="G127" t="s">
+        <v>504</v>
+      </c>
+      <c r="H127" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>487</v>
+      </c>
+      <c r="B128" t="s">
+        <v>489</v>
+      </c>
+      <c r="C128" t="s">
+        <v>559</v>
+      </c>
+      <c r="D128" t="s">
+        <v>158</v>
+      </c>
+      <c r="E128" t="s">
+        <v>196</v>
+      </c>
+      <c r="F128" t="s">
+        <v>197</v>
+      </c>
+      <c r="G128" t="s">
+        <v>504</v>
+      </c>
+      <c r="H128" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>487</v>
+      </c>
+      <c r="B129" t="s">
+        <v>489</v>
+      </c>
+      <c r="C129" t="s">
+        <v>559</v>
+      </c>
+      <c r="D129" t="s">
+        <v>158</v>
+      </c>
+      <c r="E129" t="s">
+        <v>196</v>
+      </c>
+      <c r="F129" t="s">
+        <v>197</v>
+      </c>
+      <c r="G129" t="s">
+        <v>505</v>
+      </c>
+      <c r="H129" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>487</v>
+      </c>
+      <c r="B130" t="s">
+        <v>489</v>
+      </c>
+      <c r="C130" t="s">
+        <v>559</v>
+      </c>
+      <c r="D130" t="s">
+        <v>158</v>
+      </c>
+      <c r="E130" t="s">
+        <v>196</v>
+      </c>
+      <c r="F130" t="s">
+        <v>197</v>
+      </c>
+      <c r="G130" t="s">
+        <v>505</v>
+      </c>
+      <c r="H130" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>487</v>
+      </c>
+      <c r="B131" t="s">
+        <v>489</v>
+      </c>
+      <c r="C131" t="s">
+        <v>559</v>
+      </c>
+      <c r="D131" t="s">
+        <v>158</v>
+      </c>
+      <c r="E131" t="s">
+        <v>196</v>
+      </c>
+      <c r="F131" t="s">
+        <v>197</v>
+      </c>
+      <c r="G131" t="s">
+        <v>506</v>
+      </c>
+      <c r="H131" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>487</v>
+      </c>
+      <c r="B132" t="s">
+        <v>489</v>
+      </c>
+      <c r="C132" t="s">
+        <v>559</v>
+      </c>
+      <c r="D132" t="s">
+        <v>158</v>
+      </c>
+      <c r="E132" t="s">
+        <v>196</v>
+      </c>
+      <c r="F132" t="s">
+        <v>197</v>
+      </c>
+      <c r="G132" t="s">
+        <v>506</v>
+      </c>
+      <c r="H132" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>487</v>
+      </c>
+      <c r="B133" t="s">
+        <v>489</v>
+      </c>
+      <c r="C133" t="s">
+        <v>559</v>
+      </c>
+      <c r="D133" t="s">
+        <v>158</v>
+      </c>
+      <c r="E133" t="s">
+        <v>196</v>
+      </c>
+      <c r="F133" t="s">
+        <v>197</v>
+      </c>
+      <c r="G133" t="s">
+        <v>354</v>
+      </c>
+      <c r="H133" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>487</v>
+      </c>
+      <c r="B134" t="s">
+        <v>489</v>
+      </c>
+      <c r="C134" t="s">
+        <v>559</v>
+      </c>
+      <c r="D134" t="s">
+        <v>158</v>
+      </c>
+      <c r="E134" t="s">
+        <v>196</v>
+      </c>
+      <c r="F134" t="s">
+        <v>197</v>
+      </c>
+      <c r="G134" t="s">
+        <v>354</v>
+      </c>
+      <c r="H134" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>487</v>
+      </c>
+      <c r="B135" t="s">
+        <v>489</v>
+      </c>
+      <c r="C135" t="s">
+        <v>560</v>
+      </c>
+      <c r="D135" t="s">
+        <v>158</v>
+      </c>
+      <c r="E135" t="s">
+        <v>196</v>
+      </c>
+      <c r="F135" t="s">
+        <v>199</v>
+      </c>
+      <c r="G135" t="s">
+        <v>326</v>
+      </c>
+      <c r="H135" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>487</v>
+      </c>
+      <c r="B136" t="s">
+        <v>489</v>
+      </c>
+      <c r="C136" t="s">
+        <v>560</v>
+      </c>
+      <c r="D136" t="s">
+        <v>158</v>
+      </c>
+      <c r="E136" t="s">
+        <v>196</v>
+      </c>
+      <c r="F136" t="s">
+        <v>199</v>
+      </c>
+      <c r="G136" t="s">
+        <v>498</v>
+      </c>
+      <c r="H136" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>487</v>
+      </c>
+      <c r="B137" t="s">
+        <v>489</v>
+      </c>
+      <c r="C137" t="s">
+        <v>560</v>
+      </c>
+      <c r="D137" t="s">
+        <v>158</v>
+      </c>
+      <c r="E137" t="s">
+        <v>196</v>
+      </c>
+      <c r="F137" t="s">
+        <v>199</v>
+      </c>
+      <c r="G137" t="s">
+        <v>499</v>
+      </c>
+      <c r="H137" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>487</v>
+      </c>
+      <c r="B138" t="s">
+        <v>489</v>
+      </c>
+      <c r="C138" t="s">
+        <v>560</v>
+      </c>
+      <c r="D138" t="s">
+        <v>158</v>
+      </c>
+      <c r="E138" t="s">
+        <v>196</v>
+      </c>
+      <c r="F138" t="s">
+        <v>199</v>
+      </c>
+      <c r="G138" t="s">
+        <v>500</v>
+      </c>
+      <c r="H138" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>487</v>
+      </c>
+      <c r="B139" t="s">
+        <v>489</v>
+      </c>
+      <c r="C139" t="s">
+        <v>560</v>
+      </c>
+      <c r="D139" t="s">
+        <v>158</v>
+      </c>
+      <c r="E139" t="s">
+        <v>196</v>
+      </c>
+      <c r="F139" t="s">
+        <v>197</v>
+      </c>
+      <c r="G139" t="s">
+        <v>504</v>
+      </c>
+      <c r="H139" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>487</v>
+      </c>
+      <c r="B140" t="s">
+        <v>489</v>
+      </c>
+      <c r="C140" t="s">
+        <v>560</v>
+      </c>
+      <c r="D140" t="s">
+        <v>158</v>
+      </c>
+      <c r="E140" t="s">
+        <v>196</v>
+      </c>
+      <c r="F140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G140" t="s">
+        <v>505</v>
+      </c>
+      <c r="H140" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>487</v>
+      </c>
+      <c r="B141" t="s">
+        <v>489</v>
+      </c>
+      <c r="C141" t="s">
+        <v>560</v>
+      </c>
+      <c r="D141" t="s">
+        <v>158</v>
+      </c>
+      <c r="E141" t="s">
+        <v>196</v>
+      </c>
+      <c r="F141" t="s">
+        <v>197</v>
+      </c>
+      <c r="G141" t="s">
+        <v>506</v>
+      </c>
+      <c r="H141" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>487</v>
+      </c>
+      <c r="B142" t="s">
+        <v>489</v>
+      </c>
+      <c r="C142" t="s">
+        <v>560</v>
+      </c>
+      <c r="D142" t="s">
+        <v>158</v>
+      </c>
+      <c r="E142" t="s">
+        <v>196</v>
+      </c>
+      <c r="F142" t="s">
+        <v>197</v>
+      </c>
+      <c r="G142" t="s">
+        <v>354</v>
+      </c>
+      <c r="H142" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>487</v>
+      </c>
+      <c r="B143" t="s">
+        <v>489</v>
+      </c>
+      <c r="C143" t="s">
+        <v>517</v>
+      </c>
+      <c r="D143" t="s">
+        <v>158</v>
+      </c>
+      <c r="E143" t="s">
+        <v>196</v>
+      </c>
+      <c r="F143" t="s">
+        <v>199</v>
+      </c>
+      <c r="G143" t="s">
+        <v>498</v>
+      </c>
+      <c r="H143" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>487</v>
+      </c>
+      <c r="B144" t="s">
+        <v>489</v>
+      </c>
+      <c r="C144" t="s">
+        <v>517</v>
+      </c>
+      <c r="D144" t="s">
+        <v>158</v>
+      </c>
+      <c r="E144" t="s">
+        <v>196</v>
+      </c>
+      <c r="F144" t="s">
+        <v>199</v>
+      </c>
+      <c r="G144" t="s">
+        <v>499</v>
+      </c>
+      <c r="H144" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>487</v>
+      </c>
+      <c r="B145" t="s">
+        <v>489</v>
+      </c>
+      <c r="C145" t="s">
+        <v>517</v>
+      </c>
+      <c r="D145" t="s">
+        <v>158</v>
+      </c>
+      <c r="E145" t="s">
+        <v>196</v>
+      </c>
+      <c r="F145" t="s">
+        <v>199</v>
+      </c>
+      <c r="G145" t="s">
+        <v>500</v>
+      </c>
+      <c r="H145" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>487</v>
+      </c>
+      <c r="B146" t="s">
+        <v>489</v>
+      </c>
+      <c r="C146" t="s">
+        <v>517</v>
+      </c>
+      <c r="D146" t="s">
+        <v>158</v>
+      </c>
+      <c r="E146" t="s">
+        <v>196</v>
+      </c>
+      <c r="F146" t="s">
+        <v>197</v>
+      </c>
+      <c r="G146" t="s">
+        <v>504</v>
+      </c>
+      <c r="H146" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>487</v>
+      </c>
+      <c r="B147" t="s">
+        <v>489</v>
+      </c>
+      <c r="C147" t="s">
+        <v>517</v>
+      </c>
+      <c r="D147" t="s">
+        <v>158</v>
+      </c>
+      <c r="E147" t="s">
+        <v>196</v>
+      </c>
+      <c r="F147" t="s">
+        <v>197</v>
+      </c>
+      <c r="G147" t="s">
+        <v>505</v>
+      </c>
+      <c r="H147" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>487</v>
+      </c>
+      <c r="B148" t="s">
+        <v>489</v>
+      </c>
+      <c r="C148" t="s">
+        <v>517</v>
+      </c>
+      <c r="D148" t="s">
+        <v>158</v>
+      </c>
+      <c r="E148" t="s">
+        <v>196</v>
+      </c>
+      <c r="F148" t="s">
+        <v>197</v>
+      </c>
+      <c r="G148" t="s">
+        <v>506</v>
+      </c>
+      <c r="H148" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>487</v>
+      </c>
+      <c r="B149" t="s">
+        <v>489</v>
+      </c>
+      <c r="C149" t="s">
+        <v>517</v>
+      </c>
+      <c r="D149" t="s">
+        <v>158</v>
+      </c>
+      <c r="E149" t="s">
+        <v>196</v>
+      </c>
+      <c r="F149" t="s">
+        <v>197</v>
+      </c>
+      <c r="G149" t="s">
+        <v>354</v>
+      </c>
+      <c r="H149" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>487</v>
+      </c>
+      <c r="B150" t="s">
+        <v>489</v>
+      </c>
+      <c r="C150" t="s">
+        <v>497</v>
+      </c>
+      <c r="D150" t="s">
+        <v>158</v>
+      </c>
+      <c r="E150" t="s">
+        <v>196</v>
+      </c>
+      <c r="F150" t="s">
+        <v>197</v>
+      </c>
+      <c r="G150" t="s">
+        <v>354</v>
+      </c>
+      <c r="H150" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>487</v>
+      </c>
+      <c r="B151" t="s">
+        <v>489</v>
+      </c>
+      <c r="C151" t="s">
+        <v>497</v>
+      </c>
+      <c r="D151" t="s">
+        <v>158</v>
+      </c>
+      <c r="E151" t="s">
+        <v>196</v>
+      </c>
+      <c r="F151" t="s">
+        <v>197</v>
+      </c>
+      <c r="G151" t="s">
+        <v>354</v>
+      </c>
+      <c r="H151" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>487</v>
+      </c>
+      <c r="B152" t="s">
+        <v>489</v>
+      </c>
+      <c r="C152" t="s">
+        <v>518</v>
+      </c>
+      <c r="D152" t="s">
+        <v>158</v>
+      </c>
+      <c r="E152" t="s">
+        <v>196</v>
+      </c>
+      <c r="F152" t="s">
+        <v>197</v>
+      </c>
+      <c r="G152" t="s">
+        <v>354</v>
+      </c>
+      <c r="H152" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>487</v>
+      </c>
+      <c r="B153" t="s">
+        <v>489</v>
+      </c>
+      <c r="C153" t="s">
+        <v>558</v>
+      </c>
+      <c r="D153" t="s">
+        <v>158</v>
+      </c>
+      <c r="E153" t="s">
+        <v>196</v>
+      </c>
+      <c r="F153" t="s">
+        <v>197</v>
+      </c>
+      <c r="G153" t="s">
+        <v>354</v>
+      </c>
+      <c r="H153" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>487</v>
+      </c>
+      <c r="B154" t="s">
+        <v>489</v>
+      </c>
+      <c r="C154" t="s">
+        <v>559</v>
+      </c>
+      <c r="D154" t="s">
+        <v>158</v>
+      </c>
+      <c r="E154" t="s">
+        <v>196</v>
+      </c>
+      <c r="F154" t="s">
+        <v>197</v>
+      </c>
+      <c r="G154" t="s">
+        <v>354</v>
+      </c>
+      <c r="H154" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>487</v>
+      </c>
+      <c r="B155" t="s">
+        <v>489</v>
+      </c>
+      <c r="C155" t="s">
+        <v>559</v>
+      </c>
+      <c r="D155" t="s">
+        <v>158</v>
+      </c>
+      <c r="E155" t="s">
+        <v>196</v>
+      </c>
+      <c r="F155" t="s">
+        <v>197</v>
+      </c>
+      <c r="G155" t="s">
+        <v>354</v>
+      </c>
+      <c r="H155" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>487</v>
+      </c>
+      <c r="B156" t="s">
+        <v>489</v>
+      </c>
+      <c r="C156" t="s">
+        <v>560</v>
+      </c>
+      <c r="D156" t="s">
+        <v>158</v>
+      </c>
+      <c r="E156" t="s">
+        <v>196</v>
+      </c>
+      <c r="F156" t="s">
+        <v>197</v>
+      </c>
+      <c r="G156" t="s">
+        <v>354</v>
+      </c>
+      <c r="H156" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>487</v>
+      </c>
+      <c r="B157" t="s">
+        <v>489</v>
+      </c>
+      <c r="C157" t="s">
+        <v>517</v>
+      </c>
+      <c r="D157" t="s">
+        <v>158</v>
+      </c>
+      <c r="E157" t="s">
+        <v>196</v>
+      </c>
+      <c r="F157" t="s">
+        <v>197</v>
+      </c>
+      <c r="G157" t="s">
+        <v>354</v>
+      </c>
+      <c r="H157" t="s">
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -17776,9 +19188,9 @@
   <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="P50" sqref="P50"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19817,7 +21229,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>486</v>
       </c>
@@ -19861,7 +21273,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>487</v>
       </c>
@@ -19893,28 +21305,31 @@
         <v>4</v>
       </c>
       <c r="K50" t="s">
+        <v>585</v>
+      </c>
+      <c r="L50" t="s">
         <v>79</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>81</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>89</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>85</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>10</v>
       </c>
-      <c r="P50" t="s">
-        <v>556</v>
-      </c>
       <c r="Q50" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+      <c r="R50" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>487</v>
       </c>
@@ -19936,8 +21351,41 @@
       <c r="G51" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K51" t="s">
+        <v>585</v>
+      </c>
+      <c r="L51" t="s">
+        <v>79</v>
+      </c>
+      <c r="M51" t="s">
+        <v>81</v>
+      </c>
+      <c r="N51" t="s">
+        <v>89</v>
+      </c>
+      <c r="O51" t="s">
+        <v>85</v>
+      </c>
+      <c r="P51" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>555</v>
+      </c>
+      <c r="R51" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>487</v>
       </c>
@@ -19969,7 +21417,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>492</v>
       </c>
@@ -20016,7 +21464,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>486</v>
       </c>

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347784AC-7792-43B3-BE0A-13CD508B8DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C1B057-EC74-460F-8E67-615DC7CC3C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="812" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4426" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4805" uniqueCount="578">
   <si>
     <t>chart_type</t>
   </si>
@@ -2036,9 +2036,6 @@
     <t>Other fuel</t>
   </si>
   <si>
-    <t>['Macro', 'FED by fuel', 'FED by sector', 'Industry', 'Transport', 'Buildings', 'Agriculture', 'Non-energy', 'Electricity', 'Oil use by sector', 'Electricity generation', 'Fuel consumption power sector', 'Refining', 'Hydrogen', 'Production', 'Supply', 'Coal', 'TPES Coal by type', 'Crude &amp; NGL', 'Renewable fuels']</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -2067,6 +2064,66 @@
   </si>
   <si>
     <t>#AB6262</t>
+  </si>
+  <si>
+    <t>CNG vehicles</t>
+  </si>
+  <si>
+    <t>PHEV vehicles</t>
+  </si>
+  <si>
+    <t>LPG vehicles</t>
+  </si>
+  <si>
+    <t>15_02_01_01_07_liquified_petroleum_gas</t>
+  </si>
+  <si>
+    <t>15_02_01_02_07_liquified_petroleum_gas</t>
+  </si>
+  <si>
+    <t>15_02_01_03_07_liquified_petroleum_gas</t>
+  </si>
+  <si>
+    <t>15_02_01_04_07_liquified_petroleum_gas</t>
+  </si>
+  <si>
+    <t>15_02_02_01_07_liquified_petroleum_gas</t>
+  </si>
+  <si>
+    <t>15_02_02_02_07_liquified_petroleum_gas</t>
+  </si>
+  <si>
+    <t>15_02_02_03_07_liquified_petroleum_gas</t>
+  </si>
+  <si>
+    <t>15_02_02_04_07_liquified_petroleum_gas</t>
+  </si>
+  <si>
+    <t>15_02_02_06_01_diesel_engine</t>
+  </si>
+  <si>
+    <t>15_02_02_06_02_gasoline_engine</t>
+  </si>
+  <si>
+    <t>15_02_02_06_03_battery_ev</t>
+  </si>
+  <si>
+    <t>15_02_02_06_04_compressed_natual_gas</t>
+  </si>
+  <si>
+    <t>15_02_02_06_05_plugin_hybrid_ev_gasoline</t>
+  </si>
+  <si>
+    <t>15_02_02_06_06_plugin_hybrid_ev_diesel</t>
+  </si>
+  <si>
+    <t>15_02_02_06_07_liquified_petroleum_gas</t>
+  </si>
+  <si>
+    <t>15_02_02_06_08_fuel_cell_ev</t>
+  </si>
+  <si>
+    <t>['Macro','Emissions', 'Generation capacity', 'FED by fuel', 'FED by sector', 'Industry', 'Transport', 'Buildings', 'Agriculture', 'Non-energy', 'Electricity', 'Oil use by sector', 'Electricity generation', 'Fuel consumption power sector', 'Refining', 'Hydrogen', 'Production', 'Supply', 'Coal', 'TPES Coal by type', 'Crude &amp; NGL', 'Renewable fuels', 'Transport stocks']</t>
   </si>
 </sst>
 </file>
@@ -5290,7 +5347,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5675,10 +5732,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>555</v>
+      </c>
+      <c r="B15" t="s">
         <v>556</v>
-      </c>
-      <c r="B15" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5907,10 +5964,10 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B44" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -6368,8 +6425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD61665-6B06-460E-828D-1570B45BB2AE}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6422,7 +6479,7 @@
         <v>478</v>
       </c>
       <c r="B6" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11874,10 +11931,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+      <selection activeCell="C111" sqref="C111:C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14298,10 +14355,10 @@
         <v>85</v>
       </c>
       <c r="D96" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>487</v>
       </c>
@@ -14309,13 +14366,13 @@
         <v>488</v>
       </c>
       <c r="C97" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D97" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>487</v>
       </c>
@@ -14329,7 +14386,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>487</v>
       </c>
@@ -14340,10 +14397,10 @@
         <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>487</v>
       </c>
@@ -14351,13 +14408,13 @@
         <v>488</v>
       </c>
       <c r="C100" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D100" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>487</v>
       </c>
@@ -14365,13 +14422,13 @@
         <v>488</v>
       </c>
       <c r="C101" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D101" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>487</v>
       </c>
@@ -14382,10 +14439,10 @@
         <v>89</v>
       </c>
       <c r="D102" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>487</v>
       </c>
@@ -14396,7 +14453,1229 @@
         <v>89</v>
       </c>
       <c r="D103" t="s">
-        <v>554</v>
+        <v>553</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>487</v>
+      </c>
+      <c r="B104" t="s">
+        <v>489</v>
+      </c>
+      <c r="C104" t="s">
+        <v>558</v>
+      </c>
+      <c r="D104" t="s">
+        <v>158</v>
+      </c>
+      <c r="E104" t="s">
+        <v>196</v>
+      </c>
+      <c r="F104" t="s">
+        <v>199</v>
+      </c>
+      <c r="G104" t="s">
+        <v>326</v>
+      </c>
+      <c r="H104" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>487</v>
+      </c>
+      <c r="B105" t="s">
+        <v>489</v>
+      </c>
+      <c r="C105" t="s">
+        <v>558</v>
+      </c>
+      <c r="D105" t="s">
+        <v>158</v>
+      </c>
+      <c r="E105" t="s">
+        <v>196</v>
+      </c>
+      <c r="F105" t="s">
+        <v>199</v>
+      </c>
+      <c r="G105" t="s">
+        <v>498</v>
+      </c>
+      <c r="H105" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>487</v>
+      </c>
+      <c r="B106" t="s">
+        <v>489</v>
+      </c>
+      <c r="C106" t="s">
+        <v>558</v>
+      </c>
+      <c r="D106" t="s">
+        <v>158</v>
+      </c>
+      <c r="E106" t="s">
+        <v>196</v>
+      </c>
+      <c r="F106" t="s">
+        <v>199</v>
+      </c>
+      <c r="G106" t="s">
+        <v>499</v>
+      </c>
+      <c r="H106" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>487</v>
+      </c>
+      <c r="B107" t="s">
+        <v>489</v>
+      </c>
+      <c r="C107" t="s">
+        <v>558</v>
+      </c>
+      <c r="D107" t="s">
+        <v>158</v>
+      </c>
+      <c r="E107" t="s">
+        <v>196</v>
+      </c>
+      <c r="F107" t="s">
+        <v>199</v>
+      </c>
+      <c r="G107" t="s">
+        <v>500</v>
+      </c>
+      <c r="H107" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>487</v>
+      </c>
+      <c r="B108" t="s">
+        <v>489</v>
+      </c>
+      <c r="C108" t="s">
+        <v>558</v>
+      </c>
+      <c r="D108" t="s">
+        <v>158</v>
+      </c>
+      <c r="E108" t="s">
+        <v>196</v>
+      </c>
+      <c r="F108" t="s">
+        <v>197</v>
+      </c>
+      <c r="G108" t="s">
+        <v>504</v>
+      </c>
+      <c r="H108" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>487</v>
+      </c>
+      <c r="B109" t="s">
+        <v>489</v>
+      </c>
+      <c r="C109" t="s">
+        <v>558</v>
+      </c>
+      <c r="D109" t="s">
+        <v>158</v>
+      </c>
+      <c r="E109" t="s">
+        <v>196</v>
+      </c>
+      <c r="F109" t="s">
+        <v>197</v>
+      </c>
+      <c r="G109" t="s">
+        <v>505</v>
+      </c>
+      <c r="H109" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>487</v>
+      </c>
+      <c r="B110" t="s">
+        <v>489</v>
+      </c>
+      <c r="C110" t="s">
+        <v>558</v>
+      </c>
+      <c r="D110" t="s">
+        <v>158</v>
+      </c>
+      <c r="E110" t="s">
+        <v>196</v>
+      </c>
+      <c r="F110" t="s">
+        <v>197</v>
+      </c>
+      <c r="G110" t="s">
+        <v>506</v>
+      </c>
+      <c r="H110" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>487</v>
+      </c>
+      <c r="B111" t="s">
+        <v>489</v>
+      </c>
+      <c r="C111" t="s">
+        <v>558</v>
+      </c>
+      <c r="D111" t="s">
+        <v>158</v>
+      </c>
+      <c r="E111" t="s">
+        <v>196</v>
+      </c>
+      <c r="F111" t="s">
+        <v>197</v>
+      </c>
+      <c r="G111" t="s">
+        <v>354</v>
+      </c>
+      <c r="H111" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>487</v>
+      </c>
+      <c r="B112" t="s">
+        <v>489</v>
+      </c>
+      <c r="C112" t="s">
+        <v>559</v>
+      </c>
+      <c r="D112" t="s">
+        <v>158</v>
+      </c>
+      <c r="E112" t="s">
+        <v>196</v>
+      </c>
+      <c r="F112" t="s">
+        <v>199</v>
+      </c>
+      <c r="G112" t="s">
+        <v>326</v>
+      </c>
+      <c r="H112" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>487</v>
+      </c>
+      <c r="B113" t="s">
+        <v>489</v>
+      </c>
+      <c r="C113" t="s">
+        <v>559</v>
+      </c>
+      <c r="D113" t="s">
+        <v>158</v>
+      </c>
+      <c r="E113" t="s">
+        <v>196</v>
+      </c>
+      <c r="F113" t="s">
+        <v>199</v>
+      </c>
+      <c r="G113" t="s">
+        <v>326</v>
+      </c>
+      <c r="H113" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>487</v>
+      </c>
+      <c r="B114" t="s">
+        <v>489</v>
+      </c>
+      <c r="C114" t="s">
+        <v>559</v>
+      </c>
+      <c r="D114" t="s">
+        <v>158</v>
+      </c>
+      <c r="E114" t="s">
+        <v>196</v>
+      </c>
+      <c r="F114" t="s">
+        <v>199</v>
+      </c>
+      <c r="G114" t="s">
+        <v>498</v>
+      </c>
+      <c r="H114" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>487</v>
+      </c>
+      <c r="B115" t="s">
+        <v>489</v>
+      </c>
+      <c r="C115" t="s">
+        <v>559</v>
+      </c>
+      <c r="D115" t="s">
+        <v>158</v>
+      </c>
+      <c r="E115" t="s">
+        <v>196</v>
+      </c>
+      <c r="F115" t="s">
+        <v>199</v>
+      </c>
+      <c r="G115" t="s">
+        <v>498</v>
+      </c>
+      <c r="H115" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>487</v>
+      </c>
+      <c r="B116" t="s">
+        <v>489</v>
+      </c>
+      <c r="C116" t="s">
+        <v>559</v>
+      </c>
+      <c r="D116" t="s">
+        <v>158</v>
+      </c>
+      <c r="E116" t="s">
+        <v>196</v>
+      </c>
+      <c r="F116" t="s">
+        <v>199</v>
+      </c>
+      <c r="G116" t="s">
+        <v>499</v>
+      </c>
+      <c r="H116" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>487</v>
+      </c>
+      <c r="B117" t="s">
+        <v>489</v>
+      </c>
+      <c r="C117" t="s">
+        <v>559</v>
+      </c>
+      <c r="D117" t="s">
+        <v>158</v>
+      </c>
+      <c r="E117" t="s">
+        <v>196</v>
+      </c>
+      <c r="F117" t="s">
+        <v>199</v>
+      </c>
+      <c r="G117" t="s">
+        <v>499</v>
+      </c>
+      <c r="H117" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>487</v>
+      </c>
+      <c r="B118" t="s">
+        <v>489</v>
+      </c>
+      <c r="C118" t="s">
+        <v>559</v>
+      </c>
+      <c r="D118" t="s">
+        <v>158</v>
+      </c>
+      <c r="E118" t="s">
+        <v>196</v>
+      </c>
+      <c r="F118" t="s">
+        <v>199</v>
+      </c>
+      <c r="G118" t="s">
+        <v>500</v>
+      </c>
+      <c r="H118" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>487</v>
+      </c>
+      <c r="B119" t="s">
+        <v>489</v>
+      </c>
+      <c r="C119" t="s">
+        <v>559</v>
+      </c>
+      <c r="D119" t="s">
+        <v>158</v>
+      </c>
+      <c r="E119" t="s">
+        <v>196</v>
+      </c>
+      <c r="F119" t="s">
+        <v>199</v>
+      </c>
+      <c r="G119" t="s">
+        <v>500</v>
+      </c>
+      <c r="H119" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>487</v>
+      </c>
+      <c r="B120" t="s">
+        <v>489</v>
+      </c>
+      <c r="C120" t="s">
+        <v>559</v>
+      </c>
+      <c r="D120" t="s">
+        <v>158</v>
+      </c>
+      <c r="E120" t="s">
+        <v>196</v>
+      </c>
+      <c r="F120" t="s">
+        <v>197</v>
+      </c>
+      <c r="G120" t="s">
+        <v>504</v>
+      </c>
+      <c r="H120" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>487</v>
+      </c>
+      <c r="B121" t="s">
+        <v>489</v>
+      </c>
+      <c r="C121" t="s">
+        <v>559</v>
+      </c>
+      <c r="D121" t="s">
+        <v>158</v>
+      </c>
+      <c r="E121" t="s">
+        <v>196</v>
+      </c>
+      <c r="F121" t="s">
+        <v>197</v>
+      </c>
+      <c r="G121" t="s">
+        <v>504</v>
+      </c>
+      <c r="H121" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>487</v>
+      </c>
+      <c r="B122" t="s">
+        <v>489</v>
+      </c>
+      <c r="C122" t="s">
+        <v>559</v>
+      </c>
+      <c r="D122" t="s">
+        <v>158</v>
+      </c>
+      <c r="E122" t="s">
+        <v>196</v>
+      </c>
+      <c r="F122" t="s">
+        <v>197</v>
+      </c>
+      <c r="G122" t="s">
+        <v>505</v>
+      </c>
+      <c r="H122" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>487</v>
+      </c>
+      <c r="B123" t="s">
+        <v>489</v>
+      </c>
+      <c r="C123" t="s">
+        <v>559</v>
+      </c>
+      <c r="D123" t="s">
+        <v>158</v>
+      </c>
+      <c r="E123" t="s">
+        <v>196</v>
+      </c>
+      <c r="F123" t="s">
+        <v>197</v>
+      </c>
+      <c r="G123" t="s">
+        <v>505</v>
+      </c>
+      <c r="H123" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>487</v>
+      </c>
+      <c r="B124" t="s">
+        <v>489</v>
+      </c>
+      <c r="C124" t="s">
+        <v>559</v>
+      </c>
+      <c r="D124" t="s">
+        <v>158</v>
+      </c>
+      <c r="E124" t="s">
+        <v>196</v>
+      </c>
+      <c r="F124" t="s">
+        <v>197</v>
+      </c>
+      <c r="G124" t="s">
+        <v>506</v>
+      </c>
+      <c r="H124" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>487</v>
+      </c>
+      <c r="B125" t="s">
+        <v>489</v>
+      </c>
+      <c r="C125" t="s">
+        <v>559</v>
+      </c>
+      <c r="D125" t="s">
+        <v>158</v>
+      </c>
+      <c r="E125" t="s">
+        <v>196</v>
+      </c>
+      <c r="F125" t="s">
+        <v>197</v>
+      </c>
+      <c r="G125" t="s">
+        <v>506</v>
+      </c>
+      <c r="H125" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>487</v>
+      </c>
+      <c r="B126" t="s">
+        <v>489</v>
+      </c>
+      <c r="C126" t="s">
+        <v>559</v>
+      </c>
+      <c r="D126" t="s">
+        <v>158</v>
+      </c>
+      <c r="E126" t="s">
+        <v>196</v>
+      </c>
+      <c r="F126" t="s">
+        <v>197</v>
+      </c>
+      <c r="G126" t="s">
+        <v>354</v>
+      </c>
+      <c r="H126" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>487</v>
+      </c>
+      <c r="B127" t="s">
+        <v>489</v>
+      </c>
+      <c r="C127" t="s">
+        <v>559</v>
+      </c>
+      <c r="D127" t="s">
+        <v>158</v>
+      </c>
+      <c r="E127" t="s">
+        <v>196</v>
+      </c>
+      <c r="F127" t="s">
+        <v>197</v>
+      </c>
+      <c r="G127" t="s">
+        <v>354</v>
+      </c>
+      <c r="H127" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>487</v>
+      </c>
+      <c r="B128" t="s">
+        <v>489</v>
+      </c>
+      <c r="C128" t="s">
+        <v>560</v>
+      </c>
+      <c r="D128" t="s">
+        <v>158</v>
+      </c>
+      <c r="E128" t="s">
+        <v>196</v>
+      </c>
+      <c r="F128" t="s">
+        <v>199</v>
+      </c>
+      <c r="G128" t="s">
+        <v>326</v>
+      </c>
+      <c r="H128" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>487</v>
+      </c>
+      <c r="B129" t="s">
+        <v>489</v>
+      </c>
+      <c r="C129" t="s">
+        <v>560</v>
+      </c>
+      <c r="D129" t="s">
+        <v>158</v>
+      </c>
+      <c r="E129" t="s">
+        <v>196</v>
+      </c>
+      <c r="F129" t="s">
+        <v>199</v>
+      </c>
+      <c r="G129" t="s">
+        <v>498</v>
+      </c>
+      <c r="H129" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>487</v>
+      </c>
+      <c r="B130" t="s">
+        <v>489</v>
+      </c>
+      <c r="C130" t="s">
+        <v>560</v>
+      </c>
+      <c r="D130" t="s">
+        <v>158</v>
+      </c>
+      <c r="E130" t="s">
+        <v>196</v>
+      </c>
+      <c r="F130" t="s">
+        <v>199</v>
+      </c>
+      <c r="G130" t="s">
+        <v>499</v>
+      </c>
+      <c r="H130" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>487</v>
+      </c>
+      <c r="B131" t="s">
+        <v>489</v>
+      </c>
+      <c r="C131" t="s">
+        <v>560</v>
+      </c>
+      <c r="D131" t="s">
+        <v>158</v>
+      </c>
+      <c r="E131" t="s">
+        <v>196</v>
+      </c>
+      <c r="F131" t="s">
+        <v>199</v>
+      </c>
+      <c r="G131" t="s">
+        <v>500</v>
+      </c>
+      <c r="H131" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>487</v>
+      </c>
+      <c r="B132" t="s">
+        <v>489</v>
+      </c>
+      <c r="C132" t="s">
+        <v>560</v>
+      </c>
+      <c r="D132" t="s">
+        <v>158</v>
+      </c>
+      <c r="E132" t="s">
+        <v>196</v>
+      </c>
+      <c r="F132" t="s">
+        <v>197</v>
+      </c>
+      <c r="G132" t="s">
+        <v>504</v>
+      </c>
+      <c r="H132" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>487</v>
+      </c>
+      <c r="B133" t="s">
+        <v>489</v>
+      </c>
+      <c r="C133" t="s">
+        <v>560</v>
+      </c>
+      <c r="D133" t="s">
+        <v>158</v>
+      </c>
+      <c r="E133" t="s">
+        <v>196</v>
+      </c>
+      <c r="F133" t="s">
+        <v>197</v>
+      </c>
+      <c r="G133" t="s">
+        <v>505</v>
+      </c>
+      <c r="H133" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>487</v>
+      </c>
+      <c r="B134" t="s">
+        <v>489</v>
+      </c>
+      <c r="C134" t="s">
+        <v>560</v>
+      </c>
+      <c r="D134" t="s">
+        <v>158</v>
+      </c>
+      <c r="E134" t="s">
+        <v>196</v>
+      </c>
+      <c r="F134" t="s">
+        <v>197</v>
+      </c>
+      <c r="G134" t="s">
+        <v>506</v>
+      </c>
+      <c r="H134" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>487</v>
+      </c>
+      <c r="B135" t="s">
+        <v>489</v>
+      </c>
+      <c r="C135" t="s">
+        <v>560</v>
+      </c>
+      <c r="D135" t="s">
+        <v>158</v>
+      </c>
+      <c r="E135" t="s">
+        <v>196</v>
+      </c>
+      <c r="F135" t="s">
+        <v>197</v>
+      </c>
+      <c r="G135" t="s">
+        <v>354</v>
+      </c>
+      <c r="H135" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>487</v>
+      </c>
+      <c r="B136" t="s">
+        <v>489</v>
+      </c>
+      <c r="C136" t="s">
+        <v>517</v>
+      </c>
+      <c r="D136" t="s">
+        <v>158</v>
+      </c>
+      <c r="E136" t="s">
+        <v>196</v>
+      </c>
+      <c r="F136" t="s">
+        <v>199</v>
+      </c>
+      <c r="G136" t="s">
+        <v>498</v>
+      </c>
+      <c r="H136" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>487</v>
+      </c>
+      <c r="B137" t="s">
+        <v>489</v>
+      </c>
+      <c r="C137" t="s">
+        <v>517</v>
+      </c>
+      <c r="D137" t="s">
+        <v>158</v>
+      </c>
+      <c r="E137" t="s">
+        <v>196</v>
+      </c>
+      <c r="F137" t="s">
+        <v>199</v>
+      </c>
+      <c r="G137" t="s">
+        <v>499</v>
+      </c>
+      <c r="H137" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>487</v>
+      </c>
+      <c r="B138" t="s">
+        <v>489</v>
+      </c>
+      <c r="C138" t="s">
+        <v>517</v>
+      </c>
+      <c r="D138" t="s">
+        <v>158</v>
+      </c>
+      <c r="E138" t="s">
+        <v>196</v>
+      </c>
+      <c r="F138" t="s">
+        <v>199</v>
+      </c>
+      <c r="G138" t="s">
+        <v>500</v>
+      </c>
+      <c r="H138" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>487</v>
+      </c>
+      <c r="B139" t="s">
+        <v>489</v>
+      </c>
+      <c r="C139" t="s">
+        <v>517</v>
+      </c>
+      <c r="D139" t="s">
+        <v>158</v>
+      </c>
+      <c r="E139" t="s">
+        <v>196</v>
+      </c>
+      <c r="F139" t="s">
+        <v>197</v>
+      </c>
+      <c r="G139" t="s">
+        <v>504</v>
+      </c>
+      <c r="H139" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>487</v>
+      </c>
+      <c r="B140" t="s">
+        <v>489</v>
+      </c>
+      <c r="C140" t="s">
+        <v>517</v>
+      </c>
+      <c r="D140" t="s">
+        <v>158</v>
+      </c>
+      <c r="E140" t="s">
+        <v>196</v>
+      </c>
+      <c r="F140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G140" t="s">
+        <v>505</v>
+      </c>
+      <c r="H140" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>487</v>
+      </c>
+      <c r="B141" t="s">
+        <v>489</v>
+      </c>
+      <c r="C141" t="s">
+        <v>517</v>
+      </c>
+      <c r="D141" t="s">
+        <v>158</v>
+      </c>
+      <c r="E141" t="s">
+        <v>196</v>
+      </c>
+      <c r="F141" t="s">
+        <v>197</v>
+      </c>
+      <c r="G141" t="s">
+        <v>506</v>
+      </c>
+      <c r="H141" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>487</v>
+      </c>
+      <c r="B142" t="s">
+        <v>489</v>
+      </c>
+      <c r="C142" t="s">
+        <v>517</v>
+      </c>
+      <c r="D142" t="s">
+        <v>158</v>
+      </c>
+      <c r="E142" t="s">
+        <v>196</v>
+      </c>
+      <c r="F142" t="s">
+        <v>197</v>
+      </c>
+      <c r="G142" t="s">
+        <v>354</v>
+      </c>
+      <c r="H142" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>487</v>
+      </c>
+      <c r="B143" t="s">
+        <v>489</v>
+      </c>
+      <c r="C143" t="s">
+        <v>497</v>
+      </c>
+      <c r="D143" t="s">
+        <v>158</v>
+      </c>
+      <c r="E143" t="s">
+        <v>196</v>
+      </c>
+      <c r="F143" t="s">
+        <v>197</v>
+      </c>
+      <c r="G143" t="s">
+        <v>354</v>
+      </c>
+      <c r="H143" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>487</v>
+      </c>
+      <c r="B144" t="s">
+        <v>489</v>
+      </c>
+      <c r="C144" t="s">
+        <v>497</v>
+      </c>
+      <c r="D144" t="s">
+        <v>158</v>
+      </c>
+      <c r="E144" t="s">
+        <v>196</v>
+      </c>
+      <c r="F144" t="s">
+        <v>197</v>
+      </c>
+      <c r="G144" t="s">
+        <v>354</v>
+      </c>
+      <c r="H144" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>487</v>
+      </c>
+      <c r="B145" t="s">
+        <v>489</v>
+      </c>
+      <c r="C145" t="s">
+        <v>518</v>
+      </c>
+      <c r="D145" t="s">
+        <v>158</v>
+      </c>
+      <c r="E145" t="s">
+        <v>196</v>
+      </c>
+      <c r="F145" t="s">
+        <v>197</v>
+      </c>
+      <c r="G145" t="s">
+        <v>354</v>
+      </c>
+      <c r="H145" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>487</v>
+      </c>
+      <c r="B146" t="s">
+        <v>489</v>
+      </c>
+      <c r="C146" t="s">
+        <v>558</v>
+      </c>
+      <c r="D146" t="s">
+        <v>158</v>
+      </c>
+      <c r="E146" t="s">
+        <v>196</v>
+      </c>
+      <c r="F146" t="s">
+        <v>197</v>
+      </c>
+      <c r="G146" t="s">
+        <v>354</v>
+      </c>
+      <c r="H146" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>487</v>
+      </c>
+      <c r="B147" t="s">
+        <v>489</v>
+      </c>
+      <c r="C147" t="s">
+        <v>559</v>
+      </c>
+      <c r="D147" t="s">
+        <v>158</v>
+      </c>
+      <c r="E147" t="s">
+        <v>196</v>
+      </c>
+      <c r="F147" t="s">
+        <v>197</v>
+      </c>
+      <c r="G147" t="s">
+        <v>354</v>
+      </c>
+      <c r="H147" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>487</v>
+      </c>
+      <c r="B148" t="s">
+        <v>489</v>
+      </c>
+      <c r="C148" t="s">
+        <v>559</v>
+      </c>
+      <c r="D148" t="s">
+        <v>158</v>
+      </c>
+      <c r="E148" t="s">
+        <v>196</v>
+      </c>
+      <c r="F148" t="s">
+        <v>197</v>
+      </c>
+      <c r="G148" t="s">
+        <v>354</v>
+      </c>
+      <c r="H148" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>487</v>
+      </c>
+      <c r="B149" t="s">
+        <v>489</v>
+      </c>
+      <c r="C149" t="s">
+        <v>560</v>
+      </c>
+      <c r="D149" t="s">
+        <v>158</v>
+      </c>
+      <c r="E149" t="s">
+        <v>196</v>
+      </c>
+      <c r="F149" t="s">
+        <v>197</v>
+      </c>
+      <c r="G149" t="s">
+        <v>354</v>
+      </c>
+      <c r="H149" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>487</v>
+      </c>
+      <c r="B150" t="s">
+        <v>489</v>
+      </c>
+      <c r="C150" t="s">
+        <v>517</v>
+      </c>
+      <c r="D150" t="s">
+        <v>158</v>
+      </c>
+      <c r="E150" t="s">
+        <v>196</v>
+      </c>
+      <c r="F150" t="s">
+        <v>197</v>
+      </c>
+      <c r="G150" t="s">
+        <v>354</v>
+      </c>
+      <c r="H150" t="s">
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -17775,10 +19054,10 @@
   </sheetPr>
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="E2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="P50" sqref="P50"/>
+      <selection pane="bottomLeft" activeCell="G46" sqref="G46:N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19908,10 +21187,10 @@
         <v>10</v>
       </c>
       <c r="P50" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="Q50" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -19967,6 +21246,15 @@
       </c>
       <c r="J52" t="s">
         <v>517</v>
+      </c>
+      <c r="K52" t="s">
+        <v>559</v>
+      </c>
+      <c r="L52" t="s">
+        <v>560</v>
+      </c>
+      <c r="M52" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\9th_edition_visualisation\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C1B057-EC74-460F-8E67-615DC7CC3C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD3A407-ED00-4112-AE97-445F96A7663D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="812" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -2123,7 +2123,7 @@
     <t>15_02_02_06_08_fuel_cell_ev</t>
   </si>
   <si>
-    <t>['Macro','Emissions', 'Generation capacity', 'FED by fuel', 'FED by sector', 'Industry', 'Transport', 'Buildings', 'Agriculture', 'Non-energy', 'Electricity', 'Oil use by sector', 'Electricity generation', 'Fuel consumption power sector', 'Refining', 'Hydrogen', 'Production', 'Supply', 'Coal', 'TPES Coal by type', 'Crude &amp; NGL', 'Renewable fuels', 'Transport stocks']</t>
+    <t>['Macro', 'FED by fuel', 'FED by sector', 'Industry', 'Transport', 'Buildings', 'Agriculture', 'Non-energy', 'Electricity', 'Oil use by sector', 'Electricity generation',  'Generation capacity', 'Fuel consumption power sector', 'Refining', 'Hydrogen', 'Production', 'Supply', 'Coal', 'TPES Coal by type', 'Crude &amp; NGL', 'Renewable fuels', 'Emissions', 'Transport stocks']</t>
   </si>
 </sst>
 </file>
@@ -6426,7 +6426,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19055,7 +19055,7 @@
   <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView topLeftCell="E2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
       <selection pane="bottomLeft" activeCell="G46" sqref="G46:N46"/>
     </sheetView>

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C1B057-EC74-460F-8E67-615DC7CC3C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46287DCC-9837-4299-954D-EDF4296CB0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="812" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="812" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -84,7 +84,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Finbar Barton MAUNSELL:</t>
         </r>
@@ -93,7 +93,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 use capital to differentiate it. We need this because we need to select all 16_others and call them other renewables for power input.. At least as of octover 27</t>
@@ -142,7 +142,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Finbar Maunsell:</t>
         </r>
@@ -151,7 +151,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 If input_fuel is TRUE, the vlaues will be negative, positive if output (FALSE).</t>
@@ -177,7 +177,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Finbar Barton MAUNSELL:</t>
         </r>
@@ -186,7 +186,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 use capital to differentiate it. We need this because we need to select all 16_others and call them other renewables for power input.. At least as of octover 27</t>
@@ -253,7 +253,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Finbar Maunsell:</t>
         </r>
@@ -262,7 +262,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 table should be used if you need/want a sepaarate table for this data. This will be needed if the data wouldn’t be available otherwise, OR if the chart is a bar chart in which case we will show it in 10 year splits, so a new table will be needed for that</t>
@@ -277,7 +277,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Finbar Maunsell:</t>
         </r>
@@ -286,7 +286,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These numbers are just placeholders, if you need more plotting names just extend the numbers to X+wahtever</t>
@@ -311,7 +311,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Finbar Maunsell:</t>
         </r>
@@ -320,7 +320,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 table should be used if you need/want a sepaarate table for this data. This will be needed if the data wouldn’t be available otherwise, OR if the chart is a bar chart in which case we will show it in 10 year splits, so a new table will be needed for that</t>
@@ -345,7 +345,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Finbar Maunsell:</t>
         </r>
@@ -354,7 +354,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 table should be used if you need/want a sepaarate table for this data. This will be needed if the data wouldn’t be available otherwise, OR if the chart is a bar chart in which case we will show it in 10 year splits, so a new table will be needed for that</t>
@@ -369,7 +369,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Finbar Maunsell:</t>
         </r>
@@ -378,7 +378,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These numbers are just placeholders, if you need more plotting names just extend the numbers to X+wahtever</t>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4805" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4829" uniqueCount="580">
   <si>
     <t>chart_type</t>
   </si>
@@ -2124,13 +2124,19 @@
   </si>
   <si>
     <t>['Macro','Emissions', 'Generation capacity', 'FED by fuel', 'FED by sector', 'Industry', 'Transport', 'Buildings', 'Agriculture', 'Non-energy', 'Electricity', 'Oil use by sector', 'Electricity generation', 'Fuel consumption power sector', 'Refining', 'Hydrogen', 'Production', 'Supply', 'Coal', 'TPES Coal by type', 'Crude &amp; NGL', 'Renewable fuels', 'Transport stocks']</t>
+  </si>
+  <si>
+    <t>Emissions by sector</t>
+  </si>
+  <si>
+    <t>Emissions by fuel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2153,19 +2159,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2329,7 +2322,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2350,15 +2343,15 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3459,8 +3452,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6692900" y="2266950"/>
-          <a:ext cx="7267575" cy="2771775"/>
+          <a:off x="5267325" y="2343150"/>
+          <a:ext cx="7267575" cy="2867025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6425,8 +6418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD61665-6B06-460E-828D-1570B45BB2AE}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8121,8 +8114,8 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8882,8 +8875,8 @@
   </sheetPr>
   <dimension ref="A1:D232"/>
   <sheetViews>
-    <sheetView topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11530,7 +11523,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15690,8 +15683,8 @@
   </sheetPr>
   <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18322,8 +18315,8 @@
   </sheetPr>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19052,16 +19045,17 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:W54"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46:N46"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
     <col min="4" max="7" width="25" customWidth="1"/>
@@ -21215,6 +21209,36 @@
       <c r="G51" t="s">
         <v>488</v>
       </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K51" t="s">
+        <v>79</v>
+      </c>
+      <c r="L51" t="s">
+        <v>81</v>
+      </c>
+      <c r="M51" t="s">
+        <v>89</v>
+      </c>
+      <c r="N51" t="s">
+        <v>85</v>
+      </c>
+      <c r="O51" t="s">
+        <v>10</v>
+      </c>
+      <c r="P51" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -21262,7 +21286,7 @@
         <v>492</v>
       </c>
       <c r="B53" t="s">
-        <v>491</v>
+        <v>579</v>
       </c>
       <c r="C53" t="s">
         <v>491</v>
@@ -21280,25 +21304,25 @@
         <v>27</v>
       </c>
       <c r="H53" t="s">
+        <v>121</v>
+      </c>
+      <c r="I53" t="s">
+        <v>119</v>
+      </c>
+      <c r="J53" t="s">
+        <v>483</v>
+      </c>
+      <c r="K53" t="s">
+        <v>4</v>
+      </c>
+      <c r="L53" t="s">
+        <v>104</v>
+      </c>
+      <c r="M53" t="s">
+        <v>28</v>
+      </c>
+      <c r="N53" t="s">
         <v>3</v>
-      </c>
-      <c r="I53" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" t="s">
-        <v>104</v>
-      </c>
-      <c r="K53" t="s">
-        <v>483</v>
-      </c>
-      <c r="L53" t="s">
-        <v>119</v>
-      </c>
-      <c r="M53" t="s">
-        <v>121</v>
-      </c>
-      <c r="N53" t="s">
-        <v>4</v>
       </c>
       <c r="O53" t="s">
         <v>155</v>
@@ -21306,54 +21330,101 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B54" t="s">
-        <v>546</v>
+        <v>578</v>
       </c>
       <c r="C54" t="s">
-        <v>546</v>
+        <v>491</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" t="s">
         <v>2</v>
       </c>
       <c r="F54" t="s">
+        <v>495</v>
+      </c>
+      <c r="G54" t="s">
+        <v>153</v>
+      </c>
+      <c r="H54" t="s">
+        <v>459</v>
+      </c>
+      <c r="I54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" t="s">
+        <v>31</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>9</v>
+      </c>
+      <c r="M54" t="s">
+        <v>27</v>
+      </c>
+      <c r="N54" t="s">
+        <v>24</v>
+      </c>
+      <c r="O54" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>486</v>
+      </c>
+      <c r="B55" t="s">
+        <v>546</v>
+      </c>
+      <c r="C55" t="s">
+        <v>546</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
         <v>49</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G55" t="s">
         <v>546</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H55" t="s">
         <v>11</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I55" t="s">
         <v>5</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J55" t="s">
         <v>4</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K55" t="s">
         <v>81</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L55" t="s">
         <v>83</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M55" t="s">
         <v>85</v>
       </c>
-      <c r="N54" t="s">
+      <c r="N55" t="s">
         <v>89</v>
       </c>
-      <c r="O54" t="s">
+      <c r="O55" t="s">
         <v>10</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P55" t="s">
         <v>547</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="Q55" t="s">
         <v>3</v>
       </c>
     </row>

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD3A407-ED00-4112-AE97-445F96A7663D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC790DB5-F0F7-4CF7-85A5-D60B1393C3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4805" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4815" uniqueCount="578">
   <si>
     <t>chart_type</t>
   </si>
@@ -6425,7 +6425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD61665-6B06-460E-828D-1570B45BB2AE}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -19054,10 +19054,10 @@
   </sheetPr>
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46:N46"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21214,6 +21214,36 @@
       </c>
       <c r="G51" t="s">
         <v>488</v>
+      </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K51" t="s">
+        <v>79</v>
+      </c>
+      <c r="L51" t="s">
+        <v>81</v>
+      </c>
+      <c r="M51" t="s">
+        <v>89</v>
+      </c>
+      <c r="N51" t="s">
+        <v>85</v>
+      </c>
+      <c r="O51" t="s">
+        <v>10</v>
+      </c>
+      <c r="P51" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B364CFC2-9EDE-4416-A7BF-96625085DEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2778BA-4A31-4E3B-9AA8-5BA563D849B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -2337,7 +2337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2376,7 +2376,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -5616,8 +5615,8 @@
   </sheetPr>
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5950,7 +5949,7 @@
         <v>547</v>
       </c>
       <c r="B41" t="s">
-        <v>437</v>
+        <v>557</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -19061,7 +19060,7 @@
   </sheetPr>
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
       <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
@@ -21342,53 +21341,51 @@
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
-        <v>492</v>
-      </c>
-      <c r="B54" s="20" t="s">
+      <c r="A54" t="s">
+        <v>492</v>
+      </c>
+      <c r="B54" t="s">
         <v>578</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" t="s">
         <v>491</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54">
         <v>2</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="E54" t="s">
         <v>2</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="F54" t="s">
         <v>495</v>
       </c>
-      <c r="G54" s="20" t="s">
+      <c r="G54" t="s">
         <v>153</v>
       </c>
-      <c r="H54" s="20" t="s">
+      <c r="H54" t="s">
         <v>459</v>
       </c>
-      <c r="I54" s="20" t="s">
+      <c r="I54" t="s">
         <v>25</v>
       </c>
-      <c r="J54" s="20" t="s">
+      <c r="J54" t="s">
         <v>31</v>
       </c>
-      <c r="K54" s="20" t="s">
+      <c r="K54" t="s">
         <v>1</v>
       </c>
-      <c r="L54" s="20" t="s">
+      <c r="L54" t="s">
         <v>9</v>
       </c>
-      <c r="M54" s="20" t="s">
+      <c r="M54" t="s">
         <v>27</v>
       </c>
-      <c r="N54" s="20" t="s">
+      <c r="N54" t="s">
         <v>24</v>
       </c>
-      <c r="O54" s="20" t="s">
+      <c r="O54" t="s">
         <v>153</v>
       </c>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2778BA-4A31-4E3B-9AA8-5BA563D849B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D49311-C849-4ADB-8F2A-69D8A06F6DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="table_id_to_chart_old" sheetId="2" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">colors!$A$1:$B$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">colors!$A$1:$B$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4829" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4839" uniqueCount="584">
   <si>
     <t>chart_type</t>
   </si>
@@ -1955,9 +1955,6 @@
     <t>Stocks (millions)</t>
   </si>
   <si>
-    <t>Gw</t>
-  </si>
-  <si>
     <t>macro</t>
   </si>
   <si>
@@ -2130,6 +2127,21 @@
   </si>
   <si>
     <t>Emissions by fuel</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>19_imports</t>
+  </si>
+  <si>
+    <t>Electricity imports</t>
+  </si>
+  <si>
+    <t>#7C7C7C</t>
   </si>
 </sst>
 </file>
@@ -4574,7 +4586,7 @@
         <v>166</v>
       </c>
       <c r="F21" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G21" t="s">
         <v>291</v>
@@ -4959,7 +4971,7 @@
         <v>376</v>
       </c>
       <c r="G41" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H41" t="s">
         <v>377</v>
@@ -4976,7 +4988,7 @@
         <v>379</v>
       </c>
       <c r="G42" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H42" t="s">
         <v>380</v>
@@ -4987,7 +4999,7 @@
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H43" t="s">
         <v>382</v>
@@ -4998,7 +5010,7 @@
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H44" t="s">
         <v>384</v>
@@ -5009,7 +5021,7 @@
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H45" t="s">
         <v>386</v>
@@ -5020,7 +5032,7 @@
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H46" t="s">
         <v>388</v>
@@ -5031,7 +5043,7 @@
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H47" t="s">
         <v>390</v>
@@ -5042,7 +5054,7 @@
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H48" t="s">
         <v>392</v>
@@ -5053,7 +5065,7 @@
     </row>
     <row r="49" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H49" t="s">
         <v>394</v>
@@ -5064,7 +5076,7 @@
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H50" t="s">
         <v>396</v>
@@ -5075,7 +5087,7 @@
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H51" t="s">
         <v>379</v>
@@ -5086,7 +5098,7 @@
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I52" t="s">
         <v>379</v>
@@ -5099,7 +5111,7 @@
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.25">
@@ -5350,10 +5362,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B968B52A-197D-4486-BE9F-20DC33AA9971}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5595,10 +5607,18 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>582</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -5613,10 +5633,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5674,7 +5694,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B7" t="s">
         <v>432</v>
@@ -5738,10 +5758,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>554</v>
+      </c>
+      <c r="B15" t="s">
         <v>555</v>
-      </c>
-      <c r="B15" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5946,10 +5966,10 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B41" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -5970,10 +5990,10 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B44" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -6274,15 +6294,15 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>546</v>
+        <v>582</v>
       </c>
       <c r="B82" t="s">
-        <v>438</v>
+        <v>583</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>103</v>
+        <v>545</v>
       </c>
       <c r="B83" t="s">
         <v>438</v>
@@ -6290,7 +6310,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B84" t="s">
         <v>438</v>
@@ -6298,23 +6318,23 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="B87" t="s">
         <v>446</v>
@@ -6322,7 +6342,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>471</v>
+        <v>36</v>
       </c>
       <c r="B88" t="s">
         <v>446</v>
@@ -6330,7 +6350,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>189</v>
+        <v>471</v>
       </c>
       <c r="B89" t="s">
         <v>446</v>
@@ -6338,88 +6358,96 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="B90" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="B92" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B93" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B96" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="B98" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>168</v>
+      </c>
+      <c r="B99" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>1</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>434</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B99" xr:uid="{344218C0-5C74-48AB-A8DF-7C6AE2CA916D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B99">
-      <sortCondition descending="1" ref="A1:A99"/>
+  <autoFilter ref="A1:B100" xr:uid="{344218C0-5C74-48AB-A8DF-7C6AE2CA916D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B100">
+      <sortCondition descending="1" ref="A1:A100"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6485,7 +6513,7 @@
         <v>478</v>
       </c>
       <c r="B6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6505,10 +6533,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A332D9E-E0E7-4510-94A6-3E3F9643D47A}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6534,7 +6562,15 @@
         <v>488</v>
       </c>
       <c r="B3" t="s">
-        <v>521</v>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B4" t="s">
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -8128,7 +8164,7 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8773,7 +8809,7 @@
         <v>486</v>
       </c>
       <c r="B46" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C46" t="s">
         <v>158</v>
@@ -8864,7 +8900,7 @@
         <v>486</v>
       </c>
       <c r="B54" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C54" t="s">
         <v>166</v>
@@ -8888,8 +8924,8 @@
   </sheetPr>
   <dimension ref="A1:D232"/>
   <sheetViews>
-    <sheetView topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11511,10 +11547,21 @@
         <v>486</v>
       </c>
       <c r="B220" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C220" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>486</v>
+      </c>
+      <c r="B221" t="s">
+        <v>582</v>
+      </c>
+      <c r="C221" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.25">
@@ -11536,7 +11583,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14361,7 +14408,7 @@
         <v>85</v>
       </c>
       <c r="D96" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -14372,10 +14419,10 @@
         <v>488</v>
       </c>
       <c r="C97" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D97" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -14403,7 +14450,7 @@
         <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -14414,10 +14461,10 @@
         <v>488</v>
       </c>
       <c r="C100" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D100" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -14428,10 +14475,10 @@
         <v>488</v>
       </c>
       <c r="C101" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D101" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -14445,7 +14492,7 @@
         <v>89</v>
       </c>
       <c r="D102" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -14459,7 +14506,7 @@
         <v>89</v>
       </c>
       <c r="D103" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -14470,7 +14517,7 @@
         <v>489</v>
       </c>
       <c r="C104" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D104" t="s">
         <v>158</v>
@@ -14496,7 +14543,7 @@
         <v>489</v>
       </c>
       <c r="C105" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D105" t="s">
         <v>158</v>
@@ -14522,7 +14569,7 @@
         <v>489</v>
       </c>
       <c r="C106" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D106" t="s">
         <v>158</v>
@@ -14548,7 +14595,7 @@
         <v>489</v>
       </c>
       <c r="C107" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D107" t="s">
         <v>158</v>
@@ -14574,7 +14621,7 @@
         <v>489</v>
       </c>
       <c r="C108" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D108" t="s">
         <v>158</v>
@@ -14600,7 +14647,7 @@
         <v>489</v>
       </c>
       <c r="C109" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D109" t="s">
         <v>158</v>
@@ -14626,7 +14673,7 @@
         <v>489</v>
       </c>
       <c r="C110" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D110" t="s">
         <v>158</v>
@@ -14652,7 +14699,7 @@
         <v>489</v>
       </c>
       <c r="C111" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D111" t="s">
         <v>158</v>
@@ -14678,7 +14725,7 @@
         <v>489</v>
       </c>
       <c r="C112" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D112" t="s">
         <v>158</v>
@@ -14704,7 +14751,7 @@
         <v>489</v>
       </c>
       <c r="C113" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D113" t="s">
         <v>158</v>
@@ -14730,7 +14777,7 @@
         <v>489</v>
       </c>
       <c r="C114" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D114" t="s">
         <v>158</v>
@@ -14756,7 +14803,7 @@
         <v>489</v>
       </c>
       <c r="C115" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D115" t="s">
         <v>158</v>
@@ -14782,7 +14829,7 @@
         <v>489</v>
       </c>
       <c r="C116" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D116" t="s">
         <v>158</v>
@@ -14808,7 +14855,7 @@
         <v>489</v>
       </c>
       <c r="C117" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D117" t="s">
         <v>158</v>
@@ -14834,7 +14881,7 @@
         <v>489</v>
       </c>
       <c r="C118" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D118" t="s">
         <v>158</v>
@@ -14860,7 +14907,7 @@
         <v>489</v>
       </c>
       <c r="C119" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D119" t="s">
         <v>158</v>
@@ -14886,7 +14933,7 @@
         <v>489</v>
       </c>
       <c r="C120" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D120" t="s">
         <v>158</v>
@@ -14912,7 +14959,7 @@
         <v>489</v>
       </c>
       <c r="C121" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D121" t="s">
         <v>158</v>
@@ -14938,7 +14985,7 @@
         <v>489</v>
       </c>
       <c r="C122" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D122" t="s">
         <v>158</v>
@@ -14964,7 +15011,7 @@
         <v>489</v>
       </c>
       <c r="C123" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D123" t="s">
         <v>158</v>
@@ -14990,7 +15037,7 @@
         <v>489</v>
       </c>
       <c r="C124" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D124" t="s">
         <v>158</v>
@@ -15016,7 +15063,7 @@
         <v>489</v>
       </c>
       <c r="C125" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D125" t="s">
         <v>158</v>
@@ -15042,7 +15089,7 @@
         <v>489</v>
       </c>
       <c r="C126" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D126" t="s">
         <v>158</v>
@@ -15068,7 +15115,7 @@
         <v>489</v>
       </c>
       <c r="C127" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D127" t="s">
         <v>158</v>
@@ -15094,7 +15141,7 @@
         <v>489</v>
       </c>
       <c r="C128" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D128" t="s">
         <v>158</v>
@@ -15109,7 +15156,7 @@
         <v>326</v>
       </c>
       <c r="H128" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -15120,7 +15167,7 @@
         <v>489</v>
       </c>
       <c r="C129" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D129" t="s">
         <v>158</v>
@@ -15135,7 +15182,7 @@
         <v>498</v>
       </c>
       <c r="H129" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -15146,7 +15193,7 @@
         <v>489</v>
       </c>
       <c r="C130" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D130" t="s">
         <v>158</v>
@@ -15161,7 +15208,7 @@
         <v>499</v>
       </c>
       <c r="H130" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -15172,7 +15219,7 @@
         <v>489</v>
       </c>
       <c r="C131" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D131" t="s">
         <v>158</v>
@@ -15187,7 +15234,7 @@
         <v>500</v>
       </c>
       <c r="H131" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -15198,7 +15245,7 @@
         <v>489</v>
       </c>
       <c r="C132" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D132" t="s">
         <v>158</v>
@@ -15213,7 +15260,7 @@
         <v>504</v>
       </c>
       <c r="H132" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -15224,7 +15271,7 @@
         <v>489</v>
       </c>
       <c r="C133" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D133" t="s">
         <v>158</v>
@@ -15239,7 +15286,7 @@
         <v>505</v>
       </c>
       <c r="H133" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -15250,7 +15297,7 @@
         <v>489</v>
       </c>
       <c r="C134" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D134" t="s">
         <v>158</v>
@@ -15265,7 +15312,7 @@
         <v>506</v>
       </c>
       <c r="H134" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -15276,7 +15323,7 @@
         <v>489</v>
       </c>
       <c r="C135" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D135" t="s">
         <v>158</v>
@@ -15291,7 +15338,7 @@
         <v>354</v>
       </c>
       <c r="H135" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -15499,7 +15546,7 @@
         <v>354</v>
       </c>
       <c r="H143" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -15525,7 +15572,7 @@
         <v>354</v>
       </c>
       <c r="H144" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -15551,7 +15598,7 @@
         <v>354</v>
       </c>
       <c r="H145" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -15562,7 +15609,7 @@
         <v>489</v>
       </c>
       <c r="C146" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D146" t="s">
         <v>158</v>
@@ -15577,7 +15624,7 @@
         <v>354</v>
       </c>
       <c r="H146" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -15588,7 +15635,7 @@
         <v>489</v>
       </c>
       <c r="C147" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D147" t="s">
         <v>158</v>
@@ -15603,7 +15650,7 @@
         <v>354</v>
       </c>
       <c r="H147" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -15614,7 +15661,7 @@
         <v>489</v>
       </c>
       <c r="C148" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D148" t="s">
         <v>158</v>
@@ -15629,7 +15676,7 @@
         <v>354</v>
       </c>
       <c r="H148" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -15640,7 +15687,7 @@
         <v>489</v>
       </c>
       <c r="C149" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D149" t="s">
         <v>158</v>
@@ -15655,7 +15702,7 @@
         <v>354</v>
       </c>
       <c r="H149" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -15681,7 +15728,7 @@
         <v>354</v>
       </c>
       <c r="H150" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -19060,10 +19107,10 @@
   </sheetPr>
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomLeft" activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19108,7 +19155,7 @@
         <v>485</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>463</v>
@@ -20970,7 +21017,7 @@
         <v>41</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -21011,7 +21058,7 @@
         <v>41</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -21102,7 +21149,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>486</v>
       </c>
@@ -21146,7 +21193,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>487</v>
       </c>
@@ -21193,13 +21240,13 @@
         <v>10</v>
       </c>
       <c r="P50" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Q50" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>487</v>
       </c>
@@ -21246,13 +21293,13 @@
         <v>10</v>
       </c>
       <c r="P51" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Q51" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>487</v>
       </c>
@@ -21284,21 +21331,21 @@
         <v>517</v>
       </c>
       <c r="K52" t="s">
+        <v>558</v>
+      </c>
+      <c r="L52" t="s">
         <v>559</v>
       </c>
-      <c r="L52" t="s">
-        <v>560</v>
-      </c>
       <c r="M52" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>492</v>
       </c>
       <c r="B53" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C53" t="s">
         <v>491</v>
@@ -21340,12 +21387,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>492</v>
       </c>
       <c r="B54" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C54" t="s">
         <v>491</v>
@@ -21387,15 +21434,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>486</v>
       </c>
       <c r="B55" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C55" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -21407,7 +21454,7 @@
         <v>49</v>
       </c>
       <c r="G55" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H55" t="s">
         <v>11</v>
@@ -21434,10 +21481,13 @@
         <v>10</v>
       </c>
       <c r="P55" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q55" t="s">
         <v>3</v>
+      </c>
+      <c r="R55" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -21487,15 +21537,15 @@
         <v>452</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -21504,18 +21554,18 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -21524,18 +21574,18 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -21544,10 +21594,10 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/config/master_config.xlsx
+++ b/config/master_config.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\9th_Visualization\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D49311-C849-4ADB-8F2A-69D8A06F6DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ADED9A-C90A-4B6F-922F-3022D2F4C077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="812" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="7" r:id="rId1"/>
     <sheet name="sectors_plotting" sheetId="6" r:id="rId2"/>
     <sheet name="fuels_plotting" sheetId="5" r:id="rId3"/>
     <sheet name="transformation_sector_mappings" sheetId="4" r:id="rId4"/>
-    <sheet name="capacity_plotting" sheetId="12" r:id="rId5"/>
+    <sheet name="capacity_plotting" sheetId="17" r:id="rId5"/>
     <sheet name="emissions_fuels_plotting" sheetId="13" r:id="rId6"/>
     <sheet name="emissions_sectors_plotting" sheetId="14" r:id="rId7"/>
     <sheet name="two_dimensional_plots" sheetId="11" r:id="rId8"/>
@@ -29,7 +29,7 @@
     <sheet name="table_id_to_chart_old" sheetId="2" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">colors!$A$1:$B$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">colors!$A$1:$B$104</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +57,7 @@
     <author>tc={63BCA842-2B54-4378-AB97-7B3244101F43}</author>
   </authors>
   <commentList>
-    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{63BCA842-2B54-4378-AB97-7B3244101F43}">
+    <comment ref="B36" authorId="0" shapeId="0" xr:uid="{63BCA842-2B54-4378-AB97-7B3244101F43}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4839" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4430" uniqueCount="596">
   <si>
     <t>chart_type</t>
   </si>
@@ -2142,13 +2142,49 @@
   </si>
   <si>
     <t>#7C7C7C</t>
+  </si>
+  <si>
+    <t>Gas ccs new</t>
+  </si>
+  <si>
+    <t>Gas CCS</t>
+  </si>
+  <si>
+    <t>#E8E8E8</t>
+  </si>
+  <si>
+    <t>15_02_01_05_04_compressed_natual_gas</t>
+  </si>
+  <si>
+    <t>15_02_01_05_05_plugin_hybrid_ev_gasoline</t>
+  </si>
+  <si>
+    <t>15_02_01_05_06_plugin_hybrid_ev_diesel</t>
+  </si>
+  <si>
+    <t>15_02_01_05_07_liquified_petroleum_gas</t>
+  </si>
+  <si>
+    <t>Gas_no_ccs</t>
+  </si>
+  <si>
+    <t>Gas_ccs</t>
+  </si>
+  <si>
+    <t>18_01_02_gas_power_ccs</t>
+  </si>
+  <si>
+    <t>Total_industry</t>
+  </si>
+  <si>
+    <t>#323231</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2216,6 +2252,18 @@
       <color rgb="FF9ECBFF"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2349,7 +2397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2388,6 +2436,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -2578,7 +2627,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4055,7 +4104,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B37" dT="2023-05-18T13:42:38.79" personId="{96FC88B6-068E-4187-B7BF-0009949FD93F}" id="{63BCA842-2B54-4378-AB97-7B3244101F43}">
+  <threadedComment ref="B36" dT="2023-05-18T13:42:38.79" personId="{96FC88B6-068E-4187-B7BF-0009949FD93F}" id="{63BCA842-2B54-4378-AB97-7B3244101F43}">
     <text>This and similar entries (eg. Non-specified_transport, Other_industry) need to be renamed in the code during plotting to Non-specified or Other. They cant be named that now because it will cause double ups</text>
   </threadedComment>
 </ThreadedComments>
@@ -5362,10 +5411,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B968B52A-197D-4486-BE9F-20DC33AA9971}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5619,6 +5668,38 @@
       </c>
       <c r="B31" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>591</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>592</v>
+      </c>
+      <c r="B33" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>594</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -5633,10 +5714,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5705,12 +5786,12 @@
         <v>466</v>
       </c>
       <c r="B8" t="s">
-        <v>432</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>465</v>
+        <v>594</v>
       </c>
       <c r="B9" t="s">
         <v>432</v>
@@ -5718,23 +5799,23 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>465</v>
       </c>
       <c r="B10" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>432</v>
@@ -5742,79 +5823,79 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>554</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s">
-        <v>555</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>554</v>
       </c>
       <c r="B16" t="s">
-        <v>433</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>435</v>
@@ -5822,15 +5903,15 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>457</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B24" t="s">
         <v>446</v>
@@ -5838,7 +5919,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>460</v>
       </c>
       <c r="B25" t="s">
         <v>446</v>
@@ -5846,47 +5927,47 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>456</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B31" t="s">
         <v>440</v>
@@ -5894,7 +5975,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>459</v>
       </c>
       <c r="B32" t="s">
         <v>440</v>
@@ -5902,39 +5983,39 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
         <v>440</v>
@@ -5942,15 +6023,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="B38" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
         <v>435</v>
@@ -5958,31 +6039,31 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B40" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>546</v>
+        <v>476</v>
       </c>
       <c r="B41" t="s">
-        <v>556</v>
+        <v>437</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>473</v>
+        <v>546</v>
       </c>
       <c r="B42" t="s">
-        <v>437</v>
+        <v>556</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B43" t="s">
         <v>437</v>
@@ -5990,47 +6071,47 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>547</v>
+        <v>483</v>
       </c>
       <c r="B44" t="s">
-        <v>556</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>547</v>
       </c>
       <c r="B45" t="s">
-        <v>433</v>
+        <v>556</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B49" t="s">
         <v>438</v>
@@ -6038,39 +6119,39 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="B50" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="B52" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>472</v>
+        <v>102</v>
       </c>
       <c r="B54" t="s">
         <v>434</v>
@@ -6078,7 +6159,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>472</v>
       </c>
       <c r="B55" t="s">
         <v>434</v>
@@ -6086,31 +6167,31 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>474</v>
+        <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>474</v>
       </c>
       <c r="B57" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="B59" t="s">
         <v>435</v>
@@ -6118,7 +6199,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
         <v>435</v>
@@ -6126,63 +6207,63 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="B63" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>475</v>
+        <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>475</v>
       </c>
       <c r="B65" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="B67" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B68" t="s">
         <v>441</v>
@@ -6190,15 +6271,15 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>458</v>
+        <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B70" t="s">
         <v>479</v>
@@ -6206,7 +6287,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>461</v>
       </c>
       <c r="B71" t="s">
         <v>479</v>
@@ -6214,23 +6295,23 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B72" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="B74" t="s">
         <v>439</v>
@@ -6238,87 +6319,87 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B75" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="B77" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>135</v>
+        <v>591</v>
       </c>
       <c r="B78" t="s">
-        <v>443</v>
+        <v>586</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>195</v>
+        <v>592</v>
       </c>
       <c r="B79" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>585</v>
       </c>
       <c r="B80" t="s">
-        <v>443</v>
+        <v>586</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>165</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>582</v>
+        <v>135</v>
       </c>
       <c r="B82" t="s">
-        <v>583</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>545</v>
+        <v>195</v>
       </c>
       <c r="B83" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="B85" t="s">
         <v>438</v>
@@ -6326,130 +6407,163 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>582</v>
       </c>
       <c r="B86" t="s">
-        <v>432</v>
+        <v>583</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>116</v>
+        <v>545</v>
       </c>
       <c r="B87" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="B90" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="B91" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="B92" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>32</v>
+        <v>471</v>
       </c>
       <c r="B93" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>189</v>
       </c>
       <c r="B94" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="B96" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="B97" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>136</v>
+      </c>
+      <c r="B100" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>168</v>
+      </c>
+      <c r="B103" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>1</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B104" t="s">
         <v>434</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B100" xr:uid="{344218C0-5C74-48AB-A8DF-7C6AE2CA916D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B100">
-      <sortCondition descending="1" ref="A1:A100"/>
+  <autoFilter ref="A1:B104" xr:uid="{344218C0-5C74-48AB-A8DF-7C6AE2CA916D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B104">
+      <sortCondition descending="1" ref="A1:A104"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8163,8 +8277,8 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8632,7 +8746,7 @@
         <v>169</v>
       </c>
       <c r="E34" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -8649,7 +8763,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -8666,24 +8780,21 @@
         <v>169</v>
       </c>
       <c r="E36" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>486</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>187</v>
+      <c r="B37" t="s">
+        <v>189</v>
       </c>
       <c r="C37" t="s">
         <v>157</v>
       </c>
       <c r="D37" t="s">
-        <v>169</v>
-      </c>
-      <c r="E37" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -8691,13 +8802,13 @@
         <v>486</v>
       </c>
       <c r="B38" t="s">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -8705,13 +8816,13 @@
         <v>486</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
         <v>158</v>
       </c>
       <c r="D39" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -8719,13 +8830,13 @@
         <v>486</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
         <v>158</v>
       </c>
       <c r="D40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -8733,13 +8844,13 @@
         <v>486</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
         <v>158</v>
       </c>
       <c r="D41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -8747,13 +8858,16 @@
         <v>486</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="C42" t="s">
         <v>158</v>
       </c>
       <c r="D42" t="s">
-        <v>194</v>
+        <v>196</v>
+      </c>
+      <c r="E42" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -8761,7 +8875,7 @@
         <v>486</v>
       </c>
       <c r="B43" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C43" t="s">
         <v>158</v>
@@ -8770,7 +8884,7 @@
         <v>196</v>
       </c>
       <c r="E43" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -8778,16 +8892,13 @@
         <v>486</v>
       </c>
       <c r="B44" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C44" t="s">
         <v>158</v>
       </c>
       <c r="D44" t="s">
-        <v>196</v>
-      </c>
-      <c r="E44" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -8795,24 +8906,21 @@
         <v>486</v>
       </c>
       <c r="B45" t="s">
-        <v>200</v>
+        <v>544</v>
       </c>
       <c r="C45" t="s">
         <v>158</v>
       </c>
-      <c r="D45" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>486</v>
       </c>
       <c r="B46" t="s">
-        <v>544</v>
-      </c>
-      <c r="C46" t="s">
-        <v>158</v>
+        <v>466</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -8820,10 +8928,10 @@
         <v>486</v>
       </c>
       <c r="B47" t="s">
-        <v>466</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>156</v>
+        <v>35</v>
+      </c>
+      <c r="C47" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -8834,7 +8942,7 @@
         <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -8842,10 +8950,13 @@
         <v>486</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>158</v>
+      </c>
+      <c r="D49" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -8853,13 +8964,10 @@
         <v>486</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
-      </c>
-      <c r="D50" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -8867,10 +8975,10 @@
         <v>486</v>
       </c>
       <c r="B51" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -8878,10 +8986,10 @@
         <v>486</v>
       </c>
       <c r="B52" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -8889,10 +8997,13 @@
         <v>486</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>545</v>
       </c>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>166</v>
+      </c>
+      <c r="D53" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -8900,13 +9011,10 @@
         <v>486</v>
       </c>
       <c r="B54" t="s">
-        <v>545</v>
+        <v>594</v>
       </c>
       <c r="C54" t="s">
-        <v>166</v>
-      </c>
-      <c r="D54" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -8925,7 +9033,7 @@
   <dimension ref="A1:D232"/>
   <sheetViews>
     <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11562,6 +11670,28 @@
       </c>
       <c r="C221" t="s">
         <v>581</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>486</v>
+      </c>
+      <c r="B222" t="s">
+        <v>591</v>
+      </c>
+      <c r="C222" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>486</v>
+      </c>
+      <c r="B223" t="s">
+        <v>592</v>
+      </c>
+      <c r="C223" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.25">
@@ -11980,2025 +12110,2028 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA369B5-07EE-4625-90E7-8EEBB3B3D66D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DE5463-B504-41DB-9442-85F0E395C61E}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111:C112"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="20" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="20" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="20" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D10" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E10" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F10" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G10" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H10" s="20" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B11" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C11" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D11" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E11" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F11" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G11" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H11" s="20" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B12" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C12" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D18" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E18" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F18" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G18" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H18" s="20" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B19" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C19" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D19" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E19" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F19" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G19" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H19" s="20" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B20" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C20" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D26" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E26" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F26" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G26" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H26" s="20" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B27" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C27" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D27" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E27" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F27" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G27" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H27" s="20" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B28" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C28" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D34" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E34" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F34" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G34" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H34" s="20" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B35" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C35" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D35" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E35" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F35" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G35" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H35" s="20" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B36" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C36" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D38" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E38" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F38" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G38" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H38" s="20" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B39" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C39" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D39" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E39" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F39" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G39" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H39" s="20" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B40" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C40" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C46" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D46" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E46" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F46" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G46" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H46" s="20" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B47" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C47" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D47" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E47" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F47" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G47" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H47" s="20" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B48" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C48" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C54" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D54" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E54" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F54" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G54" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H54" s="20" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B55" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="C17" t